--- a/trunk/insert (isaac).xlsx
+++ b/trunk/insert (isaac).xlsx
@@ -4,18 +4,23 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15480" tabRatio="500" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15480" tabRatio="941" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Director" sheetId="2" r:id="rId2"/>
-    <sheet name="Coreografo" sheetId="3" r:id="rId3"/>
-    <sheet name="Libreto" sheetId="4" r:id="rId4"/>
-    <sheet name="Autor" sheetId="5" r:id="rId5"/>
-    <sheet name="Parte" sheetId="6" r:id="rId6"/>
-    <sheet name="Personaje" sheetId="7" r:id="rId7"/>
-    <sheet name="Cantante" sheetId="8" r:id="rId8"/>
-    <sheet name="Elenco" sheetId="9" r:id="rId9"/>
+    <sheet name="fecha_presentacion" sheetId="10" r:id="rId2"/>
+    <sheet name="Director" sheetId="2" r:id="rId3"/>
+    <sheet name="Coreografo" sheetId="3" r:id="rId4"/>
+    <sheet name="Libreto" sheetId="4" r:id="rId5"/>
+    <sheet name="Autor" sheetId="5" r:id="rId6"/>
+    <sheet name="Parte" sheetId="6" r:id="rId7"/>
+    <sheet name="Personaje" sheetId="7" r:id="rId8"/>
+    <sheet name="Cantante" sheetId="8" r:id="rId9"/>
+    <sheet name="Elenco" sheetId="9" r:id="rId10"/>
+    <sheet name="Bailarin" sheetId="13" r:id="rId11"/>
+    <sheet name="Directo_escenografia" sheetId="16" r:id="rId12"/>
+    <sheet name="Musico" sheetId="15" r:id="rId13"/>
+    <sheet name="trabajador_cargo" sheetId="11" r:id="rId14"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$B$3:$I$3</definedName>
@@ -30,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="259">
   <si>
     <t>Nombre</t>
   </si>
@@ -627,14 +632,263 @@
     <t>pk_fecha</t>
   </si>
   <si>
-    <t>hacer la relacion de con la tabla y quitar el atributo pk_fecha</t>
+    <t>Fecha_Presentacion</t>
+  </si>
+  <si>
+    <t>fecha</t>
+  </si>
+  <si>
+    <t>fk_obra</t>
+  </si>
+  <si>
+    <t>Trabajador_Cargo</t>
+  </si>
+  <si>
+    <t>fecha_inicio</t>
+  </si>
+  <si>
+    <t>fecha_fin</t>
+  </si>
+  <si>
+    <t>sueldo</t>
+  </si>
+  <si>
+    <t>fk_cargo</t>
+  </si>
+  <si>
+    <t>fk_trabajador</t>
+  </si>
+  <si>
+    <t>fk_Musico</t>
+  </si>
+  <si>
+    <t>fk_invitado</t>
+  </si>
+  <si>
+    <t>fk_Bailarin</t>
+  </si>
+  <si>
+    <t>fk_cantante</t>
+  </si>
+  <si>
+    <t>fk_escenografo</t>
+  </si>
+  <si>
+    <t>fk_autor</t>
+  </si>
+  <si>
+    <t>fk_director_Escenografo</t>
+  </si>
+  <si>
+    <t>fk_coreografo</t>
+  </si>
+  <si>
+    <t>fk_director</t>
+  </si>
+  <si>
+    <t>Bailarin</t>
+  </si>
+  <si>
+    <t>EDITH</t>
+  </si>
+  <si>
+    <t>EDMUNDO</t>
+  </si>
+  <si>
+    <t>EDUARDO</t>
+  </si>
+  <si>
+    <t>ELÍAS</t>
+  </si>
+  <si>
+    <t>ELISA</t>
+  </si>
+  <si>
+    <t>ELISABETH</t>
+  </si>
+  <si>
+    <t>ABEL</t>
+  </si>
+  <si>
+    <t>ABELARDO</t>
+  </si>
+  <si>
+    <t>ABRAHAM</t>
+  </si>
+  <si>
+    <t>ABRIL</t>
+  </si>
+  <si>
+    <t>ADA</t>
+  </si>
+  <si>
+    <t>ADÁN</t>
+  </si>
+  <si>
+    <t>ADELA</t>
+  </si>
+  <si>
+    <t>PALOMA</t>
+  </si>
+  <si>
+    <t>PASCUAL</t>
+  </si>
+  <si>
+    <t>CÁNDIDO</t>
+  </si>
+  <si>
+    <t>Elena</t>
+  </si>
+  <si>
+    <t>RAÚL</t>
+  </si>
+  <si>
+    <t>REBECA</t>
+  </si>
+  <si>
+    <t>REINA</t>
+  </si>
+  <si>
+    <t>claudia</t>
+  </si>
+  <si>
+    <t>DANA</t>
+  </si>
+  <si>
+    <t>DÉBORA</t>
+  </si>
+  <si>
+    <t>ABAD</t>
+  </si>
+  <si>
+    <t>ABADIA</t>
+  </si>
+  <si>
+    <t>BADEBAS</t>
+  </si>
+  <si>
+    <t>HAGUIBEL</t>
+  </si>
+  <si>
+    <t>HALKIU</t>
+  </si>
+  <si>
+    <t>HANERO</t>
+  </si>
+  <si>
+    <t>MACAZAGA</t>
+  </si>
+  <si>
+    <t>MACHAIN</t>
+  </si>
+  <si>
+    <t>MACHARO</t>
+  </si>
+  <si>
+    <t>FABIAN</t>
+  </si>
+  <si>
+    <t>FACES</t>
+  </si>
+  <si>
+    <t>FACUNDO</t>
+  </si>
+  <si>
+    <t>FADRIQUE</t>
+  </si>
+  <si>
+    <t>FALAGAN</t>
+  </si>
+  <si>
+    <t>JANET</t>
+  </si>
+  <si>
+    <t>JANIS</t>
+  </si>
+  <si>
+    <t>JARA</t>
+  </si>
+  <si>
+    <t>JARABO</t>
+  </si>
+  <si>
+    <t>JARAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MANTILLA</t>
+  </si>
+  <si>
+    <t>CABADILLA</t>
+  </si>
+  <si>
+    <t>CABADO</t>
+  </si>
+  <si>
+    <t>ECHAVE</t>
+  </si>
+  <si>
+    <t>ECHEGUREN</t>
+  </si>
+  <si>
+    <t>italia</t>
+  </si>
+  <si>
+    <t>Musico</t>
+  </si>
+  <si>
+    <t>Director_escenografia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calixto </t>
+  </si>
+  <si>
+    <t>Bieito</t>
+  </si>
+  <si>
+    <t>español</t>
+  </si>
+  <si>
+    <t>Lorin</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Maazel</t>
+  </si>
+  <si>
+    <t>http://es.wikipedia.org/wiki/Lorin_Maazel</t>
+  </si>
+  <si>
+    <t>españa, valencia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alan </t>
+  </si>
+  <si>
+    <t>Gilbert</t>
+  </si>
+  <si>
+    <t>new york</t>
+  </si>
+  <si>
+    <t>http://en.wikipedia.org/wiki/Alan_Gilbert</t>
+  </si>
+  <si>
+    <t>http://es.wikipedia.org/wiki/James_Galway</t>
+  </si>
+  <si>
+    <t>http://es.wikipedia.org/wiki/Gerd_Seifert</t>
+  </si>
+  <si>
+    <t>http://es.wikipedia.org/wiki/Orquesta_Filarm%C3%B3nica_de_Berl%C3%ADn</t>
+  </si>
+  <si>
+    <t>http://es.wikipedia.org/wiki/Sabine_Meyer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -712,8 +966,13 @@
       <color rgb="FF333333"/>
       <name val="Lucida Grande"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF555555"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -753,6 +1012,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -810,7 +1075,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="60">
+  <cellStyleXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -871,8 +1136,78 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -924,8 +1259,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="60">
+  <cellStyles count="130">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
@@ -985,6 +1322,76 @@
     <cellStyle name="Hipervínculo visitado" xfId="54" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="56" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="89" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="93" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="95" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="97" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="99" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="101" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="103" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="105" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="107" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="109" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="111" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="113" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="115" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="117" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="119" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="121" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="123" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="125" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="127" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="129" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1317,7 +1724,7 @@
   <dimension ref="B2:N7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1430,9 +1837,11 @@
         <v>41172</v>
       </c>
       <c r="F7" s="4">
+        <f>Director!B6</f>
         <v>1</v>
       </c>
       <c r="I7" s="4">
+        <f>Coreografo!B6</f>
         <v>1</v>
       </c>
       <c r="L7" s="10"/>
@@ -1451,19 +1860,198 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:P6"/>
+  <dimension ref="B2:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="50.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4">
+      <c r="B2" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4">
+        <f>Personaje!B5</f>
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <f>fecha_presentacion!B5</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5">
+        <f>Personaje!B6</f>
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <f>fecha_presentacion!B5</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6">
+        <f>Personaje!B7</f>
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>9</v>
+      </c>
+      <c r="D6">
+        <f>fecha_presentacion!B5</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7">
+        <f>Personaje!B8</f>
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <f>fecha_presentacion!B5</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8">
+        <f>Personaje!B9</f>
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <f>fecha_presentacion!B5</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9">
+        <f>Personaje!B5</f>
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <f>fecha_presentacion!B6</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10">
+        <f>Personaje!B6</f>
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <f>fecha_presentacion!B6</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11">
+        <f>Personaje!B7</f>
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <f>fecha_presentacion!B6</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12">
+        <f>Personaje!B8</f>
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>8</v>
+      </c>
+      <c r="D12">
+        <f>fecha_presentacion!B6</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13">
+        <f>Personaje!B9</f>
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <f>fecha_presentacion!B6</f>
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:P44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="15" max="15" width="15.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="3" spans="2:16" ht="18">
       <c r="B3" s="21" t="s">
-        <v>18</v>
+        <v>193</v>
       </c>
       <c r="C3" s="21"/>
       <c r="D3" s="21"/>
@@ -1498,7 +2086,7 @@
     </row>
     <row r="5" spans="2:16">
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>14</v>
@@ -1547,14 +2135,18 @@
       <c r="B6" s="4">
         <v>1</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
+      <c r="C6" t="s">
+        <v>194</v>
+      </c>
+      <c r="D6" t="s">
+        <v>200</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="F6" t="s">
+        <v>236</v>
+      </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
@@ -1563,20 +2155,791 @@
       <c r="L6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="M6" s="4">
-        <v>1962</v>
+      <c r="M6" s="6">
+        <v>29221</v>
       </c>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
-      <c r="P6" s="4" t="s">
-        <v>34</v>
-      </c>
+      <c r="P6" s="4"/>
+    </row>
+    <row r="7" spans="2:16">
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>204</v>
+      </c>
+      <c r="D7" t="s">
+        <v>207</v>
+      </c>
+      <c r="E7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F7" t="s">
+        <v>225</v>
+      </c>
+      <c r="L7" t="s">
+        <v>146</v>
+      </c>
+      <c r="M7" s="5">
+        <v>33401</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16">
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>208</v>
+      </c>
+      <c r="D8" t="s">
+        <v>195</v>
+      </c>
+      <c r="E8" t="s">
+        <v>223</v>
+      </c>
+      <c r="F8" t="s">
+        <v>232</v>
+      </c>
+      <c r="L8" t="s">
+        <v>33</v>
+      </c>
+      <c r="M8" s="5">
+        <v>32013</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16">
+      <c r="B9" s="4">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>201</v>
+      </c>
+      <c r="D9" t="s">
+        <v>209</v>
+      </c>
+      <c r="E9" t="s">
+        <v>230</v>
+      </c>
+      <c r="F9" t="s">
+        <v>235</v>
+      </c>
+      <c r="L9" t="s">
+        <v>33</v>
+      </c>
+      <c r="M9" s="5">
+        <v>32476</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16">
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>199</v>
+      </c>
+      <c r="D10" t="s">
+        <v>198</v>
+      </c>
+      <c r="E10" t="s">
+        <v>229</v>
+      </c>
+      <c r="F10" t="s">
+        <v>233</v>
+      </c>
+      <c r="L10" t="s">
+        <v>146</v>
+      </c>
+      <c r="M10" s="5">
+        <v>31810</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16">
+      <c r="B11">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>204</v>
+      </c>
+      <c r="D11" t="s">
+        <v>210</v>
+      </c>
+      <c r="E11" t="s">
+        <v>237</v>
+      </c>
+      <c r="F11" t="s">
+        <v>226</v>
+      </c>
+      <c r="L11" t="s">
+        <v>33</v>
+      </c>
+      <c r="M11" s="5">
+        <v>29342</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16">
+      <c r="B12" s="4">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>197</v>
+      </c>
+      <c r="D12" t="s">
+        <v>205</v>
+      </c>
+      <c r="E12" t="s">
+        <v>239</v>
+      </c>
+      <c r="L12" t="s">
+        <v>33</v>
+      </c>
+      <c r="M12" s="5">
+        <v>31219</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16">
+      <c r="B13">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>211</v>
+      </c>
+      <c r="D13" t="s">
+        <v>196</v>
+      </c>
+      <c r="E13" t="s">
+        <v>222</v>
+      </c>
+      <c r="F13" t="s">
+        <v>234</v>
+      </c>
+      <c r="L13" t="s">
+        <v>146</v>
+      </c>
+      <c r="M13" s="5">
+        <v>33220</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16">
+      <c r="B14">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>212</v>
+      </c>
+      <c r="D14" t="s">
+        <v>214</v>
+      </c>
+      <c r="E14" t="s">
+        <v>224</v>
+      </c>
+      <c r="F14" t="s">
+        <v>218</v>
+      </c>
+      <c r="L14" t="s">
+        <v>146</v>
+      </c>
+      <c r="M14" s="5">
+        <v>32612</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16">
+      <c r="B15" s="4">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>213</v>
+      </c>
+      <c r="D15" t="s">
+        <v>203</v>
+      </c>
+      <c r="E15" t="s">
+        <v>228</v>
+      </c>
+      <c r="F15" t="s">
+        <v>221</v>
+      </c>
+      <c r="L15" t="s">
+        <v>146</v>
+      </c>
+      <c r="M15" s="5">
+        <v>33502</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16">
+      <c r="B16">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
+        <v>206</v>
+      </c>
+      <c r="D16" t="s">
+        <v>215</v>
+      </c>
+      <c r="E16" t="s">
+        <v>220</v>
+      </c>
+      <c r="F16" t="s">
+        <v>227</v>
+      </c>
+      <c r="L16" t="s">
+        <v>146</v>
+      </c>
+      <c r="M16" s="5">
+        <v>29285</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13">
+      <c r="B17">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s">
+        <v>216</v>
+      </c>
+      <c r="D17" t="s">
+        <v>212</v>
+      </c>
+      <c r="E17" t="s">
+        <v>238</v>
+      </c>
+      <c r="F17" t="s">
+        <v>240</v>
+      </c>
+      <c r="L17" t="s">
+        <v>33</v>
+      </c>
+      <c r="M17" s="5">
+        <v>32433</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13">
+      <c r="B18" s="4">
+        <v>13</v>
+      </c>
+      <c r="C18" t="s">
+        <v>202</v>
+      </c>
+      <c r="D18" t="s">
+        <v>211</v>
+      </c>
+      <c r="E18" t="s">
+        <v>231</v>
+      </c>
+      <c r="L18" t="s">
+        <v>33</v>
+      </c>
+      <c r="M18" s="5">
+        <v>31513</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" ht="16">
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+    </row>
+    <row r="20" spans="2:13" ht="16">
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+    </row>
+    <row r="21" spans="2:13" ht="16">
+      <c r="D21" s="28"/>
+    </row>
+    <row r="36" spans="3:4" ht="16">
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
+    </row>
+    <row r="37" spans="3:4" ht="16">
+      <c r="C37" s="28"/>
+      <c r="D37" s="28"/>
+    </row>
+    <row r="39" spans="3:4" ht="16">
+      <c r="C39" s="28"/>
+      <c r="D39" s="28"/>
+    </row>
+    <row r="40" spans="3:4" ht="16">
+      <c r="C40" s="28"/>
+      <c r="D40" s="28"/>
+    </row>
+    <row r="42" spans="3:4" ht="16">
+      <c r="C42" s="28"/>
+      <c r="D42" s="28"/>
+    </row>
+    <row r="43" spans="3:4" ht="16">
+      <c r="C43" s="28"/>
+      <c r="D43" s="28"/>
+    </row>
+    <row r="44" spans="3:4" ht="16">
+      <c r="C44" s="28"/>
+      <c r="D44" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="3">
+    <mergeCell ref="B3:P3"/>
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="G4:K4"/>
-    <mergeCell ref="B3:P3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:Q6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="3" spans="2:17" ht="18">
+      <c r="B3" s="21" t="s">
+        <v>243</v>
+      </c>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+    </row>
+    <row r="4" spans="2:17">
+      <c r="B4" s="8"/>
+      <c r="C4" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="25"/>
+    </row>
+    <row r="5" spans="2:17">
+      <c r="B5" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>244</v>
+      </c>
+      <c r="E6" t="s">
+        <v>245</v>
+      </c>
+      <c r="L6" t="s">
+        <v>33</v>
+      </c>
+      <c r="M6">
+        <v>1963</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B3:Q3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="G4:K4"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="C1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="18">
+      <c r="B3" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="B4" s="8"/>
+      <c r="C4" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="B5" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" t="s">
+        <v>255</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" t="s">
+        <v>256</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" t="s">
+        <v>258</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B3:Q3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="G4:K4"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="E3:S5"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="5" max="5" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="5:19">
+      <c r="E3" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26"/>
+    </row>
+    <row r="4" spans="5:19">
+      <c r="E4" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5" spans="5:19">
+      <c r="F5" s="5">
+        <v>36351</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E3:S3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="3" spans="2:4">
+      <c r="B3" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5">
+        <v>41233</v>
+      </c>
+      <c r="D5">
+        <f>Hoja1!B7</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" s="5">
+        <v>41238</v>
+      </c>
+      <c r="D6">
+        <f>Hoja1!B7</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:D3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -1588,6 +2951,188 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:P8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="3" spans="1:16" ht="18">
+      <c r="B3" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="B4" s="8"/>
+      <c r="C4" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="25"/>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M6" s="4">
+        <v>1962</v>
+      </c>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" t="s">
+        <v>249</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>247</v>
+      </c>
+      <c r="E7" t="s">
+        <v>248</v>
+      </c>
+      <c r="L7" t="s">
+        <v>33</v>
+      </c>
+      <c r="M7" s="5">
+        <v>11023</v>
+      </c>
+      <c r="P7" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" t="s">
+        <v>254</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>251</v>
+      </c>
+      <c r="E8" t="s">
+        <v>252</v>
+      </c>
+      <c r="L8" t="s">
+        <v>33</v>
+      </c>
+      <c r="M8" s="5">
+        <v>24526</v>
+      </c>
+      <c r="P8" t="s">
+        <v>253</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="G4:K4"/>
+    <mergeCell ref="B3:P3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:P6"/>
   <sheetViews>
@@ -1720,12 +3265,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1776,7 +3321,7 @@
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="20" t="s">
         <v>54</v>
       </c>
       <c r="E5">
@@ -1789,9 +3334,11 @@
         <v>2</v>
       </c>
       <c r="H5">
+        <f>Hoja1!B7</f>
         <v>1</v>
       </c>
       <c r="I5">
+        <f>Autor!B6</f>
         <v>1</v>
       </c>
     </row>
@@ -1799,7 +3346,7 @@
       <c r="B6">
         <v>2</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="20" t="s">
         <v>54</v>
       </c>
       <c r="E6">
@@ -1812,9 +3359,11 @@
         <v>3</v>
       </c>
       <c r="H6">
+        <f>Hoja1!B7</f>
         <v>1</v>
       </c>
       <c r="I6">
+        <f>Autor!B6</f>
         <v>1</v>
       </c>
     </row>
@@ -1831,12 +3380,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:Q6"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1954,6 +3503,9 @@
       <c r="N6" t="s">
         <v>60</v>
       </c>
+      <c r="Q6" t="s">
+        <v>241</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1962,6 +3514,7 @@
     <mergeCell ref="G4:K4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1970,12 +3523,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2020,6 +3573,7 @@
         <v>69</v>
       </c>
       <c r="E4">
+        <f>Hoja1!B7</f>
         <v>1</v>
       </c>
     </row>
@@ -2034,9 +3588,11 @@
         <v>68</v>
       </c>
       <c r="E5">
+        <f>Hoja1!B7</f>
         <v>1</v>
       </c>
       <c r="F5">
+        <f>B4</f>
         <v>1</v>
       </c>
     </row>
@@ -2051,9 +3607,11 @@
         <v>71</v>
       </c>
       <c r="E6">
+        <f>Hoja1!B7</f>
         <v>1</v>
       </c>
       <c r="F6">
+        <f>B5</f>
         <v>2</v>
       </c>
     </row>
@@ -2068,9 +3626,11 @@
         <v>71</v>
       </c>
       <c r="E7">
+        <f>Hoja1!B7</f>
         <v>1</v>
       </c>
       <c r="F7">
+        <f>B6</f>
         <v>3</v>
       </c>
     </row>
@@ -2085,9 +3645,11 @@
         <v>71</v>
       </c>
       <c r="E8">
+        <f>Hoja1!B7</f>
         <v>1</v>
       </c>
       <c r="F8">
+        <f t="shared" ref="F8:F32" si="0">B7</f>
         <v>4</v>
       </c>
     </row>
@@ -2102,9 +3664,11 @@
         <v>75</v>
       </c>
       <c r="E9">
+        <f>Hoja1!B7</f>
         <v>1</v>
       </c>
       <c r="F9">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -2119,9 +3683,11 @@
         <v>77</v>
       </c>
       <c r="E10">
+        <f>Hoja1!B7</f>
         <v>1</v>
       </c>
       <c r="F10">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -2136,9 +3702,11 @@
         <v>80</v>
       </c>
       <c r="E11">
+        <f>Hoja1!B7</f>
         <v>1</v>
       </c>
       <c r="F11">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
@@ -2153,9 +3721,11 @@
         <v>71</v>
       </c>
       <c r="E12">
+        <f>Hoja1!B7</f>
         <v>1</v>
       </c>
       <c r="F12">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
@@ -2170,9 +3740,11 @@
         <v>75</v>
       </c>
       <c r="E13">
+        <f>Hoja1!B7</f>
         <v>1</v>
       </c>
       <c r="F13">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
@@ -2187,9 +3759,11 @@
         <v>75</v>
       </c>
       <c r="E14">
+        <f>Hoja1!B7</f>
         <v>1</v>
       </c>
       <c r="F14">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
@@ -2204,9 +3778,11 @@
         <v>77</v>
       </c>
       <c r="E15">
+        <f>Hoja1!B7</f>
         <v>1</v>
       </c>
       <c r="F15">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
@@ -2221,9 +3797,11 @@
         <v>86</v>
       </c>
       <c r="E16">
+        <f>Hoja1!B7</f>
         <v>1</v>
       </c>
       <c r="F16">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
     </row>
@@ -2238,9 +3816,11 @@
         <v>87</v>
       </c>
       <c r="E17">
+        <f>Hoja1!B7</f>
         <v>1</v>
       </c>
       <c r="F17">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
     </row>
@@ -2255,9 +3835,11 @@
         <v>69</v>
       </c>
       <c r="E18">
+        <f>Hoja1!B7</f>
         <v>1</v>
       </c>
       <c r="F18">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
     </row>
@@ -2272,9 +3854,11 @@
         <v>80</v>
       </c>
       <c r="E19">
+        <f>Hoja1!B7</f>
         <v>1</v>
       </c>
       <c r="F19">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
@@ -2289,9 +3873,11 @@
         <v>75</v>
       </c>
       <c r="E20">
+        <f>Hoja1!B7</f>
         <v>1</v>
       </c>
       <c r="F20">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
     </row>
@@ -2306,9 +3892,11 @@
         <v>93</v>
       </c>
       <c r="E21">
+        <f>Hoja1!B7</f>
         <v>1</v>
       </c>
       <c r="F21">
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
     </row>
@@ -2323,9 +3911,11 @@
         <v>75</v>
       </c>
       <c r="E22">
+        <f>Hoja1!B7</f>
         <v>1</v>
       </c>
       <c r="F22">
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
     </row>
@@ -2340,9 +3930,11 @@
         <v>75</v>
       </c>
       <c r="E23">
+        <f>Hoja1!B7</f>
         <v>1</v>
       </c>
       <c r="F23">
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
     </row>
@@ -2357,9 +3949,11 @@
         <v>77</v>
       </c>
       <c r="E24">
+        <f>Hoja1!B7</f>
         <v>1</v>
       </c>
       <c r="F24">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
@@ -2374,9 +3968,11 @@
         <v>80</v>
       </c>
       <c r="E25">
+        <f>Hoja1!B7</f>
         <v>1</v>
       </c>
       <c r="F25">
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
     </row>
@@ -2391,9 +3987,11 @@
         <v>87</v>
       </c>
       <c r="E26">
+        <f>Hoja1!B7</f>
         <v>1</v>
       </c>
       <c r="F26">
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
     </row>
@@ -2408,9 +4006,11 @@
         <v>77</v>
       </c>
       <c r="E27">
+        <f>Hoja1!B7</f>
         <v>1</v>
       </c>
       <c r="F27">
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
     </row>
@@ -2425,9 +4025,11 @@
         <v>100</v>
       </c>
       <c r="E28">
+        <f>Hoja1!B7</f>
         <v>1</v>
       </c>
       <c r="F28">
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
     </row>
@@ -2442,9 +4044,11 @@
         <v>75</v>
       </c>
       <c r="E29">
+        <f>Hoja1!B7</f>
         <v>1</v>
       </c>
       <c r="F29">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
     </row>
@@ -2459,9 +4063,11 @@
         <v>104</v>
       </c>
       <c r="E30">
+        <f>Hoja1!B7</f>
         <v>1</v>
       </c>
       <c r="F30">
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
     </row>
@@ -2476,9 +4082,11 @@
         <v>75</v>
       </c>
       <c r="E31">
+        <f>Hoja1!B7</f>
         <v>1</v>
       </c>
       <c r="F31">
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
     </row>
@@ -2493,9 +4101,11 @@
         <v>104</v>
       </c>
       <c r="E32">
+        <f>Hoja1!B7</f>
         <v>1</v>
       </c>
       <c r="F32">
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
     </row>
@@ -2512,12 +4122,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5:H9"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2578,6 +4188,7 @@
         <v>1</v>
       </c>
       <c r="H5">
+        <f>Hoja1!B7</f>
         <v>1</v>
       </c>
     </row>
@@ -2598,6 +4209,7 @@
         <v>4</v>
       </c>
       <c r="H6">
+        <f>Hoja1!B7</f>
         <v>1</v>
       </c>
     </row>
@@ -2618,6 +4230,7 @@
         <v>5</v>
       </c>
       <c r="H7">
+        <f>Hoja1!B7</f>
         <v>1</v>
       </c>
     </row>
@@ -2638,6 +4251,7 @@
         <v>6</v>
       </c>
       <c r="H8">
+        <f>Hoja1!B7</f>
         <v>1</v>
       </c>
     </row>
@@ -2658,6 +4272,7 @@
         <v>1</v>
       </c>
       <c r="H9">
+        <f>Hoja1!B7</f>
         <v>1</v>
       </c>
     </row>
@@ -2674,12 +4289,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:S14"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C11" sqref="A11:XFD11"/>
+    <sheetView topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3051,60 +4666,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BO35" sqref="BO35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="50.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:6">
-      <c r="B2" s="26" t="s">
-        <v>171</v>
-      </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-    </row>
-    <row r="3" spans="2:6">
-      <c r="B3" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6">
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>6</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>175</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:D2"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
 </file>
--- a/trunk/insert (isaac).xlsx
+++ b/trunk/insert (isaac).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15480" tabRatio="941" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15160" windowHeight="15480" tabRatio="941" firstSheet="2" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -17,10 +17,13 @@
     <sheet name="Personaje" sheetId="7" r:id="rId8"/>
     <sheet name="Cantante" sheetId="8" r:id="rId9"/>
     <sheet name="Elenco" sheetId="9" r:id="rId10"/>
-    <sheet name="Bailarin" sheetId="13" r:id="rId11"/>
-    <sheet name="Directo_escenografia" sheetId="16" r:id="rId12"/>
-    <sheet name="Musico" sheetId="15" r:id="rId13"/>
-    <sheet name="trabajador_cargo" sheetId="11" r:id="rId14"/>
+    <sheet name="ballet" sheetId="18" r:id="rId11"/>
+    <sheet name="Bailarin" sheetId="13" r:id="rId12"/>
+    <sheet name="fecha" sheetId="17" r:id="rId13"/>
+    <sheet name="Directo_escenografia" sheetId="16" r:id="rId14"/>
+    <sheet name="Musico" sheetId="15" r:id="rId15"/>
+    <sheet name="trabajador_cargo" sheetId="11" r:id="rId16"/>
+    <sheet name="Hoja3" sheetId="19" r:id="rId17"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$B$3:$I$3</definedName>
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="524">
   <si>
     <t>Nombre</t>
   </si>
@@ -883,12 +886,807 @@
   <si>
     <t>http://es.wikipedia.org/wiki/Sabine_Meyer</t>
   </si>
+  <si>
+    <t>EUSEBIO</t>
+  </si>
+  <si>
+    <t>Griego</t>
+  </si>
+  <si>
+    <t>EUSTAQUIO</t>
+  </si>
+  <si>
+    <t>EVA</t>
+  </si>
+  <si>
+    <t>EVANGELINA</t>
+  </si>
+  <si>
+    <t>EVARISTO</t>
+  </si>
+  <si>
+    <t>EZEQUIEL</t>
+  </si>
+  <si>
+    <t>BERENICE</t>
+  </si>
+  <si>
+    <t>BERNABÉ</t>
+  </si>
+  <si>
+    <t>BERNARDO</t>
+  </si>
+  <si>
+    <t>BERTA</t>
+  </si>
+  <si>
+    <t>BIBIANA</t>
+  </si>
+  <si>
+    <t>DIANA</t>
+  </si>
+  <si>
+    <t>DIEGO</t>
+  </si>
+  <si>
+    <t>DINA</t>
+  </si>
+  <si>
+    <t>Alberta</t>
+  </si>
+  <si>
+    <t>Alberte</t>
+  </si>
+  <si>
+    <t>Annette</t>
+  </si>
+  <si>
+    <t>Annick</t>
+  </si>
+  <si>
+    <t>Annie</t>
+  </si>
+  <si>
+    <t>Céline</t>
+  </si>
+  <si>
+    <t>Chanelle</t>
+  </si>
+  <si>
+    <t>Deborah</t>
+  </si>
+  <si>
+    <t>Delphine</t>
+  </si>
+  <si>
+    <t>Dominique</t>
+  </si>
+  <si>
+    <t>Eléonore</t>
+  </si>
+  <si>
+    <t>Eliane</t>
+  </si>
+  <si>
+    <t>Guillemette</t>
+  </si>
+  <si>
+    <t>Laurie</t>
+  </si>
+  <si>
+    <t>Madeleine</t>
+  </si>
+  <si>
+    <t>Naomi</t>
+  </si>
+  <si>
+    <t>Naomie</t>
+  </si>
+  <si>
+    <t>Natacha</t>
+  </si>
+  <si>
+    <t>Baptiso</t>
+  </si>
+  <si>
+    <t>Bruno</t>
+  </si>
+  <si>
+    <t>Bardo</t>
+  </si>
+  <si>
+    <t>Calisto</t>
+  </si>
+  <si>
+    <t>Calypso</t>
+  </si>
+  <si>
+    <t>Cameron</t>
+  </si>
+  <si>
+    <t>Drake</t>
+  </si>
+  <si>
+    <t>Drystano</t>
+  </si>
+  <si>
+    <t>Ebeno</t>
+  </si>
+  <si>
+    <t>Edisono</t>
+  </si>
+  <si>
+    <t>Fabian</t>
+  </si>
+  <si>
+    <t>Fabron</t>
+  </si>
+  <si>
+    <t>Faustino</t>
+  </si>
+  <si>
+    <t>Gabin</t>
+  </si>
+  <si>
+    <t>Gabriello</t>
+  </si>
+  <si>
+    <t>Oliver</t>
+  </si>
+  <si>
+    <t>Omero</t>
+  </si>
+  <si>
+    <t>Paulino</t>
+  </si>
+  <si>
+    <t>Peopero</t>
+  </si>
+  <si>
+    <t>Rodolfo</t>
+  </si>
+  <si>
+    <t>Rogan</t>
+  </si>
+  <si>
+    <t>Rollo</t>
+  </si>
+  <si>
+    <t>Sebastiono</t>
+  </si>
+  <si>
+    <t>Serfino</t>
+  </si>
+  <si>
+    <t>CABASSI</t>
+  </si>
+  <si>
+    <t>CABELLO</t>
+  </si>
+  <si>
+    <t>CABIANCA</t>
+  </si>
+  <si>
+    <t>CABRIA</t>
+  </si>
+  <si>
+    <t>BATE</t>
+  </si>
+  <si>
+    <t>ABBA</t>
+  </si>
+  <si>
+    <t>BACCANI</t>
+  </si>
+  <si>
+    <t>BACCARELLI</t>
+  </si>
+  <si>
+    <t>NACERO</t>
+  </si>
+  <si>
+    <t>NADALINI</t>
+  </si>
+  <si>
+    <t>NADALUTTI</t>
+  </si>
+  <si>
+    <t>ODAGLIA</t>
+  </si>
+  <si>
+    <t>EFFICA</t>
+  </si>
+  <si>
+    <t>VACCAREZZA</t>
+  </si>
+  <si>
+    <t>VACCARI</t>
+  </si>
+  <si>
+    <t>VACCARO</t>
+  </si>
+  <si>
+    <t>HENRICH</t>
+  </si>
+  <si>
+    <t>HERESI</t>
+  </si>
+  <si>
+    <t>HUALA</t>
+  </si>
+  <si>
+    <t>AABDI</t>
+  </si>
+  <si>
+    <t>AARON</t>
+  </si>
+  <si>
+    <t>ABA</t>
+  </si>
+  <si>
+    <t>DESCAMPS</t>
+  </si>
+  <si>
+    <t>DESPLANQUES</t>
+  </si>
+  <si>
+    <t>ERRANDONEA</t>
+  </si>
+  <si>
+    <t>ERREA</t>
+  </si>
+  <si>
+    <t>GARROY</t>
+  </si>
+  <si>
+    <t>GARZA</t>
+  </si>
+  <si>
+    <t>HENAFF</t>
+  </si>
+  <si>
+    <t>HENRY</t>
+  </si>
+  <si>
+    <t>LANZIEGO</t>
+  </si>
+  <si>
+    <t>MARTY</t>
+  </si>
+  <si>
+    <t>SEGUR</t>
+  </si>
+  <si>
+    <t>SELLIER</t>
+  </si>
+  <si>
+    <t>SENTURIER</t>
+  </si>
+  <si>
+    <t>AIZA</t>
+  </si>
+  <si>
+    <t>AIZCORBE</t>
+  </si>
+  <si>
+    <t>AIZPURUA</t>
+  </si>
+  <si>
+    <t>VAAMONDE</t>
+  </si>
+  <si>
+    <t>VACIOLA</t>
+  </si>
+  <si>
+    <t>VADA</t>
+  </si>
+  <si>
+    <t>OBARRO</t>
+  </si>
+  <si>
+    <t>OBAYA</t>
+  </si>
+  <si>
+    <t>GIRAL</t>
+  </si>
+  <si>
+    <t>GIRALDEZ</t>
+  </si>
+  <si>
+    <t>GIRAZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OBARES </t>
+  </si>
+  <si>
+    <t>TORRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VADO </t>
+  </si>
+  <si>
+    <t>TERAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CABOCIENI </t>
+  </si>
+  <si>
+    <t>PARIS</t>
+  </si>
+  <si>
+    <t>BERTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BESSO</t>
+  </si>
+  <si>
+    <t>italiano</t>
+  </si>
+  <si>
+    <t>Ballet</t>
+  </si>
+  <si>
+    <t>Alameda Civic Ballet</t>
+  </si>
+  <si>
+    <t>Alberta Ballet Company</t>
+  </si>
+  <si>
+    <t>Ballet Austin</t>
+  </si>
+  <si>
+    <t>Ballet de l'Opéra de Lyon</t>
+  </si>
+  <si>
+    <t>Ballet Deviare</t>
+  </si>
+  <si>
+    <t>Ballet Fantastique</t>
+  </si>
+  <si>
+    <t>Galili Dance</t>
+  </si>
+  <si>
+    <t>Patti Rutland Jazz</t>
+  </si>
+  <si>
+    <t>San Francisco Ballet</t>
+  </si>
+  <si>
+    <t>Bailarin_Ballet</t>
+  </si>
+  <si>
+    <t>Pk_bailarin</t>
+  </si>
+  <si>
+    <t>Pk_ballet</t>
+  </si>
+  <si>
+    <t>Carlos</t>
+  </si>
+  <si>
+    <t>acosta</t>
+  </si>
+  <si>
+    <t>http://es.wikipedia.org/wiki/Carlos_Acosta</t>
+  </si>
+  <si>
+    <t>Natasha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nicole </t>
+  </si>
+  <si>
+    <t>Voris</t>
+  </si>
+  <si>
+    <t>Kody</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Jauron</t>
+  </si>
+  <si>
+    <t>Mandy</t>
+  </si>
+  <si>
+    <t>Wenk</t>
+  </si>
+  <si>
+    <t>Grace</t>
+  </si>
+  <si>
+    <t>Morton</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Wetzel</t>
+  </si>
+  <si>
+    <t>Benjamin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Melissa </t>
+  </si>
+  <si>
+    <t>Roetker</t>
+  </si>
+  <si>
+    <t>Casia</t>
+  </si>
+  <si>
+    <t>Carl</t>
+  </si>
+  <si>
+    <t>http://www.balletaustin.org/about/batwo.php#carl</t>
+  </si>
+  <si>
+    <t>Pina Bausch Tanztheater Wuppertal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regina </t>
+  </si>
+  <si>
+    <t>Advento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ruth </t>
+  </si>
+  <si>
+    <t>Amarante</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jorge </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puerta </t>
+  </si>
+  <si>
+    <t>Armenta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rainer </t>
+  </si>
+  <si>
+    <t>Behr</t>
+  </si>
+  <si>
+    <t>Andrey</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Berezin</t>
+  </si>
+  <si>
+    <t>Damiano</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ottavio</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bigi</t>
+  </si>
+  <si>
+    <t>Ales</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> cucek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clémentine </t>
+  </si>
+  <si>
+    <t>Deluy</t>
+  </si>
+  <si>
+    <t>Josephine</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ann </t>
+  </si>
+  <si>
+    <t>Endicott</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pablo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aran </t>
+  </si>
+  <si>
+    <t>Gimeno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Helena </t>
+  </si>
+  <si>
+    <t>Pikon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Franko </t>
+  </si>
+  <si>
+    <t>Schmidt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Azusa </t>
+  </si>
+  <si>
+    <t>Seyama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Julie </t>
+  </si>
+  <si>
+    <t>Shanahan</t>
+  </si>
+  <si>
+    <t>Anne</t>
+  </si>
+  <si>
+    <t>Stanzak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michael </t>
+  </si>
+  <si>
+    <t>Strecker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fernando </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suels </t>
+  </si>
+  <si>
+    <t>Mendoza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aida </t>
+  </si>
+  <si>
+    <t>Vainieri</t>
+  </si>
+  <si>
+    <t>Wehsarg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tsai-Chin </t>
+  </si>
+  <si>
+    <t>Yu</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>http://www.noordnederlandsedans.com/nl/dansers</t>
+  </si>
+  <si>
+    <t>http://www.pina-bausch.de/tanztheater/ensemble/index.php</t>
+  </si>
+  <si>
+    <t>MARTIN</t>
+  </si>
+  <si>
+    <t>JESSICA</t>
+  </si>
+  <si>
+    <t>KAROLINA</t>
+  </si>
+  <si>
+    <t>ARNAUD</t>
+  </si>
+  <si>
+    <t>SHAY</t>
+  </si>
+  <si>
+    <t>MAYA</t>
+  </si>
+  <si>
+    <t>PATRIZIO</t>
+  </si>
+  <si>
+    <t>AIMÉE</t>
+  </si>
+  <si>
+    <t>ANGELA </t>
+  </si>
+  <si>
+    <t>GEMMA </t>
+  </si>
+  <si>
+    <t>MORGANE </t>
+  </si>
+  <si>
+    <t>JOACHIM </t>
+  </si>
+  <si>
+    <t>harriague</t>
+  </si>
+  <si>
+    <t>ames</t>
+  </si>
+  <si>
+    <t>szymura</t>
+  </si>
+  <si>
+    <t>macquet</t>
+  </si>
+  <si>
+    <t>partush</t>
+  </si>
+  <si>
+    <t>klassen</t>
+  </si>
+  <si>
+    <t>bucci</t>
+  </si>
+  <si>
+    <t>lagrange</t>
+  </si>
+  <si>
+    <t>boix</t>
+  </si>
+  <si>
+    <t>duran</t>
+  </si>
+  <si>
+    <t>miro</t>
+  </si>
+  <si>
+    <t>roca</t>
+  </si>
+  <si>
+    <t>michel</t>
+  </si>
+  <si>
+    <t>maudet</t>
+  </si>
+  <si>
+    <t>katherina</t>
+  </si>
+  <si>
+    <t>nakui</t>
+  </si>
+  <si>
+    <t>grecia</t>
+  </si>
+  <si>
+    <t>http://www.sfballet.org/company/dancers/principals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joan </t>
+  </si>
+  <si>
+    <t>Boada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frances </t>
+  </si>
+  <si>
+    <t>Chung</t>
+  </si>
+  <si>
+    <t>Taras</t>
+  </si>
+  <si>
+    <t>Domitro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lorena </t>
+  </si>
+  <si>
+    <t>Feijoo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jaime </t>
+  </si>
+  <si>
+    <t>Garcia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Castilla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiit </t>
+  </si>
+  <si>
+    <t>Helimets</t>
+  </si>
+  <si>
+    <t>Davit</t>
+  </si>
+  <si>
+    <t>Maria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vitor </t>
+  </si>
+  <si>
+    <t>Luiz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rubén </t>
+  </si>
+  <si>
+    <t>Kochetkova</t>
+  </si>
+  <si>
+    <t>Karapetyan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Martín </t>
+  </si>
+  <si>
+    <t>Cintas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vito </t>
+  </si>
+  <si>
+    <t>Mazzeo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pascal </t>
+  </si>
+  <si>
+    <t>Molat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gennadi </t>
+  </si>
+  <si>
+    <t>Nedvigin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Damian </t>
+  </si>
+  <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sofiane </t>
+  </si>
+  <si>
+    <t>Sylve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yuan </t>
+  </si>
+  <si>
+    <t>Yuan Tan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sarah </t>
+  </si>
+  <si>
+    <t>Van Patten</t>
+  </si>
+  <si>
+    <t>Pierre</t>
+  </si>
+  <si>
+    <t>Vilanoba</t>
+  </si>
+  <si>
+    <t>Francois</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vanessa </t>
+  </si>
+  <si>
+    <t>Zahorian</t>
+  </si>
+  <si>
+    <t>san francisco</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -971,8 +1769,47 @@
       <color rgb="FF555555"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Trebuchet MS"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Lucida Sans Unicode"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF666666"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF0B0080"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="5" tint="0.39997558519241921"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF7E7A6B"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1018,6 +1855,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1075,7 +1942,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="130">
+  <cellStyleXfs count="287">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1206,8 +2073,165 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1241,7 +2265,28 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="59"/>
     <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1256,13 +2301,23 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="59"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="130">
+  <cellStyles count="287">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
@@ -1392,6 +2447,163 @@
     <cellStyle name="Hipervínculo visitado" xfId="127" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="128" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="129" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="131" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="133" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="135" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="137" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="139" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="141" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="143" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="145" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="147" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="149" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="151" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="153" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="155" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="157" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="159" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="161" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="163" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="165" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="167" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="169" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="171" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="173" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="175" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="177" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="179" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="181" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="183" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="185" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="187" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="189" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="191" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="193" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="195" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="197" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="199" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="201" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="203" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="205" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="207" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="209" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="211" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="213" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="215" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="217" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="219" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="221" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="223" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="225" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="227" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="229" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="231" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="233" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="235" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="237" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="239" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="241" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="243" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="245" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="247" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="249" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="250" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="251" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="252" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="253" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="254" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="255" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="256" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="257" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="258" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="259" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="260" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="261" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="262" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="263" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="264" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="265" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="266" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="267" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="268" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="269" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="270" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="271" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="272" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="273" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="274" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="275" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="276" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="277" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="278" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="279" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="280" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="281" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="282" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="283" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="284" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="285" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="286" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1739,21 +2951,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="18">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="L2" s="21" t="s">
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="L2" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
     </row>
     <row r="3" spans="2:14">
       <c r="B3" s="3" t="s">
@@ -1875,11 +3087,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="34" t="s">
         <v>171</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
     </row>
     <row r="3" spans="2:4">
       <c r="B3" s="1" t="s">
@@ -2027,7 +3239,6 @@
     <mergeCell ref="B2:D2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2038,445 +3249,17 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:P44"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="F3" sqref="F3:F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="15" max="15" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.6640625" bestFit="1" customWidth="1"/>
   </cols>
-  <sheetData>
-    <row r="3" spans="2:16" ht="18">
-      <c r="B3" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
-    </row>
-    <row r="4" spans="2:16">
-      <c r="B4" s="8"/>
-      <c r="C4" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="25"/>
-    </row>
-    <row r="5" spans="2:16">
-      <c r="B5" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="2:16">
-      <c r="B6" s="4">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>194</v>
-      </c>
-      <c r="D6" t="s">
-        <v>200</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="F6" t="s">
-        <v>236</v>
-      </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="M6" s="6">
-        <v>29221</v>
-      </c>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-    </row>
-    <row r="7" spans="2:16">
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7" t="s">
-        <v>204</v>
-      </c>
-      <c r="D7" t="s">
-        <v>207</v>
-      </c>
-      <c r="E7" t="s">
-        <v>219</v>
-      </c>
-      <c r="F7" t="s">
-        <v>225</v>
-      </c>
-      <c r="L7" t="s">
-        <v>146</v>
-      </c>
-      <c r="M7" s="5">
-        <v>33401</v>
-      </c>
-    </row>
-    <row r="8" spans="2:16">
-      <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="C8" t="s">
-        <v>208</v>
-      </c>
-      <c r="D8" t="s">
-        <v>195</v>
-      </c>
-      <c r="E8" t="s">
-        <v>223</v>
-      </c>
-      <c r="F8" t="s">
-        <v>232</v>
-      </c>
-      <c r="L8" t="s">
-        <v>33</v>
-      </c>
-      <c r="M8" s="5">
-        <v>32013</v>
-      </c>
-    </row>
-    <row r="9" spans="2:16">
-      <c r="B9" s="4">
-        <v>4</v>
-      </c>
-      <c r="C9" t="s">
-        <v>201</v>
-      </c>
-      <c r="D9" t="s">
-        <v>209</v>
-      </c>
-      <c r="E9" t="s">
-        <v>230</v>
-      </c>
-      <c r="F9" t="s">
-        <v>235</v>
-      </c>
-      <c r="L9" t="s">
-        <v>33</v>
-      </c>
-      <c r="M9" s="5">
-        <v>32476</v>
-      </c>
-    </row>
-    <row r="10" spans="2:16">
-      <c r="B10">
-        <v>5</v>
-      </c>
-      <c r="C10" t="s">
-        <v>199</v>
-      </c>
-      <c r="D10" t="s">
-        <v>198</v>
-      </c>
-      <c r="E10" t="s">
-        <v>229</v>
-      </c>
-      <c r="F10" t="s">
-        <v>233</v>
-      </c>
-      <c r="L10" t="s">
-        <v>146</v>
-      </c>
-      <c r="M10" s="5">
-        <v>31810</v>
-      </c>
-    </row>
-    <row r="11" spans="2:16">
-      <c r="B11">
-        <v>6</v>
-      </c>
-      <c r="C11" t="s">
-        <v>204</v>
-      </c>
-      <c r="D11" t="s">
-        <v>210</v>
-      </c>
-      <c r="E11" t="s">
-        <v>237</v>
-      </c>
-      <c r="F11" t="s">
-        <v>226</v>
-      </c>
-      <c r="L11" t="s">
-        <v>33</v>
-      </c>
-      <c r="M11" s="5">
-        <v>29342</v>
-      </c>
-    </row>
-    <row r="12" spans="2:16">
-      <c r="B12" s="4">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
-        <v>197</v>
-      </c>
-      <c r="D12" t="s">
-        <v>205</v>
-      </c>
-      <c r="E12" t="s">
-        <v>239</v>
-      </c>
-      <c r="L12" t="s">
-        <v>33</v>
-      </c>
-      <c r="M12" s="5">
-        <v>31219</v>
-      </c>
-    </row>
-    <row r="13" spans="2:16">
-      <c r="B13">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>211</v>
-      </c>
-      <c r="D13" t="s">
-        <v>196</v>
-      </c>
-      <c r="E13" t="s">
-        <v>222</v>
-      </c>
-      <c r="F13" t="s">
-        <v>234</v>
-      </c>
-      <c r="L13" t="s">
-        <v>146</v>
-      </c>
-      <c r="M13" s="5">
-        <v>33220</v>
-      </c>
-    </row>
-    <row r="14" spans="2:16">
-      <c r="B14">
-        <v>9</v>
-      </c>
-      <c r="C14" t="s">
-        <v>212</v>
-      </c>
-      <c r="D14" t="s">
-        <v>214</v>
-      </c>
-      <c r="E14" t="s">
-        <v>224</v>
-      </c>
-      <c r="F14" t="s">
-        <v>218</v>
-      </c>
-      <c r="L14" t="s">
-        <v>146</v>
-      </c>
-      <c r="M14" s="5">
-        <v>32612</v>
-      </c>
-    </row>
-    <row r="15" spans="2:16">
-      <c r="B15" s="4">
-        <v>10</v>
-      </c>
-      <c r="C15" t="s">
-        <v>213</v>
-      </c>
-      <c r="D15" t="s">
-        <v>203</v>
-      </c>
-      <c r="E15" t="s">
-        <v>228</v>
-      </c>
-      <c r="F15" t="s">
-        <v>221</v>
-      </c>
-      <c r="L15" t="s">
-        <v>146</v>
-      </c>
-      <c r="M15" s="5">
-        <v>33502</v>
-      </c>
-    </row>
-    <row r="16" spans="2:16">
-      <c r="B16">
-        <v>11</v>
-      </c>
-      <c r="C16" t="s">
-        <v>206</v>
-      </c>
-      <c r="D16" t="s">
-        <v>215</v>
-      </c>
-      <c r="E16" t="s">
-        <v>220</v>
-      </c>
-      <c r="F16" t="s">
-        <v>227</v>
-      </c>
-      <c r="L16" t="s">
-        <v>146</v>
-      </c>
-      <c r="M16" s="5">
-        <v>29285</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13">
-      <c r="B17">
-        <v>12</v>
-      </c>
-      <c r="C17" t="s">
-        <v>216</v>
-      </c>
-      <c r="D17" t="s">
-        <v>212</v>
-      </c>
-      <c r="E17" t="s">
-        <v>238</v>
-      </c>
-      <c r="F17" t="s">
-        <v>240</v>
-      </c>
-      <c r="L17" t="s">
-        <v>33</v>
-      </c>
-      <c r="M17" s="5">
-        <v>32433</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13">
-      <c r="B18" s="4">
-        <v>13</v>
-      </c>
-      <c r="C18" t="s">
-        <v>202</v>
-      </c>
-      <c r="D18" t="s">
-        <v>211</v>
-      </c>
-      <c r="E18" t="s">
-        <v>231</v>
-      </c>
-      <c r="L18" t="s">
-        <v>33</v>
-      </c>
-      <c r="M18" s="5">
-        <v>31513</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" ht="16">
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-    </row>
-    <row r="20" spans="2:13" ht="16">
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-    </row>
-    <row r="21" spans="2:13" ht="16">
-      <c r="D21" s="28"/>
-    </row>
-    <row r="36" spans="3:4" ht="16">
-      <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
-    </row>
-    <row r="37" spans="3:4" ht="16">
-      <c r="C37" s="28"/>
-      <c r="D37" s="28"/>
-    </row>
-    <row r="39" spans="3:4" ht="16">
-      <c r="C39" s="28"/>
-      <c r="D39" s="28"/>
-    </row>
-    <row r="40" spans="3:4" ht="16">
-      <c r="C40" s="28"/>
-      <c r="D40" s="28"/>
-    </row>
-    <row r="42" spans="3:4" ht="16">
-      <c r="C42" s="28"/>
-      <c r="D42" s="28"/>
-    </row>
-    <row r="43" spans="3:4" ht="16">
-      <c r="C43" s="28"/>
-      <c r="D43" s="28"/>
-    </row>
-    <row r="44" spans="3:4" ht="16">
-      <c r="C44" s="28"/>
-      <c r="D44" s="28"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B3:P3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="G4:K4"/>
-  </mergeCells>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -2489,6 +3272,6627 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:AC233"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="X8" sqref="X8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="4.83203125" style="30" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.6640625" customWidth="1"/>
+    <col min="18" max="18" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="30.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:29" ht="18">
+      <c r="B3" s="33" t="s">
+        <v>193</v>
+      </c>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="R3" s="42" t="s">
+        <v>381</v>
+      </c>
+      <c r="S3" s="42"/>
+      <c r="T3" s="42"/>
+      <c r="U3" s="43"/>
+      <c r="W3" s="34" t="s">
+        <v>371</v>
+      </c>
+      <c r="X3" s="34"/>
+    </row>
+    <row r="4" spans="2:29" ht="16">
+      <c r="B4" s="28"/>
+      <c r="C4" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="38"/>
+      <c r="R4" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="W4" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="X4" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="39"/>
+      <c r="Z4" s="41"/>
+      <c r="AA4" s="39"/>
+      <c r="AB4" s="32"/>
+      <c r="AC4" s="39"/>
+    </row>
+    <row r="5" spans="2:29">
+      <c r="B5" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R5">
+        <f>B6</f>
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <f>W5</f>
+        <v>1</v>
+      </c>
+      <c r="T5" s="5">
+        <v>38791</v>
+      </c>
+      <c r="W5">
+        <v>1</v>
+      </c>
+      <c r="X5" t="s">
+        <v>372</v>
+      </c>
+      <c r="Y5" s="39"/>
+      <c r="Z5" s="41"/>
+      <c r="AA5" s="39"/>
+      <c r="AB5" s="18"/>
+      <c r="AC5" s="39"/>
+    </row>
+    <row r="6" spans="2:29">
+      <c r="B6" s="30">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>194</v>
+      </c>
+      <c r="D6" t="s">
+        <v>200</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="F6" t="s">
+        <v>236</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M6" s="6">
+        <v>29221</v>
+      </c>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="R6">
+        <f t="shared" ref="R6:R56" si="0">B7</f>
+        <v>2</v>
+      </c>
+      <c r="S6">
+        <f>W5</f>
+        <v>1</v>
+      </c>
+      <c r="T6" s="5">
+        <v>36476</v>
+      </c>
+      <c r="W6">
+        <v>2</v>
+      </c>
+      <c r="X6" t="s">
+        <v>373</v>
+      </c>
+      <c r="Y6" s="39"/>
+      <c r="Z6" s="41"/>
+      <c r="AA6" s="39"/>
+      <c r="AB6" s="18"/>
+      <c r="AC6" s="39"/>
+    </row>
+    <row r="7" spans="2:29">
+      <c r="B7" s="30">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>204</v>
+      </c>
+      <c r="D7" t="s">
+        <v>207</v>
+      </c>
+      <c r="E7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F7" t="s">
+        <v>225</v>
+      </c>
+      <c r="L7" t="s">
+        <v>146</v>
+      </c>
+      <c r="M7" s="5">
+        <v>33401</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="S7">
+        <f>W5</f>
+        <v>1</v>
+      </c>
+      <c r="T7" s="5">
+        <v>37628</v>
+      </c>
+      <c r="W7">
+        <v>3</v>
+      </c>
+      <c r="X7" t="s">
+        <v>379</v>
+      </c>
+      <c r="Y7" s="39"/>
+      <c r="Z7" s="41"/>
+      <c r="AA7" s="39"/>
+      <c r="AB7" s="18"/>
+      <c r="AC7" s="39"/>
+    </row>
+    <row r="8" spans="2:29" ht="16">
+      <c r="B8" s="30">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>208</v>
+      </c>
+      <c r="D8" t="s">
+        <v>195</v>
+      </c>
+      <c r="E8" t="s">
+        <v>223</v>
+      </c>
+      <c r="F8" t="s">
+        <v>232</v>
+      </c>
+      <c r="L8" t="s">
+        <v>33</v>
+      </c>
+      <c r="M8" s="5">
+        <v>32013</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="S8">
+        <f>W5</f>
+        <v>1</v>
+      </c>
+      <c r="T8" s="5">
+        <v>37166</v>
+      </c>
+      <c r="W8">
+        <v>4</v>
+      </c>
+      <c r="X8" t="s">
+        <v>374</v>
+      </c>
+      <c r="Y8" s="32"/>
+    </row>
+    <row r="9" spans="2:29">
+      <c r="B9" s="30">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>201</v>
+      </c>
+      <c r="D9" t="s">
+        <v>209</v>
+      </c>
+      <c r="E9" t="s">
+        <v>230</v>
+      </c>
+      <c r="F9" t="s">
+        <v>235</v>
+      </c>
+      <c r="L9" t="s">
+        <v>33</v>
+      </c>
+      <c r="M9" s="5">
+        <v>32476</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="S9">
+        <f>W5</f>
+        <v>1</v>
+      </c>
+      <c r="T9" s="5">
+        <v>39284</v>
+      </c>
+      <c r="W9">
+        <v>5</v>
+      </c>
+      <c r="X9" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="10" spans="2:29" ht="16">
+      <c r="B10" s="30">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>199</v>
+      </c>
+      <c r="D10" t="s">
+        <v>198</v>
+      </c>
+      <c r="E10" t="s">
+        <v>229</v>
+      </c>
+      <c r="F10" t="s">
+        <v>233</v>
+      </c>
+      <c r="L10" t="s">
+        <v>146</v>
+      </c>
+      <c r="M10" s="5">
+        <v>31810</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="S10">
+        <f>W5</f>
+        <v>1</v>
+      </c>
+      <c r="T10" s="5">
+        <v>36393</v>
+      </c>
+      <c r="W10">
+        <v>6</v>
+      </c>
+      <c r="X10" t="s">
+        <v>376</v>
+      </c>
+      <c r="Y10" s="32"/>
+      <c r="Z10" s="18"/>
+      <c r="AA10" s="32"/>
+      <c r="AB10" s="18"/>
+      <c r="AC10" s="32"/>
+    </row>
+    <row r="11" spans="2:29" ht="16">
+      <c r="B11" s="30">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>204</v>
+      </c>
+      <c r="D11" t="s">
+        <v>210</v>
+      </c>
+      <c r="E11" t="s">
+        <v>237</v>
+      </c>
+      <c r="F11" t="s">
+        <v>226</v>
+      </c>
+      <c r="L11" t="s">
+        <v>33</v>
+      </c>
+      <c r="M11" s="5">
+        <v>29342</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="S11">
+        <f>W5</f>
+        <v>1</v>
+      </c>
+      <c r="T11" s="5">
+        <v>39018</v>
+      </c>
+      <c r="W11">
+        <v>7</v>
+      </c>
+      <c r="X11" t="s">
+        <v>377</v>
+      </c>
+      <c r="Y11" s="32"/>
+      <c r="Z11" s="18"/>
+      <c r="AA11" s="18"/>
+      <c r="AB11" s="32"/>
+      <c r="AC11" s="32"/>
+    </row>
+    <row r="12" spans="2:29" ht="16">
+      <c r="B12" s="30">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>197</v>
+      </c>
+      <c r="D12" t="s">
+        <v>205</v>
+      </c>
+      <c r="E12" t="s">
+        <v>239</v>
+      </c>
+      <c r="L12" t="s">
+        <v>33</v>
+      </c>
+      <c r="M12" s="5">
+        <v>31219</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="S12">
+        <f>W5</f>
+        <v>1</v>
+      </c>
+      <c r="T12" s="5">
+        <v>40897</v>
+      </c>
+      <c r="W12">
+        <v>8</v>
+      </c>
+      <c r="X12" t="s">
+        <v>380</v>
+      </c>
+      <c r="Y12" s="39"/>
+      <c r="Z12" s="39"/>
+      <c r="AA12" s="39"/>
+      <c r="AB12" s="32"/>
+      <c r="AC12" s="39"/>
+    </row>
+    <row r="13" spans="2:29" ht="16">
+      <c r="B13" s="30">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>211</v>
+      </c>
+      <c r="D13" t="s">
+        <v>196</v>
+      </c>
+      <c r="E13" t="s">
+        <v>222</v>
+      </c>
+      <c r="F13" t="s">
+        <v>234</v>
+      </c>
+      <c r="L13" t="s">
+        <v>146</v>
+      </c>
+      <c r="M13" s="5">
+        <v>33220</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="S13">
+        <f>W5</f>
+        <v>1</v>
+      </c>
+      <c r="T13" s="5">
+        <v>37263</v>
+      </c>
+      <c r="W13">
+        <v>9</v>
+      </c>
+      <c r="X13" t="s">
+        <v>404</v>
+      </c>
+      <c r="Y13" s="39"/>
+      <c r="Z13" s="39"/>
+      <c r="AA13" s="39"/>
+      <c r="AB13" s="32"/>
+      <c r="AC13" s="39"/>
+    </row>
+    <row r="14" spans="2:29" ht="16">
+      <c r="B14" s="30">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>212</v>
+      </c>
+      <c r="D14" t="s">
+        <v>214</v>
+      </c>
+      <c r="E14" t="s">
+        <v>224</v>
+      </c>
+      <c r="F14" t="s">
+        <v>218</v>
+      </c>
+      <c r="L14" t="s">
+        <v>146</v>
+      </c>
+      <c r="M14" s="5">
+        <v>32612</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="S14">
+        <f>W5</f>
+        <v>1</v>
+      </c>
+      <c r="T14" s="5">
+        <v>37796</v>
+      </c>
+      <c r="W14">
+        <v>10</v>
+      </c>
+      <c r="X14" t="s">
+        <v>378</v>
+      </c>
+      <c r="Y14" s="32"/>
+      <c r="Z14" s="18"/>
+      <c r="AA14" s="32"/>
+      <c r="AB14" s="32"/>
+      <c r="AC14" s="32"/>
+    </row>
+    <row r="15" spans="2:29" ht="16">
+      <c r="B15" s="30">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>213</v>
+      </c>
+      <c r="D15" t="s">
+        <v>203</v>
+      </c>
+      <c r="E15" t="s">
+        <v>228</v>
+      </c>
+      <c r="F15" t="s">
+        <v>221</v>
+      </c>
+      <c r="L15" t="s">
+        <v>146</v>
+      </c>
+      <c r="M15" s="5">
+        <v>33502</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="S15">
+        <f>W5</f>
+        <v>1</v>
+      </c>
+      <c r="T15" s="5">
+        <v>38430</v>
+      </c>
+      <c r="Y15" s="32"/>
+    </row>
+    <row r="16" spans="2:29">
+      <c r="B16" s="30">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
+        <v>206</v>
+      </c>
+      <c r="D16" t="s">
+        <v>215</v>
+      </c>
+      <c r="E16" t="s">
+        <v>220</v>
+      </c>
+      <c r="F16" t="s">
+        <v>227</v>
+      </c>
+      <c r="L16" t="s">
+        <v>146</v>
+      </c>
+      <c r="M16" s="5">
+        <v>29285</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="S16">
+        <f>W6</f>
+        <v>2</v>
+      </c>
+      <c r="T16" s="5">
+        <v>40133</v>
+      </c>
+    </row>
+    <row r="17" spans="2:29">
+      <c r="B17" s="30">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s">
+        <v>216</v>
+      </c>
+      <c r="D17" t="s">
+        <v>212</v>
+      </c>
+      <c r="E17" t="s">
+        <v>238</v>
+      </c>
+      <c r="F17" t="s">
+        <v>240</v>
+      </c>
+      <c r="L17" t="s">
+        <v>33</v>
+      </c>
+      <c r="M17" s="5">
+        <v>32433</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="S17">
+        <f>W6</f>
+        <v>2</v>
+      </c>
+      <c r="T17" s="5">
+        <v>40969</v>
+      </c>
+    </row>
+    <row r="18" spans="2:29">
+      <c r="B18" s="30">
+        <v>13</v>
+      </c>
+      <c r="C18" t="s">
+        <v>202</v>
+      </c>
+      <c r="D18" t="s">
+        <v>211</v>
+      </c>
+      <c r="E18" t="s">
+        <v>231</v>
+      </c>
+      <c r="L18" t="s">
+        <v>33</v>
+      </c>
+      <c r="M18" s="5">
+        <v>31513</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="S18">
+        <f>W6</f>
+        <v>2</v>
+      </c>
+      <c r="T18" s="5">
+        <v>38070</v>
+      </c>
+    </row>
+    <row r="19" spans="2:29">
+      <c r="B19" s="30">
+        <v>14</v>
+      </c>
+      <c r="C19" t="s">
+        <v>259</v>
+      </c>
+      <c r="D19" t="s">
+        <v>268</v>
+      </c>
+      <c r="E19" t="s">
+        <v>351</v>
+      </c>
+      <c r="F19" t="s">
+        <v>361</v>
+      </c>
+      <c r="L19" t="s">
+        <v>33</v>
+      </c>
+      <c r="M19" s="5">
+        <v>33019</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="S19">
+        <f>W6</f>
+        <v>2</v>
+      </c>
+      <c r="T19" s="5">
+        <v>37263</v>
+      </c>
+    </row>
+    <row r="20" spans="2:29" ht="16">
+      <c r="B20" s="30">
+        <v>15</v>
+      </c>
+      <c r="C20" t="s">
+        <v>265</v>
+      </c>
+      <c r="D20" s="22"/>
+      <c r="E20" t="s">
+        <v>358</v>
+      </c>
+      <c r="F20" t="s">
+        <v>359</v>
+      </c>
+      <c r="L20" t="s">
+        <v>33</v>
+      </c>
+      <c r="M20" s="5">
+        <v>30186</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="S20">
+        <f>W6</f>
+        <v>2</v>
+      </c>
+      <c r="T20" s="5">
+        <v>38235</v>
+      </c>
+    </row>
+    <row r="21" spans="2:29" ht="16">
+      <c r="B21" s="30">
+        <v>16</v>
+      </c>
+      <c r="C21" t="s">
+        <v>267</v>
+      </c>
+      <c r="D21" t="s">
+        <v>273</v>
+      </c>
+      <c r="E21" t="s">
+        <v>356</v>
+      </c>
+      <c r="L21" t="s">
+        <v>146</v>
+      </c>
+      <c r="M21" s="5">
+        <v>25849</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="S21">
+        <f>W6</f>
+        <v>2</v>
+      </c>
+      <c r="T21" s="5">
+        <v>39289</v>
+      </c>
+      <c r="Y21" s="40"/>
+      <c r="Z21" s="41"/>
+      <c r="AA21" s="39"/>
+      <c r="AB21" s="32"/>
+      <c r="AC21" s="39"/>
+    </row>
+    <row r="22" spans="2:29">
+      <c r="B22" s="30">
+        <v>17</v>
+      </c>
+      <c r="C22" t="s">
+        <v>269</v>
+      </c>
+      <c r="D22" t="s">
+        <v>263</v>
+      </c>
+      <c r="E22" t="s">
+        <v>357</v>
+      </c>
+      <c r="F22" t="s">
+        <v>354</v>
+      </c>
+      <c r="L22" t="s">
+        <v>146</v>
+      </c>
+      <c r="M22" s="5">
+        <v>33004</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="S22">
+        <f>W6</f>
+        <v>2</v>
+      </c>
+      <c r="T22" s="5">
+        <v>40454</v>
+      </c>
+      <c r="Y22" s="40"/>
+      <c r="Z22" s="41"/>
+      <c r="AA22" s="39"/>
+      <c r="AB22" s="18"/>
+      <c r="AC22" s="39"/>
+    </row>
+    <row r="23" spans="2:29" ht="16">
+      <c r="B23" s="30">
+        <v>18</v>
+      </c>
+      <c r="C23" t="s">
+        <v>271</v>
+      </c>
+      <c r="D23" t="s">
+        <v>262</v>
+      </c>
+      <c r="E23" t="s">
+        <v>353</v>
+      </c>
+      <c r="L23" t="s">
+        <v>33</v>
+      </c>
+      <c r="M23" s="5">
+        <v>26259</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="S23">
+        <f>W6</f>
+        <v>2</v>
+      </c>
+      <c r="T23" s="5">
+        <v>38300</v>
+      </c>
+      <c r="Y23" s="32"/>
+      <c r="Z23" s="18"/>
+      <c r="AA23" s="32"/>
+      <c r="AB23" s="32"/>
+      <c r="AC23" s="32"/>
+    </row>
+    <row r="24" spans="2:29">
+      <c r="B24" s="30">
+        <v>19</v>
+      </c>
+      <c r="C24" t="s">
+        <v>272</v>
+      </c>
+      <c r="D24" t="s">
+        <v>261</v>
+      </c>
+      <c r="E24" t="s">
+        <v>362</v>
+      </c>
+      <c r="F24" t="s">
+        <v>363</v>
+      </c>
+      <c r="L24" t="s">
+        <v>33</v>
+      </c>
+      <c r="M24" s="5">
+        <v>29270</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="S24">
+        <f>W6</f>
+        <v>2</v>
+      </c>
+      <c r="T24" s="5">
+        <v>37425</v>
+      </c>
+    </row>
+    <row r="25" spans="2:29">
+      <c r="B25" s="30">
+        <v>20</v>
+      </c>
+      <c r="C25" t="s">
+        <v>260</v>
+      </c>
+      <c r="E25" t="s">
+        <v>360</v>
+      </c>
+      <c r="L25" t="s">
+        <v>33</v>
+      </c>
+      <c r="M25" s="5">
+        <v>27293</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="S25">
+        <f>W6</f>
+        <v>2</v>
+      </c>
+      <c r="T25" s="5">
+        <v>40924</v>
+      </c>
+    </row>
+    <row r="26" spans="2:29">
+      <c r="B26" s="30">
+        <v>21</v>
+      </c>
+      <c r="C26" t="s">
+        <v>264</v>
+      </c>
+      <c r="E26" t="s">
+        <v>352</v>
+      </c>
+      <c r="F26" t="s">
+        <v>355</v>
+      </c>
+      <c r="L26" t="s">
+        <v>146</v>
+      </c>
+      <c r="M26" s="5">
+        <v>29579</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="S26">
+        <f>W6</f>
+        <v>2</v>
+      </c>
+      <c r="T26" s="5">
+        <v>38580</v>
+      </c>
+    </row>
+    <row r="27" spans="2:29">
+      <c r="B27" s="30">
+        <v>22</v>
+      </c>
+      <c r="C27" t="s">
+        <v>270</v>
+      </c>
+      <c r="E27" t="s">
+        <v>364</v>
+      </c>
+      <c r="L27" t="s">
+        <v>33</v>
+      </c>
+      <c r="M27" s="5">
+        <v>29476</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="S27">
+        <f>W6</f>
+        <v>2</v>
+      </c>
+      <c r="T27" s="5">
+        <v>36283</v>
+      </c>
+    </row>
+    <row r="28" spans="2:29">
+      <c r="B28" s="30">
+        <v>23</v>
+      </c>
+      <c r="C28" t="s">
+        <v>266</v>
+      </c>
+      <c r="E28" t="s">
+        <v>365</v>
+      </c>
+      <c r="F28" t="s">
+        <v>339</v>
+      </c>
+      <c r="L28" t="s">
+        <v>146</v>
+      </c>
+      <c r="M28" s="5">
+        <v>28045</v>
+      </c>
+      <c r="P28" s="27"/>
+      <c r="R28">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="S28">
+        <f>W7</f>
+        <v>3</v>
+      </c>
+      <c r="T28" s="5">
+        <v>39296</v>
+      </c>
+    </row>
+    <row r="29" spans="2:29">
+      <c r="B29" s="30">
+        <v>24</v>
+      </c>
+      <c r="C29" t="s">
+        <v>274</v>
+      </c>
+      <c r="D29" t="s">
+        <v>281</v>
+      </c>
+      <c r="E29" t="s">
+        <v>335</v>
+      </c>
+      <c r="L29" t="s">
+        <v>146</v>
+      </c>
+      <c r="M29" s="5">
+        <v>30376</v>
+      </c>
+      <c r="N29" t="s">
+        <v>34</v>
+      </c>
+      <c r="P29" s="27"/>
+      <c r="R29">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="S29">
+        <f>W7</f>
+        <v>3</v>
+      </c>
+      <c r="T29" s="5">
+        <v>40734</v>
+      </c>
+    </row>
+    <row r="30" spans="2:29">
+      <c r="B30" s="30">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>287</v>
+      </c>
+      <c r="D30" t="s">
+        <v>285</v>
+      </c>
+      <c r="E30" t="s">
+        <v>345</v>
+      </c>
+      <c r="F30" t="s">
+        <v>337</v>
+      </c>
+      <c r="L30" t="s">
+        <v>146</v>
+      </c>
+      <c r="M30" s="5">
+        <v>28028</v>
+      </c>
+      <c r="N30" t="s">
+        <v>34</v>
+      </c>
+      <c r="P30" s="27"/>
+      <c r="R30">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="S30">
+        <f>W7</f>
+        <v>3</v>
+      </c>
+      <c r="T30" s="5">
+        <v>38098</v>
+      </c>
+    </row>
+    <row r="31" spans="2:29">
+      <c r="B31" s="30">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>290</v>
+      </c>
+      <c r="E31" t="s">
+        <v>341</v>
+      </c>
+      <c r="L31" t="s">
+        <v>146</v>
+      </c>
+      <c r="M31" s="5">
+        <v>33101</v>
+      </c>
+      <c r="N31" t="s">
+        <v>34</v>
+      </c>
+      <c r="P31" s="27"/>
+      <c r="R31">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="S31">
+        <f>W7</f>
+        <v>3</v>
+      </c>
+      <c r="T31" s="5">
+        <v>37263</v>
+      </c>
+    </row>
+    <row r="32" spans="2:29">
+      <c r="B32" s="30">
+        <v>27</v>
+      </c>
+      <c r="C32" t="s">
+        <v>280</v>
+      </c>
+      <c r="D32" t="s">
+        <v>277</v>
+      </c>
+      <c r="E32" t="s">
+        <v>344</v>
+      </c>
+      <c r="F32" t="s">
+        <v>343</v>
+      </c>
+      <c r="L32" t="s">
+        <v>146</v>
+      </c>
+      <c r="M32" s="5">
+        <v>27663</v>
+      </c>
+      <c r="N32" t="s">
+        <v>34</v>
+      </c>
+      <c r="P32" s="27"/>
+      <c r="R32">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="S32">
+        <f>W7</f>
+        <v>3</v>
+      </c>
+      <c r="T32" s="5">
+        <v>37763</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29">
+      <c r="B33" s="30">
+        <v>28</v>
+      </c>
+      <c r="C33" t="s">
+        <v>288</v>
+      </c>
+      <c r="E33" t="s">
+        <v>338</v>
+      </c>
+      <c r="L33" t="s">
+        <v>146</v>
+      </c>
+      <c r="M33" s="5">
+        <v>29158</v>
+      </c>
+      <c r="N33" t="s">
+        <v>34</v>
+      </c>
+      <c r="P33" s="27"/>
+      <c r="R33">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="S33">
+        <f>W7</f>
+        <v>3</v>
+      </c>
+      <c r="T33" s="5">
+        <v>39003</v>
+      </c>
+    </row>
+    <row r="34" spans="2:29">
+      <c r="B34" s="30">
+        <v>29</v>
+      </c>
+      <c r="C34" t="s">
+        <v>284</v>
+      </c>
+      <c r="D34" t="s">
+        <v>286</v>
+      </c>
+      <c r="E34" t="s">
+        <v>348</v>
+      </c>
+      <c r="F34" t="s">
+        <v>340</v>
+      </c>
+      <c r="L34" t="s">
+        <v>146</v>
+      </c>
+      <c r="M34" s="5">
+        <v>33991</v>
+      </c>
+      <c r="N34" t="s">
+        <v>34</v>
+      </c>
+      <c r="P34" s="27"/>
+      <c r="R34">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="S34">
+        <f>W7</f>
+        <v>3</v>
+      </c>
+      <c r="T34" s="5">
+        <v>37320</v>
+      </c>
+      <c r="X34" s="5"/>
+    </row>
+    <row r="35" spans="2:29" ht="16">
+      <c r="B35" s="30">
+        <v>30</v>
+      </c>
+      <c r="C35" t="s">
+        <v>276</v>
+      </c>
+      <c r="D35" t="s">
+        <v>291</v>
+      </c>
+      <c r="E35" t="s">
+        <v>346</v>
+      </c>
+      <c r="L35" t="s">
+        <v>146</v>
+      </c>
+      <c r="M35" s="5">
+        <v>29669</v>
+      </c>
+      <c r="N35" t="s">
+        <v>34</v>
+      </c>
+      <c r="P35" s="27"/>
+      <c r="R35">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="S35">
+        <f>W7</f>
+        <v>3</v>
+      </c>
+      <c r="T35" s="5">
+        <v>38043</v>
+      </c>
+      <c r="Y35" s="40"/>
+      <c r="Z35" s="39"/>
+      <c r="AA35" s="39"/>
+      <c r="AB35" s="32"/>
+      <c r="AC35" s="39"/>
+    </row>
+    <row r="36" spans="2:29" ht="16">
+      <c r="B36" s="30">
+        <v>31</v>
+      </c>
+      <c r="C36" t="s">
+        <v>279</v>
+      </c>
+      <c r="E36" t="s">
+        <v>349</v>
+      </c>
+      <c r="F36" t="s">
+        <v>347</v>
+      </c>
+      <c r="L36" t="s">
+        <v>146</v>
+      </c>
+      <c r="M36" s="5">
+        <v>30458</v>
+      </c>
+      <c r="N36" t="s">
+        <v>34</v>
+      </c>
+      <c r="P36" s="27"/>
+      <c r="R36">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="S36">
+        <f>W7</f>
+        <v>3</v>
+      </c>
+      <c r="T36" s="5">
+        <v>38942</v>
+      </c>
+      <c r="Y36" s="40"/>
+      <c r="Z36" s="39"/>
+      <c r="AA36" s="39"/>
+      <c r="AB36" s="32"/>
+      <c r="AC36" s="39"/>
+    </row>
+    <row r="37" spans="2:29" ht="16">
+      <c r="B37" s="30">
+        <v>32</v>
+      </c>
+      <c r="C37" t="s">
+        <v>275</v>
+      </c>
+      <c r="D37" t="s">
+        <v>283</v>
+      </c>
+      <c r="E37" t="s">
+        <v>336</v>
+      </c>
+      <c r="F37" t="s">
+        <v>350</v>
+      </c>
+      <c r="L37" t="s">
+        <v>33</v>
+      </c>
+      <c r="M37" s="5">
+        <v>27319</v>
+      </c>
+      <c r="N37" t="s">
+        <v>34</v>
+      </c>
+      <c r="P37" s="27"/>
+      <c r="R37">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="S37">
+        <f>W7</f>
+        <v>3</v>
+      </c>
+      <c r="T37" s="5">
+        <v>40979</v>
+      </c>
+      <c r="Y37" s="39"/>
+      <c r="Z37" s="39"/>
+      <c r="AA37" s="39"/>
+      <c r="AB37" s="32"/>
+      <c r="AC37" s="39"/>
+    </row>
+    <row r="38" spans="2:29" ht="16">
+      <c r="B38" s="30">
+        <v>33</v>
+      </c>
+      <c r="C38" t="s">
+        <v>289</v>
+      </c>
+      <c r="D38" t="s">
+        <v>278</v>
+      </c>
+      <c r="E38" t="s">
+        <v>342</v>
+      </c>
+      <c r="L38" t="s">
+        <v>146</v>
+      </c>
+      <c r="M38" s="5">
+        <v>32681</v>
+      </c>
+      <c r="N38" t="s">
+        <v>34</v>
+      </c>
+      <c r="P38" s="27"/>
+      <c r="R38">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="S38">
+        <f>W8</f>
+        <v>4</v>
+      </c>
+      <c r="T38" s="5">
+        <v>38948</v>
+      </c>
+      <c r="Y38" s="39"/>
+      <c r="Z38" s="39"/>
+      <c r="AA38" s="39"/>
+      <c r="AB38" s="32"/>
+      <c r="AC38" s="39"/>
+    </row>
+    <row r="39" spans="2:29">
+      <c r="B39" s="30">
+        <v>34</v>
+      </c>
+      <c r="C39" t="s">
+        <v>282</v>
+      </c>
+      <c r="D39" t="s">
+        <v>307</v>
+      </c>
+      <c r="E39" t="s">
+        <v>316</v>
+      </c>
+      <c r="L39" t="s">
+        <v>33</v>
+      </c>
+      <c r="M39" s="5">
+        <v>26156</v>
+      </c>
+      <c r="N39" t="s">
+        <v>34</v>
+      </c>
+      <c r="P39" s="27"/>
+      <c r="R39">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="S39">
+        <f>W8</f>
+        <v>4</v>
+      </c>
+      <c r="T39" s="5">
+        <v>36510</v>
+      </c>
+    </row>
+    <row r="40" spans="2:29">
+      <c r="B40" s="30">
+        <v>35</v>
+      </c>
+      <c r="C40" t="s">
+        <v>292</v>
+      </c>
+      <c r="D40" t="s">
+        <v>309</v>
+      </c>
+      <c r="E40" t="s">
+        <v>327</v>
+      </c>
+      <c r="F40" t="s">
+        <v>328</v>
+      </c>
+      <c r="L40" t="s">
+        <v>33</v>
+      </c>
+      <c r="M40" s="5">
+        <v>27428</v>
+      </c>
+      <c r="N40" t="s">
+        <v>370</v>
+      </c>
+      <c r="P40" s="27"/>
+      <c r="R40">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="S40">
+        <f>W8</f>
+        <v>4</v>
+      </c>
+      <c r="T40" s="5">
+        <v>38557</v>
+      </c>
+    </row>
+    <row r="41" spans="2:29">
+      <c r="B41" s="30">
+        <v>36</v>
+      </c>
+      <c r="C41" t="s">
+        <v>295</v>
+      </c>
+      <c r="D41" t="s">
+        <v>293</v>
+      </c>
+      <c r="E41" t="s">
+        <v>324</v>
+      </c>
+      <c r="F41" t="s">
+        <v>368</v>
+      </c>
+      <c r="L41" t="s">
+        <v>33</v>
+      </c>
+      <c r="M41" s="5">
+        <v>31144</v>
+      </c>
+      <c r="N41" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q41" s="27"/>
+      <c r="R41">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="S41">
+        <f>W8</f>
+        <v>4</v>
+      </c>
+      <c r="T41" s="5">
+        <v>37790</v>
+      </c>
+    </row>
+    <row r="42" spans="2:29">
+      <c r="B42" s="30">
+        <v>37</v>
+      </c>
+      <c r="C42" t="s">
+        <v>303</v>
+      </c>
+      <c r="E42" t="s">
+        <v>321</v>
+      </c>
+      <c r="L42" t="s">
+        <v>33</v>
+      </c>
+      <c r="M42" s="5">
+        <v>26735</v>
+      </c>
+      <c r="N42" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q42" s="27"/>
+      <c r="R42">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="S42">
+        <f>W8</f>
+        <v>4</v>
+      </c>
+      <c r="T42" s="5">
+        <v>40420</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29">
+      <c r="B43" s="30">
+        <v>38</v>
+      </c>
+      <c r="C43" t="s">
+        <v>305</v>
+      </c>
+      <c r="E43" t="s">
+        <v>330</v>
+      </c>
+      <c r="F43" t="s">
+        <v>325</v>
+      </c>
+      <c r="L43" t="s">
+        <v>146</v>
+      </c>
+      <c r="M43" s="5">
+        <v>27127</v>
+      </c>
+      <c r="N43" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q43" s="27"/>
+      <c r="R43">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="S43">
+        <f>W8</f>
+        <v>4</v>
+      </c>
+      <c r="T43" s="5">
+        <v>39952</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29">
+      <c r="B44" s="30">
+        <v>39</v>
+      </c>
+      <c r="C44" t="s">
+        <v>297</v>
+      </c>
+      <c r="D44" t="s">
+        <v>315</v>
+      </c>
+      <c r="E44" s="27" t="s">
+        <v>321</v>
+      </c>
+      <c r="F44" t="s">
+        <v>333</v>
+      </c>
+      <c r="L44" t="s">
+        <v>33</v>
+      </c>
+      <c r="M44" s="5">
+        <v>27203</v>
+      </c>
+      <c r="N44" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q44" s="27"/>
+      <c r="R44">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="S44">
+        <f>W8</f>
+        <v>4</v>
+      </c>
+      <c r="T44" s="5">
+        <v>37249</v>
+      </c>
+      <c r="Y44" s="39"/>
+      <c r="Z44" s="40"/>
+      <c r="AA44" s="39"/>
+      <c r="AB44" s="18"/>
+      <c r="AC44" s="39"/>
+    </row>
+    <row r="45" spans="2:29">
+      <c r="B45" s="30">
+        <v>40</v>
+      </c>
+      <c r="C45" t="s">
+        <v>299</v>
+      </c>
+      <c r="E45" t="s">
+        <v>319</v>
+      </c>
+      <c r="L45" t="s">
+        <v>33</v>
+      </c>
+      <c r="M45" s="5">
+        <v>30100</v>
+      </c>
+      <c r="N45" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q45" s="27"/>
+      <c r="R45">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="S45">
+        <f>W8</f>
+        <v>4</v>
+      </c>
+      <c r="T45" s="5">
+        <v>39371</v>
+      </c>
+      <c r="Y45" s="39"/>
+      <c r="Z45" s="40"/>
+      <c r="AA45" s="39"/>
+      <c r="AB45" s="18"/>
+      <c r="AC45" s="39"/>
+    </row>
+    <row r="46" spans="2:29">
+      <c r="B46" s="30">
+        <v>41</v>
+      </c>
+      <c r="C46" t="s">
+        <v>300</v>
+      </c>
+      <c r="E46" t="s">
+        <v>323</v>
+      </c>
+      <c r="F46" t="s">
+        <v>319</v>
+      </c>
+      <c r="L46" t="s">
+        <v>33</v>
+      </c>
+      <c r="M46" s="5">
+        <v>34296</v>
+      </c>
+      <c r="N46" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q46" s="27"/>
+      <c r="R46">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="S46">
+        <f>W9</f>
+        <v>5</v>
+      </c>
+      <c r="T46" s="5">
+        <v>38123</v>
+      </c>
+      <c r="Y46" s="39"/>
+      <c r="Z46" s="40"/>
+      <c r="AA46" s="39"/>
+      <c r="AB46" s="18"/>
+      <c r="AC46" s="39"/>
+    </row>
+    <row r="47" spans="2:29">
+      <c r="B47" s="30">
+        <v>42</v>
+      </c>
+      <c r="C47" t="s">
+        <v>301</v>
+      </c>
+      <c r="D47" t="s">
+        <v>314</v>
+      </c>
+      <c r="E47" t="s">
+        <v>318</v>
+      </c>
+      <c r="L47" t="s">
+        <v>33</v>
+      </c>
+      <c r="M47" s="5">
+        <v>25916</v>
+      </c>
+      <c r="N47" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q47" s="27"/>
+      <c r="R47">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="S47">
+        <f>W9</f>
+        <v>5</v>
+      </c>
+      <c r="T47" s="5">
+        <v>39947</v>
+      </c>
+      <c r="Y47" s="39"/>
+      <c r="Z47" s="40"/>
+      <c r="AA47" s="39"/>
+      <c r="AB47" s="18"/>
+      <c r="AC47" s="39"/>
+    </row>
+    <row r="48" spans="2:29" ht="16">
+      <c r="B48" s="30">
+        <v>43</v>
+      </c>
+      <c r="C48" t="s">
+        <v>304</v>
+      </c>
+      <c r="D48" s="23"/>
+      <c r="E48" t="s">
+        <v>326</v>
+      </c>
+      <c r="L48" t="s">
+        <v>33</v>
+      </c>
+      <c r="M48" s="5">
+        <v>29056</v>
+      </c>
+      <c r="N48" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q48" s="27"/>
+      <c r="R48">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="S48">
+        <f>W9</f>
+        <v>5</v>
+      </c>
+      <c r="T48" s="5">
+        <v>37475</v>
+      </c>
+      <c r="Y48" s="32"/>
+      <c r="Z48" s="18"/>
+      <c r="AA48" s="32"/>
+      <c r="AB48" s="32"/>
+      <c r="AC48" s="32"/>
+    </row>
+    <row r="49" spans="1:29">
+      <c r="B49" s="30">
+        <v>44</v>
+      </c>
+      <c r="C49" t="s">
+        <v>302</v>
+      </c>
+      <c r="D49" t="s">
+        <v>311</v>
+      </c>
+      <c r="E49" t="s">
+        <v>320</v>
+      </c>
+      <c r="L49" t="s">
+        <v>33</v>
+      </c>
+      <c r="M49" s="5">
+        <v>29664</v>
+      </c>
+      <c r="N49" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q49" s="27"/>
+      <c r="R49">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="S49">
+        <f>W9</f>
+        <v>5</v>
+      </c>
+      <c r="T49" s="5">
+        <v>40216</v>
+      </c>
+    </row>
+    <row r="50" spans="1:29">
+      <c r="B50" s="30">
+        <v>45</v>
+      </c>
+      <c r="C50" t="s">
+        <v>303</v>
+      </c>
+      <c r="D50" t="s">
+        <v>308</v>
+      </c>
+      <c r="E50" t="s">
+        <v>317</v>
+      </c>
+      <c r="F50" t="s">
+        <v>369</v>
+      </c>
+      <c r="L50" t="s">
+        <v>33</v>
+      </c>
+      <c r="M50" s="5">
+        <v>33523</v>
+      </c>
+      <c r="N50" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q50" s="27"/>
+      <c r="R50">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="S50">
+        <f>W9</f>
+        <v>5</v>
+      </c>
+      <c r="T50" s="5">
+        <v>38769</v>
+      </c>
+    </row>
+    <row r="51" spans="1:29">
+      <c r="B51" s="30">
+        <v>46</v>
+      </c>
+      <c r="C51" t="s">
+        <v>312</v>
+      </c>
+      <c r="E51" t="s">
+        <v>334</v>
+      </c>
+      <c r="L51" t="s">
+        <v>33</v>
+      </c>
+      <c r="M51" s="5">
+        <v>31614</v>
+      </c>
+      <c r="N51" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q51" s="27"/>
+      <c r="R51">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="S51">
+        <f>W9</f>
+        <v>5</v>
+      </c>
+      <c r="T51" s="5">
+        <v>36508</v>
+      </c>
+    </row>
+    <row r="52" spans="1:29">
+      <c r="B52" s="30">
+        <v>47</v>
+      </c>
+      <c r="C52" t="s">
+        <v>310</v>
+      </c>
+      <c r="D52" t="s">
+        <v>313</v>
+      </c>
+      <c r="E52" t="s">
+        <v>331</v>
+      </c>
+      <c r="L52" t="s">
+        <v>33</v>
+      </c>
+      <c r="M52" s="5">
+        <v>30980</v>
+      </c>
+      <c r="N52" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q52" s="27"/>
+      <c r="R52">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="S52">
+        <f>W9</f>
+        <v>5</v>
+      </c>
+      <c r="T52" s="5">
+        <v>39594</v>
+      </c>
+    </row>
+    <row r="53" spans="1:29">
+      <c r="B53" s="30">
+        <v>48</v>
+      </c>
+      <c r="C53" t="s">
+        <v>296</v>
+      </c>
+      <c r="E53" t="s">
+        <v>366</v>
+      </c>
+      <c r="F53" t="s">
+        <v>367</v>
+      </c>
+      <c r="L53" t="s">
+        <v>33</v>
+      </c>
+      <c r="M53" s="5">
+        <v>34018</v>
+      </c>
+      <c r="N53" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q53" s="27"/>
+      <c r="R53">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="S53">
+        <f>W9</f>
+        <v>5</v>
+      </c>
+      <c r="T53" s="5">
+        <v>36457</v>
+      </c>
+    </row>
+    <row r="54" spans="1:29" ht="16">
+      <c r="B54" s="30">
+        <v>49</v>
+      </c>
+      <c r="C54" t="s">
+        <v>294</v>
+      </c>
+      <c r="E54" t="s">
+        <v>322</v>
+      </c>
+      <c r="L54" t="s">
+        <v>33</v>
+      </c>
+      <c r="M54" s="5">
+        <v>27723</v>
+      </c>
+      <c r="N54" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q54" s="27"/>
+      <c r="R54">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="S54">
+        <f>W9</f>
+        <v>5</v>
+      </c>
+      <c r="T54" s="5">
+        <v>36604</v>
+      </c>
+      <c r="Y54" s="39"/>
+      <c r="Z54" s="40"/>
+      <c r="AA54" s="39"/>
+      <c r="AB54" s="32"/>
+      <c r="AC54" s="39"/>
+    </row>
+    <row r="55" spans="1:29" ht="16">
+      <c r="B55" s="30">
+        <v>50</v>
+      </c>
+      <c r="C55" t="s">
+        <v>298</v>
+      </c>
+      <c r="D55" t="s">
+        <v>306</v>
+      </c>
+      <c r="E55" t="s">
+        <v>332</v>
+      </c>
+      <c r="F55" t="s">
+        <v>329</v>
+      </c>
+      <c r="L55" t="s">
+        <v>33</v>
+      </c>
+      <c r="M55" s="5">
+        <v>32705</v>
+      </c>
+      <c r="N55" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q55" s="27"/>
+      <c r="R55">
+        <v>51</v>
+      </c>
+      <c r="S55">
+        <v>6</v>
+      </c>
+      <c r="T55" s="5">
+        <v>36050</v>
+      </c>
+      <c r="Y55" s="39"/>
+      <c r="Z55" s="40"/>
+      <c r="AA55" s="39"/>
+      <c r="AB55" s="32"/>
+      <c r="AC55" s="39"/>
+    </row>
+    <row r="56" spans="1:29" ht="19">
+      <c r="A56" t="s">
+        <v>386</v>
+      </c>
+      <c r="B56" s="30">
+        <v>51</v>
+      </c>
+      <c r="C56" s="44" t="s">
+        <v>384</v>
+      </c>
+      <c r="E56" t="s">
+        <v>385</v>
+      </c>
+      <c r="G56" s="25"/>
+      <c r="L56" t="s">
+        <v>33</v>
+      </c>
+      <c r="M56" s="5">
+        <v>26817</v>
+      </c>
+      <c r="N56" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q56" s="27"/>
+      <c r="R56">
+        <f>B57</f>
+        <v>52</v>
+      </c>
+      <c r="S56">
+        <f>W10</f>
+        <v>6</v>
+      </c>
+      <c r="T56" s="5">
+        <v>38761</v>
+      </c>
+    </row>
+    <row r="57" spans="1:29">
+      <c r="A57" s="46" t="s">
+        <v>403</v>
+      </c>
+      <c r="B57" s="30">
+        <v>52</v>
+      </c>
+      <c r="C57" t="s">
+        <v>387</v>
+      </c>
+      <c r="E57" t="s">
+        <v>402</v>
+      </c>
+      <c r="L57" t="s">
+        <v>146</v>
+      </c>
+      <c r="N57" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q57" s="27"/>
+      <c r="R57">
+        <f>B58</f>
+        <v>53</v>
+      </c>
+      <c r="S57">
+        <f>W10</f>
+        <v>6</v>
+      </c>
+      <c r="T57" s="5">
+        <v>37712</v>
+      </c>
+    </row>
+    <row r="58" spans="1:29" ht="15" customHeight="1">
+      <c r="A58" s="46" t="s">
+        <v>403</v>
+      </c>
+      <c r="B58" s="30">
+        <v>53</v>
+      </c>
+      <c r="C58" t="s">
+        <v>388</v>
+      </c>
+      <c r="E58" t="s">
+        <v>389</v>
+      </c>
+      <c r="G58" s="25"/>
+      <c r="L58" t="s">
+        <v>146</v>
+      </c>
+      <c r="N58" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q58" s="27"/>
+      <c r="R58">
+        <f>B59</f>
+        <v>54</v>
+      </c>
+      <c r="S58">
+        <f>W10</f>
+        <v>6</v>
+      </c>
+      <c r="T58" s="5">
+        <v>39295</v>
+      </c>
+    </row>
+    <row r="59" spans="1:29" ht="15" customHeight="1">
+      <c r="A59" s="46" t="s">
+        <v>403</v>
+      </c>
+      <c r="B59" s="30">
+        <v>54</v>
+      </c>
+      <c r="C59" t="s">
+        <v>390</v>
+      </c>
+      <c r="E59" t="s">
+        <v>392</v>
+      </c>
+      <c r="G59" s="25"/>
+      <c r="L59" t="s">
+        <v>33</v>
+      </c>
+      <c r="N59" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q59" s="27"/>
+      <c r="R59">
+        <f>B60</f>
+        <v>55</v>
+      </c>
+      <c r="S59">
+        <f>W10</f>
+        <v>6</v>
+      </c>
+      <c r="T59" s="5">
+        <v>36493</v>
+      </c>
+    </row>
+    <row r="60" spans="1:29" ht="19">
+      <c r="A60" s="46" t="s">
+        <v>403</v>
+      </c>
+      <c r="B60" s="30">
+        <v>55</v>
+      </c>
+      <c r="C60" t="s">
+        <v>393</v>
+      </c>
+      <c r="E60" t="s">
+        <v>394</v>
+      </c>
+      <c r="G60" s="25"/>
+      <c r="L60" t="s">
+        <v>146</v>
+      </c>
+      <c r="N60" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q60" s="27"/>
+      <c r="R60">
+        <f>B61</f>
+        <v>56</v>
+      </c>
+      <c r="S60">
+        <f>W10</f>
+        <v>6</v>
+      </c>
+      <c r="T60" s="5">
+        <v>38808</v>
+      </c>
+    </row>
+    <row r="61" spans="1:29" ht="19">
+      <c r="A61" s="46" t="s">
+        <v>403</v>
+      </c>
+      <c r="B61" s="30">
+        <v>56</v>
+      </c>
+      <c r="C61" t="s">
+        <v>395</v>
+      </c>
+      <c r="E61" t="s">
+        <v>396</v>
+      </c>
+      <c r="G61" s="25"/>
+      <c r="L61" t="s">
+        <v>449</v>
+      </c>
+      <c r="N61" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q61" s="27"/>
+      <c r="R61">
+        <f>B62</f>
+        <v>57</v>
+      </c>
+      <c r="S61">
+        <f>W10</f>
+        <v>6</v>
+      </c>
+      <c r="T61" s="5">
+        <v>37956</v>
+      </c>
+    </row>
+    <row r="62" spans="1:29">
+      <c r="A62" s="46" t="s">
+        <v>403</v>
+      </c>
+      <c r="B62" s="30">
+        <v>57</v>
+      </c>
+      <c r="C62" t="s">
+        <v>398</v>
+      </c>
+      <c r="E62" t="s">
+        <v>397</v>
+      </c>
+      <c r="L62" t="s">
+        <v>449</v>
+      </c>
+      <c r="N62" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q62" s="27"/>
+      <c r="R62">
+        <f>B63</f>
+        <v>58</v>
+      </c>
+      <c r="S62">
+        <f>W10</f>
+        <v>6</v>
+      </c>
+      <c r="T62" s="5">
+        <v>39808</v>
+      </c>
+    </row>
+    <row r="63" spans="1:29" ht="19">
+      <c r="A63" s="46" t="s">
+        <v>403</v>
+      </c>
+      <c r="B63" s="30">
+        <v>58</v>
+      </c>
+      <c r="C63" t="s">
+        <v>399</v>
+      </c>
+      <c r="D63" t="s">
+        <v>391</v>
+      </c>
+      <c r="E63" t="s">
+        <v>400</v>
+      </c>
+      <c r="G63" s="25"/>
+      <c r="L63" t="s">
+        <v>146</v>
+      </c>
+      <c r="N63" t="s">
+        <v>163</v>
+      </c>
+      <c r="R63">
+        <f>B64</f>
+        <v>59</v>
+      </c>
+      <c r="S63">
+        <f>W10</f>
+        <v>6</v>
+      </c>
+      <c r="T63" s="5">
+        <v>37791</v>
+      </c>
+    </row>
+    <row r="64" spans="1:29" ht="19">
+      <c r="A64" s="46" t="s">
+        <v>403</v>
+      </c>
+      <c r="B64" s="30">
+        <v>59</v>
+      </c>
+      <c r="C64" t="s">
+        <v>401</v>
+      </c>
+      <c r="E64" t="s">
+        <v>42</v>
+      </c>
+      <c r="G64" s="25"/>
+      <c r="H64" s="26"/>
+      <c r="L64" t="s">
+        <v>146</v>
+      </c>
+      <c r="N64" t="s">
+        <v>163</v>
+      </c>
+      <c r="R64">
+        <f>B65</f>
+        <v>60</v>
+      </c>
+      <c r="S64">
+        <f>W11</f>
+        <v>7</v>
+      </c>
+      <c r="T64" s="5">
+        <v>40527</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" ht="19">
+      <c r="A65" s="45" t="s">
+        <v>451</v>
+      </c>
+      <c r="B65" s="30">
+        <v>60</v>
+      </c>
+      <c r="C65" t="s">
+        <v>405</v>
+      </c>
+      <c r="E65" t="s">
+        <v>406</v>
+      </c>
+      <c r="F65" s="27"/>
+      <c r="G65" s="25"/>
+      <c r="L65" t="s">
+        <v>146</v>
+      </c>
+      <c r="N65" t="s">
+        <v>163</v>
+      </c>
+      <c r="R65">
+        <f>B66</f>
+        <v>61</v>
+      </c>
+      <c r="S65">
+        <f>W11</f>
+        <v>7</v>
+      </c>
+      <c r="T65" s="5">
+        <v>36267</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20">
+      <c r="A66" s="45" t="s">
+        <v>451</v>
+      </c>
+      <c r="B66" s="30">
+        <v>61</v>
+      </c>
+      <c r="C66" t="s">
+        <v>407</v>
+      </c>
+      <c r="E66" t="s">
+        <v>408</v>
+      </c>
+      <c r="L66" t="s">
+        <v>146</v>
+      </c>
+      <c r="N66" t="s">
+        <v>163</v>
+      </c>
+      <c r="R66">
+        <f>B67</f>
+        <v>62</v>
+      </c>
+      <c r="S66">
+        <f>W11</f>
+        <v>7</v>
+      </c>
+      <c r="T66" s="5">
+        <v>39927</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" ht="19">
+      <c r="A67" s="45" t="s">
+        <v>451</v>
+      </c>
+      <c r="B67" s="30">
+        <v>62</v>
+      </c>
+      <c r="C67" t="s">
+        <v>409</v>
+      </c>
+      <c r="E67" t="s">
+        <v>410</v>
+      </c>
+      <c r="F67" t="s">
+        <v>411</v>
+      </c>
+      <c r="G67" s="25"/>
+      <c r="H67" s="26"/>
+      <c r="L67" t="s">
+        <v>33</v>
+      </c>
+      <c r="N67" t="s">
+        <v>163</v>
+      </c>
+      <c r="R67">
+        <f>B68</f>
+        <v>63</v>
+      </c>
+      <c r="S67">
+        <f>W11</f>
+        <v>7</v>
+      </c>
+      <c r="T67" s="5">
+        <v>37159</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" ht="19">
+      <c r="A68" s="45" t="s">
+        <v>451</v>
+      </c>
+      <c r="B68" s="30">
+        <v>63</v>
+      </c>
+      <c r="C68" s="27" t="s">
+        <v>412</v>
+      </c>
+      <c r="E68" t="s">
+        <v>413</v>
+      </c>
+      <c r="G68" s="25"/>
+      <c r="L68" t="s">
+        <v>33</v>
+      </c>
+      <c r="N68" t="s">
+        <v>163</v>
+      </c>
+      <c r="R68">
+        <f>B69</f>
+        <v>64</v>
+      </c>
+      <c r="S68">
+        <f>W11</f>
+        <v>7</v>
+      </c>
+      <c r="T68" s="5">
+        <v>36707</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" ht="19">
+      <c r="A69" s="45" t="s">
+        <v>451</v>
+      </c>
+      <c r="B69" s="30">
+        <v>64</v>
+      </c>
+      <c r="C69" t="s">
+        <v>414</v>
+      </c>
+      <c r="E69" t="s">
+        <v>415</v>
+      </c>
+      <c r="G69" s="25"/>
+      <c r="H69" s="26"/>
+      <c r="L69" t="s">
+        <v>33</v>
+      </c>
+      <c r="N69" t="s">
+        <v>163</v>
+      </c>
+      <c r="R69">
+        <f>B70</f>
+        <v>65</v>
+      </c>
+      <c r="S69">
+        <f>W11</f>
+        <v>7</v>
+      </c>
+      <c r="T69" s="5">
+        <v>36622</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20">
+      <c r="A70" s="45" t="s">
+        <v>451</v>
+      </c>
+      <c r="B70" s="30">
+        <v>65</v>
+      </c>
+      <c r="C70" t="s">
+        <v>416</v>
+      </c>
+      <c r="E70" t="s">
+        <v>417</v>
+      </c>
+      <c r="F70" t="s">
+        <v>418</v>
+      </c>
+      <c r="H70" s="18"/>
+      <c r="L70" t="s">
+        <v>33</v>
+      </c>
+      <c r="N70" t="s">
+        <v>163</v>
+      </c>
+      <c r="R70">
+        <f>B71</f>
+        <v>66</v>
+      </c>
+      <c r="S70">
+        <f>W11</f>
+        <v>7</v>
+      </c>
+      <c r="T70" s="5">
+        <v>39946</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" ht="19">
+      <c r="A71" s="45" t="s">
+        <v>451</v>
+      </c>
+      <c r="B71" s="30">
+        <v>66</v>
+      </c>
+      <c r="C71" t="s">
+        <v>419</v>
+      </c>
+      <c r="E71" t="s">
+        <v>420</v>
+      </c>
+      <c r="G71" s="25"/>
+      <c r="H71" s="18"/>
+      <c r="L71" t="s">
+        <v>33</v>
+      </c>
+      <c r="N71" t="s">
+        <v>163</v>
+      </c>
+      <c r="R71">
+        <f>B72</f>
+        <v>67</v>
+      </c>
+      <c r="S71">
+        <f>W11</f>
+        <v>7</v>
+      </c>
+      <c r="T71" s="5">
+        <v>37984</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" ht="19">
+      <c r="A72" s="45" t="s">
+        <v>451</v>
+      </c>
+      <c r="B72" s="30">
+        <v>67</v>
+      </c>
+      <c r="C72" t="s">
+        <v>421</v>
+      </c>
+      <c r="E72" t="s">
+        <v>422</v>
+      </c>
+      <c r="G72" s="25"/>
+      <c r="L72" t="s">
+        <v>146</v>
+      </c>
+      <c r="N72" t="s">
+        <v>163</v>
+      </c>
+      <c r="R72">
+        <f>B73</f>
+        <v>68</v>
+      </c>
+      <c r="S72">
+        <f>W12</f>
+        <v>8</v>
+      </c>
+      <c r="T72" s="5">
+        <v>37189</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" ht="19">
+      <c r="A73" s="45" t="s">
+        <v>451</v>
+      </c>
+      <c r="B73" s="30">
+        <v>68</v>
+      </c>
+      <c r="C73" t="s">
+        <v>423</v>
+      </c>
+      <c r="E73" t="s">
+        <v>424</v>
+      </c>
+      <c r="F73" t="s">
+        <v>425</v>
+      </c>
+      <c r="G73" s="25"/>
+      <c r="H73" s="18"/>
+      <c r="L73" t="s">
+        <v>33</v>
+      </c>
+      <c r="N73" t="s">
+        <v>163</v>
+      </c>
+      <c r="R73">
+        <f>B74</f>
+        <v>69</v>
+      </c>
+      <c r="S73">
+        <f>W12</f>
+        <v>8</v>
+      </c>
+      <c r="T73" s="5">
+        <v>36301</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" ht="19">
+      <c r="A74" s="45" t="s">
+        <v>451</v>
+      </c>
+      <c r="B74" s="30">
+        <v>69</v>
+      </c>
+      <c r="C74" t="s">
+        <v>426</v>
+      </c>
+      <c r="E74" t="s">
+        <v>427</v>
+      </c>
+      <c r="F74" t="s">
+        <v>428</v>
+      </c>
+      <c r="G74" s="25"/>
+      <c r="H74" s="18"/>
+      <c r="L74" t="s">
+        <v>33</v>
+      </c>
+      <c r="N74" t="s">
+        <v>163</v>
+      </c>
+      <c r="R74">
+        <f>B75</f>
+        <v>70</v>
+      </c>
+      <c r="S74">
+        <f>W12</f>
+        <v>8</v>
+      </c>
+      <c r="T74" s="5">
+        <v>37640</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" ht="19">
+      <c r="A75" s="45" t="s">
+        <v>451</v>
+      </c>
+      <c r="B75" s="30">
+        <v>70</v>
+      </c>
+      <c r="C75" t="s">
+        <v>429</v>
+      </c>
+      <c r="E75" t="s">
+        <v>430</v>
+      </c>
+      <c r="G75" s="25"/>
+      <c r="H75" s="18"/>
+      <c r="L75" t="s">
+        <v>146</v>
+      </c>
+      <c r="N75" t="s">
+        <v>163</v>
+      </c>
+      <c r="R75">
+        <f>B76</f>
+        <v>71</v>
+      </c>
+      <c r="S75">
+        <f>W12</f>
+        <v>8</v>
+      </c>
+      <c r="T75" s="5">
+        <v>39174</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20">
+      <c r="A76" s="45" t="s">
+        <v>451</v>
+      </c>
+      <c r="B76" s="30">
+        <v>71</v>
+      </c>
+      <c r="C76" t="s">
+        <v>431</v>
+      </c>
+      <c r="E76" t="s">
+        <v>432</v>
+      </c>
+      <c r="L76" t="s">
+        <v>33</v>
+      </c>
+      <c r="N76" t="s">
+        <v>163</v>
+      </c>
+      <c r="R76">
+        <f>B77</f>
+        <v>72</v>
+      </c>
+      <c r="S76">
+        <f>W12</f>
+        <v>8</v>
+      </c>
+      <c r="T76" s="5">
+        <v>38323</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20">
+      <c r="A77" s="45" t="s">
+        <v>451</v>
+      </c>
+      <c r="B77" s="30">
+        <v>72</v>
+      </c>
+      <c r="C77" t="s">
+        <v>433</v>
+      </c>
+      <c r="E77" t="s">
+        <v>434</v>
+      </c>
+      <c r="H77" s="18"/>
+      <c r="L77" t="s">
+        <v>146</v>
+      </c>
+      <c r="N77" t="s">
+        <v>163</v>
+      </c>
+      <c r="R77">
+        <f>B78</f>
+        <v>73</v>
+      </c>
+      <c r="S77">
+        <f>W12</f>
+        <v>8</v>
+      </c>
+      <c r="T77" s="5">
+        <v>36772</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20">
+      <c r="A78" s="45" t="s">
+        <v>451</v>
+      </c>
+      <c r="B78" s="30">
+        <v>73</v>
+      </c>
+      <c r="C78" t="s">
+        <v>435</v>
+      </c>
+      <c r="E78" t="s">
+        <v>436</v>
+      </c>
+      <c r="H78" s="18"/>
+      <c r="L78" t="s">
+        <v>146</v>
+      </c>
+      <c r="N78" t="s">
+        <v>163</v>
+      </c>
+      <c r="R78">
+        <f>B79</f>
+        <v>74</v>
+      </c>
+      <c r="S78">
+        <f>W12</f>
+        <v>8</v>
+      </c>
+      <c r="T78" s="5">
+        <v>36390</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20">
+      <c r="A79" s="45" t="s">
+        <v>451</v>
+      </c>
+      <c r="B79" s="30">
+        <v>74</v>
+      </c>
+      <c r="C79" t="s">
+        <v>435</v>
+      </c>
+      <c r="E79" t="s">
+        <v>437</v>
+      </c>
+      <c r="F79" t="s">
+        <v>438</v>
+      </c>
+      <c r="H79" s="18"/>
+      <c r="L79" t="s">
+        <v>146</v>
+      </c>
+      <c r="N79" t="s">
+        <v>163</v>
+      </c>
+      <c r="R79">
+        <f>B80</f>
+        <v>75</v>
+      </c>
+      <c r="S79">
+        <f>W12</f>
+        <v>8</v>
+      </c>
+      <c r="T79" s="5">
+        <v>38457</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20">
+      <c r="A80" s="45" t="s">
+        <v>451</v>
+      </c>
+      <c r="B80" s="30">
+        <v>75</v>
+      </c>
+      <c r="C80" t="s">
+        <v>439</v>
+      </c>
+      <c r="E80" t="s">
+        <v>440</v>
+      </c>
+      <c r="L80" t="s">
+        <v>33</v>
+      </c>
+      <c r="N80" t="s">
+        <v>163</v>
+      </c>
+      <c r="R80">
+        <f>B81</f>
+        <v>76</v>
+      </c>
+      <c r="S80">
+        <f>W12</f>
+        <v>8</v>
+      </c>
+      <c r="T80" s="5">
+        <v>38916</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20">
+      <c r="A81" s="45" t="s">
+        <v>451</v>
+      </c>
+      <c r="B81" s="30">
+        <v>76</v>
+      </c>
+      <c r="C81" t="s">
+        <v>441</v>
+      </c>
+      <c r="E81" t="s">
+        <v>442</v>
+      </c>
+      <c r="F81" t="s">
+        <v>443</v>
+      </c>
+      <c r="H81" s="18"/>
+      <c r="L81" t="s">
+        <v>33</v>
+      </c>
+      <c r="N81" t="s">
+        <v>163</v>
+      </c>
+      <c r="R81">
+        <f>B82</f>
+        <v>77</v>
+      </c>
+      <c r="S81">
+        <f>W12</f>
+        <v>8</v>
+      </c>
+      <c r="T81" s="5">
+        <v>37462</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20">
+      <c r="A82" s="45" t="s">
+        <v>451</v>
+      </c>
+      <c r="B82" s="30">
+        <v>77</v>
+      </c>
+      <c r="C82" t="s">
+        <v>444</v>
+      </c>
+      <c r="E82" t="s">
+        <v>445</v>
+      </c>
+      <c r="H82" s="18"/>
+      <c r="L82" t="s">
+        <v>146</v>
+      </c>
+      <c r="N82" t="s">
+        <v>163</v>
+      </c>
+      <c r="R82">
+        <f>B83</f>
+        <v>78</v>
+      </c>
+      <c r="S82">
+        <f>W12</f>
+        <v>8</v>
+      </c>
+      <c r="T82" s="5">
+        <v>38280</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20">
+      <c r="A83" s="45" t="s">
+        <v>451</v>
+      </c>
+      <c r="B83" s="30">
+        <v>78</v>
+      </c>
+      <c r="C83" t="s">
+        <v>144</v>
+      </c>
+      <c r="E83" t="s">
+        <v>446</v>
+      </c>
+      <c r="H83" s="18"/>
+      <c r="L83" t="s">
+        <v>146</v>
+      </c>
+      <c r="N83" t="s">
+        <v>163</v>
+      </c>
+      <c r="R83">
+        <f>B84</f>
+        <v>79</v>
+      </c>
+      <c r="S83">
+        <f>W12</f>
+        <v>8</v>
+      </c>
+      <c r="T83" s="5">
+        <v>41103</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20">
+      <c r="A84" s="45" t="s">
+        <v>451</v>
+      </c>
+      <c r="B84" s="30">
+        <v>79</v>
+      </c>
+      <c r="C84" t="s">
+        <v>447</v>
+      </c>
+      <c r="E84" t="s">
+        <v>448</v>
+      </c>
+      <c r="H84" s="18"/>
+      <c r="L84" t="s">
+        <v>146</v>
+      </c>
+      <c r="N84" t="s">
+        <v>163</v>
+      </c>
+      <c r="R84">
+        <f>B85</f>
+        <v>80</v>
+      </c>
+      <c r="S84">
+        <f>W13</f>
+        <v>9</v>
+      </c>
+      <c r="T84" s="5">
+        <v>37139</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20">
+      <c r="A85" s="48" t="s">
+        <v>450</v>
+      </c>
+      <c r="B85" s="30">
+        <v>80</v>
+      </c>
+      <c r="C85" t="s">
+        <v>452</v>
+      </c>
+      <c r="E85" t="s">
+        <v>464</v>
+      </c>
+      <c r="H85" s="18"/>
+      <c r="L85" t="s">
+        <v>33</v>
+      </c>
+      <c r="M85" s="5">
+        <v>31528</v>
+      </c>
+      <c r="N85" t="s">
+        <v>480</v>
+      </c>
+      <c r="R85">
+        <f>B86</f>
+        <v>81</v>
+      </c>
+      <c r="S85">
+        <f>W13</f>
+        <v>9</v>
+      </c>
+      <c r="T85" s="5">
+        <v>38218</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20">
+      <c r="A86" s="48" t="s">
+        <v>450</v>
+      </c>
+      <c r="B86" s="30">
+        <v>81</v>
+      </c>
+      <c r="C86" t="s">
+        <v>453</v>
+      </c>
+      <c r="E86" t="s">
+        <v>465</v>
+      </c>
+      <c r="H86" s="18"/>
+      <c r="L86" t="s">
+        <v>146</v>
+      </c>
+      <c r="M86" s="5">
+        <v>33449</v>
+      </c>
+      <c r="N86" t="s">
+        <v>480</v>
+      </c>
+      <c r="R86">
+        <f>B87</f>
+        <v>82</v>
+      </c>
+      <c r="S86">
+        <f>W13</f>
+        <v>9</v>
+      </c>
+      <c r="T86" s="5">
+        <v>37029</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20">
+      <c r="A87" s="48" t="s">
+        <v>450</v>
+      </c>
+      <c r="B87" s="30">
+        <v>82</v>
+      </c>
+      <c r="C87" t="s">
+        <v>454</v>
+      </c>
+      <c r="E87" t="s">
+        <v>466</v>
+      </c>
+      <c r="L87" t="s">
+        <v>146</v>
+      </c>
+      <c r="M87" s="5">
+        <v>32063</v>
+      </c>
+      <c r="N87" t="s">
+        <v>480</v>
+      </c>
+      <c r="R87">
+        <f>B88</f>
+        <v>83</v>
+      </c>
+      <c r="S87">
+        <f>W13</f>
+        <v>9</v>
+      </c>
+      <c r="T87" s="5">
+        <v>38373</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20">
+      <c r="A88" s="48" t="s">
+        <v>450</v>
+      </c>
+      <c r="B88" s="30">
+        <v>83</v>
+      </c>
+      <c r="C88" t="s">
+        <v>455</v>
+      </c>
+      <c r="E88" t="s">
+        <v>467</v>
+      </c>
+      <c r="L88" t="s">
+        <v>33</v>
+      </c>
+      <c r="M88" s="5">
+        <v>30936</v>
+      </c>
+      <c r="N88" t="s">
+        <v>480</v>
+      </c>
+      <c r="R88">
+        <f>B89</f>
+        <v>84</v>
+      </c>
+      <c r="S88">
+        <f>W13</f>
+        <v>9</v>
+      </c>
+      <c r="T88" s="5">
+        <v>37306</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20">
+      <c r="A89" s="48" t="s">
+        <v>450</v>
+      </c>
+      <c r="B89" s="30">
+        <v>84</v>
+      </c>
+      <c r="C89" t="s">
+        <v>456</v>
+      </c>
+      <c r="E89" t="s">
+        <v>468</v>
+      </c>
+      <c r="G89" s="18"/>
+      <c r="L89" t="s">
+        <v>33</v>
+      </c>
+      <c r="M89" s="5">
+        <v>32349</v>
+      </c>
+      <c r="N89" t="s">
+        <v>480</v>
+      </c>
+      <c r="R89">
+        <f>B90</f>
+        <v>85</v>
+      </c>
+      <c r="S89">
+        <f>W13</f>
+        <v>9</v>
+      </c>
+      <c r="T89" s="5">
+        <v>37941</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20">
+      <c r="A90" s="48" t="s">
+        <v>450</v>
+      </c>
+      <c r="B90" s="30">
+        <v>85</v>
+      </c>
+      <c r="C90" t="s">
+        <v>457</v>
+      </c>
+      <c r="E90" t="s">
+        <v>469</v>
+      </c>
+      <c r="L90" t="s">
+        <v>146</v>
+      </c>
+      <c r="M90" s="5">
+        <v>33305</v>
+      </c>
+      <c r="N90" t="s">
+        <v>480</v>
+      </c>
+      <c r="R90">
+        <f>B91</f>
+        <v>86</v>
+      </c>
+      <c r="S90">
+        <f>W13</f>
+        <v>9</v>
+      </c>
+      <c r="T90" s="5">
+        <v>39391</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20">
+      <c r="A91" s="48" t="s">
+        <v>450</v>
+      </c>
+      <c r="B91" s="30">
+        <v>86</v>
+      </c>
+      <c r="C91" t="s">
+        <v>458</v>
+      </c>
+      <c r="E91" t="s">
+        <v>470</v>
+      </c>
+      <c r="G91" s="18"/>
+      <c r="L91" t="s">
+        <v>33</v>
+      </c>
+      <c r="M91" s="5">
+        <v>33029</v>
+      </c>
+      <c r="N91" t="s">
+        <v>480</v>
+      </c>
+      <c r="R91">
+        <f>B92</f>
+        <v>87</v>
+      </c>
+      <c r="S91">
+        <f>W13</f>
+        <v>9</v>
+      </c>
+      <c r="T91" s="5">
+        <v>37053</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20">
+      <c r="A92" s="48" t="s">
+        <v>450</v>
+      </c>
+      <c r="B92" s="30">
+        <v>87</v>
+      </c>
+      <c r="C92" t="s">
+        <v>459</v>
+      </c>
+      <c r="E92" t="s">
+        <v>471</v>
+      </c>
+      <c r="G92" s="18"/>
+      <c r="L92" t="s">
+        <v>146</v>
+      </c>
+      <c r="M92" s="5">
+        <v>32049</v>
+      </c>
+      <c r="N92" t="s">
+        <v>480</v>
+      </c>
+      <c r="R92">
+        <f>B93</f>
+        <v>88</v>
+      </c>
+      <c r="S92">
+        <f>W13</f>
+        <v>9</v>
+      </c>
+      <c r="T92" s="5">
+        <v>40461</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20">
+      <c r="A93" s="48" t="s">
+        <v>450</v>
+      </c>
+      <c r="B93" s="30">
+        <v>88</v>
+      </c>
+      <c r="C93" t="s">
+        <v>460</v>
+      </c>
+      <c r="E93" t="s">
+        <v>472</v>
+      </c>
+      <c r="F93" t="s">
+        <v>473</v>
+      </c>
+      <c r="G93" s="18"/>
+      <c r="L93" t="s">
+        <v>146</v>
+      </c>
+      <c r="M93" s="5">
+        <v>33139</v>
+      </c>
+      <c r="N93" t="s">
+        <v>480</v>
+      </c>
+      <c r="R93">
+        <f>B94</f>
+        <v>89</v>
+      </c>
+      <c r="S93">
+        <f>W13</f>
+        <v>9</v>
+      </c>
+      <c r="T93" s="5">
+        <v>37575</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20">
+      <c r="A94" s="48" t="s">
+        <v>450</v>
+      </c>
+      <c r="B94" s="30">
+        <v>89</v>
+      </c>
+      <c r="C94" t="s">
+        <v>461</v>
+      </c>
+      <c r="E94" t="s">
+        <v>474</v>
+      </c>
+      <c r="F94" t="s">
+        <v>475</v>
+      </c>
+      <c r="L94" t="s">
+        <v>146</v>
+      </c>
+      <c r="M94" s="5">
+        <v>32477</v>
+      </c>
+      <c r="N94" t="s">
+        <v>480</v>
+      </c>
+      <c r="R94">
+        <f>B95</f>
+        <v>90</v>
+      </c>
+      <c r="S94">
+        <f>W13</f>
+        <v>9</v>
+      </c>
+      <c r="T94" s="5">
+        <v>36611</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20">
+      <c r="A95" s="48" t="s">
+        <v>450</v>
+      </c>
+      <c r="B95" s="30">
+        <v>90</v>
+      </c>
+      <c r="C95" t="s">
+        <v>462</v>
+      </c>
+      <c r="E95" t="s">
+        <v>476</v>
+      </c>
+      <c r="G95" s="18"/>
+      <c r="L95" t="s">
+        <v>146</v>
+      </c>
+      <c r="M95" s="5">
+        <v>34065</v>
+      </c>
+      <c r="N95" t="s">
+        <v>480</v>
+      </c>
+      <c r="R95">
+        <f>B96</f>
+        <v>91</v>
+      </c>
+      <c r="S95">
+        <f>W13</f>
+        <v>9</v>
+      </c>
+      <c r="T95" s="5">
+        <v>39562</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20">
+      <c r="A96" s="48" t="s">
+        <v>450</v>
+      </c>
+      <c r="B96" s="30">
+        <v>91</v>
+      </c>
+      <c r="C96" t="s">
+        <v>463</v>
+      </c>
+      <c r="E96" t="s">
+        <v>477</v>
+      </c>
+      <c r="G96" s="18"/>
+      <c r="L96" t="s">
+        <v>33</v>
+      </c>
+      <c r="M96" s="5">
+        <v>32797</v>
+      </c>
+      <c r="N96" t="s">
+        <v>480</v>
+      </c>
+      <c r="R96">
+        <f>B97</f>
+        <v>92</v>
+      </c>
+      <c r="S96">
+        <f>W13</f>
+        <v>9</v>
+      </c>
+      <c r="T96" s="5">
+        <v>38777</v>
+      </c>
+    </row>
+    <row r="97" spans="1:24">
+      <c r="A97" s="48" t="s">
+        <v>450</v>
+      </c>
+      <c r="B97" s="30">
+        <v>92</v>
+      </c>
+      <c r="C97" t="s">
+        <v>478</v>
+      </c>
+      <c r="E97" t="s">
+        <v>479</v>
+      </c>
+      <c r="G97" s="18"/>
+      <c r="L97" t="s">
+        <v>146</v>
+      </c>
+      <c r="M97" s="5">
+        <v>33905</v>
+      </c>
+      <c r="N97" t="s">
+        <v>480</v>
+      </c>
+      <c r="R97">
+        <f>B98</f>
+        <v>93</v>
+      </c>
+      <c r="S97">
+        <f>W14</f>
+        <v>10</v>
+      </c>
+      <c r="T97" s="5">
+        <v>40949</v>
+      </c>
+    </row>
+    <row r="98" spans="1:24">
+      <c r="A98" s="49" t="s">
+        <v>481</v>
+      </c>
+      <c r="B98" s="30">
+        <v>93</v>
+      </c>
+      <c r="C98" t="s">
+        <v>482</v>
+      </c>
+      <c r="E98" t="s">
+        <v>483</v>
+      </c>
+      <c r="L98" t="s">
+        <v>33</v>
+      </c>
+      <c r="N98" t="s">
+        <v>523</v>
+      </c>
+      <c r="R98">
+        <f>B99</f>
+        <v>94</v>
+      </c>
+      <c r="S98">
+        <f>W14</f>
+        <v>10</v>
+      </c>
+      <c r="T98" s="5">
+        <v>39520</v>
+      </c>
+    </row>
+    <row r="99" spans="1:24">
+      <c r="A99" s="49" t="s">
+        <v>481</v>
+      </c>
+      <c r="B99" s="30">
+        <v>94</v>
+      </c>
+      <c r="C99" t="s">
+        <v>484</v>
+      </c>
+      <c r="E99" t="s">
+        <v>485</v>
+      </c>
+      <c r="G99" s="18"/>
+      <c r="L99" t="s">
+        <v>146</v>
+      </c>
+      <c r="N99" t="s">
+        <v>523</v>
+      </c>
+      <c r="R99">
+        <f>B100</f>
+        <v>95</v>
+      </c>
+      <c r="S99">
+        <f>W14</f>
+        <v>10</v>
+      </c>
+      <c r="T99" s="5">
+        <v>36231</v>
+      </c>
+    </row>
+    <row r="100" spans="1:24">
+      <c r="A100" s="49" t="s">
+        <v>481</v>
+      </c>
+      <c r="B100" s="30">
+        <v>95</v>
+      </c>
+      <c r="C100" t="s">
+        <v>486</v>
+      </c>
+      <c r="E100" t="s">
+        <v>487</v>
+      </c>
+      <c r="G100" s="18"/>
+      <c r="L100" t="s">
+        <v>33</v>
+      </c>
+      <c r="N100" t="s">
+        <v>523</v>
+      </c>
+      <c r="R100">
+        <f>B101</f>
+        <v>96</v>
+      </c>
+      <c r="S100">
+        <f>W14</f>
+        <v>10</v>
+      </c>
+      <c r="T100" s="5">
+        <v>36577</v>
+      </c>
+    </row>
+    <row r="101" spans="1:24">
+      <c r="A101" s="49" t="s">
+        <v>481</v>
+      </c>
+      <c r="B101" s="30">
+        <v>96</v>
+      </c>
+      <c r="C101" t="s">
+        <v>488</v>
+      </c>
+      <c r="E101" t="s">
+        <v>489</v>
+      </c>
+      <c r="G101" s="18"/>
+      <c r="L101" t="s">
+        <v>146</v>
+      </c>
+      <c r="N101" t="s">
+        <v>523</v>
+      </c>
+      <c r="R101">
+        <f>B102</f>
+        <v>97</v>
+      </c>
+      <c r="S101">
+        <f>W14</f>
+        <v>10</v>
+      </c>
+      <c r="T101" s="5">
+        <v>36992</v>
+      </c>
+    </row>
+    <row r="102" spans="1:24">
+      <c r="A102" s="49" t="s">
+        <v>481</v>
+      </c>
+      <c r="B102" s="30">
+        <v>97</v>
+      </c>
+      <c r="C102" t="s">
+        <v>490</v>
+      </c>
+      <c r="E102" t="s">
+        <v>491</v>
+      </c>
+      <c r="F102" t="s">
+        <v>492</v>
+      </c>
+      <c r="G102" s="18"/>
+      <c r="L102" t="s">
+        <v>33</v>
+      </c>
+      <c r="N102" t="s">
+        <v>523</v>
+      </c>
+      <c r="R102">
+        <f>B103</f>
+        <v>98</v>
+      </c>
+      <c r="S102">
+        <f>W14</f>
+        <v>10</v>
+      </c>
+      <c r="T102" s="5">
+        <v>38713</v>
+      </c>
+      <c r="X102" s="27"/>
+    </row>
+    <row r="103" spans="1:24">
+      <c r="A103" s="49" t="s">
+        <v>481</v>
+      </c>
+      <c r="B103" s="30">
+        <v>98</v>
+      </c>
+      <c r="C103" t="s">
+        <v>493</v>
+      </c>
+      <c r="E103" t="s">
+        <v>494</v>
+      </c>
+      <c r="G103" s="18"/>
+      <c r="L103" t="s">
+        <v>33</v>
+      </c>
+      <c r="N103" t="s">
+        <v>523</v>
+      </c>
+      <c r="R103">
+        <f>B104</f>
+        <v>99</v>
+      </c>
+      <c r="S103">
+        <f>W14</f>
+        <v>10</v>
+      </c>
+      <c r="T103" s="5">
+        <v>36909</v>
+      </c>
+      <c r="X103" s="27"/>
+    </row>
+    <row r="104" spans="1:24">
+      <c r="A104" s="49" t="s">
+        <v>481</v>
+      </c>
+      <c r="B104" s="30">
+        <v>99</v>
+      </c>
+      <c r="C104" t="s">
+        <v>495</v>
+      </c>
+      <c r="E104" t="s">
+        <v>501</v>
+      </c>
+      <c r="L104" t="s">
+        <v>33</v>
+      </c>
+      <c r="N104" t="s">
+        <v>523</v>
+      </c>
+      <c r="R104">
+        <f>B105</f>
+        <v>100</v>
+      </c>
+      <c r="S104">
+        <f>W14</f>
+        <v>10</v>
+      </c>
+      <c r="T104" s="5">
+        <v>37353</v>
+      </c>
+      <c r="X104" s="27"/>
+    </row>
+    <row r="105" spans="1:24">
+      <c r="A105" s="49" t="s">
+        <v>481</v>
+      </c>
+      <c r="B105" s="30">
+        <v>100</v>
+      </c>
+      <c r="C105" t="s">
+        <v>496</v>
+      </c>
+      <c r="E105" t="s">
+        <v>500</v>
+      </c>
+      <c r="I105" s="24"/>
+      <c r="J105" s="24"/>
+      <c r="L105" t="s">
+        <v>146</v>
+      </c>
+      <c r="N105" t="s">
+        <v>523</v>
+      </c>
+      <c r="R105">
+        <f>B106</f>
+        <v>101</v>
+      </c>
+      <c r="S105">
+        <f>W14</f>
+        <v>10</v>
+      </c>
+      <c r="T105" s="5">
+        <v>39946</v>
+      </c>
+      <c r="X105" s="27"/>
+    </row>
+    <row r="106" spans="1:24">
+      <c r="A106" s="49" t="s">
+        <v>481</v>
+      </c>
+      <c r="B106" s="30">
+        <v>101</v>
+      </c>
+      <c r="C106" t="s">
+        <v>497</v>
+      </c>
+      <c r="E106" t="s">
+        <v>498</v>
+      </c>
+      <c r="I106" s="24"/>
+      <c r="J106" s="24"/>
+      <c r="L106" t="s">
+        <v>33</v>
+      </c>
+      <c r="N106" t="s">
+        <v>523</v>
+      </c>
+      <c r="R106">
+        <f>B107</f>
+        <v>102</v>
+      </c>
+      <c r="S106">
+        <f>W14</f>
+        <v>10</v>
+      </c>
+      <c r="T106" s="5">
+        <v>37148</v>
+      </c>
+      <c r="X106" s="27"/>
+    </row>
+    <row r="107" spans="1:24">
+      <c r="A107" s="49" t="s">
+        <v>481</v>
+      </c>
+      <c r="B107" s="30">
+        <v>102</v>
+      </c>
+      <c r="C107" t="s">
+        <v>499</v>
+      </c>
+      <c r="E107" t="s">
+        <v>502</v>
+      </c>
+      <c r="F107" t="s">
+        <v>503</v>
+      </c>
+      <c r="I107" s="24"/>
+      <c r="J107" s="24"/>
+      <c r="L107" t="s">
+        <v>33</v>
+      </c>
+      <c r="N107" t="s">
+        <v>523</v>
+      </c>
+      <c r="R107">
+        <f>B108</f>
+        <v>103</v>
+      </c>
+      <c r="S107">
+        <f>W14</f>
+        <v>10</v>
+      </c>
+      <c r="T107" s="5">
+        <v>39893</v>
+      </c>
+      <c r="X107" s="27"/>
+    </row>
+    <row r="108" spans="1:24">
+      <c r="A108" s="49" t="s">
+        <v>481</v>
+      </c>
+      <c r="B108" s="30">
+        <v>103</v>
+      </c>
+      <c r="C108" t="s">
+        <v>504</v>
+      </c>
+      <c r="E108" t="s">
+        <v>505</v>
+      </c>
+      <c r="I108" s="24"/>
+      <c r="J108" s="24"/>
+      <c r="L108" t="s">
+        <v>33</v>
+      </c>
+      <c r="N108" t="s">
+        <v>523</v>
+      </c>
+      <c r="R108">
+        <f>B109</f>
+        <v>104</v>
+      </c>
+      <c r="S108">
+        <f>W14</f>
+        <v>10</v>
+      </c>
+      <c r="T108" s="5">
+        <v>38372</v>
+      </c>
+      <c r="X108" s="27"/>
+    </row>
+    <row r="109" spans="1:24">
+      <c r="A109" s="49" t="s">
+        <v>481</v>
+      </c>
+      <c r="B109" s="30">
+        <v>104</v>
+      </c>
+      <c r="C109" t="s">
+        <v>506</v>
+      </c>
+      <c r="E109" t="s">
+        <v>507</v>
+      </c>
+      <c r="I109" s="24"/>
+      <c r="J109" s="24"/>
+      <c r="L109" t="s">
+        <v>33</v>
+      </c>
+      <c r="N109" t="s">
+        <v>523</v>
+      </c>
+      <c r="R109">
+        <f>B110</f>
+        <v>105</v>
+      </c>
+      <c r="S109">
+        <f>W14</f>
+        <v>10</v>
+      </c>
+      <c r="T109" s="5">
+        <v>37255</v>
+      </c>
+      <c r="X109" s="27"/>
+    </row>
+    <row r="110" spans="1:24">
+      <c r="A110" s="49" t="s">
+        <v>481</v>
+      </c>
+      <c r="B110" s="30">
+        <v>105</v>
+      </c>
+      <c r="C110" t="s">
+        <v>508</v>
+      </c>
+      <c r="E110" t="s">
+        <v>509</v>
+      </c>
+      <c r="L110" t="s">
+        <v>33</v>
+      </c>
+      <c r="N110" t="s">
+        <v>523</v>
+      </c>
+      <c r="R110">
+        <f>B111</f>
+        <v>106</v>
+      </c>
+      <c r="S110">
+        <f>W14</f>
+        <v>10</v>
+      </c>
+      <c r="T110" s="5">
+        <v>39819</v>
+      </c>
+      <c r="X110" s="27"/>
+    </row>
+    <row r="111" spans="1:24">
+      <c r="A111" s="49" t="s">
+        <v>481</v>
+      </c>
+      <c r="B111" s="30">
+        <v>106</v>
+      </c>
+      <c r="C111" t="s">
+        <v>510</v>
+      </c>
+      <c r="E111" t="s">
+        <v>511</v>
+      </c>
+      <c r="I111" s="24"/>
+      <c r="J111" s="24"/>
+      <c r="L111" t="s">
+        <v>33</v>
+      </c>
+      <c r="N111" t="s">
+        <v>523</v>
+      </c>
+      <c r="R111">
+        <f>B112</f>
+        <v>107</v>
+      </c>
+      <c r="S111">
+        <f>W14</f>
+        <v>10</v>
+      </c>
+      <c r="T111" s="5">
+        <v>37215</v>
+      </c>
+      <c r="X111" s="27"/>
+    </row>
+    <row r="112" spans="1:24">
+      <c r="A112" s="49" t="s">
+        <v>481</v>
+      </c>
+      <c r="B112" s="30">
+        <v>107</v>
+      </c>
+      <c r="C112" t="s">
+        <v>512</v>
+      </c>
+      <c r="E112" t="s">
+        <v>513</v>
+      </c>
+      <c r="I112" s="24"/>
+      <c r="J112" s="24"/>
+      <c r="L112" t="s">
+        <v>146</v>
+      </c>
+      <c r="N112" t="s">
+        <v>523</v>
+      </c>
+      <c r="R112">
+        <f>B113</f>
+        <v>108</v>
+      </c>
+      <c r="S112">
+        <f>W14</f>
+        <v>10</v>
+      </c>
+      <c r="T112" s="5">
+        <v>37017</v>
+      </c>
+      <c r="X112" s="27"/>
+    </row>
+    <row r="113" spans="1:24">
+      <c r="A113" s="49" t="s">
+        <v>481</v>
+      </c>
+      <c r="B113" s="30">
+        <v>108</v>
+      </c>
+      <c r="C113" t="s">
+        <v>514</v>
+      </c>
+      <c r="E113" t="s">
+        <v>515</v>
+      </c>
+      <c r="I113" s="24"/>
+      <c r="J113" s="24"/>
+      <c r="L113" t="s">
+        <v>146</v>
+      </c>
+      <c r="N113" t="s">
+        <v>523</v>
+      </c>
+      <c r="R113">
+        <f>B114</f>
+        <v>109</v>
+      </c>
+      <c r="S113">
+        <f>W14</f>
+        <v>10</v>
+      </c>
+      <c r="T113" s="5">
+        <v>37291</v>
+      </c>
+      <c r="X113" s="27"/>
+    </row>
+    <row r="114" spans="1:24">
+      <c r="A114" s="49" t="s">
+        <v>481</v>
+      </c>
+      <c r="B114" s="30">
+        <v>109</v>
+      </c>
+      <c r="C114" t="s">
+        <v>516</v>
+      </c>
+      <c r="E114" t="s">
+        <v>517</v>
+      </c>
+      <c r="I114" s="24"/>
+      <c r="J114" s="24"/>
+      <c r="L114" t="s">
+        <v>146</v>
+      </c>
+      <c r="N114" t="s">
+        <v>523</v>
+      </c>
+      <c r="R114">
+        <f>B115</f>
+        <v>110</v>
+      </c>
+      <c r="S114">
+        <f>W14</f>
+        <v>10</v>
+      </c>
+      <c r="T114" s="5">
+        <v>38542</v>
+      </c>
+    </row>
+    <row r="115" spans="1:24">
+      <c r="A115" s="49" t="s">
+        <v>481</v>
+      </c>
+      <c r="B115" s="30">
+        <v>110</v>
+      </c>
+      <c r="C115" t="s">
+        <v>518</v>
+      </c>
+      <c r="D115" t="s">
+        <v>520</v>
+      </c>
+      <c r="E115" t="s">
+        <v>519</v>
+      </c>
+      <c r="L115" t="s">
+        <v>33</v>
+      </c>
+      <c r="N115" t="s">
+        <v>523</v>
+      </c>
+      <c r="R115">
+        <f>B116</f>
+        <v>111</v>
+      </c>
+      <c r="S115">
+        <f>W14</f>
+        <v>10</v>
+      </c>
+      <c r="T115" s="5">
+        <v>37629</v>
+      </c>
+    </row>
+    <row r="116" spans="1:24">
+      <c r="A116" s="49" t="s">
+        <v>481</v>
+      </c>
+      <c r="B116" s="30">
+        <v>111</v>
+      </c>
+      <c r="C116" t="s">
+        <v>521</v>
+      </c>
+      <c r="E116" t="s">
+        <v>522</v>
+      </c>
+      <c r="I116" s="24"/>
+      <c r="J116" s="24"/>
+      <c r="L116" t="s">
+        <v>146</v>
+      </c>
+      <c r="N116" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="117" spans="1:24">
+      <c r="I117" s="24"/>
+      <c r="J117" s="24"/>
+    </row>
+    <row r="118" spans="1:24">
+      <c r="I118" s="24"/>
+      <c r="J118" s="24"/>
+    </row>
+    <row r="119" spans="1:24">
+      <c r="I119" s="24"/>
+      <c r="J119" s="24"/>
+    </row>
+    <row r="120" spans="1:24">
+      <c r="I120" s="24"/>
+      <c r="J120" s="24"/>
+    </row>
+    <row r="121" spans="1:24">
+      <c r="I121" s="24"/>
+      <c r="J121" s="24"/>
+    </row>
+    <row r="122" spans="1:24">
+      <c r="I122" s="24"/>
+      <c r="J122" s="24"/>
+    </row>
+    <row r="123" spans="1:24">
+      <c r="I123" s="24"/>
+      <c r="J123" s="24"/>
+    </row>
+    <row r="125" spans="1:24">
+      <c r="I125" s="24"/>
+      <c r="J125" s="24"/>
+    </row>
+    <row r="126" spans="1:24">
+      <c r="I126" s="24"/>
+      <c r="J126" s="24"/>
+    </row>
+    <row r="128" spans="1:24">
+      <c r="I128" s="24"/>
+      <c r="J128" s="24"/>
+    </row>
+    <row r="129" spans="9:10">
+      <c r="I129" s="24"/>
+      <c r="J129" s="24"/>
+    </row>
+    <row r="130" spans="9:10">
+      <c r="I130" s="24"/>
+      <c r="J130" s="24"/>
+    </row>
+    <row r="131" spans="9:10">
+      <c r="I131" s="24"/>
+      <c r="J131" s="24"/>
+    </row>
+    <row r="133" spans="9:10">
+      <c r="I133" s="24"/>
+      <c r="J133" s="24"/>
+    </row>
+    <row r="134" spans="9:10">
+      <c r="I134" s="24"/>
+      <c r="J134" s="24"/>
+    </row>
+    <row r="233" spans="5:5">
+      <c r="E233" s="47"/>
+    </row>
+  </sheetData>
+  <mergeCells count="41">
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="G4:K4"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="Y12:Y13"/>
+    <mergeCell ref="Z12:Z13"/>
+    <mergeCell ref="AA12:AA13"/>
+    <mergeCell ref="AC12:AC13"/>
+    <mergeCell ref="Y4:Y5"/>
+    <mergeCell ref="Z4:Z5"/>
+    <mergeCell ref="AA4:AA5"/>
+    <mergeCell ref="AC4:AC5"/>
+    <mergeCell ref="Y6:Y7"/>
+    <mergeCell ref="Z6:Z7"/>
+    <mergeCell ref="AA6:AA7"/>
+    <mergeCell ref="AC6:AC7"/>
+    <mergeCell ref="Y35:Y36"/>
+    <mergeCell ref="Z35:Z36"/>
+    <mergeCell ref="AA35:AA36"/>
+    <mergeCell ref="AC35:AC36"/>
+    <mergeCell ref="Y21:Y22"/>
+    <mergeCell ref="Z21:Z22"/>
+    <mergeCell ref="AA21:AA22"/>
+    <mergeCell ref="AC21:AC22"/>
+    <mergeCell ref="Y44:Y45"/>
+    <mergeCell ref="Z44:Z45"/>
+    <mergeCell ref="AA44:AA45"/>
+    <mergeCell ref="AC44:AC45"/>
+    <mergeCell ref="Y37:Y38"/>
+    <mergeCell ref="Z37:Z38"/>
+    <mergeCell ref="AA37:AA38"/>
+    <mergeCell ref="AC37:AC38"/>
+    <mergeCell ref="Y54:Y55"/>
+    <mergeCell ref="Z54:Z55"/>
+    <mergeCell ref="AA54:AA55"/>
+    <mergeCell ref="AC54:AC55"/>
+    <mergeCell ref="Y46:Y47"/>
+    <mergeCell ref="Z46:Z47"/>
+    <mergeCell ref="AA46:AA47"/>
+    <mergeCell ref="AC46:AC47"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C194"/>
+  <sheetViews>
+    <sheetView topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57:C68"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1">
+        <f t="shared" ref="A1:A6" ca="1" si="0">RANDBETWEEN(1,30)</f>
+        <v>9</v>
+      </c>
+      <c r="B1">
+        <f t="shared" ref="B1:B6" ca="1" si="1">RANDBETWEEN(1,12)</f>
+        <v>4</v>
+      </c>
+      <c r="C1" s="27">
+        <f t="shared" ref="C1:C6" ca="1" si="2">RANDBETWEEN(70,93)</f>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="C2" s="27">
+        <f t="shared" ca="1" si="2"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ca="1" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="C3" s="27">
+        <f t="shared" ca="1" si="2"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <f t="shared" ca="1" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="C4" s="27">
+        <f t="shared" ca="1" si="2"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="C5" s="27">
+        <f t="shared" ca="1" si="2"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <f t="shared" ca="1" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C6" s="27">
+        <f t="shared" ca="1" si="2"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <f t="shared" ref="A29:A60" ca="1" si="3">RANDBETWEEN(1,30)</f>
+        <v>13</v>
+      </c>
+      <c r="B29">
+        <f t="shared" ref="B29:B60" ca="1" si="4">RANDBETWEEN(1,12)</f>
+        <v>11</v>
+      </c>
+      <c r="C29" s="27">
+        <f t="shared" ref="C29:C60" ca="1" si="5">RANDBETWEEN(70,93)</f>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <f t="shared" ca="1" si="3"/>
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <f t="shared" ca="1" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="C30" s="27">
+        <f t="shared" ca="1" si="5"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <f t="shared" ca="1" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="B31">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="C31" s="27">
+        <f t="shared" ca="1" si="5"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
+        <f t="shared" ca="1" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="B32">
+        <f t="shared" ca="1" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="C32" s="27">
+        <f t="shared" ca="1" si="5"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
+        <f t="shared" ca="1" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="B33">
+        <f t="shared" ca="1" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="C33" s="27">
+        <f t="shared" ca="1" si="5"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34">
+        <f t="shared" ca="1" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="B34">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="C34" s="27">
+        <f t="shared" ca="1" si="5"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35">
+        <f t="shared" ca="1" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="B35">
+        <f t="shared" ca="1" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="C35" s="27">
+        <f t="shared" ca="1" si="5"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36">
+        <f t="shared" ca="1" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="B36">
+        <f t="shared" ca="1" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="C36" s="27">
+        <f t="shared" ca="1" si="5"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37">
+        <f t="shared" ca="1" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="B37">
+        <f t="shared" ca="1" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="C37" s="27">
+        <f t="shared" ca="1" si="5"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
+        <f t="shared" ca="1" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="B38">
+        <f t="shared" ca="1" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="C38" s="27">
+        <f t="shared" ca="1" si="5"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39">
+        <f t="shared" ca="1" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="B39">
+        <f t="shared" ca="1" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="C39" s="27">
+        <f t="shared" ca="1" si="5"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40">
+        <f t="shared" ca="1" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="B40">
+        <f t="shared" ca="1" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="C40" s="27">
+        <f t="shared" ca="1" si="5"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41">
+        <f t="shared" ca="1" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="B41">
+        <f t="shared" ca="1" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="C41" s="27">
+        <f t="shared" ca="1" si="5"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42">
+        <f t="shared" ca="1" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="B42">
+        <f t="shared" ca="1" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="C42" s="27">
+        <f t="shared" ca="1" si="5"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="B43">
+        <f t="shared" ca="1" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="C43" s="27">
+        <f t="shared" ca="1" si="5"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44">
+        <f t="shared" ca="1" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="B44">
+        <f t="shared" ca="1" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="C44" s="27">
+        <f t="shared" ca="1" si="5"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="B45">
+        <f t="shared" ca="1" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="C45" s="27">
+        <f t="shared" ca="1" si="5"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46">
+        <f t="shared" ca="1" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="B46">
+        <f t="shared" ca="1" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="C46" s="27">
+        <f t="shared" ca="1" si="5"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47">
+        <f t="shared" ca="1" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="B47">
+        <f t="shared" ca="1" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="C47" s="27">
+        <f t="shared" ca="1" si="5"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48">
+        <f t="shared" ca="1" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="B48">
+        <f t="shared" ca="1" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="C48" s="27">
+        <f t="shared" ca="1" si="5"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49">
+        <f t="shared" ca="1" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="B49">
+        <f t="shared" ca="1" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="C49" s="27">
+        <f t="shared" ca="1" si="5"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50">
+        <f t="shared" ca="1" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="B50">
+        <f t="shared" ca="1" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="C50" s="27">
+        <f t="shared" ca="1" si="5"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51">
+        <f t="shared" ca="1" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="B51">
+        <f t="shared" ca="1" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="C51" s="27">
+        <f t="shared" ca="1" si="5"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52">
+        <f t="shared" ca="1" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="B52">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="C52" s="27">
+        <f t="shared" ca="1" si="5"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53">
+        <f t="shared" ca="1" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="B53">
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="C53" s="27">
+        <f t="shared" ca="1" si="5"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54">
+        <f t="shared" ca="1" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="B54">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="C54" s="27">
+        <f t="shared" ca="1" si="5"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55">
+        <f t="shared" ca="1" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="B55">
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="C55" s="27">
+        <f t="shared" ca="1" si="5"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56">
+        <f t="shared" ca="1" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="B56">
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="C56" s="27">
+        <f t="shared" ca="1" si="5"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57">
+        <f t="shared" ca="1" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="B57">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="C57" s="27">
+        <f t="shared" ca="1" si="5"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58">
+        <f t="shared" ca="1" si="3"/>
+        <v>29</v>
+      </c>
+      <c r="B58">
+        <f t="shared" ca="1" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="C58" s="27">
+        <f t="shared" ca="1" si="5"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59">
+        <f t="shared" ca="1" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="B59">
+        <f t="shared" ca="1" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="C59" s="27">
+        <f t="shared" ca="1" si="5"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60">
+        <f t="shared" ca="1" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="B60">
+        <f t="shared" ca="1" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="C60" s="27">
+        <f t="shared" ca="1" si="5"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61">
+        <f t="shared" ref="A61:A92" ca="1" si="6">RANDBETWEEN(1,30)</f>
+        <v>14</v>
+      </c>
+      <c r="B61">
+        <f t="shared" ref="B61:B92" ca="1" si="7">RANDBETWEEN(1,12)</f>
+        <v>4</v>
+      </c>
+      <c r="C61" s="27">
+        <f t="shared" ref="C61:C92" ca="1" si="8">RANDBETWEEN(70,93)</f>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62">
+        <f t="shared" ca="1" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="B62">
+        <f t="shared" ca="1" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="C62" s="27">
+        <f t="shared" ca="1" si="8"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63">
+        <f t="shared" ca="1" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="B63">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="C63" s="27">
+        <f t="shared" ca="1" si="8"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64">
+        <f t="shared" ca="1" si="6"/>
+        <v>22</v>
+      </c>
+      <c r="B64">
+        <f t="shared" ca="1" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="C64" s="27">
+        <f t="shared" ca="1" si="8"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65">
+        <f t="shared" ca="1" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="B65">
+        <f t="shared" ca="1" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="C65" s="27">
+        <f t="shared" ca="1" si="8"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66">
+        <f t="shared" ca="1" si="6"/>
+        <v>23</v>
+      </c>
+      <c r="B66">
+        <f t="shared" ca="1" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="C66" s="27">
+        <f t="shared" ca="1" si="8"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67">
+        <f t="shared" ca="1" si="6"/>
+        <v>26</v>
+      </c>
+      <c r="B67">
+        <f t="shared" ca="1" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="C67" s="27">
+        <f t="shared" ca="1" si="8"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68">
+        <f t="shared" ca="1" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="B68">
+        <f t="shared" ca="1" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="C68" s="27">
+        <f t="shared" ca="1" si="8"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69">
+        <f t="shared" ca="1" si="6"/>
+        <v>22</v>
+      </c>
+      <c r="B69">
+        <f t="shared" ca="1" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="C69" s="27">
+        <f t="shared" ca="1" si="8"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70">
+        <f t="shared" ca="1" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="B70">
+        <f t="shared" ca="1" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="C70" s="27">
+        <f t="shared" ca="1" si="8"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71">
+        <f t="shared" ca="1" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="B71">
+        <f t="shared" ca="1" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="C71" s="27">
+        <f t="shared" ca="1" si="8"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72">
+        <f t="shared" ca="1" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="B72">
+        <f t="shared" ca="1" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="C72" s="27">
+        <f t="shared" ca="1" si="8"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73">
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="B73">
+        <f t="shared" ca="1" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="C73" s="27">
+        <f t="shared" ca="1" si="8"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74">
+        <f t="shared" ca="1" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="B74">
+        <f t="shared" ca="1" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="C74" s="27">
+        <f t="shared" ca="1" si="8"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75">
+        <f t="shared" ca="1" si="6"/>
+        <v>28</v>
+      </c>
+      <c r="B75">
+        <f t="shared" ca="1" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="C75" s="27">
+        <f t="shared" ca="1" si="8"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76">
+        <f t="shared" ca="1" si="6"/>
+        <v>21</v>
+      </c>
+      <c r="B76">
+        <f t="shared" ca="1" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="C76" s="27">
+        <f t="shared" ca="1" si="8"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77">
+        <f t="shared" ca="1" si="6"/>
+        <v>29</v>
+      </c>
+      <c r="B77">
+        <f t="shared" ca="1" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="C77" s="27">
+        <f t="shared" ca="1" si="8"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78">
+        <f t="shared" ca="1" si="6"/>
+        <v>13</v>
+      </c>
+      <c r="B78">
+        <f t="shared" ca="1" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="C78" s="27">
+        <f t="shared" ca="1" si="8"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79">
+        <f t="shared" ca="1" si="6"/>
+        <v>25</v>
+      </c>
+      <c r="B79">
+        <f t="shared" ca="1" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="C79" s="27">
+        <f t="shared" ca="1" si="8"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80">
+        <f t="shared" ca="1" si="6"/>
+        <v>29</v>
+      </c>
+      <c r="B80">
+        <f t="shared" ca="1" si="7"/>
+        <v>11</v>
+      </c>
+      <c r="C80" s="27">
+        <f t="shared" ca="1" si="8"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81">
+        <f t="shared" ca="1" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="B81">
+        <f t="shared" ca="1" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="C81" s="27">
+        <f t="shared" ca="1" si="8"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82">
+        <f t="shared" ca="1" si="6"/>
+        <v>30</v>
+      </c>
+      <c r="B82">
+        <f t="shared" ca="1" si="7"/>
+        <v>11</v>
+      </c>
+      <c r="C82" s="27">
+        <f t="shared" ca="1" si="8"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83">
+        <f t="shared" ca="1" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="B83">
+        <f t="shared" ca="1" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="C83" s="27">
+        <f t="shared" ca="1" si="8"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84">
+        <f t="shared" ca="1" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="B84">
+        <f t="shared" ca="1" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="C84" s="27">
+        <f t="shared" ca="1" si="8"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85">
+        <f t="shared" ca="1" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="B85">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="C85" s="27">
+        <f t="shared" ca="1" si="8"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86">
+        <f t="shared" ca="1" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="B86">
+        <f t="shared" ca="1" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="C86" s="27">
+        <f t="shared" ca="1" si="8"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87">
+        <f t="shared" ca="1" si="6"/>
+        <v>27</v>
+      </c>
+      <c r="B87">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="C87" s="27">
+        <f t="shared" ca="1" si="8"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88">
+        <f t="shared" ca="1" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="B88">
+        <f t="shared" ca="1" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="C88" s="27">
+        <f t="shared" ca="1" si="8"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89">
+        <f t="shared" ca="1" si="6"/>
+        <v>23</v>
+      </c>
+      <c r="B89">
+        <f t="shared" ca="1" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="C89" s="27">
+        <f t="shared" ca="1" si="8"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90">
+        <f t="shared" ca="1" si="6"/>
+        <v>13</v>
+      </c>
+      <c r="B90">
+        <f t="shared" ca="1" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="C90" s="27">
+        <f t="shared" ca="1" si="8"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91">
+        <f t="shared" ca="1" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="B91">
+        <f t="shared" ca="1" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="C91" s="27">
+        <f t="shared" ca="1" si="8"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92">
+        <f t="shared" ca="1" si="6"/>
+        <v>25</v>
+      </c>
+      <c r="B92">
+        <f t="shared" ca="1" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="C92" s="27">
+        <f t="shared" ca="1" si="8"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93">
+        <f t="shared" ref="A93:A124" ca="1" si="9">RANDBETWEEN(1,30)</f>
+        <v>8</v>
+      </c>
+      <c r="B93">
+        <f t="shared" ref="B93:B124" ca="1" si="10">RANDBETWEEN(1,12)</f>
+        <v>8</v>
+      </c>
+      <c r="C93" s="27">
+        <f t="shared" ref="C93:C124" ca="1" si="11">RANDBETWEEN(70,93)</f>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94">
+        <f t="shared" ca="1" si="9"/>
+        <v>15</v>
+      </c>
+      <c r="B94">
+        <f t="shared" ca="1" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="C94" s="27">
+        <f t="shared" ca="1" si="11"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95">
+        <f t="shared" ca="1" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="B95">
+        <f t="shared" ca="1" si="10"/>
+        <v>11</v>
+      </c>
+      <c r="C95" s="27">
+        <f t="shared" ca="1" si="11"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96">
+        <f t="shared" ca="1" si="9"/>
+        <v>13</v>
+      </c>
+      <c r="B96">
+        <f t="shared" ca="1" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="C96" s="27">
+        <f t="shared" ca="1" si="11"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97">
+        <f t="shared" ca="1" si="9"/>
+        <v>14</v>
+      </c>
+      <c r="B97">
+        <f t="shared" ca="1" si="10"/>
+        <v>11</v>
+      </c>
+      <c r="C97" s="27">
+        <f t="shared" ca="1" si="11"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98">
+        <f t="shared" ca="1" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="B98">
+        <f t="shared" ca="1" si="10"/>
+        <v>9</v>
+      </c>
+      <c r="C98" s="27">
+        <f t="shared" ca="1" si="11"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99">
+        <f t="shared" ca="1" si="9"/>
+        <v>17</v>
+      </c>
+      <c r="B99">
+        <f t="shared" ca="1" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="C99" s="27">
+        <f t="shared" ca="1" si="11"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100">
+        <f t="shared" ca="1" si="9"/>
+        <v>15</v>
+      </c>
+      <c r="B100">
+        <f t="shared" ca="1" si="10"/>
+        <v>9</v>
+      </c>
+      <c r="C100" s="27">
+        <f t="shared" ca="1" si="11"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101">
+        <f t="shared" ca="1" si="9"/>
+        <v>16</v>
+      </c>
+      <c r="B101">
+        <f t="shared" ca="1" si="10"/>
+        <v>9</v>
+      </c>
+      <c r="C101" s="27">
+        <f t="shared" ca="1" si="11"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102">
+        <f t="shared" ca="1" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="B102">
+        <f t="shared" ca="1" si="10"/>
+        <v>11</v>
+      </c>
+      <c r="C102" s="27">
+        <f t="shared" ca="1" si="11"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103">
+        <f t="shared" ca="1" si="9"/>
+        <v>11</v>
+      </c>
+      <c r="B103">
+        <f t="shared" ca="1" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="C103" s="27">
+        <f t="shared" ca="1" si="11"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104">
+        <f t="shared" ca="1" si="9"/>
+        <v>14</v>
+      </c>
+      <c r="B104">
+        <f t="shared" ca="1" si="10"/>
+        <v>11</v>
+      </c>
+      <c r="C104" s="27">
+        <f t="shared" ca="1" si="11"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105">
+        <f t="shared" ca="1" si="9"/>
+        <v>21</v>
+      </c>
+      <c r="B105">
+        <f t="shared" ca="1" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="C105" s="27">
+        <f t="shared" ca="1" si="11"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106">
+        <f t="shared" ca="1" si="9"/>
+        <v>29</v>
+      </c>
+      <c r="B106">
+        <f t="shared" ca="1" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="C106" s="27">
+        <f t="shared" ca="1" si="11"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107">
+        <f t="shared" ca="1" si="9"/>
+        <v>11</v>
+      </c>
+      <c r="B107">
+        <f t="shared" ca="1" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="C107" s="27">
+        <f t="shared" ca="1" si="11"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108">
+        <f t="shared" ca="1" si="9"/>
+        <v>29</v>
+      </c>
+      <c r="B108">
+        <f t="shared" ca="1" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="C108" s="27">
+        <f t="shared" ca="1" si="11"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109">
+        <f t="shared" ca="1" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="B109">
+        <f t="shared" ca="1" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="C109" s="27">
+        <f t="shared" ca="1" si="11"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110">
+        <f t="shared" ca="1" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="B110">
+        <f t="shared" ca="1" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="C110" s="27">
+        <f t="shared" ca="1" si="11"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111">
+        <f t="shared" ca="1" si="9"/>
+        <v>17</v>
+      </c>
+      <c r="B111">
+        <f t="shared" ca="1" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="C111" s="27">
+        <f t="shared" ca="1" si="11"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112">
+        <f t="shared" ca="1" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="B112">
+        <f t="shared" ca="1" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="C112" s="27">
+        <f t="shared" ca="1" si="11"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113">
+        <f t="shared" ca="1" si="9"/>
+        <v>17</v>
+      </c>
+      <c r="B113">
+        <f t="shared" ca="1" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="C113" s="27">
+        <f t="shared" ca="1" si="11"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114">
+        <f t="shared" ca="1" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="B114">
+        <f t="shared" ca="1" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="C114" s="27">
+        <f t="shared" ca="1" si="11"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115">
+        <f t="shared" ca="1" si="9"/>
+        <v>29</v>
+      </c>
+      <c r="B115">
+        <f t="shared" ca="1" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="C115" s="27">
+        <f t="shared" ca="1" si="11"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116">
+        <f t="shared" ca="1" si="9"/>
+        <v>24</v>
+      </c>
+      <c r="B116">
+        <f t="shared" ca="1" si="10"/>
+        <v>11</v>
+      </c>
+      <c r="C116" s="27">
+        <f t="shared" ca="1" si="11"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117">
+        <f t="shared" ca="1" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="B117">
+        <f t="shared" ca="1" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="C117" s="27">
+        <f t="shared" ca="1" si="11"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118">
+        <f t="shared" ca="1" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="B118">
+        <f t="shared" ca="1" si="10"/>
+        <v>12</v>
+      </c>
+      <c r="C118" s="27">
+        <f t="shared" ca="1" si="11"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119">
+        <f t="shared" ca="1" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="B119">
+        <f t="shared" ca="1" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="C119" s="27">
+        <f t="shared" ca="1" si="11"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120">
+        <f t="shared" ca="1" si="9"/>
+        <v>24</v>
+      </c>
+      <c r="B120">
+        <f t="shared" ca="1" si="10"/>
+        <v>9</v>
+      </c>
+      <c r="C120" s="27">
+        <f t="shared" ca="1" si="11"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121">
+        <f t="shared" ca="1" si="9"/>
+        <v>17</v>
+      </c>
+      <c r="B121">
+        <f t="shared" ca="1" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="C121" s="27">
+        <f t="shared" ca="1" si="11"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122">
+        <f t="shared" ca="1" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="B122">
+        <f t="shared" ca="1" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="C122" s="27">
+        <f t="shared" ca="1" si="11"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123">
+        <f t="shared" ca="1" si="9"/>
+        <v>29</v>
+      </c>
+      <c r="B123">
+        <f t="shared" ca="1" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="C123" s="27">
+        <f t="shared" ca="1" si="11"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124">
+        <f t="shared" ca="1" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="B124">
+        <f t="shared" ca="1" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="C124" s="27">
+        <f t="shared" ca="1" si="11"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125">
+        <f t="shared" ref="A125:A156" ca="1" si="12">RANDBETWEEN(1,30)</f>
+        <v>25</v>
+      </c>
+      <c r="B125">
+        <f t="shared" ref="B125:B156" ca="1" si="13">RANDBETWEEN(1,12)</f>
+        <v>1</v>
+      </c>
+      <c r="C125" s="27">
+        <f t="shared" ref="C125:C156" ca="1" si="14">RANDBETWEEN(70,93)</f>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126">
+        <f t="shared" ca="1" si="12"/>
+        <v>28</v>
+      </c>
+      <c r="B126">
+        <f t="shared" ca="1" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="C126" s="27">
+        <f t="shared" ca="1" si="14"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127">
+        <f t="shared" ca="1" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="B127">
+        <f t="shared" ca="1" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="C127" s="27">
+        <f t="shared" ca="1" si="14"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128">
+        <f t="shared" ca="1" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="B128">
+        <f t="shared" ca="1" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="C128" s="27">
+        <f t="shared" ca="1" si="14"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129">
+        <f t="shared" ca="1" si="12"/>
+        <v>17</v>
+      </c>
+      <c r="B129">
+        <f t="shared" ca="1" si="13"/>
+        <v>5</v>
+      </c>
+      <c r="C129" s="27">
+        <f t="shared" ca="1" si="14"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130">
+        <f t="shared" ca="1" si="12"/>
+        <v>14</v>
+      </c>
+      <c r="B130">
+        <f t="shared" ca="1" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="C130" s="27">
+        <f t="shared" ca="1" si="14"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131">
+        <f t="shared" ca="1" si="12"/>
+        <v>30</v>
+      </c>
+      <c r="B131">
+        <f t="shared" ca="1" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="C131" s="27">
+        <f t="shared" ca="1" si="14"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132">
+        <f t="shared" ca="1" si="12"/>
+        <v>22</v>
+      </c>
+      <c r="B132">
+        <f t="shared" ca="1" si="13"/>
+        <v>7</v>
+      </c>
+      <c r="C132" s="27">
+        <f t="shared" ca="1" si="14"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133">
+        <f t="shared" ca="1" si="12"/>
+        <v>18</v>
+      </c>
+      <c r="B133">
+        <f t="shared" ca="1" si="13"/>
+        <v>7</v>
+      </c>
+      <c r="C133" s="27">
+        <f t="shared" ca="1" si="14"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134">
+        <f t="shared" ca="1" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="B134">
+        <f t="shared" ca="1" si="13"/>
+        <v>9</v>
+      </c>
+      <c r="C134" s="27">
+        <f t="shared" ca="1" si="14"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135">
+        <f t="shared" ca="1" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="B135">
+        <f t="shared" ca="1" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="C135" s="27">
+        <f t="shared" ca="1" si="14"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136">
+        <f t="shared" ca="1" si="12"/>
+        <v>13</v>
+      </c>
+      <c r="B136">
+        <f t="shared" ca="1" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="C136" s="27">
+        <f t="shared" ca="1" si="14"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137">
+        <f t="shared" ca="1" si="12"/>
+        <v>26</v>
+      </c>
+      <c r="B137">
+        <f t="shared" ca="1" si="13"/>
+        <v>12</v>
+      </c>
+      <c r="C137" s="27">
+        <f t="shared" ca="1" si="14"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138">
+        <f t="shared" ca="1" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="B138">
+        <f t="shared" ca="1" si="13"/>
+        <v>9</v>
+      </c>
+      <c r="C138" s="27">
+        <f t="shared" ca="1" si="14"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139">
+        <f t="shared" ca="1" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="B139">
+        <f t="shared" ca="1" si="13"/>
+        <v>12</v>
+      </c>
+      <c r="C139" s="27">
+        <f t="shared" ca="1" si="14"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140">
+        <f t="shared" ca="1" si="12"/>
+        <v>15</v>
+      </c>
+      <c r="B140">
+        <f t="shared" ca="1" si="13"/>
+        <v>11</v>
+      </c>
+      <c r="C140" s="27">
+        <f t="shared" ca="1" si="14"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141">
+        <f t="shared" ca="1" si="12"/>
+        <v>23</v>
+      </c>
+      <c r="B141">
+        <f t="shared" ca="1" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="C141" s="27">
+        <f t="shared" ca="1" si="14"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142">
+        <f t="shared" ca="1" si="12"/>
+        <v>22</v>
+      </c>
+      <c r="B142">
+        <f t="shared" ca="1" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="C142" s="27">
+        <f t="shared" ca="1" si="14"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143">
+        <f t="shared" ca="1" si="12"/>
+        <v>15</v>
+      </c>
+      <c r="B143">
+        <f t="shared" ca="1" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="C143" s="27">
+        <f t="shared" ca="1" si="14"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144">
+        <f t="shared" ca="1" si="12"/>
+        <v>28</v>
+      </c>
+      <c r="B144">
+        <f t="shared" ca="1" si="13"/>
+        <v>10</v>
+      </c>
+      <c r="C144" s="27">
+        <f t="shared" ca="1" si="14"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145">
+        <f t="shared" ca="1" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="B145">
+        <f t="shared" ca="1" si="13"/>
+        <v>6</v>
+      </c>
+      <c r="C145" s="27">
+        <f t="shared" ca="1" si="14"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146">
+        <f t="shared" ca="1" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="B146">
+        <f t="shared" ca="1" si="13"/>
+        <v>7</v>
+      </c>
+      <c r="C146" s="27">
+        <f t="shared" ca="1" si="14"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147">
+        <f t="shared" ca="1" si="12"/>
+        <v>19</v>
+      </c>
+      <c r="B147">
+        <f t="shared" ca="1" si="13"/>
+        <v>9</v>
+      </c>
+      <c r="C147" s="27">
+        <f t="shared" ca="1" si="14"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148">
+        <f t="shared" ca="1" si="12"/>
+        <v>25</v>
+      </c>
+      <c r="B148">
+        <f t="shared" ca="1" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="C148" s="27">
+        <f t="shared" ca="1" si="14"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149">
+        <f t="shared" ca="1" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="B149">
+        <f t="shared" ca="1" si="13"/>
+        <v>10</v>
+      </c>
+      <c r="C149" s="27">
+        <f t="shared" ca="1" si="14"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150">
+        <f t="shared" ca="1" si="12"/>
+        <v>17</v>
+      </c>
+      <c r="B150">
+        <f t="shared" ca="1" si="13"/>
+        <v>8</v>
+      </c>
+      <c r="C150" s="27">
+        <f t="shared" ca="1" si="14"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151">
+        <f t="shared" ca="1" si="12"/>
+        <v>29</v>
+      </c>
+      <c r="B151">
+        <f t="shared" ca="1" si="13"/>
+        <v>11</v>
+      </c>
+      <c r="C151" s="27">
+        <f t="shared" ca="1" si="14"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152">
+        <f t="shared" ca="1" si="12"/>
+        <v>19</v>
+      </c>
+      <c r="B152">
+        <f t="shared" ca="1" si="13"/>
+        <v>10</v>
+      </c>
+      <c r="C152" s="27">
+        <f t="shared" ca="1" si="14"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153">
+        <f t="shared" ca="1" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="B153">
+        <f t="shared" ca="1" si="13"/>
+        <v>10</v>
+      </c>
+      <c r="C153" s="27">
+        <f t="shared" ca="1" si="14"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154">
+        <f t="shared" ca="1" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="B154">
+        <f t="shared" ca="1" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="C154" s="27">
+        <f t="shared" ca="1" si="14"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155">
+        <f t="shared" ca="1" si="12"/>
+        <v>22</v>
+      </c>
+      <c r="B155">
+        <f t="shared" ca="1" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="C155" s="27">
+        <f t="shared" ca="1" si="14"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156">
+        <f t="shared" ca="1" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="B156">
+        <f t="shared" ca="1" si="13"/>
+        <v>9</v>
+      </c>
+      <c r="C156" s="27">
+        <f t="shared" ca="1" si="14"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157">
+        <f t="shared" ref="A157:A188" ca="1" si="15">RANDBETWEEN(1,30)</f>
+        <v>2</v>
+      </c>
+      <c r="B157">
+        <f t="shared" ref="B157:B188" ca="1" si="16">RANDBETWEEN(1,12)</f>
+        <v>10</v>
+      </c>
+      <c r="C157" s="27">
+        <f t="shared" ref="C157:C188" ca="1" si="17">RANDBETWEEN(70,93)</f>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158">
+        <f t="shared" ca="1" si="15"/>
+        <v>7</v>
+      </c>
+      <c r="B158">
+        <f t="shared" ca="1" si="16"/>
+        <v>6</v>
+      </c>
+      <c r="C158" s="27">
+        <f t="shared" ca="1" si="17"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159">
+        <f t="shared" ca="1" si="15"/>
+        <v>19</v>
+      </c>
+      <c r="B159">
+        <f t="shared" ca="1" si="16"/>
+        <v>12</v>
+      </c>
+      <c r="C159" s="27">
+        <f t="shared" ca="1" si="17"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160">
+        <f t="shared" ca="1" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="B160">
+        <f t="shared" ca="1" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="C160" s="27">
+        <f t="shared" ca="1" si="17"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161">
+        <f t="shared" ca="1" si="15"/>
+        <v>21</v>
+      </c>
+      <c r="B161">
+        <f t="shared" ca="1" si="16"/>
+        <v>6</v>
+      </c>
+      <c r="C161" s="27">
+        <f t="shared" ca="1" si="17"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162">
+        <f t="shared" ca="1" si="15"/>
+        <v>29</v>
+      </c>
+      <c r="B162">
+        <f t="shared" ca="1" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="C162" s="27">
+        <f t="shared" ca="1" si="17"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163">
+        <f t="shared" ca="1" si="15"/>
+        <v>27</v>
+      </c>
+      <c r="B163">
+        <f t="shared" ca="1" si="16"/>
+        <v>7</v>
+      </c>
+      <c r="C163" s="27">
+        <f t="shared" ca="1" si="17"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164">
+        <f t="shared" ca="1" si="15"/>
+        <v>10</v>
+      </c>
+      <c r="B164">
+        <f t="shared" ca="1" si="16"/>
+        <v>8</v>
+      </c>
+      <c r="C164" s="27">
+        <f t="shared" ca="1" si="17"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165">
+        <f t="shared" ca="1" si="15"/>
+        <v>16</v>
+      </c>
+      <c r="B165">
+        <f t="shared" ca="1" si="16"/>
+        <v>12</v>
+      </c>
+      <c r="C165" s="27">
+        <f t="shared" ca="1" si="17"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166">
+        <f t="shared" ca="1" si="15"/>
+        <v>23</v>
+      </c>
+      <c r="B166">
+        <f t="shared" ca="1" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="C166" s="27">
+        <f t="shared" ca="1" si="17"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167">
+        <f t="shared" ca="1" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="B167">
+        <f t="shared" ca="1" si="16"/>
+        <v>8</v>
+      </c>
+      <c r="C167" s="27">
+        <f t="shared" ca="1" si="17"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168">
+        <f t="shared" ca="1" si="15"/>
+        <v>23</v>
+      </c>
+      <c r="B168">
+        <f t="shared" ca="1" si="16"/>
+        <v>8</v>
+      </c>
+      <c r="C168" s="27">
+        <f t="shared" ca="1" si="17"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169">
+        <f t="shared" ca="1" si="15"/>
+        <v>4</v>
+      </c>
+      <c r="B169">
+        <f t="shared" ca="1" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="C169" s="27">
+        <f t="shared" ca="1" si="17"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170">
+        <f t="shared" ca="1" si="15"/>
+        <v>14</v>
+      </c>
+      <c r="B170">
+        <f t="shared" ca="1" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="C170" s="27">
+        <f t="shared" ca="1" si="17"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171">
+        <f t="shared" ca="1" si="15"/>
+        <v>7</v>
+      </c>
+      <c r="B171">
+        <f t="shared" ca="1" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="C171" s="27">
+        <f t="shared" ca="1" si="17"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172">
+        <f t="shared" ca="1" si="15"/>
+        <v>23</v>
+      </c>
+      <c r="B172">
+        <f t="shared" ca="1" si="16"/>
+        <v>12</v>
+      </c>
+      <c r="C172" s="27">
+        <f t="shared" ca="1" si="17"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173">
+        <f t="shared" ca="1" si="15"/>
+        <v>18</v>
+      </c>
+      <c r="B173">
+        <f t="shared" ca="1" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="C173" s="27">
+        <f t="shared" ca="1" si="17"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174">
+        <f t="shared" ca="1" si="15"/>
+        <v>24</v>
+      </c>
+      <c r="B174">
+        <f t="shared" ca="1" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="C174" s="27">
+        <f t="shared" ca="1" si="17"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175">
+        <f t="shared" ca="1" si="15"/>
+        <v>22</v>
+      </c>
+      <c r="B175">
+        <f t="shared" ca="1" si="16"/>
+        <v>10</v>
+      </c>
+      <c r="C175" s="27">
+        <f t="shared" ca="1" si="17"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176">
+        <f t="shared" ca="1" si="15"/>
+        <v>24</v>
+      </c>
+      <c r="B176">
+        <f t="shared" ca="1" si="16"/>
+        <v>12</v>
+      </c>
+      <c r="C176" s="27">
+        <f t="shared" ca="1" si="17"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177">
+        <f t="shared" ca="1" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="B177">
+        <f t="shared" ca="1" si="16"/>
+        <v>12</v>
+      </c>
+      <c r="C177" s="27">
+        <f t="shared" ca="1" si="17"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178">
+        <f t="shared" ca="1" si="15"/>
+        <v>18</v>
+      </c>
+      <c r="B178">
+        <f t="shared" ca="1" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="C178" s="27">
+        <f t="shared" ca="1" si="17"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179">
+        <f t="shared" ca="1" si="15"/>
+        <v>14</v>
+      </c>
+      <c r="B179">
+        <f t="shared" ca="1" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="C179" s="27">
+        <f t="shared" ca="1" si="17"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180">
+        <f t="shared" ca="1" si="15"/>
+        <v>10</v>
+      </c>
+      <c r="B180">
+        <f t="shared" ca="1" si="16"/>
+        <v>11</v>
+      </c>
+      <c r="C180" s="27">
+        <f t="shared" ca="1" si="17"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181">
+        <f t="shared" ca="1" si="15"/>
+        <v>15</v>
+      </c>
+      <c r="B181">
+        <f t="shared" ca="1" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="C181" s="27">
+        <f t="shared" ca="1" si="17"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182">
+        <f t="shared" ca="1" si="15"/>
+        <v>13</v>
+      </c>
+      <c r="B182">
+        <f t="shared" ca="1" si="16"/>
+        <v>6</v>
+      </c>
+      <c r="C182" s="27">
+        <f t="shared" ca="1" si="17"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183">
+        <f t="shared" ca="1" si="15"/>
+        <v>7</v>
+      </c>
+      <c r="B183">
+        <f t="shared" ca="1" si="16"/>
+        <v>11</v>
+      </c>
+      <c r="C183" s="27">
+        <f t="shared" ca="1" si="17"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184">
+        <f t="shared" ca="1" si="15"/>
+        <v>29</v>
+      </c>
+      <c r="B184">
+        <f t="shared" ca="1" si="16"/>
+        <v>7</v>
+      </c>
+      <c r="C184" s="27">
+        <f t="shared" ca="1" si="17"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185">
+        <f t="shared" ca="1" si="15"/>
+        <v>14</v>
+      </c>
+      <c r="B185">
+        <f t="shared" ca="1" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="C185" s="27">
+        <f t="shared" ca="1" si="17"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186">
+        <f t="shared" ca="1" si="15"/>
+        <v>29</v>
+      </c>
+      <c r="B186">
+        <f t="shared" ca="1" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="C186" s="27">
+        <f t="shared" ca="1" si="17"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187">
+        <f t="shared" ca="1" si="15"/>
+        <v>22</v>
+      </c>
+      <c r="B187">
+        <f t="shared" ca="1" si="16"/>
+        <v>10</v>
+      </c>
+      <c r="C187" s="27">
+        <f t="shared" ca="1" si="17"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188">
+        <f t="shared" ca="1" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="B188">
+        <f t="shared" ca="1" si="16"/>
+        <v>6</v>
+      </c>
+      <c r="C188" s="27">
+        <f t="shared" ca="1" si="17"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189">
+        <f t="shared" ref="A189:A194" ca="1" si="18">RANDBETWEEN(1,30)</f>
+        <v>5</v>
+      </c>
+      <c r="B189">
+        <f t="shared" ref="B189:B194" ca="1" si="19">RANDBETWEEN(1,12)</f>
+        <v>6</v>
+      </c>
+      <c r="C189" s="27">
+        <f t="shared" ref="C189:C194" ca="1" si="20">RANDBETWEEN(70,93)</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190">
+        <f t="shared" ca="1" si="18"/>
+        <v>19</v>
+      </c>
+      <c r="B190">
+        <f t="shared" ca="1" si="19"/>
+        <v>7</v>
+      </c>
+      <c r="C190" s="27">
+        <f t="shared" ca="1" si="20"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191">
+        <f t="shared" ca="1" si="18"/>
+        <v>6</v>
+      </c>
+      <c r="B191">
+        <f t="shared" ca="1" si="19"/>
+        <v>8</v>
+      </c>
+      <c r="C191" s="27">
+        <f t="shared" ca="1" si="20"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192">
+        <f t="shared" ca="1" si="18"/>
+        <v>6</v>
+      </c>
+      <c r="B192">
+        <f t="shared" ca="1" si="19"/>
+        <v>9</v>
+      </c>
+      <c r="C192" s="27">
+        <f t="shared" ca="1" si="20"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193">
+        <f t="shared" ca="1" si="18"/>
+        <v>24</v>
+      </c>
+      <c r="B193">
+        <f t="shared" ca="1" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="C193" s="27">
+        <f t="shared" ca="1" si="20"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194">
+        <f t="shared" ca="1" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="B194">
+        <f t="shared" ca="1" si="19"/>
+        <v>11</v>
+      </c>
+      <c r="C194" s="27">
+        <f t="shared" ca="1" si="20"/>
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:Q6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2498,40 +9902,40 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="3" spans="2:17" ht="18">
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="33" t="s">
         <v>243</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="21"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
     </row>
     <row r="4" spans="2:17">
       <c r="B4" s="8"/>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="23" t="s">
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="25"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="38"/>
     </row>
     <row r="5" spans="2:17">
       <c r="B5" s="1" t="s">
@@ -2618,12 +10022,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2647,40 +10051,40 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="18">
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="33" t="s">
         <v>242</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="21"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
     </row>
     <row r="4" spans="1:17">
       <c r="B4" s="8"/>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="23" t="s">
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="25"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="38"/>
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
@@ -2777,7 +10181,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E3:S5"/>
   <sheetViews>
@@ -2801,23 +10205,23 @@
   </cols>
   <sheetData>
     <row r="3" spans="5:19">
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="34" t="s">
         <v>178</v>
       </c>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="26"/>
-      <c r="S3" s="26"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="34"/>
+      <c r="S3" s="34"/>
     </row>
     <row r="4" spans="5:19">
       <c r="E4" s="1" t="s">
@@ -2876,7 +10280,23 @@
     <mergeCell ref="E3:S3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2896,20 +10316,20 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="3" spans="2:4">
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="34" t="s">
         <v>175</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
     </row>
     <row r="4" spans="2:4">
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="21" t="s">
         <v>176</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="21" t="s">
         <v>177</v>
       </c>
     </row>
@@ -2961,39 +10381,39 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="3" spans="1:16" ht="18">
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
     </row>
     <row r="4" spans="1:16">
       <c r="B4" s="8"/>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="23" t="s">
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="25"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="38"/>
     </row>
     <row r="5" spans="1:16">
       <c r="B5" s="1" t="s">
@@ -3123,7 +10543,6 @@
     <mergeCell ref="B3:P3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3149,39 +10568,39 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:16" ht="18">
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
     </row>
     <row r="4" spans="2:16">
       <c r="B4" s="8"/>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="23" t="s">
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="25"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="38"/>
     </row>
     <row r="5" spans="2:16">
       <c r="B5" s="1" t="s">
@@ -3280,16 +10699,16 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:9" ht="18">
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="7" t="s">
@@ -3399,40 +10818,40 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:17" ht="18">
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="21"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
     </row>
     <row r="4" spans="2:17">
       <c r="B4" s="8"/>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="23" t="s">
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="25"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="38"/>
     </row>
     <row r="5" spans="2:17">
       <c r="B5" s="1" t="s">
@@ -3514,7 +10933,6 @@
     <mergeCell ref="G4:K4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3537,13 +10955,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="7" t="s">
@@ -4138,15 +11556,15 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:8">
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
     </row>
     <row r="4" spans="2:8">
       <c r="B4" s="1" t="s">
@@ -4310,40 +11728,40 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:19" ht="18">
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="21"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
     </row>
     <row r="4" spans="1:19">
       <c r="B4" s="8"/>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="23" t="s">
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="25"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="38"/>
     </row>
     <row r="5" spans="1:19">
       <c r="B5" s="1" t="s">

--- a/trunk/insert (isaac).xlsx
+++ b/trunk/insert (isaac).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17080" windowHeight="15480" tabRatio="941" firstSheet="2" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15480" tabRatio="941" firstSheet="2" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -18,11 +18,11 @@
     <sheet name="Cantante" sheetId="8" r:id="rId9"/>
     <sheet name="Elenco" sheetId="9" r:id="rId10"/>
     <sheet name="Bailarin" sheetId="13" r:id="rId11"/>
-    <sheet name="fecha" sheetId="17" r:id="rId12"/>
-    <sheet name="Directo_escenografia" sheetId="16" r:id="rId13"/>
-    <sheet name="Musico" sheetId="15" r:id="rId14"/>
-    <sheet name="trabajador_cargo" sheetId="11" r:id="rId15"/>
-    <sheet name="Hoja3" sheetId="19" r:id="rId16"/>
+    <sheet name="Nacionalidad_trabajador" sheetId="19" r:id="rId12"/>
+    <sheet name="fecha" sheetId="17" r:id="rId13"/>
+    <sheet name="Directo_escenografia" sheetId="16" r:id="rId14"/>
+    <sheet name="Musico" sheetId="15" r:id="rId15"/>
+    <sheet name="trabajador_cargo" sheetId="11" r:id="rId16"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$B$3:$I$3</definedName>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="678">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1168" uniqueCount="719">
   <si>
     <t>Nombre</t>
   </si>
@@ -2142,12 +2142,135 @@
   <si>
     <t>860 Folsom Street</t>
   </si>
+  <si>
+    <t>243 Avenue du Président Wilson</t>
+  </si>
+  <si>
+    <t>4 Rue de la Boulangerie</t>
+  </si>
+  <si>
+    <t>63 Rue du Landy</t>
+  </si>
+  <si>
+    <t>24 Avenue des Fruitiers</t>
+  </si>
+  <si>
+    <t>31 Avenue Jules Rimet</t>
+  </si>
+  <si>
+    <t>16 Place du Caquet</t>
+  </si>
+  <si>
+    <t>16 Rue Jesse Owens</t>
+  </si>
+  <si>
+    <t>1 Place du Cornillon</t>
+  </si>
+  <si>
+    <t>24 Place Dauphine</t>
+  </si>
+  <si>
+    <t>17 Rue de Beaujolais</t>
+  </si>
+  <si>
+    <t>20 Rue Saint-Roch</t>
+  </si>
+  <si>
+    <t>13 Rue de l'Ancienne Comédie</t>
+  </si>
+  <si>
+    <t>1 Place Jacques Rouché</t>
+  </si>
+  <si>
+    <t>5-7 Rue de la Bastille</t>
+  </si>
+  <si>
+    <t>51 Rue de Montmorency,</t>
+  </si>
+  <si>
+    <t>2 Place de l'Odéon</t>
+  </si>
+  <si>
+    <t>10 Place du Président Wilson</t>
+  </si>
+  <si>
+    <t>12 Rue Odebert</t>
+  </si>
+  <si>
+    <t>13 Place de la Libération</t>
+  </si>
+  <si>
+    <t>10 Rue de la Chouette</t>
+  </si>
+  <si>
+    <t>8 Rue Claus Sluter</t>
+  </si>
+  <si>
+    <t>23 Place Bossuet</t>
+  </si>
+  <si>
+    <t>4 Rue Bouhier</t>
+  </si>
+  <si>
+    <t>43 Rue Jean Jacques Rousseau</t>
+  </si>
+  <si>
+    <t>2 Rue de la Liberté</t>
+  </si>
+  <si>
+    <t>14 Rue Quentin</t>
+  </si>
+  <si>
+    <t>30 Rue Berbisey</t>
+  </si>
+  <si>
+    <t>2424 Lincoln Avenue</t>
+  </si>
+  <si>
+    <t>1332 Park Street</t>
+  </si>
+  <si>
+    <t>1440 Park Street</t>
+  </si>
+  <si>
+    <t>1338 Park Street</t>
+  </si>
+  <si>
+    <t>2375 Shore Line Drive</t>
+  </si>
+  <si>
+    <t>2320 Central Avenue</t>
+  </si>
+  <si>
+    <t>2508 Santa Clara Avenue</t>
+  </si>
+  <si>
+    <t>2301 Central Avenue</t>
+  </si>
+  <si>
+    <t>1508 Park Street</t>
+  </si>
+  <si>
+    <t>1148 Ballena Boulevard</t>
+  </si>
+  <si>
+    <t>2333 Lincoln Avenue</t>
+  </si>
+  <si>
+    <t>Nacionalidad_Trabajadro</t>
+  </si>
+  <si>
+    <t>pk_Nacionalidad</t>
+  </si>
+  <si>
+    <t>pk_trabajador</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2269,8 +2392,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2355,8 +2485,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -2408,8 +2550,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="363">
+  <cellStyleXfs count="370">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2773,8 +2928,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2836,6 +2998,18 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2854,26 +3028,21 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="59"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="59"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="363">
+  <cellStyles count="370">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
@@ -3236,6 +3405,13 @@
     <cellStyle name="Hipervínculo visitado" xfId="360" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="361" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="362" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="363" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="364" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="365" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="366" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="367" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="368" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="369" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3583,21 +3759,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="18">
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="L2" s="41" t="s">
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="L2" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
     </row>
     <row r="3" spans="2:14">
       <c r="B3" s="3" t="s">
@@ -3719,11 +3895,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4">
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="46" t="s">
         <v>171</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
     </row>
     <row r="3" spans="2:4">
       <c r="B3" s="1" t="s">
@@ -3883,8 +4059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:AC233"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H24" workbookViewId="0">
-      <selection activeCell="O96" sqref="O96:O120"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3906,49 +4082,49 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:29" ht="18">
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="45" t="s">
         <v>193</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
-      <c r="R3" s="50" t="s">
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="R3" s="51" t="s">
         <v>381</v>
       </c>
-      <c r="S3" s="50"/>
-      <c r="T3" s="50"/>
+      <c r="S3" s="51"/>
+      <c r="T3" s="51"/>
       <c r="U3" s="33"/>
-      <c r="W3" s="42" t="s">
+      <c r="W3" s="46" t="s">
         <v>371</v>
       </c>
-      <c r="X3" s="42"/>
+      <c r="X3" s="46"/>
     </row>
     <row r="4" spans="2:29" ht="16">
       <c r="B4" s="28"/>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="44" t="s">
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="46"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="50"/>
       <c r="R4" s="1" t="s">
         <v>382</v>
       </c>
@@ -3967,11 +4143,11 @@
       <c r="X4" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="Y4" s="47"/>
-      <c r="Z4" s="49"/>
-      <c r="AA4" s="47"/>
+      <c r="Y4" s="52"/>
+      <c r="Z4" s="53"/>
+      <c r="AA4" s="52"/>
       <c r="AB4" s="32"/>
-      <c r="AC4" s="47"/>
+      <c r="AC4" s="52"/>
     </row>
     <row r="5" spans="2:29">
       <c r="B5" s="29" t="s">
@@ -4036,11 +4212,11 @@
       <c r="X5" t="s">
         <v>372</v>
       </c>
-      <c r="Y5" s="47"/>
-      <c r="Z5" s="49"/>
-      <c r="AA5" s="47"/>
+      <c r="Y5" s="52"/>
+      <c r="Z5" s="53"/>
+      <c r="AA5" s="52"/>
       <c r="AB5" s="18"/>
-      <c r="AC5" s="47"/>
+      <c r="AC5" s="52"/>
     </row>
     <row r="6" spans="2:29">
       <c r="B6" s="30">
@@ -4070,8 +4246,12 @@
         <v>29221</v>
       </c>
       <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
+      <c r="O6" t="s">
+        <v>705</v>
+      </c>
+      <c r="P6" s="4">
+        <v>238</v>
+      </c>
       <c r="R6">
         <f t="shared" ref="R6:R54" si="0">B7</f>
         <v>2</v>
@@ -4089,11 +4269,11 @@
       <c r="X6" t="s">
         <v>373</v>
       </c>
-      <c r="Y6" s="47"/>
-      <c r="Z6" s="49"/>
-      <c r="AA6" s="47"/>
+      <c r="Y6" s="52"/>
+      <c r="Z6" s="53"/>
+      <c r="AA6" s="52"/>
       <c r="AB6" s="18"/>
-      <c r="AC6" s="47"/>
+      <c r="AC6" s="52"/>
     </row>
     <row r="7" spans="2:29">
       <c r="B7" s="30">
@@ -4117,6 +4297,12 @@
       <c r="M7" s="5">
         <v>33401</v>
       </c>
+      <c r="O7" t="s">
+        <v>706</v>
+      </c>
+      <c r="P7" s="4">
+        <v>238</v>
+      </c>
       <c r="R7">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -4134,11 +4320,11 @@
       <c r="X7" t="s">
         <v>379</v>
       </c>
-      <c r="Y7" s="47"/>
-      <c r="Z7" s="49"/>
-      <c r="AA7" s="47"/>
+      <c r="Y7" s="52"/>
+      <c r="Z7" s="53"/>
+      <c r="AA7" s="52"/>
       <c r="AB7" s="18"/>
-      <c r="AC7" s="47"/>
+      <c r="AC7" s="52"/>
     </row>
     <row r="8" spans="2:29" ht="16">
       <c r="B8" s="30">
@@ -4162,6 +4348,12 @@
       <c r="M8" s="5">
         <v>32013</v>
       </c>
+      <c r="O8" t="s">
+        <v>707</v>
+      </c>
+      <c r="P8" s="4">
+        <v>238</v>
+      </c>
       <c r="R8">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -4203,6 +4395,12 @@
       <c r="M9" s="5">
         <v>32476</v>
       </c>
+      <c r="O9" t="s">
+        <v>708</v>
+      </c>
+      <c r="P9" s="4">
+        <v>238</v>
+      </c>
       <c r="R9">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -4242,6 +4440,12 @@
       </c>
       <c r="M10" s="5">
         <v>31810</v>
+      </c>
+      <c r="O10" t="s">
+        <v>709</v>
+      </c>
+      <c r="P10" s="4">
+        <v>238</v>
       </c>
       <c r="R10">
         <f t="shared" si="0"/>
@@ -4288,6 +4492,12 @@
       <c r="M11" s="5">
         <v>29342</v>
       </c>
+      <c r="O11" t="s">
+        <v>710</v>
+      </c>
+      <c r="P11" s="4">
+        <v>238</v>
+      </c>
       <c r="R11">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -4330,6 +4540,12 @@
       <c r="M12" s="5">
         <v>31219</v>
       </c>
+      <c r="O12" t="s">
+        <v>711</v>
+      </c>
+      <c r="P12" s="4">
+        <v>238</v>
+      </c>
       <c r="R12">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -4347,11 +4563,11 @@
       <c r="X12" t="s">
         <v>380</v>
       </c>
-      <c r="Y12" s="47"/>
-      <c r="Z12" s="47"/>
-      <c r="AA12" s="47"/>
+      <c r="Y12" s="52"/>
+      <c r="Z12" s="52"/>
+      <c r="AA12" s="52"/>
       <c r="AB12" s="32"/>
-      <c r="AC12" s="47"/>
+      <c r="AC12" s="52"/>
     </row>
     <row r="13" spans="2:29" ht="16">
       <c r="B13" s="30">
@@ -4375,6 +4591,12 @@
       <c r="M13" s="5">
         <v>33220</v>
       </c>
+      <c r="O13" t="s">
+        <v>712</v>
+      </c>
+      <c r="P13" s="4">
+        <v>238</v>
+      </c>
       <c r="R13">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -4392,11 +4614,11 @@
       <c r="X13" t="s">
         <v>404</v>
       </c>
-      <c r="Y13" s="47"/>
-      <c r="Z13" s="47"/>
-      <c r="AA13" s="47"/>
+      <c r="Y13" s="52"/>
+      <c r="Z13" s="52"/>
+      <c r="AA13" s="52"/>
       <c r="AB13" s="32"/>
-      <c r="AC13" s="47"/>
+      <c r="AC13" s="52"/>
     </row>
     <row r="14" spans="2:29" ht="16">
       <c r="B14" s="30">
@@ -4419,6 +4641,12 @@
       </c>
       <c r="M14" s="5">
         <v>32612</v>
+      </c>
+      <c r="O14" t="s">
+        <v>713</v>
+      </c>
+      <c r="P14" s="4">
+        <v>238</v>
       </c>
       <c r="R14">
         <f t="shared" si="0"/>
@@ -4465,6 +4693,12 @@
       <c r="M15" s="5">
         <v>33502</v>
       </c>
+      <c r="O15" t="s">
+        <v>714</v>
+      </c>
+      <c r="P15" s="4">
+        <v>238</v>
+      </c>
       <c r="R15">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -4500,6 +4734,12 @@
       <c r="M16" s="5">
         <v>29285</v>
       </c>
+      <c r="O16" t="s">
+        <v>715</v>
+      </c>
+      <c r="P16" s="4">
+        <v>238</v>
+      </c>
       <c r="R16">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -4673,11 +4913,11 @@
       <c r="T21" s="5">
         <v>39289</v>
       </c>
-      <c r="Y21" s="48"/>
-      <c r="Z21" s="49"/>
-      <c r="AA21" s="47"/>
+      <c r="Y21" s="54"/>
+      <c r="Z21" s="53"/>
+      <c r="AA21" s="52"/>
       <c r="AB21" s="32"/>
-      <c r="AC21" s="47"/>
+      <c r="AC21" s="52"/>
     </row>
     <row r="22" spans="2:29">
       <c r="B22" s="30">
@@ -4712,11 +4952,11 @@
       <c r="T22" s="5">
         <v>40454</v>
       </c>
-      <c r="Y22" s="48"/>
-      <c r="Z22" s="49"/>
-      <c r="AA22" s="47"/>
+      <c r="Y22" s="54"/>
+      <c r="Z22" s="53"/>
+      <c r="AA22" s="52"/>
       <c r="AB22" s="18"/>
-      <c r="AC22" s="47"/>
+      <c r="AC22" s="52"/>
     </row>
     <row r="23" spans="2:29" ht="16">
       <c r="B23" s="30">
@@ -4929,7 +5169,12 @@
       <c r="N29" t="s">
         <v>34</v>
       </c>
-      <c r="P29" s="27"/>
+      <c r="O29" t="s">
+        <v>678</v>
+      </c>
+      <c r="P29" s="55">
+        <v>229</v>
+      </c>
       <c r="R29">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -4967,7 +5212,12 @@
       <c r="N30" t="s">
         <v>34</v>
       </c>
-      <c r="P30" s="27"/>
+      <c r="O30" t="s">
+        <v>679</v>
+      </c>
+      <c r="P30" s="55">
+        <v>229</v>
+      </c>
       <c r="R30">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -4999,7 +5249,12 @@
       <c r="N31" t="s">
         <v>34</v>
       </c>
-      <c r="P31" s="27"/>
+      <c r="O31" t="s">
+        <v>680</v>
+      </c>
+      <c r="P31" s="55">
+        <v>229</v>
+      </c>
       <c r="R31">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -5037,7 +5292,12 @@
       <c r="N32" t="s">
         <v>34</v>
       </c>
-      <c r="P32" s="27"/>
+      <c r="O32" t="s">
+        <v>681</v>
+      </c>
+      <c r="P32" s="55">
+        <v>229</v>
+      </c>
       <c r="R32">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -5069,7 +5329,12 @@
       <c r="N33" t="s">
         <v>34</v>
       </c>
-      <c r="P33" s="27"/>
+      <c r="O33" t="s">
+        <v>682</v>
+      </c>
+      <c r="P33" s="55">
+        <v>229</v>
+      </c>
       <c r="R33">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -5107,7 +5372,12 @@
       <c r="N34" t="s">
         <v>34</v>
       </c>
-      <c r="P34" s="27"/>
+      <c r="O34" t="s">
+        <v>683</v>
+      </c>
+      <c r="P34" s="55">
+        <v>229</v>
+      </c>
       <c r="R34">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -5143,7 +5413,12 @@
       <c r="N35" t="s">
         <v>34</v>
       </c>
-      <c r="P35" s="27"/>
+      <c r="O35" t="s">
+        <v>684</v>
+      </c>
+      <c r="P35" s="55">
+        <v>229</v>
+      </c>
       <c r="R35">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -5155,11 +5430,11 @@
       <c r="T35" s="5">
         <v>38043</v>
       </c>
-      <c r="Y35" s="48"/>
-      <c r="Z35" s="47"/>
-      <c r="AA35" s="47"/>
+      <c r="Y35" s="54"/>
+      <c r="Z35" s="52"/>
+      <c r="AA35" s="52"/>
       <c r="AB35" s="32"/>
-      <c r="AC35" s="47"/>
+      <c r="AC35" s="52"/>
     </row>
     <row r="36" spans="2:29" ht="16">
       <c r="B36" s="30">
@@ -5183,7 +5458,12 @@
       <c r="N36" t="s">
         <v>34</v>
       </c>
-      <c r="P36" s="27"/>
+      <c r="O36" t="s">
+        <v>685</v>
+      </c>
+      <c r="P36" s="55">
+        <v>229</v>
+      </c>
       <c r="R36">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -5195,11 +5475,11 @@
       <c r="T36" s="5">
         <v>38942</v>
       </c>
-      <c r="Y36" s="48"/>
-      <c r="Z36" s="47"/>
-      <c r="AA36" s="47"/>
+      <c r="Y36" s="54"/>
+      <c r="Z36" s="52"/>
+      <c r="AA36" s="52"/>
       <c r="AB36" s="32"/>
-      <c r="AC36" s="47"/>
+      <c r="AC36" s="52"/>
     </row>
     <row r="37" spans="2:29" ht="16">
       <c r="B37" s="30">
@@ -5226,7 +5506,12 @@
       <c r="N37" t="s">
         <v>34</v>
       </c>
-      <c r="P37" s="27"/>
+      <c r="O37" t="s">
+        <v>686</v>
+      </c>
+      <c r="P37" s="27">
+        <v>226</v>
+      </c>
       <c r="R37">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -5238,11 +5523,11 @@
       <c r="T37" s="5">
         <v>40979</v>
       </c>
-      <c r="Y37" s="47"/>
-      <c r="Z37" s="47"/>
-      <c r="AA37" s="47"/>
+      <c r="Y37" s="52"/>
+      <c r="Z37" s="52"/>
+      <c r="AA37" s="52"/>
       <c r="AB37" s="32"/>
-      <c r="AC37" s="47"/>
+      <c r="AC37" s="52"/>
     </row>
     <row r="38" spans="2:29" ht="16">
       <c r="B38" s="30">
@@ -5266,7 +5551,12 @@
       <c r="N38" t="s">
         <v>34</v>
       </c>
-      <c r="P38" s="27"/>
+      <c r="O38" t="s">
+        <v>687</v>
+      </c>
+      <c r="P38" s="27">
+        <v>226</v>
+      </c>
       <c r="R38">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -5278,11 +5568,11 @@
       <c r="T38" s="5">
         <v>38948</v>
       </c>
-      <c r="Y38" s="47"/>
-      <c r="Z38" s="47"/>
-      <c r="AA38" s="47"/>
+      <c r="Y38" s="52"/>
+      <c r="Z38" s="52"/>
+      <c r="AA38" s="52"/>
       <c r="AB38" s="32"/>
-      <c r="AC38" s="47"/>
+      <c r="AC38" s="52"/>
     </row>
     <row r="39" spans="2:29">
       <c r="B39" s="30">
@@ -5306,7 +5596,12 @@
       <c r="N39" t="s">
         <v>34</v>
       </c>
-      <c r="P39" s="27"/>
+      <c r="O39" t="s">
+        <v>688</v>
+      </c>
+      <c r="P39" s="27">
+        <v>226</v>
+      </c>
       <c r="R39">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -5344,7 +5639,12 @@
       <c r="N40" t="s">
         <v>370</v>
       </c>
-      <c r="P40" s="27"/>
+      <c r="O40" t="s">
+        <v>689</v>
+      </c>
+      <c r="P40" s="27">
+        <v>226</v>
+      </c>
       <c r="R40">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -5381,6 +5681,12 @@
       </c>
       <c r="N41" t="s">
         <v>370</v>
+      </c>
+      <c r="O41" t="s">
+        <v>690</v>
+      </c>
+      <c r="P41" s="27">
+        <v>226</v>
       </c>
       <c r="Q41" s="40"/>
       <c r="R41">
@@ -5414,6 +5720,12 @@
       <c r="N42" t="s">
         <v>370</v>
       </c>
+      <c r="O42" t="s">
+        <v>691</v>
+      </c>
+      <c r="P42" s="27">
+        <v>226</v>
+      </c>
       <c r="Q42" s="40"/>
       <c r="R42">
         <f t="shared" si="0"/>
@@ -5449,6 +5761,12 @@
       <c r="N43" t="s">
         <v>370</v>
       </c>
+      <c r="O43" t="s">
+        <v>692</v>
+      </c>
+      <c r="P43" s="27">
+        <v>226</v>
+      </c>
       <c r="Q43" s="40"/>
       <c r="R43">
         <f t="shared" si="0"/>
@@ -5487,6 +5805,12 @@
       <c r="N44" t="s">
         <v>370</v>
       </c>
+      <c r="O44" t="s">
+        <v>693</v>
+      </c>
+      <c r="P44" s="27">
+        <v>226</v>
+      </c>
       <c r="Q44" s="40"/>
       <c r="R44">
         <f t="shared" si="0"/>
@@ -5499,11 +5823,11 @@
       <c r="T44" s="5">
         <v>37249</v>
       </c>
-      <c r="Y44" s="47"/>
-      <c r="Z44" s="48"/>
-      <c r="AA44" s="47"/>
+      <c r="Y44" s="52"/>
+      <c r="Z44" s="54"/>
+      <c r="AA44" s="52"/>
       <c r="AB44" s="18"/>
-      <c r="AC44" s="47"/>
+      <c r="AC44" s="52"/>
     </row>
     <row r="45" spans="2:29">
       <c r="B45" s="30">
@@ -5523,6 +5847,12 @@
       </c>
       <c r="N45" t="s">
         <v>370</v>
+      </c>
+      <c r="O45" t="s">
+        <v>694</v>
+      </c>
+      <c r="P45" s="27">
+        <v>231</v>
       </c>
       <c r="Q45" s="40"/>
       <c r="R45">
@@ -5536,11 +5866,11 @@
       <c r="T45" s="5">
         <v>39371</v>
       </c>
-      <c r="Y45" s="47"/>
-      <c r="Z45" s="48"/>
-      <c r="AA45" s="47"/>
+      <c r="Y45" s="52"/>
+      <c r="Z45" s="54"/>
+      <c r="AA45" s="52"/>
       <c r="AB45" s="18"/>
-      <c r="AC45" s="47"/>
+      <c r="AC45" s="52"/>
     </row>
     <row r="46" spans="2:29">
       <c r="B46" s="30">
@@ -5563,6 +5893,12 @@
       </c>
       <c r="N46" t="s">
         <v>370</v>
+      </c>
+      <c r="O46" t="s">
+        <v>695</v>
+      </c>
+      <c r="P46" s="27">
+        <v>231</v>
       </c>
       <c r="Q46" s="40"/>
       <c r="R46">
@@ -5576,11 +5912,11 @@
       <c r="T46" s="5">
         <v>38123</v>
       </c>
-      <c r="Y46" s="47"/>
-      <c r="Z46" s="48"/>
-      <c r="AA46" s="47"/>
+      <c r="Y46" s="52"/>
+      <c r="Z46" s="54"/>
+      <c r="AA46" s="52"/>
       <c r="AB46" s="18"/>
-      <c r="AC46" s="47"/>
+      <c r="AC46" s="52"/>
     </row>
     <row r="47" spans="2:29">
       <c r="B47" s="30">
@@ -5603,6 +5939,12 @@
       </c>
       <c r="N47" t="s">
         <v>370</v>
+      </c>
+      <c r="O47" t="s">
+        <v>696</v>
+      </c>
+      <c r="P47" s="27">
+        <v>231</v>
       </c>
       <c r="Q47" s="40"/>
       <c r="R47">
@@ -5616,11 +5958,11 @@
       <c r="T47" s="5">
         <v>39947</v>
       </c>
-      <c r="Y47" s="47"/>
-      <c r="Z47" s="48"/>
-      <c r="AA47" s="47"/>
+      <c r="Y47" s="52"/>
+      <c r="Z47" s="54"/>
+      <c r="AA47" s="52"/>
       <c r="AB47" s="18"/>
-      <c r="AC47" s="47"/>
+      <c r="AC47" s="52"/>
     </row>
     <row r="48" spans="2:29" ht="16">
       <c r="B48" s="30">
@@ -5641,6 +5983,12 @@
       </c>
       <c r="N48" t="s">
         <v>370</v>
+      </c>
+      <c r="O48" t="s">
+        <v>697</v>
+      </c>
+      <c r="P48" s="27">
+        <v>231</v>
       </c>
       <c r="Q48" s="40"/>
       <c r="R48">
@@ -5682,6 +6030,12 @@
       <c r="N49" t="s">
         <v>370</v>
       </c>
+      <c r="O49" t="s">
+        <v>698</v>
+      </c>
+      <c r="P49" s="27">
+        <v>231</v>
+      </c>
       <c r="Q49" s="40"/>
       <c r="R49">
         <f t="shared" si="0"/>
@@ -5720,6 +6074,12 @@
       <c r="N50" t="s">
         <v>370</v>
       </c>
+      <c r="O50" t="s">
+        <v>699</v>
+      </c>
+      <c r="P50" s="27">
+        <v>231</v>
+      </c>
       <c r="Q50" s="40"/>
       <c r="R50">
         <f t="shared" si="0"/>
@@ -5752,6 +6112,12 @@
       <c r="N51" t="s">
         <v>370</v>
       </c>
+      <c r="O51" t="s">
+        <v>700</v>
+      </c>
+      <c r="P51" s="27">
+        <v>231</v>
+      </c>
       <c r="Q51" s="40"/>
       <c r="R51">
         <f t="shared" si="0"/>
@@ -5787,6 +6153,12 @@
       <c r="N52" t="s">
         <v>370</v>
       </c>
+      <c r="O52" t="s">
+        <v>701</v>
+      </c>
+      <c r="P52" s="27">
+        <v>231</v>
+      </c>
       <c r="Q52" s="40"/>
       <c r="R52">
         <f t="shared" si="0"/>
@@ -5822,6 +6194,12 @@
       <c r="N53" t="s">
         <v>370</v>
       </c>
+      <c r="O53" t="s">
+        <v>702</v>
+      </c>
+      <c r="P53" s="27">
+        <v>231</v>
+      </c>
       <c r="Q53" s="40"/>
       <c r="R53">
         <f t="shared" si="0"/>
@@ -5854,6 +6232,12 @@
       <c r="N54" t="s">
         <v>370</v>
       </c>
+      <c r="O54" t="s">
+        <v>703</v>
+      </c>
+      <c r="P54" s="27">
+        <v>231</v>
+      </c>
       <c r="Q54" s="40"/>
       <c r="R54">
         <f t="shared" si="0"/>
@@ -5866,11 +6250,11 @@
       <c r="T54" s="5">
         <v>36604</v>
       </c>
-      <c r="Y54" s="47"/>
-      <c r="Z54" s="48"/>
-      <c r="AA54" s="47"/>
+      <c r="Y54" s="52"/>
+      <c r="Z54" s="54"/>
+      <c r="AA54" s="52"/>
       <c r="AB54" s="32"/>
-      <c r="AC54" s="47"/>
+      <c r="AC54" s="52"/>
     </row>
     <row r="55" spans="1:29" ht="16">
       <c r="B55" s="30">
@@ -5897,6 +6281,12 @@
       <c r="N55" t="s">
         <v>370</v>
       </c>
+      <c r="O55" t="s">
+        <v>704</v>
+      </c>
+      <c r="P55" s="27">
+        <v>231</v>
+      </c>
       <c r="Q55" s="40"/>
       <c r="R55">
         <v>51</v>
@@ -5907,11 +6297,11 @@
       <c r="T55" s="5">
         <v>36050</v>
       </c>
-      <c r="Y55" s="47"/>
-      <c r="Z55" s="48"/>
-      <c r="AA55" s="47"/>
+      <c r="Y55" s="52"/>
+      <c r="Z55" s="54"/>
+      <c r="AA55" s="52"/>
       <c r="AB55" s="32"/>
-      <c r="AC55" s="47"/>
+      <c r="AC55" s="52"/>
     </row>
     <row r="56" spans="1:29" s="4" customFormat="1" ht="19">
       <c r="A56" s="4" t="s">
@@ -5920,13 +6310,13 @@
       <c r="B56" s="30">
         <v>51</v>
       </c>
-      <c r="C56" s="51" t="s">
+      <c r="C56" s="41" t="s">
         <v>384</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="G56" s="52"/>
+      <c r="G56" s="42"/>
       <c r="L56" s="4" t="s">
         <v>33</v>
       </c>
@@ -5942,7 +6332,7 @@
       <c r="P56" s="4">
         <v>187</v>
       </c>
-      <c r="Q56" s="53"/>
+      <c r="Q56" s="43"/>
       <c r="R56" s="4">
         <f t="shared" ref="R56:R87" si="1">B57</f>
         <v>52</v>
@@ -5954,7 +6344,7 @@
       <c r="T56" s="6">
         <v>38761</v>
       </c>
-      <c r="V56" s="54"/>
+      <c r="V56" s="44"/>
     </row>
     <row r="57" spans="1:29">
       <c r="A57" s="35" t="s">
@@ -8387,7 +8777,7 @@
       </c>
     </row>
     <row r="117" spans="1:24">
-      <c r="A117" t="s">
+      <c r="A117" s="56" t="s">
         <v>574</v>
       </c>
       <c r="B117" s="30">
@@ -8418,6 +8808,7 @@
       </c>
     </row>
     <row r="118" spans="1:24">
+      <c r="A118" s="56"/>
       <c r="B118" s="30">
         <v>113</v>
       </c>
@@ -8446,7 +8837,7 @@
       </c>
     </row>
     <row r="119" spans="1:24">
-      <c r="A119" t="s">
+      <c r="A119" s="56" t="s">
         <v>577</v>
       </c>
       <c r="B119" s="30">
@@ -8477,6 +8868,7 @@
       </c>
     </row>
     <row r="120" spans="1:24">
+      <c r="A120" s="56"/>
       <c r="B120" s="30">
         <v>115</v>
       </c>
@@ -8505,6 +8897,7 @@
       </c>
     </row>
     <row r="121" spans="1:24">
+      <c r="A121" s="56"/>
       <c r="B121" s="30">
         <v>116</v>
       </c>
@@ -8533,7 +8926,7 @@
       </c>
     </row>
     <row r="122" spans="1:24">
-      <c r="A122" t="s">
+      <c r="A122" s="56" t="s">
         <v>580</v>
       </c>
       <c r="B122" s="30">
@@ -8564,7 +8957,7 @@
       </c>
     </row>
     <row r="123" spans="1:24">
-      <c r="A123" t="s">
+      <c r="A123" s="56" t="s">
         <v>582</v>
       </c>
       <c r="B123" s="30">
@@ -8595,7 +8988,7 @@
       </c>
     </row>
     <row r="124" spans="1:24">
-      <c r="A124" t="s">
+      <c r="A124" s="56" t="s">
         <v>583</v>
       </c>
       <c r="B124" s="30">
@@ -8624,7 +9017,7 @@
       </c>
     </row>
     <row r="125" spans="1:24">
-      <c r="A125" t="s">
+      <c r="A125" s="56" t="s">
         <v>584</v>
       </c>
       <c r="B125" s="30">
@@ -8655,7 +9048,7 @@
       </c>
     </row>
     <row r="126" spans="1:24">
-      <c r="A126" t="s">
+      <c r="A126" s="56" t="s">
         <v>586</v>
       </c>
       <c r="B126" s="30">
@@ -8686,6 +9079,7 @@
       </c>
     </row>
     <row r="127" spans="1:24">
+      <c r="A127" s="56"/>
       <c r="B127" s="30">
         <v>122</v>
       </c>
@@ -8712,7 +9106,7 @@
       </c>
     </row>
     <row r="128" spans="1:24">
-      <c r="A128" t="s">
+      <c r="A128" s="56" t="s">
         <v>588</v>
       </c>
       <c r="B128" s="30">
@@ -8743,7 +9137,7 @@
       </c>
     </row>
     <row r="129" spans="1:16">
-      <c r="A129" t="s">
+      <c r="A129" s="56" t="s">
         <v>589</v>
       </c>
       <c r="B129" s="30">
@@ -8774,7 +9168,7 @@
       </c>
     </row>
     <row r="130" spans="1:16">
-      <c r="A130" t="s">
+      <c r="A130" s="56" t="s">
         <v>591</v>
       </c>
       <c r="B130" s="30">
@@ -8805,7 +9199,7 @@
       </c>
     </row>
     <row r="131" spans="1:16">
-      <c r="A131" t="s">
+      <c r="A131" s="56" t="s">
         <v>593</v>
       </c>
       <c r="B131" s="30">
@@ -8836,7 +9230,7 @@
       </c>
     </row>
     <row r="132" spans="1:16">
-      <c r="A132" t="s">
+      <c r="A132" s="56" t="s">
         <v>594</v>
       </c>
       <c r="B132" s="30">
@@ -8865,7 +9259,7 @@
       </c>
     </row>
     <row r="133" spans="1:16">
-      <c r="A133" t="s">
+      <c r="A133" s="56" t="s">
         <v>595</v>
       </c>
       <c r="B133" s="30">
@@ -8896,7 +9290,7 @@
       </c>
     </row>
     <row r="134" spans="1:16">
-      <c r="A134" t="s">
+      <c r="A134" s="56" t="s">
         <v>597</v>
       </c>
       <c r="B134" s="30">
@@ -8927,7 +9321,7 @@
       </c>
     </row>
     <row r="135" spans="1:16">
-      <c r="A135" t="s">
+      <c r="A135" s="56" t="s">
         <v>598</v>
       </c>
       <c r="B135" s="30">
@@ -8956,7 +9350,7 @@
       </c>
     </row>
     <row r="136" spans="1:16">
-      <c r="A136" t="s">
+      <c r="A136" s="56" t="s">
         <v>600</v>
       </c>
       <c r="B136" s="30">
@@ -8985,6 +9379,7 @@
       </c>
     </row>
     <row r="137" spans="1:16">
+      <c r="A137" s="56"/>
       <c r="B137" s="30">
         <v>132</v>
       </c>
@@ -9011,6 +9406,7 @@
       </c>
     </row>
     <row r="138" spans="1:16">
+      <c r="A138" s="56"/>
       <c r="B138" s="30">
         <v>133</v>
       </c>
@@ -9037,6 +9433,7 @@
       </c>
     </row>
     <row r="139" spans="1:16">
+      <c r="A139" s="56"/>
       <c r="B139" s="30">
         <v>134</v>
       </c>
@@ -9063,7 +9460,7 @@
       </c>
     </row>
     <row r="140" spans="1:16">
-      <c r="A140" t="s">
+      <c r="A140" s="56" t="s">
         <v>602</v>
       </c>
       <c r="B140" s="30">
@@ -9092,6 +9489,7 @@
       </c>
     </row>
     <row r="141" spans="1:16">
+      <c r="A141" s="56"/>
       <c r="B141" s="30">
         <v>136</v>
       </c>
@@ -9118,7 +9516,7 @@
       </c>
     </row>
     <row r="142" spans="1:16">
-      <c r="A142" t="s">
+      <c r="A142" s="56" t="s">
         <v>603</v>
       </c>
       <c r="B142" s="30">
@@ -9151,11 +9549,30 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="B3:P3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="G4:K4"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="Y54:Y55"/>
+    <mergeCell ref="Z54:Z55"/>
+    <mergeCell ref="AA54:AA55"/>
+    <mergeCell ref="AC54:AC55"/>
+    <mergeCell ref="Y46:Y47"/>
+    <mergeCell ref="Z46:Z47"/>
+    <mergeCell ref="AA46:AA47"/>
+    <mergeCell ref="AC46:AC47"/>
+    <mergeCell ref="Y44:Y45"/>
+    <mergeCell ref="Z44:Z45"/>
+    <mergeCell ref="AA44:AA45"/>
+    <mergeCell ref="AC44:AC45"/>
+    <mergeCell ref="Y37:Y38"/>
+    <mergeCell ref="Z37:Z38"/>
+    <mergeCell ref="AA37:AA38"/>
+    <mergeCell ref="AC37:AC38"/>
+    <mergeCell ref="Y35:Y36"/>
+    <mergeCell ref="Z35:Z36"/>
+    <mergeCell ref="AA35:AA36"/>
+    <mergeCell ref="AC35:AC36"/>
+    <mergeCell ref="Y21:Y22"/>
+    <mergeCell ref="Z21:Z22"/>
+    <mergeCell ref="AA21:AA22"/>
+    <mergeCell ref="AC21:AC22"/>
     <mergeCell ref="Y12:Y13"/>
     <mergeCell ref="Z12:Z13"/>
     <mergeCell ref="AA12:AA13"/>
@@ -9168,30 +9585,11 @@
     <mergeCell ref="Z6:Z7"/>
     <mergeCell ref="AA6:AA7"/>
     <mergeCell ref="AC6:AC7"/>
-    <mergeCell ref="Y35:Y36"/>
-    <mergeCell ref="Z35:Z36"/>
-    <mergeCell ref="AA35:AA36"/>
-    <mergeCell ref="AC35:AC36"/>
-    <mergeCell ref="Y21:Y22"/>
-    <mergeCell ref="Z21:Z22"/>
-    <mergeCell ref="AA21:AA22"/>
-    <mergeCell ref="AC21:AC22"/>
-    <mergeCell ref="Y44:Y45"/>
-    <mergeCell ref="Z44:Z45"/>
-    <mergeCell ref="AA44:AA45"/>
-    <mergeCell ref="AC44:AC45"/>
-    <mergeCell ref="Y37:Y38"/>
-    <mergeCell ref="Z37:Z38"/>
-    <mergeCell ref="AA37:AA38"/>
-    <mergeCell ref="AC37:AC38"/>
-    <mergeCell ref="Y54:Y55"/>
-    <mergeCell ref="Z54:Z55"/>
-    <mergeCell ref="AA54:AA55"/>
-    <mergeCell ref="AC54:AC55"/>
-    <mergeCell ref="Y46:Y47"/>
-    <mergeCell ref="Z46:Z47"/>
-    <mergeCell ref="AA46:AA47"/>
-    <mergeCell ref="AC46:AC47"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="G4:K4"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="R3:T3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -9205,6 +9603,47 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:3">
+      <c r="B3" s="57" t="s">
+        <v>716</v>
+      </c>
+      <c r="C3" s="57"/>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>718</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:C3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G194"/>
   <sheetViews>
     <sheetView topLeftCell="A27" workbookViewId="0">
@@ -9215,20 +9654,20 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>5</v>
+        <f t="shared" ref="A1:A32" ca="1" si="0">RANDBETWEEN(1,30)</f>
+        <v>15</v>
       </c>
       <c r="B1">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>11</v>
+        <f t="shared" ref="B1:B32" ca="1" si="1">RANDBETWEEN(1,12)</f>
+        <v>6</v>
       </c>
       <c r="C1" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>87</v>
+        <f t="shared" ref="C1:C32" ca="1" si="2">RANDBETWEEN(70,93)</f>
+        <v>92</v>
       </c>
       <c r="E1" t="str">
-        <f ca="1">A1&amp;"/"&amp;B1&amp;"/"&amp;C1</f>
-        <v>5/11/87</v>
+        <f t="shared" ref="E1:E32" ca="1" si="3">A1&amp;"/"&amp;B1&amp;"/"&amp;C1</f>
+        <v>15/6/92</v>
       </c>
       <c r="G1" s="5">
         <v>32428</v>
@@ -9236,1067 +9675,1067 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>19</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>28</v>
       </c>
       <c r="B2">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>4</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>11</v>
       </c>
       <c r="C2" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>75</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>92</v>
       </c>
       <c r="E2" t="str">
-        <f ca="1">A2&amp;"/"&amp;B2&amp;"/"&amp;C2</f>
-        <v>19/4/75</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>28/11/92</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>14</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>16</v>
       </c>
       <c r="B3">
-        <f ca="1">RANDBETWEEN(1,12)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>9</v>
       </c>
       <c r="C3" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>70</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>85</v>
       </c>
       <c r="E3" t="str">
-        <f ca="1">A3&amp;"/"&amp;B3&amp;"/"&amp;C3</f>
-        <v>14/9/70</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>16/9/85</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>13</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
       </c>
       <c r="B4">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>3</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
       </c>
       <c r="C4" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>85</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>86</v>
       </c>
       <c r="E4" t="str">
-        <f ca="1">A4&amp;"/"&amp;B4&amp;"/"&amp;C4</f>
-        <v>13/3/85</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>8/10/86</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>5</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>13</v>
       </c>
       <c r="B5">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>12</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
       </c>
       <c r="C5" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>80</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>83</v>
       </c>
       <c r="E5" t="str">
-        <f ca="1">A5&amp;"/"&amp;B5&amp;"/"&amp;C5</f>
-        <v>5/12/80</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>13/3/83</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>6</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>20</v>
       </c>
       <c r="B6">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>7</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
       </c>
       <c r="C6" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>87</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>85</v>
       </c>
       <c r="E6" t="str">
-        <f ca="1">A6&amp;"/"&amp;B6&amp;"/"&amp;C6</f>
-        <v>6/7/87</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>20/3/85</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>17</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>21</v>
       </c>
       <c r="B7">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>8</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
       </c>
       <c r="C7" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>71</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>81</v>
       </c>
       <c r="E7" t="str">
-        <f ca="1">A7&amp;"/"&amp;B7&amp;"/"&amp;C7</f>
-        <v>17/8/71</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>21/6/81</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>25</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
       </c>
       <c r="B8">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>3</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="C8" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>76</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>84</v>
       </c>
       <c r="E8" t="str">
-        <f ca="1">A8&amp;"/"&amp;B8&amp;"/"&amp;C8</f>
-        <v>25/3/76</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>6/1/84</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>12</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>18</v>
       </c>
       <c r="B9">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>12</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
       </c>
       <c r="C9" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>92</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>71</v>
       </c>
       <c r="E9" t="str">
-        <f ca="1">A9&amp;"/"&amp;B9&amp;"/"&amp;C9</f>
-        <v>12/12/92</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>18/2/71</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>8</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>15</v>
       </c>
       <c r="B10">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>11</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="C10" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>72</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>88</v>
       </c>
       <c r="E10" t="str">
-        <f ca="1">A10&amp;"/"&amp;B10&amp;"/"&amp;C10</f>
-        <v>8/11/72</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>15/1/88</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <f ca="1">RANDBETWEEN(1,30)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>19</v>
       </c>
       <c r="B11">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>4</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>8</v>
       </c>
       <c r="C11" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>89</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>90</v>
       </c>
       <c r="E11" t="str">
-        <f ca="1">A11&amp;"/"&amp;B11&amp;"/"&amp;C11</f>
-        <v>19/4/89</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>19/8/90</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>19</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>20</v>
       </c>
       <c r="B12">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>4</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>12</v>
       </c>
       <c r="C12" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>74</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>87</v>
       </c>
       <c r="E12" t="str">
-        <f ca="1">A12&amp;"/"&amp;B12&amp;"/"&amp;C12</f>
-        <v>19/4/74</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>20/12/87</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>23</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="B13">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
       </c>
       <c r="C13" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>86</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>87</v>
       </c>
       <c r="E13" t="str">
-        <f ca="1">A13&amp;"/"&amp;B13&amp;"/"&amp;C13</f>
-        <v>23/1/86</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1/3/87</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>24</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
       </c>
       <c r="B14">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>10</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
       </c>
       <c r="C14" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>87</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>89</v>
       </c>
       <c r="E14" t="str">
-        <f ca="1">A14&amp;"/"&amp;B14&amp;"/"&amp;C14</f>
-        <v>24/10/87</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>10/7/89</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>1</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>19</v>
       </c>
       <c r="B15">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>9</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
       </c>
       <c r="C15" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>72</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>87</v>
       </c>
       <c r="E15" t="str">
-        <f ca="1">A15&amp;"/"&amp;B15&amp;"/"&amp;C15</f>
-        <v>1/9/72</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>19/4/87</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>21</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
       </c>
       <c r="B16">
-        <f ca="1">RANDBETWEEN(1,12)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>4</v>
       </c>
       <c r="C16" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>75</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>93</v>
       </c>
       <c r="E16" t="str">
-        <f ca="1">A16&amp;"/"&amp;B16&amp;"/"&amp;C16</f>
-        <v>21/4/75</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>10/4/93</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>11</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>17</v>
       </c>
       <c r="B17">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>2</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>9</v>
       </c>
       <c r="C17" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>86</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>79</v>
       </c>
       <c r="E17" t="str">
-        <f ca="1">A17&amp;"/"&amp;B17&amp;"/"&amp;C17</f>
-        <v>11/2/86</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>17/9/79</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>12</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>26</v>
       </c>
       <c r="B18">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>4</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
       </c>
       <c r="C18" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>83</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>85</v>
       </c>
       <c r="E18" t="str">
-        <f ca="1">A18&amp;"/"&amp;B18&amp;"/"&amp;C18</f>
-        <v>12/4/83</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>26/6/85</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>7</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>26</v>
       </c>
       <c r="B19">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>6</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
       </c>
       <c r="C19" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>77</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>92</v>
       </c>
       <c r="E19" t="str">
-        <f ca="1">A19&amp;"/"&amp;B19&amp;"/"&amp;C19</f>
-        <v>7/6/77</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>26/5/92</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>5</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
       </c>
       <c r="B20">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>8</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
       </c>
       <c r="C20" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>93</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>87</v>
       </c>
       <c r="E20" t="str">
-        <f ca="1">A20&amp;"/"&amp;B20&amp;"/"&amp;C20</f>
-        <v>5/8/93</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>8/3/87</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>19</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
       </c>
       <c r="B21">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>3</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
       </c>
       <c r="C21" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>89</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>79</v>
       </c>
       <c r="E21" t="str">
-        <f ca="1">A21&amp;"/"&amp;B21&amp;"/"&amp;C21</f>
-        <v>19/3/89</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>12/10/79</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>14</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>13</v>
       </c>
       <c r="B22">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>5</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
       </c>
       <c r="C22" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>83</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>73</v>
       </c>
       <c r="E22" t="str">
-        <f ca="1">A22&amp;"/"&amp;B22&amp;"/"&amp;C22</f>
-        <v>14/5/83</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>13/10/73</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>5</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>30</v>
       </c>
       <c r="B23">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>5</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
       </c>
       <c r="C23" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>90</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>88</v>
       </c>
       <c r="E23" t="str">
-        <f ca="1">A23&amp;"/"&amp;B23&amp;"/"&amp;C23</f>
-        <v>5/5/90</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>30/7/88</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>3</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>23</v>
       </c>
       <c r="B24">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>4</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
       </c>
       <c r="C24" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>76</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>84</v>
       </c>
       <c r="E24" t="str">
-        <f ca="1">A24&amp;"/"&amp;B24&amp;"/"&amp;C24</f>
-        <v>3/4/76</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>23/5/84</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>4</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>11</v>
       </c>
       <c r="B25">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>7</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
       </c>
       <c r="C25" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>90</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>78</v>
       </c>
       <c r="E25" t="str">
-        <f ca="1">A25&amp;"/"&amp;B25&amp;"/"&amp;C25</f>
-        <v>4/7/90</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>11/6/78</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>11</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
       </c>
       <c r="B26">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>8</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
       </c>
       <c r="C26" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>73</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>81</v>
       </c>
       <c r="E26" t="str">
-        <f ca="1">A26&amp;"/"&amp;B26&amp;"/"&amp;C26</f>
-        <v>11/8/73</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>9/7/81</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>3</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>24</v>
       </c>
       <c r="B27">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>7</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>8</v>
       </c>
       <c r="C27" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>84</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>87</v>
       </c>
       <c r="E27" t="str">
-        <f ca="1">A27&amp;"/"&amp;B27&amp;"/"&amp;C27</f>
-        <v>3/7/84</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>24/8/87</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>13</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
       </c>
       <c r="B28">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>5</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>8</v>
       </c>
       <c r="C28" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>84</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>74</v>
       </c>
       <c r="E28" t="str">
-        <f ca="1">A28&amp;"/"&amp;B28&amp;"/"&amp;C28</f>
-        <v>13/5/84</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>4/8/74</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>29</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>21</v>
       </c>
       <c r="B29">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>5</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>8</v>
       </c>
       <c r="C29" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>86</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>71</v>
       </c>
       <c r="E29" t="str">
-        <f ca="1">A29&amp;"/"&amp;B29&amp;"/"&amp;C29</f>
-        <v>29/5/86</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>21/8/71</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>19</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>29</v>
       </c>
       <c r="B30">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>3</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
       </c>
       <c r="C30" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>83</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>88</v>
       </c>
       <c r="E30" t="str">
-        <f ca="1">A30&amp;"/"&amp;B30&amp;"/"&amp;C30</f>
-        <v>19/3/83</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>29/10/88</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>18</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>22</v>
       </c>
       <c r="B31">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>7</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="C31" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>73</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>93</v>
       </c>
       <c r="E31" t="str">
-        <f ca="1">A31&amp;"/"&amp;B31&amp;"/"&amp;C31</f>
-        <v>18/7/73</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>22/1/93</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>30</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
       </c>
       <c r="B32">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>12</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>9</v>
       </c>
       <c r="C32" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>87</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>91</v>
       </c>
       <c r="E32" t="str">
-        <f ca="1">A32&amp;"/"&amp;B32&amp;"/"&amp;C32</f>
-        <v>30/12/87</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>5/9/91</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>30</v>
+        <f t="shared" ref="A33:A64" ca="1" si="4">RANDBETWEEN(1,30)</f>
+        <v>10</v>
       </c>
       <c r="B33">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>6</v>
+        <f t="shared" ref="B33:B64" ca="1" si="5">RANDBETWEEN(1,12)</f>
+        <v>10</v>
       </c>
       <c r="C33" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>74</v>
+        <f t="shared" ref="C33:C64" ca="1" si="6">RANDBETWEEN(70,93)</f>
+        <v>71</v>
       </c>
       <c r="E33" t="str">
-        <f ca="1">A33&amp;"/"&amp;B33&amp;"/"&amp;C33</f>
-        <v>30/6/74</v>
+        <f t="shared" ref="E33:E64" ca="1" si="7">A33&amp;"/"&amp;B33&amp;"/"&amp;C33</f>
+        <v>10/10/71</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>6</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
       </c>
       <c r="B34">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>11</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>9</v>
       </c>
       <c r="C34" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>84</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>75</v>
       </c>
       <c r="E34" t="str">
-        <f ca="1">A34&amp;"/"&amp;B34&amp;"/"&amp;C34</f>
-        <v>6/11/84</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>2/9/75</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>14</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>9</v>
       </c>
       <c r="B35">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>8</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
       </c>
       <c r="C35" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>78</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>82</v>
       </c>
       <c r="E35" t="str">
-        <f ca="1">A35&amp;"/"&amp;B35&amp;"/"&amp;C35</f>
-        <v>14/8/78</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>9/4/82</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>1</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>27</v>
       </c>
       <c r="B36">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>1</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>12</v>
       </c>
       <c r="C36" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>77</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>72</v>
       </c>
       <c r="E36" t="str">
-        <f ca="1">A36&amp;"/"&amp;B36&amp;"/"&amp;C36</f>
-        <v>1/1/77</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>27/12/72</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>13</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>14</v>
       </c>
       <c r="B37">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>3</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>7</v>
       </c>
       <c r="C37" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>81</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>92</v>
       </c>
       <c r="E37" t="str">
-        <f ca="1">A37&amp;"/"&amp;B37&amp;"/"&amp;C37</f>
-        <v>13/3/81</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>14/7/92</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>30</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>16</v>
       </c>
       <c r="B38">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>11</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>6</v>
       </c>
       <c r="C38" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>77</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>78</v>
       </c>
       <c r="E38" t="str">
-        <f ca="1">A38&amp;"/"&amp;B38&amp;"/"&amp;C38</f>
-        <v>30/11/77</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>16/6/78</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>27</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>22</v>
       </c>
       <c r="B39">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>4</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>7</v>
       </c>
       <c r="C39" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>76</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>90</v>
       </c>
       <c r="E39" t="str">
-        <f ca="1">A39&amp;"/"&amp;B39&amp;"/"&amp;C39</f>
-        <v>27/4/76</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>22/7/90</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>12</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>23</v>
       </c>
       <c r="B40">
-        <f ca="1">RANDBETWEEN(1,12)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>6</v>
       </c>
       <c r="C40" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>83</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>85</v>
       </c>
       <c r="E40" t="str">
-        <f ca="1">A40&amp;"/"&amp;B40&amp;"/"&amp;C40</f>
-        <v>12/6/83</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>23/6/85</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>2</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>30</v>
       </c>
       <c r="B41">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>8</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>12</v>
       </c>
       <c r="C41" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>86</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>79</v>
       </c>
       <c r="E41" t="str">
-        <f ca="1">A41&amp;"/"&amp;B41&amp;"/"&amp;C41</f>
-        <v>2/8/86</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>30/12/79</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>30</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>7</v>
       </c>
       <c r="B42">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>9</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
       </c>
       <c r="C42" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>81</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>90</v>
       </c>
       <c r="E42" t="str">
-        <f ca="1">A42&amp;"/"&amp;B42&amp;"/"&amp;C42</f>
-        <v>30/9/81</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>7/1/90</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>11</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>29</v>
       </c>
       <c r="B43">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
       </c>
       <c r="C43" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>92</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>89</v>
       </c>
       <c r="E43" t="str">
-        <f ca="1">A43&amp;"/"&amp;B43&amp;"/"&amp;C43</f>
-        <v>11/2/92</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>29/3/89</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>3</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>23</v>
       </c>
       <c r="B44">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>12</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>7</v>
       </c>
       <c r="C44" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>88</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>86</v>
       </c>
       <c r="E44" t="str">
-        <f ca="1">A44&amp;"/"&amp;B44&amp;"/"&amp;C44</f>
-        <v>3/12/88</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>23/7/86</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>25</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>9</v>
       </c>
       <c r="B45">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>11</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>6</v>
       </c>
       <c r="C45" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>75</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>74</v>
       </c>
       <c r="E45" t="str">
-        <f ca="1">A45&amp;"/"&amp;B45&amp;"/"&amp;C45</f>
-        <v>25/11/75</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>9/6/74</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>7</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>16</v>
       </c>
       <c r="B46">
-        <f ca="1">RANDBETWEEN(1,12)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>12</v>
       </c>
       <c r="C46" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>70</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>82</v>
       </c>
       <c r="E46" t="str">
-        <f ca="1">A46&amp;"/"&amp;B46&amp;"/"&amp;C46</f>
-        <v>7/12/70</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>16/12/82</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>28</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>14</v>
       </c>
       <c r="B47">
-        <f ca="1">RANDBETWEEN(1,12)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>9</v>
       </c>
       <c r="C47" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>70</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>75</v>
       </c>
       <c r="E47" t="str">
-        <f ca="1">A47&amp;"/"&amp;B47&amp;"/"&amp;C47</f>
-        <v>28/9/70</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>14/9/75</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>6</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>10</v>
       </c>
       <c r="B48">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>10</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
       </c>
       <c r="C48" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>74</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>90</v>
       </c>
       <c r="E48" t="str">
-        <f ca="1">A48&amp;"/"&amp;B48&amp;"/"&amp;C48</f>
-        <v>6/10/74</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>10/2/90</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>21</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>30</v>
       </c>
       <c r="B49">
-        <f ca="1">RANDBETWEEN(1,12)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>10</v>
       </c>
       <c r="C49" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>85</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>83</v>
       </c>
       <c r="E49" t="str">
-        <f ca="1">A49&amp;"/"&amp;B49&amp;"/"&amp;C49</f>
-        <v>21/10/85</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>30/10/83</v>
       </c>
       <c r="G49" s="5"/>
     </row>
     <row r="50" spans="1:7">
       <c r="A50">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>17</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>26</v>
       </c>
       <c r="B50">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>7</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>8</v>
       </c>
       <c r="C50" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>89</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>71</v>
       </c>
       <c r="E50" t="str">
-        <f ca="1">A50&amp;"/"&amp;B50&amp;"/"&amp;C50</f>
-        <v>17/7/89</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>26/8/71</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>24</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>25</v>
       </c>
       <c r="B51">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>4</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
       </c>
       <c r="C51" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>76</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>91</v>
       </c>
       <c r="E51" t="str">
-        <f ca="1">A51&amp;"/"&amp;B51&amp;"/"&amp;C51</f>
-        <v>24/4/76</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>25/2/91</v>
       </c>
       <c r="G51" s="5"/>
     </row>
     <row r="52" spans="1:7">
       <c r="A52">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>22</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>6</v>
       </c>
       <c r="B52">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>10</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>11</v>
       </c>
       <c r="C52" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>75</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>84</v>
       </c>
       <c r="E52" t="str">
-        <f ca="1">A52&amp;"/"&amp;B52&amp;"/"&amp;C52</f>
-        <v>22/10/75</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>6/11/84</v>
       </c>
       <c r="G52" s="5"/>
     </row>
     <row r="53" spans="1:7">
       <c r="A53">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>14</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>5</v>
       </c>
       <c r="B53">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>4</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
       </c>
       <c r="C53" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>79</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>82</v>
       </c>
       <c r="E53" t="str">
-        <f ca="1">A53&amp;"/"&amp;B53&amp;"/"&amp;C53</f>
-        <v>14/4/79</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>5/5/82</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>23</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>8</v>
       </c>
       <c r="B54">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>6</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
       </c>
       <c r="C54" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>86</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>91</v>
       </c>
       <c r="E54" t="str">
-        <f ca="1">A54&amp;"/"&amp;B54&amp;"/"&amp;C54</f>
-        <v>23/6/86</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>8/5/91</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>27</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>7</v>
       </c>
       <c r="B55">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>7</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>6</v>
       </c>
       <c r="C55" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>86</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>89</v>
       </c>
       <c r="E55" t="str">
-        <f ca="1">A55&amp;"/"&amp;B55&amp;"/"&amp;C55</f>
-        <v>27/7/86</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>7/6/89</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>15</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>25</v>
       </c>
       <c r="B56">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>11</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>10</v>
       </c>
       <c r="C56" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>80</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>90</v>
       </c>
       <c r="E56" t="str">
-        <f ca="1">A56&amp;"/"&amp;B56&amp;"/"&amp;C56</f>
-        <v>15/11/80</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>25/10/90</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>1</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>8</v>
       </c>
       <c r="B57">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>8</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
       </c>
       <c r="C57" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>85</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>89</v>
       </c>
       <c r="E57" t="str">
-        <f ca="1">A57&amp;"/"&amp;B57&amp;"/"&amp;C57</f>
-        <v>1/8/85</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>8/5/89</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>2</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>5</v>
       </c>
       <c r="B58">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>4</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
       </c>
       <c r="C58" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>79</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>89</v>
       </c>
       <c r="E58" t="str">
-        <f ca="1">A58&amp;"/"&amp;B58&amp;"/"&amp;C58</f>
-        <v>2/4/79</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>5/5/89</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>9</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
       <c r="B59">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>11</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>12</v>
       </c>
       <c r="C59" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>85</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>80</v>
       </c>
       <c r="E59" t="str">
-        <f ca="1">A59&amp;"/"&amp;B59&amp;"/"&amp;C59</f>
-        <v>9/11/85</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1/12/80</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>16</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>29</v>
       </c>
       <c r="B60">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>8</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>6</v>
       </c>
       <c r="C60" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>71</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>85</v>
       </c>
       <c r="E60" t="str">
-        <f ca="1">A60&amp;"/"&amp;B60&amp;"/"&amp;C60</f>
-        <v>16/8/71</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>29/6/85</v>
       </c>
       <c r="G60" s="5">
         <v>26992</v>
@@ -10304,20 +10743,20 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>7</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>14</v>
       </c>
       <c r="B61">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>3</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>12</v>
       </c>
       <c r="C61" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>87</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>79</v>
       </c>
       <c r="E61" t="str">
-        <f ca="1">A61&amp;"/"&amp;B61&amp;"/"&amp;C61</f>
-        <v>7/3/87</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>14/12/79</v>
       </c>
       <c r="G61" s="5">
         <v>30502</v>
@@ -10325,20 +10764,20 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>14</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
       </c>
       <c r="B62">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>6</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>10</v>
       </c>
       <c r="C62" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>70</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>92</v>
       </c>
       <c r="E62" t="str">
-        <f ca="1">A62&amp;"/"&amp;B62&amp;"/"&amp;C62</f>
-        <v>14/6/70</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>2/10/92</v>
       </c>
       <c r="G62" s="5">
         <v>28144</v>
@@ -10346,20 +10785,20 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>8</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
       </c>
       <c r="B63">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>10</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>9</v>
       </c>
       <c r="C63" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>82</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>92</v>
       </c>
       <c r="E63" t="str">
-        <f ca="1">A63&amp;"/"&amp;B63&amp;"/"&amp;C63</f>
-        <v>8/10/82</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>3/9/92</v>
       </c>
       <c r="G63" s="5">
         <v>33160</v>
@@ -10367,20 +10806,20 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>12</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>7</v>
       </c>
       <c r="B64">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>8</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>11</v>
       </c>
       <c r="C64" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>79</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>88</v>
       </c>
       <c r="E64" t="str">
-        <f ca="1">A64&amp;"/"&amp;B64&amp;"/"&amp;C64</f>
-        <v>12/8/79</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>7/11/88</v>
       </c>
       <c r="G64" s="5">
         <v>29964</v>
@@ -10388,20 +10827,20 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>15</v>
+        <f t="shared" ref="A65:A96" ca="1" si="8">RANDBETWEEN(1,30)</f>
+        <v>25</v>
       </c>
       <c r="B65">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>1</v>
+        <f t="shared" ref="B65:B96" ca="1" si="9">RANDBETWEEN(1,12)</f>
+        <v>11</v>
       </c>
       <c r="C65" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>93</v>
+        <f t="shared" ref="C65:C96" ca="1" si="10">RANDBETWEEN(70,93)</f>
+        <v>74</v>
       </c>
       <c r="E65" t="str">
-        <f ca="1">A65&amp;"/"&amp;B65&amp;"/"&amp;C65</f>
-        <v>15/1/93</v>
+        <f t="shared" ref="E65:E96" ca="1" si="11">A65&amp;"/"&amp;B65&amp;"/"&amp;C65</f>
+        <v>25/11/74</v>
       </c>
       <c r="G65" s="5">
         <v>27808</v>
@@ -10409,20 +10848,20 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66">
-        <f ca="1">RANDBETWEEN(1,30)</f>
+        <f t="shared" ca="1" si="8"/>
+        <v>30</v>
+      </c>
+      <c r="B66">
+        <f t="shared" ca="1" si="9"/>
         <v>3</v>
       </c>
-      <c r="B66">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>9</v>
-      </c>
       <c r="C66" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>79</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>73</v>
       </c>
       <c r="E66" t="str">
-        <f ca="1">A66&amp;"/"&amp;B66&amp;"/"&amp;C66</f>
-        <v>3/9/79</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>30/3/73</v>
       </c>
       <c r="G66" s="5">
         <v>32652</v>
@@ -10430,20 +10869,20 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67">
-        <f ca="1">RANDBETWEEN(1,30)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>5</v>
       </c>
       <c r="B67">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>10</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>12</v>
       </c>
       <c r="C67" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>88</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>83</v>
       </c>
       <c r="E67" t="str">
-        <f ca="1">A67&amp;"/"&amp;B67&amp;"/"&amp;C67</f>
-        <v>5/10/88</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>5/12/83</v>
       </c>
       <c r="G67" s="5">
         <v>33595</v>
@@ -10451,20 +10890,20 @@
     </row>
     <row r="68" spans="1:7">
       <c r="A68">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>15</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>6</v>
       </c>
       <c r="B68">
-        <f ca="1">RANDBETWEEN(1,12)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>7</v>
       </c>
       <c r="C68" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>71</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>87</v>
       </c>
       <c r="E68" t="str">
-        <f ca="1">A68&amp;"/"&amp;B68&amp;"/"&amp;C68</f>
-        <v>15/7/71</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>6/7/87</v>
       </c>
       <c r="G68" s="5">
         <v>30880</v>
@@ -10472,20 +10911,20 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>28</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>11</v>
       </c>
       <c r="B69">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>1</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>8</v>
       </c>
       <c r="C69" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>84</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>79</v>
       </c>
       <c r="E69" t="str">
-        <f ca="1">A69&amp;"/"&amp;B69&amp;"/"&amp;C69</f>
-        <v>28/1/84</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>11/8/79</v>
       </c>
       <c r="G69" s="5">
         <v>28929</v>
@@ -10493,20 +10932,20 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>29</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>28</v>
       </c>
       <c r="B70">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>3</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>8</v>
       </c>
       <c r="C70" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>71</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>72</v>
       </c>
       <c r="E70" t="str">
-        <f ca="1">A70&amp;"/"&amp;B70&amp;"/"&amp;C70</f>
-        <v>29/3/71</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>28/8/72</v>
       </c>
       <c r="G70" s="5">
         <v>30372</v>
@@ -10514,20 +10953,20 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>26</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>23</v>
       </c>
       <c r="B71">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>7</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>9</v>
       </c>
       <c r="C71" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>79</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>90</v>
       </c>
       <c r="E71" t="str">
-        <f ca="1">A71&amp;"/"&amp;B71&amp;"/"&amp;C71</f>
-        <v>26/7/79</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>23/9/90</v>
       </c>
       <c r="G71" s="5">
         <v>28202</v>
@@ -10535,20 +10974,20 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>30</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>17</v>
       </c>
       <c r="B72">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>5</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>8</v>
       </c>
       <c r="C72" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>75</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>84</v>
       </c>
       <c r="E72" t="str">
-        <f ca="1">A72&amp;"/"&amp;B72&amp;"/"&amp;C72</f>
-        <v>30/5/75</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>17/8/84</v>
       </c>
       <c r="G72" s="5">
         <v>28546</v>
@@ -10556,20 +10995,20 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>29</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>2</v>
       </c>
       <c r="B73">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>6</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>2</v>
       </c>
       <c r="C73" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
+        <f t="shared" ca="1" si="10"/>
         <v>81</v>
       </c>
       <c r="E73" t="str">
-        <f ca="1">A73&amp;"/"&amp;B73&amp;"/"&amp;C73</f>
-        <v>29/6/81</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>2/2/81</v>
       </c>
       <c r="G73" s="5">
         <v>33479</v>
@@ -10577,20 +11016,20 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>14</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>24</v>
       </c>
       <c r="B74">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>12</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>9</v>
       </c>
       <c r="C74" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>74</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>90</v>
       </c>
       <c r="E74" t="str">
-        <f ca="1">A74&amp;"/"&amp;B74&amp;"/"&amp;C74</f>
-        <v>14/12/74</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>24/9/90</v>
       </c>
       <c r="G74" s="5">
         <v>25831</v>
@@ -10598,20 +11037,20 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>10</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>20</v>
       </c>
       <c r="B75">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>6</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>2</v>
       </c>
       <c r="C75" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>84</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>75</v>
       </c>
       <c r="E75" t="str">
-        <f ca="1">A75&amp;"/"&amp;B75&amp;"/"&amp;C75</f>
-        <v>10/6/84</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>20/2/75</v>
       </c>
       <c r="G75" s="5">
         <v>32071</v>
@@ -10619,20 +11058,20 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>16</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>30</v>
       </c>
       <c r="B76">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>6</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>10</v>
       </c>
       <c r="C76" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>78</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>86</v>
       </c>
       <c r="E76" t="str">
-        <f ca="1">A76&amp;"/"&amp;B76&amp;"/"&amp;C76</f>
-        <v>16/6/78</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>30/10/86</v>
       </c>
       <c r="G76" s="5">
         <v>29012</v>
@@ -10640,20 +11079,20 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>5</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>8</v>
       </c>
       <c r="B77">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>8</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
       </c>
       <c r="C77" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>85</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>87</v>
       </c>
       <c r="E77" t="str">
-        <f ca="1">A77&amp;"/"&amp;B77&amp;"/"&amp;C77</f>
-        <v>5/8/85</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>8/1/87</v>
       </c>
       <c r="G77" s="5">
         <v>30282</v>
@@ -10661,20 +11100,20 @@
     </row>
     <row r="78" spans="1:7">
       <c r="A78">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>30</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>26</v>
       </c>
       <c r="B78">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>12</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>8</v>
       </c>
       <c r="C78" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>93</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>80</v>
       </c>
       <c r="E78" t="str">
-        <f ca="1">A78&amp;"/"&amp;B78&amp;"/"&amp;C78</f>
-        <v>30/12/93</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>26/8/80</v>
       </c>
       <c r="G78" s="5">
         <v>27342</v>
@@ -10682,20 +11121,20 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>9</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>19</v>
       </c>
       <c r="B79">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>1</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>6</v>
       </c>
       <c r="C79" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>90</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>80</v>
       </c>
       <c r="E79" t="str">
-        <f ca="1">A79&amp;"/"&amp;B79&amp;"/"&amp;C79</f>
-        <v>9/1/90</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>19/6/80</v>
       </c>
       <c r="G79" s="5">
         <v>30030</v>
@@ -10703,20 +11142,20 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>20</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>21</v>
       </c>
       <c r="B80">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>12</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>7</v>
       </c>
       <c r="C80" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>87</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>88</v>
       </c>
       <c r="E80" t="str">
-        <f ca="1">A80&amp;"/"&amp;B80&amp;"/"&amp;C80</f>
-        <v>20/12/87</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>21/7/88</v>
       </c>
       <c r="G80" s="5">
         <v>31717</v>
@@ -10724,20 +11163,20 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>28</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>7</v>
       </c>
       <c r="B81">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>2</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>7</v>
       </c>
       <c r="C81" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>78</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>92</v>
       </c>
       <c r="E81" t="str">
-        <f ca="1">A81&amp;"/"&amp;B81&amp;"/"&amp;C81</f>
-        <v>28/2/78</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>7/7/92</v>
       </c>
       <c r="G81" s="5">
         <v>29523</v>
@@ -10745,20 +11184,20 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>26</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>29</v>
       </c>
       <c r="B82">
-        <f ca="1">RANDBETWEEN(1,12)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>1</v>
       </c>
       <c r="C82" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>72</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>87</v>
       </c>
       <c r="E82" t="str">
-        <f ca="1">A82&amp;"/"&amp;B82&amp;"/"&amp;C82</f>
-        <v>26/1/72</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>29/1/87</v>
       </c>
       <c r="G82" s="5">
         <v>29817</v>
@@ -10766,20 +11205,20 @@
     </row>
     <row r="83" spans="1:7">
       <c r="A83">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>13</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>12</v>
       </c>
       <c r="B83">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>4</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>6</v>
       </c>
       <c r="C83" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>88</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>89</v>
       </c>
       <c r="E83" t="str">
-        <f ca="1">A83&amp;"/"&amp;B83&amp;"/"&amp;C83</f>
-        <v>13/4/88</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>12/6/89</v>
       </c>
       <c r="G83" s="5">
         <v>30573</v>
@@ -10787,20 +11226,20 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>24</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>12</v>
       </c>
       <c r="B84">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>6</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>9</v>
       </c>
       <c r="C84" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>74</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>70</v>
       </c>
       <c r="E84" t="str">
-        <f ca="1">A84&amp;"/"&amp;B84&amp;"/"&amp;C84</f>
-        <v>24/6/74</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>12/9/70</v>
       </c>
       <c r="G84" s="5">
         <v>28657</v>
@@ -10808,20 +11247,20 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>24</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>12</v>
       </c>
       <c r="B85">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>8</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>4</v>
       </c>
       <c r="C85" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>90</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>83</v>
       </c>
       <c r="E85" t="str">
-        <f ca="1">A85&amp;"/"&amp;B85&amp;"/"&amp;C85</f>
-        <v>24/8/90</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>12/4/83</v>
       </c>
       <c r="G85" s="5">
         <v>30828</v>
@@ -10829,20 +11268,20 @@
     </row>
     <row r="86" spans="1:7">
       <c r="A86">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>11</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>24</v>
       </c>
       <c r="B86">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>3</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>5</v>
       </c>
       <c r="C86" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>84</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>87</v>
       </c>
       <c r="E86" t="str">
-        <f ca="1">A86&amp;"/"&amp;B86&amp;"/"&amp;C86</f>
-        <v>11/3/84</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>24/5/87</v>
       </c>
       <c r="G86" s="5">
         <v>30394</v>
@@ -10850,20 +11289,20 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>26</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>30</v>
       </c>
       <c r="B87">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>8</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>12</v>
       </c>
       <c r="C87" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>79</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>73</v>
       </c>
       <c r="E87" t="str">
-        <f ca="1">A87&amp;"/"&amp;B87&amp;"/"&amp;C87</f>
-        <v>26/8/79</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>30/12/73</v>
       </c>
       <c r="G87" s="5">
         <v>30031</v>
@@ -10871,20 +11310,20 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>10</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>28</v>
       </c>
       <c r="B88">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>11</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>9</v>
       </c>
       <c r="C88" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>76</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>75</v>
       </c>
       <c r="E88" t="str">
-        <f ca="1">A88&amp;"/"&amp;B88&amp;"/"&amp;C88</f>
-        <v>10/11/76</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>28/9/75</v>
       </c>
       <c r="G88" s="5">
         <v>25786</v>
@@ -10892,20 +11331,20 @@
     </row>
     <row r="89" spans="1:7">
       <c r="A89">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>15</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>28</v>
       </c>
       <c r="B89">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>1</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>12</v>
       </c>
       <c r="C89" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>73</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>93</v>
       </c>
       <c r="E89" t="str">
-        <f ca="1">A89&amp;"/"&amp;B89&amp;"/"&amp;C89</f>
-        <v>15/1/73</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>28/12/93</v>
       </c>
       <c r="G89" s="5">
         <v>28837</v>
@@ -10913,20 +11352,20 @@
     </row>
     <row r="90" spans="1:7">
       <c r="A90">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>18</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>29</v>
       </c>
       <c r="B90">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>2</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>3</v>
       </c>
       <c r="C90" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>75</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>88</v>
       </c>
       <c r="E90" t="str">
-        <f ca="1">A90&amp;"/"&amp;B90&amp;"/"&amp;C90</f>
-        <v>18/2/75</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>29/3/88</v>
       </c>
       <c r="G90" s="5">
         <v>26913</v>
@@ -10934,20 +11373,20 @@
     </row>
     <row r="91" spans="1:7">
       <c r="A91">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>18</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>12</v>
       </c>
       <c r="B91">
-        <f ca="1">RANDBETWEEN(1,12)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>5</v>
       </c>
       <c r="C91" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>89</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>92</v>
       </c>
       <c r="E91" t="str">
-        <f ca="1">A91&amp;"/"&amp;B91&amp;"/"&amp;C91</f>
-        <v>18/5/89</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>12/5/92</v>
       </c>
       <c r="G91" s="5">
         <v>28997</v>
@@ -10955,20 +11394,20 @@
     </row>
     <row r="92" spans="1:7">
       <c r="A92">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>19</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
       </c>
       <c r="B92">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>11</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>5</v>
       </c>
       <c r="C92" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>81</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>92</v>
       </c>
       <c r="E92" t="str">
-        <f ca="1">A92&amp;"/"&amp;B92&amp;"/"&amp;C92</f>
-        <v>19/11/81</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>1/5/92</v>
       </c>
       <c r="G92" s="5">
         <v>30760</v>
@@ -10976,20 +11415,20 @@
     </row>
     <row r="93" spans="1:7">
       <c r="A93">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>19</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
       </c>
       <c r="B93">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>7</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
       </c>
       <c r="C93" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>70</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>79</v>
       </c>
       <c r="E93" t="str">
-        <f ca="1">A93&amp;"/"&amp;B93&amp;"/"&amp;C93</f>
-        <v>19/7/70</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>1/1/79</v>
       </c>
       <c r="G93" s="5">
         <v>26750</v>
@@ -10997,20 +11436,20 @@
     </row>
     <row r="94" spans="1:7">
       <c r="A94">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>7</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>9</v>
       </c>
       <c r="B94">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>12</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>10</v>
       </c>
       <c r="C94" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
+        <f t="shared" ca="1" si="10"/>
         <v>85</v>
       </c>
       <c r="E94" t="str">
-        <f ca="1">A94&amp;"/"&amp;B94&amp;"/"&amp;C94</f>
-        <v>7/12/85</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>9/10/85</v>
       </c>
       <c r="G94" s="5">
         <v>29267</v>
@@ -11018,20 +11457,20 @@
     </row>
     <row r="95" spans="1:7">
       <c r="A95">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>23</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>19</v>
       </c>
       <c r="B95">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>8</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>2</v>
       </c>
       <c r="C95" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>73</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>87</v>
       </c>
       <c r="E95" t="str">
-        <f ca="1">A95&amp;"/"&amp;B95&amp;"/"&amp;C95</f>
-        <v>23/8/73</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>19/2/87</v>
       </c>
       <c r="G95" s="5">
         <v>30339</v>
@@ -11039,20 +11478,20 @@
     </row>
     <row r="96" spans="1:7">
       <c r="A96">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>7</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>21</v>
       </c>
       <c r="B96">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>12</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>8</v>
       </c>
       <c r="C96" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>92</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>93</v>
       </c>
       <c r="E96" t="str">
-        <f ca="1">A96&amp;"/"&amp;B96&amp;"/"&amp;C96</f>
-        <v>7/12/92</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>21/8/93</v>
       </c>
       <c r="G96" s="5">
         <v>31083</v>
@@ -11060,20 +11499,20 @@
     </row>
     <row r="97" spans="1:7">
       <c r="A97">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>29</v>
+        <f t="shared" ref="A97:A128" ca="1" si="12">RANDBETWEEN(1,30)</f>
+        <v>15</v>
       </c>
       <c r="B97">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>6</v>
+        <f t="shared" ref="B97:B128" ca="1" si="13">RANDBETWEEN(1,12)</f>
+        <v>1</v>
       </c>
       <c r="C97" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>92</v>
+        <f t="shared" ref="C97:C128" ca="1" si="14">RANDBETWEEN(70,93)</f>
+        <v>75</v>
       </c>
       <c r="E97" t="str">
-        <f ca="1">A97&amp;"/"&amp;B97&amp;"/"&amp;C97</f>
-        <v>29/6/92</v>
+        <f t="shared" ref="E97:E128" ca="1" si="15">A97&amp;"/"&amp;B97&amp;"/"&amp;C97</f>
+        <v>15/1/75</v>
       </c>
       <c r="G97" s="5">
         <v>32488</v>
@@ -11081,20 +11520,20 @@
     </row>
     <row r="98" spans="1:7">
       <c r="A98">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>27</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>14</v>
       </c>
       <c r="B98">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>2</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>10</v>
       </c>
       <c r="C98" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>85</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>79</v>
       </c>
       <c r="E98" t="str">
-        <f ca="1">A98&amp;"/"&amp;B98&amp;"/"&amp;C98</f>
-        <v>27/2/85</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>14/10/79</v>
       </c>
       <c r="G98" s="5">
         <v>27505</v>
@@ -11102,20 +11541,20 @@
     </row>
     <row r="99" spans="1:7">
       <c r="A99">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>15</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>23</v>
       </c>
       <c r="B99">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>4</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>5</v>
       </c>
       <c r="C99" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
+        <f t="shared" ca="1" si="14"/>
         <v>74</v>
       </c>
       <c r="E99" t="str">
-        <f ca="1">A99&amp;"/"&amp;B99&amp;"/"&amp;C99</f>
-        <v>15/4/74</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>23/5/74</v>
       </c>
       <c r="G99" s="5">
         <v>27702</v>
@@ -11123,20 +11562,20 @@
     </row>
     <row r="100" spans="1:7">
       <c r="A100">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>28</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>4</v>
       </c>
       <c r="B100">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>11</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>8</v>
       </c>
       <c r="C100" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>82</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>73</v>
       </c>
       <c r="E100" t="str">
-        <f ca="1">A100&amp;"/"&amp;B100&amp;"/"&amp;C100</f>
-        <v>28/11/82</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>4/8/73</v>
       </c>
       <c r="G100" s="5">
         <v>30232</v>
@@ -11144,20 +11583,20 @@
     </row>
     <row r="101" spans="1:7">
       <c r="A101">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>20</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>28</v>
       </c>
       <c r="B101">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>6</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>2</v>
       </c>
       <c r="C101" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>71</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>81</v>
       </c>
       <c r="E101" t="str">
-        <f ca="1">A101&amp;"/"&amp;B101&amp;"/"&amp;C101</f>
-        <v>20/6/71</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>28/2/81</v>
       </c>
       <c r="G101" s="5">
         <v>33100</v>
@@ -11165,20 +11604,20 @@
     </row>
     <row r="102" spans="1:7">
       <c r="A102">
-        <f ca="1">RANDBETWEEN(1,30)</f>
+        <f t="shared" ca="1" si="12"/>
+        <v>30</v>
+      </c>
+      <c r="B102">
+        <f t="shared" ca="1" si="13"/>
         <v>1</v>
       </c>
-      <c r="B102">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>7</v>
-      </c>
       <c r="C102" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>83</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>71</v>
       </c>
       <c r="E102" t="str">
-        <f ca="1">A102&amp;"/"&amp;B102&amp;"/"&amp;C102</f>
-        <v>1/7/83</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>30/1/71</v>
       </c>
       <c r="G102" s="5">
         <v>30639</v>
@@ -11186,20 +11625,20 @@
     </row>
     <row r="103" spans="1:7">
       <c r="A103">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>21</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>24</v>
       </c>
       <c r="B103">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>12</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>4</v>
       </c>
       <c r="C103" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>88</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>71</v>
       </c>
       <c r="E103" t="str">
-        <f ca="1">A103&amp;"/"&amp;B103&amp;"/"&amp;C103</f>
-        <v>21/12/88</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>24/4/71</v>
       </c>
       <c r="G103" s="5">
         <v>26484</v>
@@ -11207,20 +11646,20 @@
     </row>
     <row r="104" spans="1:7">
       <c r="A104">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>13</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>18</v>
       </c>
       <c r="B104">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>11</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>10</v>
       </c>
       <c r="C104" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>74</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>90</v>
       </c>
       <c r="E104" t="str">
-        <f ca="1">A104&amp;"/"&amp;B104&amp;"/"&amp;C104</f>
-        <v>13/11/74</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>18/10/90</v>
       </c>
       <c r="G104" s="5">
         <v>29785</v>
@@ -11228,20 +11667,20 @@
     </row>
     <row r="105" spans="1:7">
       <c r="A105">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>10</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>23</v>
       </c>
       <c r="B105">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>1</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>9</v>
       </c>
       <c r="C105" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>74</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>76</v>
       </c>
       <c r="E105" t="str">
-        <f ca="1">A105&amp;"/"&amp;B105&amp;"/"&amp;C105</f>
-        <v>10/1/74</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>23/9/76</v>
       </c>
       <c r="G105" s="5">
         <v>30729</v>
@@ -11249,20 +11688,20 @@
     </row>
     <row r="106" spans="1:7">
       <c r="A106">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>8</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>29</v>
       </c>
       <c r="B106">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>5</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>2</v>
       </c>
       <c r="C106" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>72</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>87</v>
       </c>
       <c r="E106" t="str">
-        <f ca="1">A106&amp;"/"&amp;B106&amp;"/"&amp;C106</f>
-        <v>8/5/72</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>29/2/87</v>
       </c>
       <c r="G106" s="5">
         <v>33902</v>
@@ -11270,20 +11709,20 @@
     </row>
     <row r="107" spans="1:7">
       <c r="A107">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>28</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>20</v>
       </c>
       <c r="B107">
-        <f ca="1">RANDBETWEEN(1,12)</f>
+        <f t="shared" ca="1" si="13"/>
         <v>7</v>
       </c>
       <c r="C107" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>90</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>84</v>
       </c>
       <c r="E107" t="str">
-        <f ca="1">A107&amp;"/"&amp;B107&amp;"/"&amp;C107</f>
-        <v>28/7/90</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>20/7/84</v>
       </c>
       <c r="G107" s="5">
         <v>27427</v>
@@ -11291,20 +11730,20 @@
     </row>
     <row r="108" spans="1:7">
       <c r="A108">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>15</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>24</v>
       </c>
       <c r="B108">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>4</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>2</v>
       </c>
       <c r="C108" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>80</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>78</v>
       </c>
       <c r="E108" t="str">
-        <f ca="1">A108&amp;"/"&amp;B108&amp;"/"&amp;C108</f>
-        <v>15/4/80</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>24/2/78</v>
       </c>
       <c r="G108" s="5">
         <v>25801</v>
@@ -11312,20 +11751,20 @@
     </row>
     <row r="109" spans="1:7">
       <c r="A109">
-        <f ca="1">RANDBETWEEN(1,30)</f>
+        <f t="shared" ca="1" si="12"/>
+        <v>8</v>
+      </c>
+      <c r="B109">
+        <f t="shared" ca="1" si="13"/>
         <v>6</v>
       </c>
-      <c r="B109">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>9</v>
-      </c>
       <c r="C109" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>73</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>92</v>
       </c>
       <c r="E109" t="str">
-        <f ca="1">A109&amp;"/"&amp;B109&amp;"/"&amp;C109</f>
-        <v>6/9/73</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>8/6/92</v>
       </c>
       <c r="G109" s="5">
         <v>26764</v>
@@ -11333,20 +11772,20 @@
     </row>
     <row r="110" spans="1:7">
       <c r="A110">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>1</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>17</v>
       </c>
       <c r="B110">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>10</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>5</v>
       </c>
       <c r="C110" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>71</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>88</v>
       </c>
       <c r="E110" t="str">
-        <f ca="1">A110&amp;"/"&amp;B110&amp;"/"&amp;C110</f>
-        <v>1/10/71</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>17/5/88</v>
       </c>
       <c r="G110" s="5">
         <v>25640</v>
@@ -11354,20 +11793,20 @@
     </row>
     <row r="111" spans="1:7">
       <c r="A111">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>29</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>30</v>
       </c>
       <c r="B111">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>12</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>1</v>
       </c>
       <c r="C111" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>75</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>89</v>
       </c>
       <c r="E111" t="str">
-        <f ca="1">A111&amp;"/"&amp;B111&amp;"/"&amp;C111</f>
-        <v>29/12/75</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>30/1/89</v>
       </c>
       <c r="G111" s="5">
         <v>29277</v>
@@ -11375,20 +11814,20 @@
     </row>
     <row r="112" spans="1:7">
       <c r="A112">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>6</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>22</v>
       </c>
       <c r="B112">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>4</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>7</v>
       </c>
       <c r="C112" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>74</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>88</v>
       </c>
       <c r="E112" t="str">
-        <f ca="1">A112&amp;"/"&amp;B112&amp;"/"&amp;C112</f>
-        <v>6/4/74</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>22/7/88</v>
       </c>
       <c r="G112" s="5">
         <v>25748</v>
@@ -11396,20 +11835,20 @@
     </row>
     <row r="113" spans="1:7">
       <c r="A113">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>13</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>20</v>
       </c>
       <c r="B113">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>6</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>7</v>
       </c>
       <c r="C113" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>79</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>78</v>
       </c>
       <c r="E113" t="str">
-        <f ca="1">A113&amp;"/"&amp;B113&amp;"/"&amp;C113</f>
-        <v>13/6/79</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>20/7/78</v>
       </c>
       <c r="G113" s="5">
         <v>31838</v>
@@ -11417,20 +11856,20 @@
     </row>
     <row r="114" spans="1:7">
       <c r="A114">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>22</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>27</v>
       </c>
       <c r="B114">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>12</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>1</v>
       </c>
       <c r="C114" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>74</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>77</v>
       </c>
       <c r="E114" t="str">
-        <f ca="1">A114&amp;"/"&amp;B114&amp;"/"&amp;C114</f>
-        <v>22/12/74</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>27/1/77</v>
       </c>
       <c r="G114" s="5">
         <v>32001</v>
@@ -11438,20 +11877,20 @@
     </row>
     <row r="115" spans="1:7">
       <c r="A115">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>1</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>16</v>
       </c>
       <c r="B115">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>9</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>8</v>
       </c>
       <c r="C115" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>72</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>71</v>
       </c>
       <c r="E115" t="str">
-        <f ca="1">A115&amp;"/"&amp;B115&amp;"/"&amp;C115</f>
-        <v>1/9/72</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>16/8/71</v>
       </c>
       <c r="G115" s="5">
         <v>32369</v>
@@ -11459,20 +11898,20 @@
     </row>
     <row r="116" spans="1:7">
       <c r="A116">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>27</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>16</v>
       </c>
       <c r="B116">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>6</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>9</v>
       </c>
       <c r="C116" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>80</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>79</v>
       </c>
       <c r="E116" t="str">
-        <f ca="1">A116&amp;"/"&amp;B116&amp;"/"&amp;C116</f>
-        <v>27/6/80</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>16/9/79</v>
       </c>
       <c r="G116" s="5">
         <v>31236</v>
@@ -11480,20 +11919,20 @@
     </row>
     <row r="117" spans="1:7">
       <c r="A117">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>13</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>8</v>
       </c>
       <c r="B117">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>4</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>7</v>
       </c>
       <c r="C117" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>91</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>78</v>
       </c>
       <c r="E117" t="str">
-        <f ca="1">A117&amp;"/"&amp;B117&amp;"/"&amp;C117</f>
-        <v>13/4/91</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>8/7/78</v>
       </c>
       <c r="G117" s="5">
         <v>34300</v>
@@ -11501,20 +11940,20 @@
     </row>
     <row r="118" spans="1:7">
       <c r="A118">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>26</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>2</v>
       </c>
       <c r="B118">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>3</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>1</v>
       </c>
       <c r="C118" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
+        <f t="shared" ca="1" si="14"/>
         <v>88</v>
       </c>
       <c r="E118" t="str">
-        <f ca="1">A118&amp;"/"&amp;B118&amp;"/"&amp;C118</f>
-        <v>26/3/88</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>2/1/88</v>
       </c>
       <c r="G118" s="5">
         <v>32617</v>
@@ -11522,20 +11961,20 @@
     </row>
     <row r="119" spans="1:7">
       <c r="A119">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>30</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>13</v>
       </c>
       <c r="B119">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>9</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>11</v>
       </c>
       <c r="C119" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>73</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>70</v>
       </c>
       <c r="E119" t="str">
-        <f ca="1">A119&amp;"/"&amp;B119&amp;"/"&amp;C119</f>
-        <v>30/9/73</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>13/11/70</v>
       </c>
       <c r="G119" s="5">
         <v>33170</v>
@@ -11543,20 +11982,20 @@
     </row>
     <row r="120" spans="1:7">
       <c r="A120">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>24</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>28</v>
       </c>
       <c r="B120">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>7</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>3</v>
       </c>
       <c r="C120" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>77</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>93</v>
       </c>
       <c r="E120" t="str">
-        <f ca="1">A120&amp;"/"&amp;B120&amp;"/"&amp;C120</f>
-        <v>24/7/77</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>28/3/93</v>
       </c>
       <c r="G120" s="5">
         <v>28595</v>
@@ -11564,20 +12003,20 @@
     </row>
     <row r="121" spans="1:7">
       <c r="A121">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>28</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>19</v>
       </c>
       <c r="B121">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>5</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>1</v>
       </c>
       <c r="C121" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>80</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>77</v>
       </c>
       <c r="E121" t="str">
-        <f ca="1">A121&amp;"/"&amp;B121&amp;"/"&amp;C121</f>
-        <v>28/5/80</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>19/1/77</v>
       </c>
       <c r="G121" s="5">
         <v>28306</v>
@@ -11585,20 +12024,20 @@
     </row>
     <row r="122" spans="1:7">
       <c r="A122">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>23</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>16</v>
       </c>
       <c r="B122">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>3</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>11</v>
       </c>
       <c r="C122" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>76</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>71</v>
       </c>
       <c r="E122" t="str">
-        <f ca="1">A122&amp;"/"&amp;B122&amp;"/"&amp;C122</f>
-        <v>23/3/76</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>16/11/71</v>
       </c>
       <c r="G122" s="5">
         <v>31172</v>
@@ -11606,20 +12045,20 @@
     </row>
     <row r="123" spans="1:7">
       <c r="A123">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>15</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>10</v>
       </c>
       <c r="B123">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>10</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>4</v>
       </c>
       <c r="C123" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>93</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>90</v>
       </c>
       <c r="E123" t="str">
-        <f ca="1">A123&amp;"/"&amp;B123&amp;"/"&amp;C123</f>
-        <v>15/10/93</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>10/4/90</v>
       </c>
       <c r="G123" s="5">
         <v>27792</v>
@@ -11627,20 +12066,20 @@
     </row>
     <row r="124" spans="1:7">
       <c r="A124">
-        <f ca="1">RANDBETWEEN(1,30)</f>
+        <f t="shared" ca="1" si="12"/>
+        <v>15</v>
+      </c>
+      <c r="B124">
+        <f t="shared" ca="1" si="13"/>
         <v>3</v>
       </c>
-      <c r="B124">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>11</v>
-      </c>
       <c r="C124" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>88</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>85</v>
       </c>
       <c r="E124" t="str">
-        <f ca="1">A124&amp;"/"&amp;B124&amp;"/"&amp;C124</f>
-        <v>3/11/88</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>15/3/85</v>
       </c>
       <c r="G124" s="5">
         <v>28157</v>
@@ -11648,20 +12087,20 @@
     </row>
     <row r="125" spans="1:7">
       <c r="A125">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>13</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>25</v>
       </c>
       <c r="B125">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>2</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>1</v>
       </c>
       <c r="C125" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>84</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>81</v>
       </c>
       <c r="E125" t="str">
-        <f ca="1">A125&amp;"/"&amp;B125&amp;"/"&amp;C125</f>
-        <v>13/2/84</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>25/1/81</v>
       </c>
       <c r="G125" s="5">
         <v>29579</v>
@@ -11669,20 +12108,20 @@
     </row>
     <row r="126" spans="1:7">
       <c r="A126">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>27</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>20</v>
       </c>
       <c r="B126">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>11</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>8</v>
       </c>
       <c r="C126" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>74</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>87</v>
       </c>
       <c r="E126" t="str">
-        <f ca="1">A126&amp;"/"&amp;B126&amp;"/"&amp;C126</f>
-        <v>27/11/74</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>20/8/87</v>
       </c>
       <c r="G126" s="5">
         <v>29473</v>
@@ -11690,20 +12129,20 @@
     </row>
     <row r="127" spans="1:7">
       <c r="A127">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>26</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>8</v>
       </c>
       <c r="B127">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>8</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>4</v>
       </c>
       <c r="C127" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>83</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>91</v>
       </c>
       <c r="E127" t="str">
-        <f ca="1">A127&amp;"/"&amp;B127&amp;"/"&amp;C127</f>
-        <v>26/8/83</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>8/4/91</v>
       </c>
       <c r="G127" s="5">
         <v>31819</v>
@@ -11711,20 +12150,20 @@
     </row>
     <row r="128" spans="1:7">
       <c r="A128">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>13</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>18</v>
       </c>
       <c r="B128">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>11</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>12</v>
       </c>
       <c r="C128" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>75</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>91</v>
       </c>
       <c r="E128" t="str">
-        <f ca="1">A128&amp;"/"&amp;B128&amp;"/"&amp;C128</f>
-        <v>13/11/75</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>18/12/91</v>
       </c>
       <c r="G128" s="5">
         <v>25628</v>
@@ -11732,20 +12171,20 @@
     </row>
     <row r="129" spans="1:7">
       <c r="A129">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>8</v>
+        <f t="shared" ref="A129:A160" ca="1" si="16">RANDBETWEEN(1,30)</f>
+        <v>11</v>
       </c>
       <c r="B129">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>7</v>
+        <f t="shared" ref="B129:B160" ca="1" si="17">RANDBETWEEN(1,12)</f>
+        <v>12</v>
       </c>
       <c r="C129" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>85</v>
+        <f t="shared" ref="C129:C160" ca="1" si="18">RANDBETWEEN(70,93)</f>
+        <v>82</v>
       </c>
       <c r="E129" t="str">
-        <f ca="1">A129&amp;"/"&amp;B129&amp;"/"&amp;C129</f>
-        <v>8/7/85</v>
+        <f t="shared" ref="E129:E160" ca="1" si="19">A129&amp;"/"&amp;B129&amp;"/"&amp;C129</f>
+        <v>11/12/82</v>
       </c>
       <c r="G129" s="5">
         <v>29310</v>
@@ -11753,20 +12192,20 @@
     </row>
     <row r="130" spans="1:7">
       <c r="A130">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>16</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>17</v>
       </c>
       <c r="B130">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>7</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>1</v>
       </c>
       <c r="C130" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>74</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>92</v>
       </c>
       <c r="E130" t="str">
-        <f ca="1">A130&amp;"/"&amp;B130&amp;"/"&amp;C130</f>
-        <v>16/7/74</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>17/1/92</v>
       </c>
       <c r="G130" s="5">
         <v>32393</v>
@@ -11774,20 +12213,20 @@
     </row>
     <row r="131" spans="1:7">
       <c r="A131">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>2</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>10</v>
       </c>
       <c r="B131">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>9</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>11</v>
       </c>
       <c r="C131" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>90</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>72</v>
       </c>
       <c r="E131" t="str">
-        <f ca="1">A131&amp;"/"&amp;B131&amp;"/"&amp;C131</f>
-        <v>2/9/90</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>10/11/72</v>
       </c>
       <c r="G131" s="5">
         <v>31743</v>
@@ -11795,20 +12234,20 @@
     </row>
     <row r="132" spans="1:7">
       <c r="A132">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>5</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>28</v>
       </c>
       <c r="B132">
-        <f ca="1">RANDBETWEEN(1,12)</f>
+        <f t="shared" ca="1" si="17"/>
         <v>1</v>
       </c>
       <c r="C132" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>91</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>78</v>
       </c>
       <c r="E132" t="str">
-        <f ca="1">A132&amp;"/"&amp;B132&amp;"/"&amp;C132</f>
-        <v>5/1/91</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>28/1/78</v>
       </c>
       <c r="G132" s="5">
         <v>27936</v>
@@ -11816,20 +12255,20 @@
     </row>
     <row r="133" spans="1:7">
       <c r="A133">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>1</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>9</v>
       </c>
       <c r="B133">
-        <f ca="1">RANDBETWEEN(1,12)</f>
+        <f t="shared" ca="1" si="17"/>
         <v>11</v>
       </c>
       <c r="C133" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>83</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>74</v>
       </c>
       <c r="E133" t="str">
-        <f ca="1">A133&amp;"/"&amp;B133&amp;"/"&amp;C133</f>
-        <v>1/11/83</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>9/11/74</v>
       </c>
       <c r="G133" s="5">
         <v>32416</v>
@@ -11837,20 +12276,20 @@
     </row>
     <row r="134" spans="1:7">
       <c r="A134">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>24</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>11</v>
       </c>
       <c r="B134">
-        <f ca="1">RANDBETWEEN(1,12)</f>
+        <f t="shared" ca="1" si="17"/>
         <v>10</v>
       </c>
       <c r="C134" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>70</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>92</v>
       </c>
       <c r="E134" t="str">
-        <f ca="1">A134&amp;"/"&amp;B134&amp;"/"&amp;C134</f>
-        <v>24/10/70</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>11/10/92</v>
       </c>
       <c r="G134" s="5">
         <v>32298</v>
@@ -11858,20 +12297,20 @@
     </row>
     <row r="135" spans="1:7">
       <c r="A135">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>10</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>1</v>
       </c>
       <c r="B135">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>4</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>11</v>
       </c>
       <c r="C135" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>83</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>90</v>
       </c>
       <c r="E135" t="str">
-        <f ca="1">A135&amp;"/"&amp;B135&amp;"/"&amp;C135</f>
-        <v>10/4/83</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>1/11/90</v>
       </c>
       <c r="G135" s="5">
         <v>27022</v>
@@ -11879,20 +12318,20 @@
     </row>
     <row r="136" spans="1:7">
       <c r="A136">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>25</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>21</v>
       </c>
       <c r="B136">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>4</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>2</v>
       </c>
       <c r="C136" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>71</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>81</v>
       </c>
       <c r="E136" t="str">
-        <f ca="1">A136&amp;"/"&amp;B136&amp;"/"&amp;C136</f>
-        <v>25/4/71</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>21/2/81</v>
       </c>
       <c r="G136" s="5">
         <v>31335</v>
@@ -11900,20 +12339,20 @@
     </row>
     <row r="137" spans="1:7">
       <c r="A137">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>25</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>4</v>
       </c>
       <c r="B137">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>6</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>8</v>
       </c>
       <c r="C137" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>87</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>93</v>
       </c>
       <c r="E137" t="str">
-        <f ca="1">A137&amp;"/"&amp;B137&amp;"/"&amp;C137</f>
-        <v>25/6/87</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>4/8/93</v>
       </c>
       <c r="G137" s="5">
         <v>32857</v>
@@ -11921,20 +12360,20 @@
     </row>
     <row r="138" spans="1:7">
       <c r="A138">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>25</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>26</v>
       </c>
       <c r="B138">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>1</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>3</v>
       </c>
       <c r="C138" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>78</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>89</v>
       </c>
       <c r="E138" t="str">
-        <f ca="1">A138&amp;"/"&amp;B138&amp;"/"&amp;C138</f>
-        <v>25/1/78</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>26/3/89</v>
       </c>
       <c r="G138" s="5">
         <v>28442</v>
@@ -11942,20 +12381,20 @@
     </row>
     <row r="139" spans="1:7">
       <c r="A139">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>24</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>3</v>
       </c>
       <c r="B139">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>10</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>3</v>
       </c>
       <c r="C139" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>80</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>71</v>
       </c>
       <c r="E139" t="str">
-        <f ca="1">A139&amp;"/"&amp;B139&amp;"/"&amp;C139</f>
-        <v>24/10/80</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>3/3/71</v>
       </c>
       <c r="G139" s="5">
         <v>29329</v>
@@ -11963,20 +12402,20 @@
     </row>
     <row r="140" spans="1:7">
       <c r="A140">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>12</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>19</v>
       </c>
       <c r="B140">
-        <f ca="1">RANDBETWEEN(1,12)</f>
+        <f t="shared" ca="1" si="17"/>
         <v>8</v>
       </c>
       <c r="C140" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>79</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>70</v>
       </c>
       <c r="E140" t="str">
-        <f ca="1">A140&amp;"/"&amp;B140&amp;"/"&amp;C140</f>
-        <v>12/8/79</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>19/8/70</v>
       </c>
       <c r="G140" s="5">
         <v>31683</v>
@@ -11984,20 +12423,20 @@
     </row>
     <row r="141" spans="1:7">
       <c r="A141">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>14</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>28</v>
       </c>
       <c r="B141">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>12</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>2</v>
       </c>
       <c r="C141" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>71</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>70</v>
       </c>
       <c r="E141" t="str">
-        <f ca="1">A141&amp;"/"&amp;B141&amp;"/"&amp;C141</f>
-        <v>14/12/71</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>28/2/70</v>
       </c>
       <c r="G141" s="5">
         <v>25654</v>
@@ -12005,20 +12444,20 @@
     </row>
     <row r="142" spans="1:7">
       <c r="A142">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>8</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>28</v>
       </c>
       <c r="B142">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>1</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>3</v>
       </c>
       <c r="C142" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>78</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>75</v>
       </c>
       <c r="E142" t="str">
-        <f ca="1">A142&amp;"/"&amp;B142&amp;"/"&amp;C142</f>
-        <v>8/1/78</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>28/3/75</v>
       </c>
       <c r="G142" s="5">
         <v>31543</v>
@@ -12026,20 +12465,20 @@
     </row>
     <row r="143" spans="1:7">
       <c r="A143">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>15</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>7</v>
       </c>
       <c r="B143">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>5</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>6</v>
       </c>
       <c r="C143" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>89</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>81</v>
       </c>
       <c r="E143" t="str">
-        <f ca="1">A143&amp;"/"&amp;B143&amp;"/"&amp;C143</f>
-        <v>15/5/89</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>7/6/81</v>
       </c>
       <c r="G143" s="5">
         <v>28728</v>
@@ -12047,20 +12486,20 @@
     </row>
     <row r="144" spans="1:7">
       <c r="A144">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>13</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>23</v>
       </c>
       <c r="B144">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>5</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>4</v>
       </c>
       <c r="C144" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>81</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>70</v>
       </c>
       <c r="E144" t="str">
-        <f ca="1">A144&amp;"/"&amp;B144&amp;"/"&amp;C144</f>
-        <v>13/5/81</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>23/4/70</v>
       </c>
       <c r="G144" s="5">
         <v>29483</v>
@@ -12068,20 +12507,20 @@
     </row>
     <row r="145" spans="1:7">
       <c r="A145">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>21</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>29</v>
       </c>
       <c r="B145">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>7</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>9</v>
       </c>
       <c r="C145" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>91</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>75</v>
       </c>
       <c r="E145" t="str">
-        <f ca="1">A145&amp;"/"&amp;B145&amp;"/"&amp;C145</f>
-        <v>21/7/91</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>29/9/75</v>
       </c>
       <c r="G145" s="5">
         <v>29730</v>
@@ -12089,20 +12528,20 @@
     </row>
     <row r="146" spans="1:7">
       <c r="A146">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>7</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>28</v>
       </c>
       <c r="B146">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>3</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>1</v>
       </c>
       <c r="C146" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>82</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>93</v>
       </c>
       <c r="E146" t="str">
-        <f ca="1">A146&amp;"/"&amp;B146&amp;"/"&amp;C146</f>
-        <v>7/3/82</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>28/1/93</v>
       </c>
       <c r="G146" s="5">
         <v>26411</v>
@@ -12110,20 +12549,20 @@
     </row>
     <row r="147" spans="1:7">
       <c r="A147">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>21</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>6</v>
       </c>
       <c r="B147">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>11</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>1</v>
       </c>
       <c r="C147" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>87</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>86</v>
       </c>
       <c r="E147" t="str">
-        <f ca="1">A147&amp;"/"&amp;B147&amp;"/"&amp;C147</f>
-        <v>21/11/87</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>6/1/86</v>
       </c>
       <c r="G147" s="5">
         <v>28884</v>
@@ -12131,20 +12570,20 @@
     </row>
     <row r="148" spans="1:7">
       <c r="A148">
-        <f ca="1">RANDBETWEEN(1,30)</f>
+        <f t="shared" ca="1" si="16"/>
         <v>24</v>
       </c>
       <c r="B148">
-        <f ca="1">RANDBETWEEN(1,12)</f>
+        <f t="shared" ca="1" si="17"/>
         <v>6</v>
       </c>
       <c r="C148" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>85</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>82</v>
       </c>
       <c r="E148" t="str">
-        <f ca="1">A148&amp;"/"&amp;B148&amp;"/"&amp;C148</f>
-        <v>24/6/85</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>24/6/82</v>
       </c>
       <c r="G148" s="5">
         <v>30182</v>
@@ -12152,20 +12591,20 @@
     </row>
     <row r="149" spans="1:7">
       <c r="A149">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>17</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>1</v>
       </c>
       <c r="B149">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>11</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>10</v>
       </c>
       <c r="C149" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>76</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>83</v>
       </c>
       <c r="E149" t="str">
-        <f ca="1">A149&amp;"/"&amp;B149&amp;"/"&amp;C149</f>
-        <v>17/11/76</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>1/10/83</v>
       </c>
       <c r="G149" s="5">
         <v>29804</v>
@@ -12173,20 +12612,20 @@
     </row>
     <row r="150" spans="1:7">
       <c r="A150">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>25</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>20</v>
       </c>
       <c r="B150">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>7</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>8</v>
       </c>
       <c r="C150" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>92</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>85</v>
       </c>
       <c r="E150" t="str">
-        <f ca="1">A150&amp;"/"&amp;B150&amp;"/"&amp;C150</f>
-        <v>25/7/92</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>20/8/85</v>
       </c>
       <c r="G150" s="5">
         <v>28767</v>
@@ -12194,20 +12633,20 @@
     </row>
     <row r="151" spans="1:7">
       <c r="A151">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>25</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>20</v>
       </c>
       <c r="B151">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>8</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>12</v>
       </c>
       <c r="C151" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>90</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>93</v>
       </c>
       <c r="E151" t="str">
-        <f ca="1">A151&amp;"/"&amp;B151&amp;"/"&amp;C151</f>
-        <v>25/8/90</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>20/12/93</v>
       </c>
       <c r="G151" s="5">
         <v>27555</v>
@@ -12215,20 +12654,20 @@
     </row>
     <row r="152" spans="1:7">
       <c r="A152">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>24</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>26</v>
       </c>
       <c r="B152">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>5</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>12</v>
       </c>
       <c r="C152" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>75</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>76</v>
       </c>
       <c r="E152" t="str">
-        <f ca="1">A152&amp;"/"&amp;B152&amp;"/"&amp;C152</f>
-        <v>24/5/75</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>26/12/76</v>
       </c>
       <c r="G152" s="5">
         <v>32111</v>
@@ -12236,20 +12675,20 @@
     </row>
     <row r="153" spans="1:7">
       <c r="A153">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>18</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>5</v>
       </c>
       <c r="B153">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>2</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>1</v>
       </c>
       <c r="C153" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>71</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>82</v>
       </c>
       <c r="E153" t="str">
-        <f ca="1">A153&amp;"/"&amp;B153&amp;"/"&amp;C153</f>
-        <v>18/2/71</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>5/1/82</v>
       </c>
       <c r="G153" s="5">
         <v>31406</v>
@@ -12257,20 +12696,20 @@
     </row>
     <row r="154" spans="1:7">
       <c r="A154">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>9</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>22</v>
       </c>
       <c r="B154">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>10</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>12</v>
       </c>
       <c r="C154" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>87</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>71</v>
       </c>
       <c r="E154" t="str">
-        <f ca="1">A154&amp;"/"&amp;B154&amp;"/"&amp;C154</f>
-        <v>9/10/87</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>22/12/71</v>
       </c>
       <c r="G154" s="5">
         <v>26624</v>
@@ -12278,20 +12717,20 @@
     </row>
     <row r="155" spans="1:7">
       <c r="A155">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>23</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>27</v>
       </c>
       <c r="B155">
-        <f ca="1">RANDBETWEEN(1,12)</f>
+        <f t="shared" ca="1" si="17"/>
         <v>11</v>
       </c>
       <c r="C155" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
+        <f t="shared" ca="1" si="18"/>
         <v>87</v>
       </c>
       <c r="E155" t="str">
-        <f ca="1">A155&amp;"/"&amp;B155&amp;"/"&amp;C155</f>
-        <v>23/11/87</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>27/11/87</v>
       </c>
       <c r="G155" s="5">
         <v>27563</v>
@@ -12299,20 +12738,20 @@
     </row>
     <row r="156" spans="1:7">
       <c r="A156">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>13</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>23</v>
       </c>
       <c r="B156">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>2</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>11</v>
       </c>
       <c r="C156" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>72</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>82</v>
       </c>
       <c r="E156" t="str">
-        <f ca="1">A156&amp;"/"&amp;B156&amp;"/"&amp;C156</f>
-        <v>13/2/72</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>23/11/82</v>
       </c>
       <c r="G156" s="5">
         <v>27729</v>
@@ -12320,20 +12759,20 @@
     </row>
     <row r="157" spans="1:7">
       <c r="A157">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>13</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>12</v>
       </c>
       <c r="B157">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>1</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>12</v>
       </c>
       <c r="C157" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>89</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>87</v>
       </c>
       <c r="E157" t="str">
-        <f ca="1">A157&amp;"/"&amp;B157&amp;"/"&amp;C157</f>
-        <v>13/1/89</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>12/12/87</v>
       </c>
       <c r="G157" s="5">
         <v>30492</v>
@@ -12341,20 +12780,20 @@
     </row>
     <row r="158" spans="1:7">
       <c r="A158">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>30</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>11</v>
       </c>
       <c r="B158">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>9</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>10</v>
       </c>
       <c r="C158" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>72</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>87</v>
       </c>
       <c r="E158" t="str">
-        <f ca="1">A158&amp;"/"&amp;B158&amp;"/"&amp;C158</f>
-        <v>30/9/72</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>11/10/87</v>
       </c>
       <c r="G158" s="5">
         <v>27897</v>
@@ -12362,20 +12801,20 @@
     </row>
     <row r="159" spans="1:7">
       <c r="A159">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>18</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>13</v>
       </c>
       <c r="B159">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>4</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>7</v>
       </c>
       <c r="C159" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>75</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>93</v>
       </c>
       <c r="E159" t="str">
-        <f ca="1">A159&amp;"/"&amp;B159&amp;"/"&amp;C159</f>
-        <v>18/4/75</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>13/7/93</v>
       </c>
       <c r="G159" s="5">
         <v>26835</v>
@@ -12383,20 +12822,20 @@
     </row>
     <row r="160" spans="1:7">
       <c r="A160">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>2</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>3</v>
       </c>
       <c r="B160">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>1</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>12</v>
       </c>
       <c r="C160" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>84</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>72</v>
       </c>
       <c r="E160" t="str">
-        <f ca="1">A160&amp;"/"&amp;B160&amp;"/"&amp;C160</f>
-        <v>2/1/84</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>3/12/72</v>
       </c>
       <c r="G160" s="5">
         <v>28291</v>
@@ -12404,20 +12843,20 @@
     </row>
     <row r="161" spans="1:7">
       <c r="A161">
-        <f ca="1">RANDBETWEEN(1,30)</f>
+        <f t="shared" ref="A161:A194" ca="1" si="20">RANDBETWEEN(1,30)</f>
+        <v>9</v>
+      </c>
+      <c r="B161">
+        <f t="shared" ref="B161:B194" ca="1" si="21">RANDBETWEEN(1,12)</f>
         <v>7</v>
       </c>
-      <c r="B161">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>5</v>
-      </c>
       <c r="C161" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>80</v>
+        <f t="shared" ref="C161:C194" ca="1" si="22">RANDBETWEEN(70,93)</f>
+        <v>72</v>
       </c>
       <c r="E161" t="str">
-        <f ca="1">A161&amp;"/"&amp;B161&amp;"/"&amp;C161</f>
-        <v>7/5/80</v>
+        <f t="shared" ref="E161:E194" ca="1" si="23">A161&amp;"/"&amp;B161&amp;"/"&amp;C161</f>
+        <v>9/7/72</v>
       </c>
       <c r="G161" s="5">
         <v>30777</v>
@@ -12425,20 +12864,20 @@
     </row>
     <row r="162" spans="1:7">
       <c r="A162">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>21</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>13</v>
       </c>
       <c r="B162">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>9</v>
+        <f t="shared" ca="1" si="21"/>
+        <v>1</v>
       </c>
       <c r="C162" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>89</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>71</v>
       </c>
       <c r="E162" t="str">
-        <f ca="1">A162&amp;"/"&amp;B162&amp;"/"&amp;C162</f>
-        <v>21/9/89</v>
+        <f t="shared" ca="1" si="23"/>
+        <v>13/1/71</v>
       </c>
       <c r="G162" s="5">
         <v>26691</v>
@@ -12446,20 +12885,20 @@
     </row>
     <row r="163" spans="1:7">
       <c r="A163">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>30</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>22</v>
       </c>
       <c r="B163">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>3</v>
+        <f t="shared" ca="1" si="21"/>
+        <v>11</v>
       </c>
       <c r="C163" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>88</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>84</v>
       </c>
       <c r="E163" t="str">
-        <f ca="1">A163&amp;"/"&amp;B163&amp;"/"&amp;C163</f>
-        <v>30/3/88</v>
+        <f t="shared" ca="1" si="23"/>
+        <v>22/11/84</v>
       </c>
       <c r="G163" s="5">
         <v>31786</v>
@@ -12467,20 +12906,20 @@
     </row>
     <row r="164" spans="1:7">
       <c r="A164">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>26</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>28</v>
       </c>
       <c r="B164">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>12</v>
+        <f t="shared" ca="1" si="21"/>
+        <v>5</v>
       </c>
       <c r="C164" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>74</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>82</v>
       </c>
       <c r="E164" t="str">
-        <f ca="1">A164&amp;"/"&amp;B164&amp;"/"&amp;C164</f>
-        <v>26/12/74</v>
+        <f t="shared" ca="1" si="23"/>
+        <v>28/5/82</v>
       </c>
       <c r="G164" s="5">
         <v>27343</v>
@@ -12488,20 +12927,20 @@
     </row>
     <row r="165" spans="1:7">
       <c r="A165">
-        <f ca="1">RANDBETWEEN(1,30)</f>
+        <f t="shared" ca="1" si="20"/>
+        <v>5</v>
+      </c>
+      <c r="B165">
+        <f t="shared" ca="1" si="21"/>
         <v>9</v>
       </c>
-      <c r="B165">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>5</v>
-      </c>
       <c r="C165" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>85</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>88</v>
       </c>
       <c r="E165" t="str">
-        <f ca="1">A165&amp;"/"&amp;B165&amp;"/"&amp;C165</f>
-        <v>9/5/85</v>
+        <f t="shared" ca="1" si="23"/>
+        <v>5/9/88</v>
       </c>
       <c r="G165" s="5">
         <v>33197</v>
@@ -12509,20 +12948,20 @@
     </row>
     <row r="166" spans="1:7">
       <c r="A166">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>22</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>11</v>
       </c>
       <c r="B166">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>3</v>
+        <f t="shared" ca="1" si="21"/>
+        <v>9</v>
       </c>
       <c r="C166" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>85</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>78</v>
       </c>
       <c r="E166" t="str">
-        <f ca="1">A166&amp;"/"&amp;B166&amp;"/"&amp;C166</f>
-        <v>22/3/85</v>
+        <f t="shared" ca="1" si="23"/>
+        <v>11/9/78</v>
       </c>
       <c r="G166" s="5">
         <v>28501</v>
@@ -12530,20 +12969,20 @@
     </row>
     <row r="167" spans="1:7">
       <c r="A167">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>25</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>24</v>
       </c>
       <c r="B167">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>2</v>
+        <f t="shared" ca="1" si="21"/>
+        <v>6</v>
       </c>
       <c r="C167" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>83</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>71</v>
       </c>
       <c r="E167" t="str">
-        <f ca="1">A167&amp;"/"&amp;B167&amp;"/"&amp;C167</f>
-        <v>25/2/83</v>
+        <f t="shared" ca="1" si="23"/>
+        <v>24/6/71</v>
       </c>
       <c r="G167" s="5">
         <v>30369</v>
@@ -12551,20 +12990,20 @@
     </row>
     <row r="168" spans="1:7">
       <c r="A168">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>2</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>9</v>
       </c>
       <c r="B168">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>3</v>
+        <f t="shared" ca="1" si="21"/>
+        <v>1</v>
       </c>
       <c r="C168" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>89</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>90</v>
       </c>
       <c r="E168" t="str">
-        <f ca="1">A168&amp;"/"&amp;B168&amp;"/"&amp;C168</f>
-        <v>2/3/89</v>
+        <f t="shared" ca="1" si="23"/>
+        <v>9/1/90</v>
       </c>
       <c r="G168" s="5">
         <v>25917</v>
@@ -12572,20 +13011,20 @@
     </row>
     <row r="169" spans="1:7">
       <c r="A169">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>17</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>18</v>
       </c>
       <c r="B169">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>3</v>
+        <f t="shared" ca="1" si="21"/>
+        <v>9</v>
       </c>
       <c r="C169" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>75</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>91</v>
       </c>
       <c r="E169" t="str">
-        <f ca="1">A169&amp;"/"&amp;B169&amp;"/"&amp;C169</f>
-        <v>17/3/75</v>
+        <f t="shared" ca="1" si="23"/>
+        <v>18/9/91</v>
       </c>
       <c r="G169" s="5">
         <v>30546</v>
@@ -12593,20 +13032,20 @@
     </row>
     <row r="170" spans="1:7">
       <c r="A170">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>9</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>15</v>
       </c>
       <c r="B170">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>10</v>
+        <f t="shared" ca="1" si="21"/>
+        <v>1</v>
       </c>
       <c r="C170" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>84</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>86</v>
       </c>
       <c r="E170" t="str">
-        <f ca="1">A170&amp;"/"&amp;B170&amp;"/"&amp;C170</f>
-        <v>9/10/84</v>
+        <f t="shared" ca="1" si="23"/>
+        <v>15/1/86</v>
       </c>
       <c r="G170" s="5">
         <v>34329</v>
@@ -12614,20 +13053,20 @@
     </row>
     <row r="171" spans="1:7">
       <c r="A171">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>14</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>24</v>
       </c>
       <c r="B171">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>10</v>
+        <f t="shared" ca="1" si="21"/>
+        <v>2</v>
       </c>
       <c r="C171" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>70</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>71</v>
       </c>
       <c r="E171" t="str">
-        <f ca="1">A171&amp;"/"&amp;B171&amp;"/"&amp;C171</f>
-        <v>14/10/70</v>
+        <f t="shared" ca="1" si="23"/>
+        <v>24/2/71</v>
       </c>
       <c r="G171" s="5">
         <v>32035</v>
@@ -12635,20 +13074,20 @@
     </row>
     <row r="172" spans="1:7">
       <c r="A172">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>7</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>25</v>
       </c>
       <c r="B172">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>5</v>
+        <f t="shared" ca="1" si="21"/>
+        <v>9</v>
       </c>
       <c r="C172" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>88</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>84</v>
       </c>
       <c r="E172" t="str">
-        <f ca="1">A172&amp;"/"&amp;B172&amp;"/"&amp;C172</f>
-        <v>7/5/88</v>
+        <f t="shared" ca="1" si="23"/>
+        <v>25/9/84</v>
       </c>
       <c r="G172" s="5">
         <v>31423</v>
@@ -12656,20 +13095,20 @@
     </row>
     <row r="173" spans="1:7">
       <c r="A173">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>28</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>6</v>
       </c>
       <c r="B173">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>1</v>
+        <f t="shared" ca="1" si="21"/>
+        <v>4</v>
       </c>
       <c r="C173" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>70</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>84</v>
       </c>
       <c r="E173" t="str">
-        <f ca="1">A173&amp;"/"&amp;B173&amp;"/"&amp;C173</f>
-        <v>28/1/70</v>
+        <f t="shared" ca="1" si="23"/>
+        <v>6/4/84</v>
       </c>
       <c r="G173" s="5">
         <v>27299</v>
@@ -12677,20 +13116,20 @@
     </row>
     <row r="174" spans="1:7">
       <c r="A174">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>29</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>8</v>
       </c>
       <c r="B174">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>5</v>
+        <f t="shared" ca="1" si="21"/>
+        <v>6</v>
       </c>
       <c r="C174" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>85</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>76</v>
       </c>
       <c r="E174" t="str">
-        <f ca="1">A174&amp;"/"&amp;B174&amp;"/"&amp;C174</f>
-        <v>29/5/85</v>
+        <f t="shared" ca="1" si="23"/>
+        <v>8/6/76</v>
       </c>
       <c r="G174" s="5">
         <v>33516</v>
@@ -12698,20 +13137,20 @@
     </row>
     <row r="175" spans="1:7">
       <c r="A175">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>16</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>22</v>
       </c>
       <c r="B175">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>3</v>
+        <f t="shared" ca="1" si="21"/>
+        <v>5</v>
       </c>
       <c r="C175" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>82</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>73</v>
       </c>
       <c r="E175" t="str">
-        <f ca="1">A175&amp;"/"&amp;B175&amp;"/"&amp;C175</f>
-        <v>16/3/82</v>
+        <f t="shared" ca="1" si="23"/>
+        <v>22/5/73</v>
       </c>
       <c r="G175" s="5">
         <v>30249</v>
@@ -12719,20 +13158,20 @@
     </row>
     <row r="176" spans="1:7">
       <c r="A176">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>27</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>4</v>
       </c>
       <c r="B176">
-        <f ca="1">RANDBETWEEN(1,12)</f>
+        <f t="shared" ca="1" si="21"/>
         <v>9</v>
       </c>
       <c r="C176" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>92</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>89</v>
       </c>
       <c r="E176" t="str">
-        <f ca="1">A176&amp;"/"&amp;B176&amp;"/"&amp;C176</f>
-        <v>27/9/92</v>
+        <f t="shared" ca="1" si="23"/>
+        <v>4/9/89</v>
       </c>
       <c r="G176" s="5">
         <v>26686</v>
@@ -12740,20 +13179,20 @@
     </row>
     <row r="177" spans="1:7">
       <c r="A177">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>14</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>10</v>
       </c>
       <c r="B177">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>11</v>
+        <f t="shared" ca="1" si="21"/>
+        <v>10</v>
       </c>
       <c r="C177" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>76</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>88</v>
       </c>
       <c r="E177" t="str">
-        <f ca="1">A177&amp;"/"&amp;B177&amp;"/"&amp;C177</f>
-        <v>14/11/76</v>
+        <f t="shared" ca="1" si="23"/>
+        <v>10/10/88</v>
       </c>
       <c r="G177" s="5">
         <v>27163</v>
@@ -12761,20 +13200,20 @@
     </row>
     <row r="178" spans="1:7">
       <c r="A178">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>14</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>29</v>
       </c>
       <c r="B178">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>2</v>
+        <f t="shared" ca="1" si="21"/>
+        <v>10</v>
       </c>
       <c r="C178" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>84</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>91</v>
       </c>
       <c r="E178" t="str">
-        <f ca="1">A178&amp;"/"&amp;B178&amp;"/"&amp;C178</f>
-        <v>14/2/84</v>
+        <f t="shared" ca="1" si="23"/>
+        <v>29/10/91</v>
       </c>
       <c r="G178" s="5">
         <v>30281</v>
@@ -12782,20 +13221,20 @@
     </row>
     <row r="179" spans="1:7">
       <c r="A179">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>29</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>24</v>
       </c>
       <c r="B179">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>6</v>
+        <f t="shared" ca="1" si="21"/>
+        <v>1</v>
       </c>
       <c r="C179" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>76</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>80</v>
       </c>
       <c r="E179" t="str">
-        <f ca="1">A179&amp;"/"&amp;B179&amp;"/"&amp;C179</f>
-        <v>29/6/76</v>
+        <f t="shared" ca="1" si="23"/>
+        <v>24/1/80</v>
       </c>
       <c r="G179" s="5">
         <v>34131</v>
@@ -12803,20 +13242,20 @@
     </row>
     <row r="180" spans="1:7">
       <c r="A180">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>12</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>30</v>
       </c>
       <c r="B180">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>3</v>
+        <f t="shared" ca="1" si="21"/>
+        <v>1</v>
       </c>
       <c r="C180" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>92</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>83</v>
       </c>
       <c r="E180" t="str">
-        <f ca="1">A180&amp;"/"&amp;B180&amp;"/"&amp;C180</f>
-        <v>12/3/92</v>
+        <f t="shared" ca="1" si="23"/>
+        <v>30/1/83</v>
       </c>
       <c r="G180" s="5">
         <v>29970</v>
@@ -12824,20 +13263,20 @@
     </row>
     <row r="181" spans="1:7">
       <c r="A181">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>22</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>7</v>
       </c>
       <c r="B181">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>1</v>
+        <f t="shared" ca="1" si="21"/>
+        <v>12</v>
       </c>
       <c r="C181" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
+        <f t="shared" ca="1" si="22"/>
         <v>85</v>
       </c>
       <c r="E181" t="str">
-        <f ca="1">A181&amp;"/"&amp;B181&amp;"/"&amp;C181</f>
-        <v>22/1/85</v>
+        <f t="shared" ca="1" si="23"/>
+        <v>7/12/85</v>
       </c>
       <c r="G181" s="5">
         <v>26978</v>
@@ -12845,20 +13284,20 @@
     </row>
     <row r="182" spans="1:7">
       <c r="A182">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>14</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>5</v>
       </c>
       <c r="B182">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>10</v>
+        <f t="shared" ca="1" si="21"/>
+        <v>7</v>
       </c>
       <c r="C182" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>82</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>85</v>
       </c>
       <c r="E182" t="str">
-        <f ca="1">A182&amp;"/"&amp;B182&amp;"/"&amp;C182</f>
-        <v>14/10/82</v>
+        <f t="shared" ca="1" si="23"/>
+        <v>5/7/85</v>
       </c>
       <c r="G182" s="5">
         <v>31226</v>
@@ -12866,20 +13305,20 @@
     </row>
     <row r="183" spans="1:7">
       <c r="A183">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>3</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>12</v>
       </c>
       <c r="B183">
-        <f ca="1">RANDBETWEEN(1,12)</f>
+        <f t="shared" ca="1" si="21"/>
         <v>10</v>
       </c>
       <c r="C183" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>92</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>73</v>
       </c>
       <c r="E183" t="str">
-        <f ca="1">A183&amp;"/"&amp;B183&amp;"/"&amp;C183</f>
-        <v>3/10/92</v>
+        <f t="shared" ca="1" si="23"/>
+        <v>12/10/73</v>
       </c>
       <c r="G183" s="5">
         <v>33121</v>
@@ -12887,20 +13326,20 @@
     </row>
     <row r="184" spans="1:7">
       <c r="A184">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>27</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>15</v>
       </c>
       <c r="B184">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>5</v>
+        <f t="shared" ca="1" si="21"/>
+        <v>3</v>
       </c>
       <c r="C184" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>84</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>70</v>
       </c>
       <c r="E184" t="str">
-        <f ca="1">A184&amp;"/"&amp;B184&amp;"/"&amp;C184</f>
-        <v>27/5/84</v>
+        <f t="shared" ca="1" si="23"/>
+        <v>15/3/70</v>
       </c>
       <c r="G184" s="5">
         <v>26516</v>
@@ -12908,20 +13347,20 @@
     </row>
     <row r="185" spans="1:7">
       <c r="A185">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>18</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>9</v>
       </c>
       <c r="B185">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>11</v>
+        <f t="shared" ca="1" si="21"/>
+        <v>4</v>
       </c>
       <c r="C185" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>83</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>70</v>
       </c>
       <c r="E185" t="str">
-        <f ca="1">A185&amp;"/"&amp;B185&amp;"/"&amp;C185</f>
-        <v>18/11/83</v>
+        <f t="shared" ca="1" si="23"/>
+        <v>9/4/70</v>
       </c>
       <c r="G185" s="5">
         <v>28362</v>
@@ -12929,20 +13368,20 @@
     </row>
     <row r="186" spans="1:7">
       <c r="A186">
-        <f ca="1">RANDBETWEEN(1,30)</f>
+        <f t="shared" ca="1" si="20"/>
         <v>3</v>
       </c>
       <c r="B186">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>11</v>
+        <f t="shared" ca="1" si="21"/>
+        <v>10</v>
       </c>
       <c r="C186" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>89</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>79</v>
       </c>
       <c r="E186" t="str">
-        <f ca="1">A186&amp;"/"&amp;B186&amp;"/"&amp;C186</f>
-        <v>3/11/89</v>
+        <f t="shared" ca="1" si="23"/>
+        <v>3/10/79</v>
       </c>
       <c r="G186" s="5">
         <v>30190</v>
@@ -12950,20 +13389,20 @@
     </row>
     <row r="187" spans="1:7">
       <c r="A187">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>13</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>24</v>
       </c>
       <c r="B187">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>2</v>
+        <f t="shared" ca="1" si="21"/>
+        <v>5</v>
       </c>
       <c r="C187" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
+        <f t="shared" ca="1" si="22"/>
         <v>83</v>
       </c>
       <c r="E187" t="str">
-        <f ca="1">A187&amp;"/"&amp;B187&amp;"/"&amp;C187</f>
-        <v>13/2/83</v>
+        <f t="shared" ca="1" si="23"/>
+        <v>24/5/83</v>
       </c>
       <c r="G187" s="5">
         <v>33543</v>
@@ -12971,20 +13410,20 @@
     </row>
     <row r="188" spans="1:7">
       <c r="A188">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>17</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>5</v>
       </c>
       <c r="B188">
-        <f ca="1">RANDBETWEEN(1,12)</f>
+        <f t="shared" ca="1" si="21"/>
         <v>7</v>
       </c>
       <c r="C188" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>85</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>78</v>
       </c>
       <c r="E188" t="str">
-        <f ca="1">A188&amp;"/"&amp;B188&amp;"/"&amp;C188</f>
-        <v>17/7/85</v>
+        <f t="shared" ca="1" si="23"/>
+        <v>5/7/78</v>
       </c>
       <c r="G188" s="5">
         <v>28251</v>
@@ -12992,20 +13431,20 @@
     </row>
     <row r="189" spans="1:7">
       <c r="A189">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>18</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>1</v>
       </c>
       <c r="B189">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>1</v>
+        <f t="shared" ca="1" si="21"/>
+        <v>3</v>
       </c>
       <c r="C189" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>81</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>71</v>
       </c>
       <c r="E189" t="str">
-        <f ca="1">A189&amp;"/"&amp;B189&amp;"/"&amp;C189</f>
-        <v>18/1/81</v>
+        <f t="shared" ca="1" si="23"/>
+        <v>1/3/71</v>
       </c>
       <c r="G189" s="5">
         <v>29225</v>
@@ -13013,20 +13452,20 @@
     </row>
     <row r="190" spans="1:7">
       <c r="A190">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>5</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>16</v>
       </c>
       <c r="B190">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>8</v>
+        <f t="shared" ca="1" si="21"/>
+        <v>9</v>
       </c>
       <c r="C190" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>72</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>74</v>
       </c>
       <c r="E190" t="str">
-        <f ca="1">A190&amp;"/"&amp;B190&amp;"/"&amp;C190</f>
-        <v>5/8/72</v>
+        <f t="shared" ca="1" si="23"/>
+        <v>16/9/74</v>
       </c>
       <c r="G190" s="5">
         <v>27257</v>
@@ -13034,20 +13473,20 @@
     </row>
     <row r="191" spans="1:7">
       <c r="A191">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>20</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>3</v>
       </c>
       <c r="B191">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>12</v>
+        <f t="shared" ca="1" si="21"/>
+        <v>1</v>
       </c>
       <c r="C191" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>84</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>81</v>
       </c>
       <c r="E191" t="str">
-        <f ca="1">A191&amp;"/"&amp;B191&amp;"/"&amp;C191</f>
-        <v>20/12/84</v>
+        <f t="shared" ca="1" si="23"/>
+        <v>3/1/81</v>
       </c>
       <c r="G191" s="5">
         <v>28465</v>
@@ -13055,20 +13494,20 @@
     </row>
     <row r="192" spans="1:7">
       <c r="A192">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>4</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>10</v>
       </c>
       <c r="B192">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>11</v>
+        <f t="shared" ca="1" si="21"/>
+        <v>9</v>
       </c>
       <c r="C192" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>75</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>81</v>
       </c>
       <c r="E192" t="str">
-        <f ca="1">A192&amp;"/"&amp;B192&amp;"/"&amp;C192</f>
-        <v>4/11/75</v>
+        <f t="shared" ca="1" si="23"/>
+        <v>10/9/81</v>
       </c>
       <c r="G192" s="5">
         <v>30166</v>
@@ -13076,20 +13515,20 @@
     </row>
     <row r="193" spans="1:7">
       <c r="A193">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>15</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>1</v>
       </c>
       <c r="B193">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>12</v>
+        <f t="shared" ca="1" si="21"/>
+        <v>9</v>
       </c>
       <c r="C193" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>74</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>92</v>
       </c>
       <c r="E193" t="str">
-        <f ca="1">A193&amp;"/"&amp;B193&amp;"/"&amp;C193</f>
-        <v>15/12/74</v>
+        <f t="shared" ca="1" si="23"/>
+        <v>1/9/92</v>
       </c>
       <c r="G193" s="5">
         <v>30343</v>
@@ -13097,20 +13536,20 @@
     </row>
     <row r="194" spans="1:7">
       <c r="A194">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>3</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>1</v>
       </c>
       <c r="B194">
-        <f ca="1">RANDBETWEEN(1,12)</f>
-        <v>6</v>
+        <f t="shared" ca="1" si="21"/>
+        <v>7</v>
       </c>
       <c r="C194" s="27">
-        <f ca="1">RANDBETWEEN(70,93)</f>
-        <v>76</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>80</v>
       </c>
       <c r="E194" t="str">
-        <f ca="1">A194&amp;"/"&amp;B194&amp;"/"&amp;C194</f>
-        <v>3/6/76</v>
+        <f t="shared" ca="1" si="23"/>
+        <v>1/7/80</v>
       </c>
       <c r="G194" s="5">
         <v>29515</v>
@@ -13118,7 +13557,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -13127,7 +13565,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:Q6"/>
   <sheetViews>
@@ -13138,40 +13576,40 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="3" spans="2:17" ht="18">
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="45" t="s">
         <v>243</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="41"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
     </row>
     <row r="4" spans="2:17">
       <c r="B4" s="8"/>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="44" t="s">
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="46"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="50"/>
     </row>
     <row r="5" spans="2:17">
       <c r="B5" s="1" t="s">
@@ -13258,7 +13696,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q8"/>
   <sheetViews>
@@ -13287,40 +13725,40 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="18">
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="45" t="s">
         <v>242</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="41"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
     </row>
     <row r="4" spans="1:17">
       <c r="B4" s="8"/>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="44" t="s">
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="46"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="50"/>
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
@@ -13417,7 +13855,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E3:S5"/>
   <sheetViews>
@@ -13441,23 +13879,23 @@
   </cols>
   <sheetData>
     <row r="3" spans="5:19">
-      <c r="E3" s="42" t="s">
+      <c r="E3" s="46" t="s">
         <v>178</v>
       </c>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="42"/>
-      <c r="S3" s="42"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="46"/>
+      <c r="R3" s="46"/>
+      <c r="S3" s="46"/>
     </row>
     <row r="4" spans="5:19">
       <c r="E4" s="1" t="s">
@@ -13515,23 +13953,6 @@
   <mergeCells count="1">
     <mergeCell ref="E3:S3"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -13552,11 +13973,11 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="3" spans="2:4">
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="46" t="s">
         <v>175</v>
       </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
     </row>
     <row r="4" spans="2:4">
       <c r="B4" s="21" t="s">
@@ -13617,39 +14038,39 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="3" spans="1:16" ht="18">
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
     </row>
     <row r="4" spans="1:16">
       <c r="B4" s="8"/>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="44" t="s">
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="46"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="50"/>
     </row>
     <row r="5" spans="1:16">
       <c r="B5" s="1" t="s">
@@ -13804,39 +14225,39 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:16" ht="18">
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
     </row>
     <row r="4" spans="2:16">
       <c r="B4" s="8"/>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="44" t="s">
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="46"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="50"/>
     </row>
     <row r="5" spans="2:16">
       <c r="B5" s="1" t="s">
@@ -13935,16 +14356,16 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:9" ht="18">
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="7" t="s">
@@ -14054,40 +14475,40 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:17" ht="18">
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="41"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
     </row>
     <row r="4" spans="2:17">
       <c r="B4" s="8"/>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="44" t="s">
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="46"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="50"/>
     </row>
     <row r="5" spans="2:17">
       <c r="B5" s="1" t="s">
@@ -14191,13 +14612,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6">
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="7" t="s">
@@ -14792,15 +15213,15 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:8">
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
     </row>
     <row r="4" spans="2:8">
       <c r="B4" s="1" t="s">
@@ -14964,40 +15385,40 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:19" ht="18">
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="45" t="s">
         <v>123</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="41"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
     </row>
     <row r="4" spans="1:19">
       <c r="B4" s="8"/>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="44" t="s">
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="46"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="50"/>
     </row>
     <row r="5" spans="1:19">
       <c r="B5" s="1" t="s">

--- a/trunk/insert (isaac).xlsx
+++ b/trunk/insert (isaac).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="80" windowWidth="18080" windowHeight="14920" tabRatio="941" firstSheet="2" activeTab="10"/>
+    <workbookView xWindow="360" yWindow="80" windowWidth="18080" windowHeight="14920" tabRatio="941" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1168" uniqueCount="724">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="782">
   <si>
     <t>Nombre</t>
   </si>
@@ -2280,12 +2280,278 @@
   <si>
     <t>William</t>
   </si>
+  <si>
+    <t xml:space="preserve">Alex </t>
+  </si>
+  <si>
+    <t>Da Silva</t>
+  </si>
+  <si>
+    <t>March 27, 1968</t>
+  </si>
+  <si>
+    <t>3791 Santa Rosalia Drive </t>
+  </si>
+  <si>
+    <t>Los Angeles</t>
+  </si>
+  <si>
+    <t>http://love2d.com/2009/03/so-you-think-you-can-dance-los-coreografos/</t>
+  </si>
+  <si>
+    <t>Brian</t>
+  </si>
+  <si>
+    <t>Friedman</t>
+  </si>
+  <si>
+    <t>May 28, 1978</t>
+  </si>
+  <si>
+    <t>14455 North Hayden Road #219</t>
+  </si>
+  <si>
+    <t>Scottsdale</t>
+  </si>
+  <si>
+    <t>Dan</t>
+  </si>
+  <si>
+    <t>Karaty</t>
+  </si>
+  <si>
+    <t>October 1, 1976</t>
+  </si>
+  <si>
+    <t>768 5th Avenue</t>
+  </si>
+  <si>
+    <t>http://www.imdb.com/name/nm2045171/?ref_=fn_al_nm_1</t>
+  </si>
+  <si>
+    <t>Mia</t>
+  </si>
+  <si>
+    <t>Michaels</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <r>
+      <t>22 February</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF70579D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1966</t>
+    </r>
+  </si>
+  <si>
+    <t>1335 6th Ave</t>
+  </si>
+  <si>
+    <t>http://www.miamichaels.com/</t>
+  </si>
+  <si>
+    <t>Mary</t>
+  </si>
+  <si>
+    <t>Murphy</t>
+  </si>
+  <si>
+    <r>
+      <t>March 9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF70579D"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>1958</t>
+    </r>
+  </si>
+  <si>
+    <t>1260 6th Avenue</t>
+  </si>
+  <si>
+    <t>http://www.imdb.com/name/nm2052793/</t>
+  </si>
+  <si>
+    <t>Dave</t>
+  </si>
+  <si>
+    <t>Scott</t>
+  </si>
+  <si>
+    <t>1535 Broadway</t>
+  </si>
+  <si>
+    <t>http://love2d.com/wp-content/uploads/2009/03/dave_scott-prv.jpg</t>
+  </si>
+  <si>
+    <t>Tyce</t>
+  </si>
+  <si>
+    <t>Diorio</t>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF70579D"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>August 22</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF70579D"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1970</t>
+    </r>
+  </si>
+  <si>
+    <t>460 Madison Avenue</t>
+  </si>
+  <si>
+    <t>http://www.imdb.com/name/nm0228055/?ref_=fn_al_nm_1</t>
+  </si>
+  <si>
+    <t>Zach</t>
+  </si>
+  <si>
+    <t>Woodlee</t>
+  </si>
+  <si>
+    <r>
+      <t>April 27</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF70579D"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>1977</t>
+    </r>
+  </si>
+  <si>
+    <t>7191 East Ashler Hills Drive</t>
+  </si>
+  <si>
+    <t>http://www.imdb.com/name/nm0940342/?ref_=fn_al_nm_1</t>
+  </si>
+  <si>
+    <t>Brooke</t>
+  </si>
+  <si>
+    <t>Lipton</t>
+  </si>
+  <si>
+    <t>3400 East Sky Harbor Boulevard</t>
+  </si>
+  <si>
+    <t>Phoenix</t>
+  </si>
+  <si>
+    <t>http://es.glee.wikia.com/wiki/Brooke_Lipton</t>
+  </si>
+  <si>
+    <t>Travis</t>
+  </si>
+  <si>
+    <t>Payne</t>
+  </si>
+  <si>
+    <t>July 5, 1971</t>
+  </si>
+  <si>
+    <t>200 Eastern Parkway</t>
+  </si>
+  <si>
+    <t>Brooklyn</t>
+  </si>
+  <si>
+    <t>http://www.zimbio.com/pictures/ldx6iTH2zC-/Las+Vegas+Premiere+Michael+Jackson+IMMORTAL/NQrMy_Tp7Du/Travis+Payne</t>
+  </si>
+  <si>
+    <t>Louis</t>
+  </si>
+  <si>
+    <t>Van</t>
+  </si>
+  <si>
+    <t>Amstel</t>
+  </si>
+  <si>
+    <t>June 23, 1972</t>
+  </si>
+  <si>
+    <t>175 5th Ave</t>
+  </si>
+  <si>
+    <t>http://www.google.co.ve/imgres?um=1&amp;hl=es-419&amp;tbo=d&amp;biw=1241&amp;bih=584&amp;tbm=isch&amp;tbnid=onwfiec93iOF6M:&amp;imgrefurl=http://www.scottstander.com/08Ballroom/ballroomopen.html&amp;docid=rLP0khbqtb36dM&amp;imgurl=http://www.scottstander.com/08Ballroom/amstelLG.jpg&amp;w=1363&amp;h=2485&amp;ei=u6TCUK6FMcLL0AHA0IGADQ&amp;zoom=1&amp;iact=hc&amp;vpx=4&amp;vpy=121&amp;dur=1742&amp;hovh=303&amp;hovw=167&amp;tx=44&amp;ty=151&amp;sig=113051231522638327779&amp;page=1&amp;tbnh=151&amp;tbnw=89&amp;start=0&amp;ndsp=22&amp;ved=1t:429,r:0,s:0,i:79</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2410,6 +2676,49 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF70579D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF70579D"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF70579D"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3150,7 +3459,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3228,6 +3537,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="59" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3246,18 +3558,22 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="59"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="59"/>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="59" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="569">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
@@ -4175,21 +4491,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="18">
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="L2" s="47" t="s">
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="L2" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
     </row>
     <row r="3" spans="2:14">
       <c r="B3" s="3" t="s">
@@ -4311,11 +4627,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4">
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="49" t="s">
         <v>171</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
     </row>
     <row r="3" spans="2:4">
       <c r="B3" s="1" t="s">
@@ -4475,7 +4791,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:AB233"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H129" sqref="H129"/>
     </sheetView>
   </sheetViews>
@@ -4500,46 +4816,46 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:28" ht="18">
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="48" t="s">
         <v>193</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="Q3" s="56" t="s">
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="48"/>
+      <c r="Q3" s="54" t="s">
         <v>381</v>
       </c>
-      <c r="R3" s="56"/>
-      <c r="S3" s="56"/>
+      <c r="R3" s="54"/>
+      <c r="S3" s="54"/>
       <c r="T3" s="33"/>
-      <c r="V3" s="48" t="s">
+      <c r="V3" s="49" t="s">
         <v>371</v>
       </c>
-      <c r="W3" s="48"/>
+      <c r="W3" s="49"/>
     </row>
     <row r="4" spans="2:28" ht="16">
       <c r="B4" s="28"/>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="50" t="s">
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
       <c r="Q4" s="1" t="s">
         <v>382</v>
       </c>
@@ -4558,11 +4874,11 @@
       <c r="W4" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="X4" s="53"/>
-      <c r="Y4" s="55"/>
-      <c r="Z4" s="53"/>
+      <c r="X4" s="55"/>
+      <c r="Y4" s="56"/>
+      <c r="Z4" s="55"/>
       <c r="AA4" s="32"/>
-      <c r="AB4" s="53"/>
+      <c r="AB4" s="55"/>
     </row>
     <row r="5" spans="2:28">
       <c r="B5" s="29" t="s">
@@ -4624,11 +4940,11 @@
       <c r="W5" t="s">
         <v>372</v>
       </c>
-      <c r="X5" s="53"/>
-      <c r="Y5" s="55"/>
-      <c r="Z5" s="53"/>
+      <c r="X5" s="55"/>
+      <c r="Y5" s="56"/>
+      <c r="Z5" s="55"/>
       <c r="AA5" s="18"/>
-      <c r="AB5" s="53"/>
+      <c r="AB5" s="55"/>
     </row>
     <row r="6" spans="2:28">
       <c r="B6" s="30">
@@ -4680,11 +4996,11 @@
       <c r="W6" t="s">
         <v>373</v>
       </c>
-      <c r="X6" s="53"/>
-      <c r="Y6" s="55"/>
-      <c r="Z6" s="53"/>
+      <c r="X6" s="55"/>
+      <c r="Y6" s="56"/>
+      <c r="Z6" s="55"/>
       <c r="AA6" s="18"/>
-      <c r="AB6" s="53"/>
+      <c r="AB6" s="55"/>
     </row>
     <row r="7" spans="2:28">
       <c r="B7" s="30">
@@ -4732,11 +5048,11 @@
       <c r="W7" t="s">
         <v>379</v>
       </c>
-      <c r="X7" s="53"/>
-      <c r="Y7" s="55"/>
-      <c r="Z7" s="53"/>
+      <c r="X7" s="55"/>
+      <c r="Y7" s="56"/>
+      <c r="Z7" s="55"/>
       <c r="AA7" s="18"/>
-      <c r="AB7" s="53"/>
+      <c r="AB7" s="55"/>
     </row>
     <row r="8" spans="2:28" ht="16">
       <c r="B8" s="30">
@@ -4980,11 +5296,11 @@
       <c r="W12" t="s">
         <v>380</v>
       </c>
-      <c r="X12" s="53"/>
-      <c r="Y12" s="53"/>
-      <c r="Z12" s="53"/>
+      <c r="X12" s="55"/>
+      <c r="Y12" s="55"/>
+      <c r="Z12" s="55"/>
       <c r="AA12" s="32"/>
-      <c r="AB12" s="53"/>
+      <c r="AB12" s="55"/>
     </row>
     <row r="13" spans="2:28" ht="16">
       <c r="B13" s="30">
@@ -5032,11 +5348,11 @@
       <c r="W13" t="s">
         <v>401</v>
       </c>
-      <c r="X13" s="53"/>
-      <c r="Y13" s="53"/>
-      <c r="Z13" s="53"/>
+      <c r="X13" s="55"/>
+      <c r="Y13" s="55"/>
+      <c r="Z13" s="55"/>
       <c r="AA13" s="32"/>
-      <c r="AB13" s="53"/>
+      <c r="AB13" s="55"/>
     </row>
     <row r="14" spans="2:28" ht="16">
       <c r="B14" s="30">
@@ -5339,11 +5655,11 @@
       <c r="S21" s="5">
         <v>39289</v>
       </c>
-      <c r="X21" s="54"/>
-      <c r="Y21" s="55"/>
-      <c r="Z21" s="53"/>
+      <c r="X21" s="57"/>
+      <c r="Y21" s="56"/>
+      <c r="Z21" s="55"/>
       <c r="AA21" s="32"/>
-      <c r="AB21" s="53"/>
+      <c r="AB21" s="55"/>
     </row>
     <row r="22" spans="2:28">
       <c r="B22" s="30">
@@ -5379,11 +5695,11 @@
       <c r="S22" s="5">
         <v>40454</v>
       </c>
-      <c r="X22" s="54"/>
-      <c r="Y22" s="55"/>
-      <c r="Z22" s="53"/>
+      <c r="X22" s="57"/>
+      <c r="Y22" s="56"/>
+      <c r="Z22" s="55"/>
       <c r="AA22" s="18"/>
-      <c r="AB22" s="53"/>
+      <c r="AB22" s="55"/>
     </row>
     <row r="23" spans="2:28" ht="16">
       <c r="B23" s="30">
@@ -5870,11 +6186,11 @@
       <c r="S35" s="5">
         <v>38043</v>
       </c>
-      <c r="X35" s="54"/>
-      <c r="Y35" s="53"/>
-      <c r="Z35" s="53"/>
+      <c r="X35" s="57"/>
+      <c r="Y35" s="55"/>
+      <c r="Z35" s="55"/>
       <c r="AA35" s="32"/>
-      <c r="AB35" s="53"/>
+      <c r="AB35" s="55"/>
     </row>
     <row r="36" spans="2:28" ht="16">
       <c r="B36" s="30">
@@ -5916,11 +6232,11 @@
       <c r="S36" s="5">
         <v>38942</v>
       </c>
-      <c r="X36" s="54"/>
-      <c r="Y36" s="53"/>
-      <c r="Z36" s="53"/>
+      <c r="X36" s="57"/>
+      <c r="Y36" s="55"/>
+      <c r="Z36" s="55"/>
       <c r="AA36" s="32"/>
-      <c r="AB36" s="53"/>
+      <c r="AB36" s="55"/>
     </row>
     <row r="37" spans="2:28" ht="16">
       <c r="B37" s="30">
@@ -5965,11 +6281,11 @@
       <c r="S37" s="5">
         <v>40979</v>
       </c>
-      <c r="X37" s="53"/>
-      <c r="Y37" s="53"/>
-      <c r="Z37" s="53"/>
+      <c r="X37" s="55"/>
+      <c r="Y37" s="55"/>
+      <c r="Z37" s="55"/>
       <c r="AA37" s="32"/>
-      <c r="AB37" s="53"/>
+      <c r="AB37" s="55"/>
     </row>
     <row r="38" spans="2:28" ht="16">
       <c r="B38" s="30">
@@ -6011,11 +6327,11 @@
       <c r="S38" s="5">
         <v>38948</v>
       </c>
-      <c r="X38" s="53"/>
-      <c r="Y38" s="53"/>
-      <c r="Z38" s="53"/>
+      <c r="X38" s="55"/>
+      <c r="Y38" s="55"/>
+      <c r="Z38" s="55"/>
       <c r="AA38" s="32"/>
-      <c r="AB38" s="53"/>
+      <c r="AB38" s="55"/>
     </row>
     <row r="39" spans="2:28">
       <c r="B39" s="30">
@@ -6272,11 +6588,11 @@
       <c r="S44" s="5">
         <v>37249</v>
       </c>
-      <c r="X44" s="53"/>
-      <c r="Y44" s="54"/>
-      <c r="Z44" s="53"/>
+      <c r="X44" s="55"/>
+      <c r="Y44" s="57"/>
+      <c r="Z44" s="55"/>
       <c r="AA44" s="18"/>
-      <c r="AB44" s="53"/>
+      <c r="AB44" s="55"/>
     </row>
     <row r="45" spans="2:28">
       <c r="B45" s="30">
@@ -6316,11 +6632,11 @@
       <c r="S45" s="5">
         <v>39371</v>
       </c>
-      <c r="X45" s="53"/>
-      <c r="Y45" s="54"/>
-      <c r="Z45" s="53"/>
+      <c r="X45" s="55"/>
+      <c r="Y45" s="57"/>
+      <c r="Z45" s="55"/>
       <c r="AA45" s="18"/>
-      <c r="AB45" s="53"/>
+      <c r="AB45" s="55"/>
     </row>
     <row r="46" spans="2:28">
       <c r="B46" s="30">
@@ -6363,11 +6679,11 @@
       <c r="S46" s="5">
         <v>38123</v>
       </c>
-      <c r="X46" s="53"/>
-      <c r="Y46" s="54"/>
-      <c r="Z46" s="53"/>
+      <c r="X46" s="55"/>
+      <c r="Y46" s="57"/>
+      <c r="Z46" s="55"/>
       <c r="AA46" s="18"/>
-      <c r="AB46" s="53"/>
+      <c r="AB46" s="55"/>
     </row>
     <row r="47" spans="2:28">
       <c r="B47" s="30">
@@ -6410,11 +6726,11 @@
       <c r="S47" s="5">
         <v>39947</v>
       </c>
-      <c r="X47" s="53"/>
-      <c r="Y47" s="54"/>
-      <c r="Z47" s="53"/>
+      <c r="X47" s="55"/>
+      <c r="Y47" s="57"/>
+      <c r="Z47" s="55"/>
       <c r="AA47" s="18"/>
-      <c r="AB47" s="53"/>
+      <c r="AB47" s="55"/>
     </row>
     <row r="48" spans="2:28" ht="16">
       <c r="B48" s="30">
@@ -6709,11 +7025,11 @@
       <c r="S54" s="5">
         <v>36604</v>
       </c>
-      <c r="X54" s="53"/>
-      <c r="Y54" s="54"/>
-      <c r="Z54" s="53"/>
+      <c r="X54" s="55"/>
+      <c r="Y54" s="57"/>
+      <c r="Z54" s="55"/>
       <c r="AA54" s="32"/>
-      <c r="AB54" s="53"/>
+      <c r="AB54" s="55"/>
     </row>
     <row r="55" spans="1:28" ht="16">
       <c r="B55" s="30">
@@ -6757,14 +7073,14 @@
       <c r="S55" s="5">
         <v>36050</v>
       </c>
-      <c r="X55" s="53"/>
-      <c r="Y55" s="54"/>
-      <c r="Z55" s="53"/>
+      <c r="X55" s="55"/>
+      <c r="Y55" s="57"/>
+      <c r="Z55" s="55"/>
       <c r="AA55" s="32"/>
-      <c r="AB55" s="53"/>
+      <c r="AB55" s="55"/>
     </row>
     <row r="56" spans="1:28" s="4" customFormat="1" ht="19">
-      <c r="A56" s="58" t="s">
+      <c r="A56" s="47" t="s">
         <v>385</v>
       </c>
       <c r="B56" s="30">
@@ -10299,11 +10615,30 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="B3:O3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="X54:X55"/>
+    <mergeCell ref="Y54:Y55"/>
+    <mergeCell ref="Z54:Z55"/>
+    <mergeCell ref="AB54:AB55"/>
+    <mergeCell ref="X46:X47"/>
+    <mergeCell ref="Y46:Y47"/>
+    <mergeCell ref="Z46:Z47"/>
+    <mergeCell ref="AB46:AB47"/>
+    <mergeCell ref="X44:X45"/>
+    <mergeCell ref="Y44:Y45"/>
+    <mergeCell ref="Z44:Z45"/>
+    <mergeCell ref="AB44:AB45"/>
+    <mergeCell ref="X37:X38"/>
+    <mergeCell ref="Y37:Y38"/>
+    <mergeCell ref="Z37:Z38"/>
+    <mergeCell ref="AB37:AB38"/>
+    <mergeCell ref="X35:X36"/>
+    <mergeCell ref="Y35:Y36"/>
+    <mergeCell ref="Z35:Z36"/>
+    <mergeCell ref="AB35:AB36"/>
+    <mergeCell ref="X21:X22"/>
+    <mergeCell ref="Y21:Y22"/>
+    <mergeCell ref="Z21:Z22"/>
+    <mergeCell ref="AB21:AB22"/>
     <mergeCell ref="X12:X13"/>
     <mergeCell ref="Y12:Y13"/>
     <mergeCell ref="Z12:Z13"/>
@@ -10316,36 +10651,16 @@
     <mergeCell ref="Y6:Y7"/>
     <mergeCell ref="Z6:Z7"/>
     <mergeCell ref="AB6:AB7"/>
-    <mergeCell ref="X35:X36"/>
-    <mergeCell ref="Y35:Y36"/>
-    <mergeCell ref="Z35:Z36"/>
-    <mergeCell ref="AB35:AB36"/>
-    <mergeCell ref="X21:X22"/>
-    <mergeCell ref="Y21:Y22"/>
-    <mergeCell ref="Z21:Z22"/>
-    <mergeCell ref="AB21:AB22"/>
-    <mergeCell ref="X44:X45"/>
-    <mergeCell ref="Y44:Y45"/>
-    <mergeCell ref="Z44:Z45"/>
-    <mergeCell ref="AB44:AB45"/>
-    <mergeCell ref="X37:X38"/>
-    <mergeCell ref="Y37:Y38"/>
-    <mergeCell ref="Z37:Z38"/>
-    <mergeCell ref="AB37:AB38"/>
-    <mergeCell ref="X54:X55"/>
-    <mergeCell ref="Y54:Y55"/>
-    <mergeCell ref="Z54:Z55"/>
-    <mergeCell ref="AB54:AB55"/>
-    <mergeCell ref="X46:X47"/>
-    <mergeCell ref="Y46:Y47"/>
-    <mergeCell ref="Z46:Z47"/>
-    <mergeCell ref="AB46:AB47"/>
+    <mergeCell ref="B3:O3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="Q3:S3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A56" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -10369,10 +10684,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:3">
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="58" t="s">
         <v>642</v>
       </c>
-      <c r="C3" s="57"/>
+      <c r="C3" s="58"/>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" s="1" t="s">
@@ -10408,19 +10723,19 @@
     <row r="1" spans="1:7">
       <c r="A1">
         <f t="shared" ref="A1:A32" ca="1" si="0">RANDBETWEEN(1,30)</f>
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B1">
         <f t="shared" ref="B1:B32" ca="1" si="1">RANDBETWEEN(1,12)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C1" s="27">
         <f t="shared" ref="C1:C32" ca="1" si="2">RANDBETWEEN(70,93)</f>
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="E1" t="str">
         <f t="shared" ref="E1:E32" ca="1" si="3">A1&amp;"/"&amp;B1&amp;"/"&amp;C1</f>
-        <v>25/7/73</v>
+        <v>23/8/82</v>
       </c>
       <c r="G1" s="5">
         <v>32428</v>
@@ -10429,151 +10744,151 @@
     <row r="2" spans="1:7">
       <c r="A2">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B2">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C2" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E2" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>9/7/85</v>
+        <v>24/1/86</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
         <f t="shared" ca="1" si="0"/>
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C3" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="E3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>24/7/81</v>
+        <v>15/10/92</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C4" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="E4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>8/3/77</v>
+        <v>24/10/83</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C5" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2/11/81</v>
+        <v>21/3/79</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C6" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="E6" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>6/8/89</v>
+        <v>26/3/80</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C7" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E7" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>5/2/78</v>
+        <v>17/7/75</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
         <f t="shared" ca="1" si="0"/>
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C8" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="E8" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>29/2/83</v>
+        <v>19/11/90</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C9" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E9" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>1/6/89</v>
+        <v>27/1/88</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="1"/>
@@ -10581,147 +10896,147 @@
       </c>
       <c r="C10" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="E10" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2/12/77</v>
+        <v>5/12/82</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
         <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E11" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>16/2/85</v>
+        <v>4/1/87</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C12" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E12" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>13/3/78</v>
+        <v>8/4/74</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C13" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E13" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>14/2/87</v>
+        <v>10/8/88</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C14" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="E14" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>1/6/91</v>
+        <v>16/4/83</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
         <f t="shared" ca="1" si="0"/>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C15" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="E15" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>24/8/75</v>
+        <v>23/3/83</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C16" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="E16" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>4/10/89</v>
+        <v>26/8/74</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C17" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E17" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>8/8/83</v>
+        <v>17/12/87</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
         <f t="shared" ca="1" si="0"/>
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C18" s="27">
         <f t="shared" ca="1" si="2"/>
@@ -10729,139 +11044,139 @@
       </c>
       <c r="E18" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>23/1/83</v>
+        <v>16/2/83</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C19" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="E19" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>11/1/73</v>
+        <v>17/7/82</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
         <f t="shared" ca="1" si="0"/>
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C20" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E20" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>29/11/90</v>
+        <v>7/5/84</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
         <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C21" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="E21" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>16/1/91</v>
+        <v>5/4/70</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C22" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>17/4/80</v>
+        <v>21/6/79</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
         <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C23" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="E23" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>21/8/77</v>
+        <v>4/6/92</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C24" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="E24" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>8/2/71</v>
+        <v>19/8/89</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
         <f t="shared" ca="1" si="0"/>
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C25" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E25" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>27/5/72</v>
+        <v>12/8/74</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="1"/>
@@ -10869,17 +11184,17 @@
       </c>
       <c r="C26" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="E26" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>20/9/74</v>
+        <v>26/9/83</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="1"/>
@@ -10887,83 +11202,83 @@
       </c>
       <c r="C27" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E27" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>13/2/75</v>
+        <v>16/2/74</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C28" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="E28" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>8/10/84</v>
+        <v>12/8/72</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
         <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C29" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="E29" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>30/9/73</v>
+        <v>25/1/82</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="B30">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C30" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="E30" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>4/2/73</v>
+        <v>19/9/88</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B31">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C31" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E31" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>1/7/84</v>
+        <v>18/10/88</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -10973,7 +11288,7 @@
       </c>
       <c r="B32">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C32" s="27">
         <f t="shared" ca="1" si="2"/>
@@ -10981,233 +11296,233 @@
       </c>
       <c r="E32" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>11/5/93</v>
+        <v>11/12/93</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
         <f t="shared" ref="A33:A64" ca="1" si="4">RANDBETWEEN(1,30)</f>
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B33">
         <f t="shared" ref="B33:B64" ca="1" si="5">RANDBETWEEN(1,12)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C33" s="27">
         <f t="shared" ref="C33:C64" ca="1" si="6">RANDBETWEEN(70,93)</f>
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E33" t="str">
         <f t="shared" ref="E33:E64" ca="1" si="7">A33&amp;"/"&amp;B33&amp;"/"&amp;C33</f>
-        <v>24/2/85</v>
+        <v>16/3/80</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="B34">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C34" s="27">
         <f t="shared" ca="1" si="6"/>
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="E34" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>2/6/82</v>
+        <v>30/2/70</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
         <f t="shared" ca="1" si="4"/>
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="B35">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C35" s="27">
         <f t="shared" ca="1" si="6"/>
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E35" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>25/4/85</v>
+        <v>9/10/81</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="B36">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C36" s="27">
         <f t="shared" ca="1" si="6"/>
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E36" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>8/2/84</v>
+        <v>25/11/79</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
         <f t="shared" ca="1" si="4"/>
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B37">
         <f t="shared" ca="1" si="5"/>
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C37" s="27">
         <f t="shared" ca="1" si="6"/>
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="E37" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>24/12/82</v>
+        <v>22/3/92</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
         <f t="shared" ca="1" si="4"/>
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="B38">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C38" s="27">
         <f t="shared" ca="1" si="6"/>
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E38" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>22/4/87</v>
+        <v>1/3/92</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
         <f t="shared" ca="1" si="4"/>
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="B39">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C39" s="27">
         <f t="shared" ca="1" si="6"/>
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="E39" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>24/9/93</v>
+        <v>2/6/84</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B40">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C40" s="27">
         <f t="shared" ca="1" si="6"/>
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E40" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>9/1/85</v>
+        <v>14/3/90</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
         <f t="shared" ca="1" si="4"/>
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B41">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C41" s="27">
         <f t="shared" ca="1" si="6"/>
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="E41" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>24/6/85</v>
+        <v>13/11/91</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B42">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C42" s="27">
         <f t="shared" ca="1" si="6"/>
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E42" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>6/9/84</v>
+        <v>8/5/87</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
         <f t="shared" ca="1" si="4"/>
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B43">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C43" s="27">
         <f t="shared" ca="1" si="6"/>
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E43" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>13/7/73</v>
+        <v>9/6/78</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
         <f t="shared" ca="1" si="4"/>
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B44">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C44" s="27">
         <f t="shared" ca="1" si="6"/>
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E44" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>17/9/91</v>
+        <v>29/3/85</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B45">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C45" s="27">
         <f t="shared" ca="1" si="6"/>
@@ -11215,86 +11530,86 @@
       </c>
       <c r="E45" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>6/9/76</v>
+        <v>1/7/76</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B46">
         <f t="shared" ca="1" si="5"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C46" s="27">
         <f t="shared" ca="1" si="6"/>
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E46" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1/12/84</v>
+        <v>8/1/80</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="B47">
         <f t="shared" ca="1" si="5"/>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C47" s="27">
         <f t="shared" ca="1" si="6"/>
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="E47" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>5/12/73</v>
+        <v>29/9/92</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
         <f t="shared" ca="1" si="4"/>
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="B48">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C48" s="27">
         <f t="shared" ca="1" si="6"/>
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E48" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>28/1/82</v>
+        <v>2/6/85</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49">
         <f t="shared" ca="1" si="4"/>
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B49">
         <f t="shared" ca="1" si="5"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" s="27">
         <f t="shared" ca="1" si="6"/>
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="E49" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>18/8/72</v>
+        <v>29/9/78</v>
       </c>
       <c r="G49" s="5"/>
     </row>
     <row r="50" spans="1:7">
       <c r="A50">
         <f t="shared" ca="1" si="4"/>
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B50">
         <f t="shared" ca="1" si="5"/>
@@ -11302,55 +11617,55 @@
       </c>
       <c r="C50" s="27">
         <f t="shared" ca="1" si="6"/>
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="E50" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>24/11/77</v>
+        <v>21/11/89</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51">
         <f t="shared" ca="1" si="4"/>
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B51">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C51" s="27">
         <f t="shared" ca="1" si="6"/>
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E51" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>24/7/89</v>
+        <v>7/6/87</v>
       </c>
       <c r="G51" s="5"/>
     </row>
     <row r="52" spans="1:7">
       <c r="A52">
         <f t="shared" ca="1" si="4"/>
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B52">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C52" s="27">
         <f t="shared" ca="1" si="6"/>
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E52" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>18/9/79</v>
+        <v>3/12/82</v>
       </c>
       <c r="G52" s="5"/>
     </row>
     <row r="53" spans="1:7">
       <c r="A53">
         <f t="shared" ca="1" si="4"/>
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B53">
         <f t="shared" ca="1" si="5"/>
@@ -11358,137 +11673,137 @@
       </c>
       <c r="C53" s="27">
         <f t="shared" ca="1" si="6"/>
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="E53" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>24/7/77</v>
+        <v>16/7/85</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54">
         <f t="shared" ca="1" si="4"/>
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B54">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C54" s="27">
         <f t="shared" ca="1" si="6"/>
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="E54" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>28/1/71</v>
+        <v>25/12/88</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B55">
         <f t="shared" ca="1" si="5"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C55" s="27">
         <f t="shared" ca="1" si="6"/>
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="E55" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>10/12/75</v>
+        <v>7/1/90</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56">
         <f t="shared" ca="1" si="4"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B56">
         <f t="shared" ca="1" si="5"/>
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C56" s="27">
         <f t="shared" ca="1" si="6"/>
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="E56" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>18/11/91</v>
+        <v>17/2/72</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57">
         <f t="shared" ca="1" si="4"/>
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="B57">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C57" s="27">
         <f t="shared" ca="1" si="6"/>
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E57" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>25/9/81</v>
+        <v>5/4/83</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58">
         <f t="shared" ca="1" si="4"/>
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B58">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C58" s="27">
         <f t="shared" ca="1" si="6"/>
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="E58" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>23/6/77</v>
+        <v>12/12/83</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59">
         <f t="shared" ca="1" si="4"/>
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B59">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C59" s="27">
         <f t="shared" ca="1" si="6"/>
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="E59" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>17/4/91</v>
+        <v>27/6/70</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60">
         <f t="shared" ca="1" si="4"/>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B60">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C60" s="27">
         <f t="shared" ca="1" si="6"/>
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="E60" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>14/4/93</v>
+        <v>17/8/78</v>
       </c>
       <c r="G60" s="5">
         <v>26992</v>
@@ -11497,19 +11812,19 @@
     <row r="61" spans="1:7">
       <c r="A61">
         <f t="shared" ca="1" si="4"/>
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B61">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C61" s="27">
         <f t="shared" ca="1" si="6"/>
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E61" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>23/1/81</v>
+        <v>30/8/75</v>
       </c>
       <c r="G61" s="5">
         <v>30502</v>
@@ -11518,19 +11833,19 @@
     <row r="62" spans="1:7">
       <c r="A62">
         <f t="shared" ca="1" si="4"/>
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B62">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C62" s="27">
         <f t="shared" ca="1" si="6"/>
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="E62" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>13/1/79</v>
+        <v>8/3/90</v>
       </c>
       <c r="G62" s="5">
         <v>28144</v>
@@ -11539,19 +11854,19 @@
     <row r="63" spans="1:7">
       <c r="A63">
         <f t="shared" ca="1" si="4"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B63">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C63" s="27">
         <f t="shared" ca="1" si="6"/>
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E63" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>15/5/86</v>
+        <v>14/4/90</v>
       </c>
       <c r="G63" s="5">
         <v>33160</v>
@@ -11560,19 +11875,19 @@
     <row r="64" spans="1:7">
       <c r="A64">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="B64">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C64" s="27">
         <f t="shared" ca="1" si="6"/>
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="E64" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1/2/86</v>
+        <v>28/1/93</v>
       </c>
       <c r="G64" s="5">
         <v>29964</v>
@@ -11581,19 +11896,19 @@
     <row r="65" spans="1:7">
       <c r="A65">
         <f t="shared" ref="A65:A96" ca="1" si="8">RANDBETWEEN(1,30)</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B65">
         <f t="shared" ref="B65:B96" ca="1" si="9">RANDBETWEEN(1,12)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C65" s="27">
         <f t="shared" ref="C65:C96" ca="1" si="10">RANDBETWEEN(70,93)</f>
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E65" t="str">
         <f t="shared" ref="E65:E96" ca="1" si="11">A65&amp;"/"&amp;B65&amp;"/"&amp;C65</f>
-        <v>2/1/91</v>
+        <v>7/3/86</v>
       </c>
       <c r="G65" s="5">
         <v>27808</v>
@@ -11602,19 +11917,19 @@
     <row r="66" spans="1:7">
       <c r="A66">
         <f t="shared" ca="1" si="8"/>
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B66">
         <f t="shared" ca="1" si="9"/>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C66" s="27">
         <f t="shared" ca="1" si="10"/>
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E66" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>24/12/80</v>
+        <v>5/6/75</v>
       </c>
       <c r="G66" s="5">
         <v>32652</v>
@@ -11623,19 +11938,19 @@
     <row r="67" spans="1:7">
       <c r="A67">
         <f t="shared" ca="1" si="8"/>
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B67">
         <f t="shared" ca="1" si="9"/>
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C67" s="27">
         <f t="shared" ca="1" si="10"/>
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="E67" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>15/11/81</v>
+        <v>24/6/93</v>
       </c>
       <c r="G67" s="5">
         <v>33595</v>
@@ -11644,19 +11959,19 @@
     <row r="68" spans="1:7">
       <c r="A68">
         <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B68">
         <f t="shared" ca="1" si="9"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C68" s="27">
         <f t="shared" ca="1" si="10"/>
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E68" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>5/5/93</v>
+        <v>16/10/91</v>
       </c>
       <c r="G68" s="5">
         <v>30880</v>
@@ -11665,19 +11980,19 @@
     <row r="69" spans="1:7">
       <c r="A69">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="B69">
         <f t="shared" ca="1" si="9"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C69" s="27">
         <f t="shared" ca="1" si="10"/>
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E69" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>1/8/92</v>
+        <v>28/12/86</v>
       </c>
       <c r="G69" s="5">
         <v>28929</v>
@@ -11686,19 +12001,19 @@
     <row r="70" spans="1:7">
       <c r="A70">
         <f t="shared" ca="1" si="8"/>
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B70">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C70" s="27">
         <f t="shared" ca="1" si="10"/>
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="E70" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>25/2/93</v>
+        <v>13/6/79</v>
       </c>
       <c r="G70" s="5">
         <v>30372</v>
@@ -11707,19 +12022,19 @@
     <row r="71" spans="1:7">
       <c r="A71">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B71">
         <f t="shared" ca="1" si="9"/>
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C71" s="27">
         <f t="shared" ca="1" si="10"/>
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E71" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>4/12/73</v>
+        <v>1/7/77</v>
       </c>
       <c r="G71" s="5">
         <v>28202</v>
@@ -11728,19 +12043,19 @@
     <row r="72" spans="1:7">
       <c r="A72">
         <f t="shared" ca="1" si="8"/>
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B72">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C72" s="27">
         <f t="shared" ca="1" si="10"/>
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="E72" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>13/2/81</v>
+        <v>2/4/73</v>
       </c>
       <c r="G72" s="5">
         <v>28546</v>
@@ -11749,19 +12064,19 @@
     <row r="73" spans="1:7">
       <c r="A73">
         <f t="shared" ca="1" si="8"/>
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B73">
         <f t="shared" ca="1" si="9"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C73" s="27">
         <f t="shared" ca="1" si="10"/>
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E73" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>14/7/92</v>
+        <v>3/9/90</v>
       </c>
       <c r="G73" s="5">
         <v>33479</v>
@@ -11770,19 +12085,19 @@
     <row r="74" spans="1:7">
       <c r="A74">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B74">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C74" s="27">
         <f t="shared" ca="1" si="10"/>
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="E74" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>1/3/77</v>
+        <v>13/9/84</v>
       </c>
       <c r="G74" s="5">
         <v>25831</v>
@@ -11791,19 +12106,19 @@
     <row r="75" spans="1:7">
       <c r="A75">
         <f t="shared" ca="1" si="8"/>
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="B75">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C75" s="27">
         <f t="shared" ca="1" si="10"/>
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E75" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>29/2/86</v>
+        <v>10/10/81</v>
       </c>
       <c r="G75" s="5">
         <v>32071</v>
@@ -11812,19 +12127,19 @@
     <row r="76" spans="1:7">
       <c r="A76">
         <f t="shared" ca="1" si="8"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B76">
         <f t="shared" ca="1" si="9"/>
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C76" s="27">
         <f t="shared" ca="1" si="10"/>
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E76" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>14/11/76</v>
+        <v>16/5/75</v>
       </c>
       <c r="G76" s="5">
         <v>29012</v>
@@ -11837,15 +12152,15 @@
       </c>
       <c r="B77">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C77" s="27">
         <f t="shared" ca="1" si="10"/>
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E77" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>17/3/81</v>
+        <v>17/8/86</v>
       </c>
       <c r="G77" s="5">
         <v>30282</v>
@@ -11854,19 +12169,19 @@
     <row r="78" spans="1:7">
       <c r="A78">
         <f t="shared" ca="1" si="8"/>
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B78">
         <f t="shared" ca="1" si="9"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C78" s="27">
         <f t="shared" ca="1" si="10"/>
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E78" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>15/5/71</v>
+        <v>27/7/79</v>
       </c>
       <c r="G78" s="5">
         <v>27342</v>
@@ -11875,19 +12190,19 @@
     <row r="79" spans="1:7">
       <c r="A79">
         <f t="shared" ca="1" si="8"/>
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B79">
         <f t="shared" ca="1" si="9"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C79" s="27">
         <f t="shared" ca="1" si="10"/>
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E79" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>21/5/75</v>
+        <v>28/7/79</v>
       </c>
       <c r="G79" s="5">
         <v>30030</v>
@@ -11896,7 +12211,7 @@
     <row r="80" spans="1:7">
       <c r="A80">
         <f t="shared" ca="1" si="8"/>
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B80">
         <f t="shared" ca="1" si="9"/>
@@ -11904,11 +12219,11 @@
       </c>
       <c r="C80" s="27">
         <f t="shared" ca="1" si="10"/>
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="E80" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>22/9/86</v>
+        <v>17/9/72</v>
       </c>
       <c r="G80" s="5">
         <v>31717</v>
@@ -11917,19 +12232,19 @@
     <row r="81" spans="1:7">
       <c r="A81">
         <f t="shared" ca="1" si="8"/>
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B81">
         <f t="shared" ca="1" si="9"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C81" s="27">
         <f t="shared" ca="1" si="10"/>
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="E81" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>12/7/93</v>
+        <v>2/2/78</v>
       </c>
       <c r="G81" s="5">
         <v>29523</v>
@@ -11938,19 +12253,19 @@
     <row r="82" spans="1:7">
       <c r="A82">
         <f t="shared" ca="1" si="8"/>
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B82">
         <f t="shared" ca="1" si="9"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C82" s="27">
         <f t="shared" ca="1" si="10"/>
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="E82" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>21/5/89</v>
+        <v>28/2/79</v>
       </c>
       <c r="G82" s="5">
         <v>29817</v>
@@ -11959,19 +12274,19 @@
     <row r="83" spans="1:7">
       <c r="A83">
         <f t="shared" ca="1" si="8"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B83">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C83" s="27">
         <f t="shared" ca="1" si="10"/>
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="E83" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>18/4/72</v>
+        <v>19/10/83</v>
       </c>
       <c r="G83" s="5">
         <v>30573</v>
@@ -11980,19 +12295,19 @@
     <row r="84" spans="1:7">
       <c r="A84">
         <f t="shared" ca="1" si="8"/>
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B84">
         <f t="shared" ca="1" si="9"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" s="27">
         <f t="shared" ca="1" si="10"/>
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E84" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>23/7/85</v>
+        <v>29/8/88</v>
       </c>
       <c r="G84" s="5">
         <v>28657</v>
@@ -12001,19 +12316,19 @@
     <row r="85" spans="1:7">
       <c r="A85">
         <f t="shared" ca="1" si="8"/>
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="B85">
         <f t="shared" ca="1" si="9"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C85" s="27">
         <f t="shared" ca="1" si="10"/>
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="E85" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>28/5/88</v>
+        <v>12/9/78</v>
       </c>
       <c r="G85" s="5">
         <v>30828</v>
@@ -12022,19 +12337,19 @@
     <row r="86" spans="1:7">
       <c r="A86">
         <f t="shared" ca="1" si="8"/>
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="B86">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C86" s="27">
         <f t="shared" ca="1" si="10"/>
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="E86" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>6/2/71</v>
+        <v>25/9/86</v>
       </c>
       <c r="G86" s="5">
         <v>30394</v>
@@ -12043,19 +12358,19 @@
     <row r="87" spans="1:7">
       <c r="A87">
         <f t="shared" ca="1" si="8"/>
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B87">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C87" s="27">
         <f t="shared" ca="1" si="10"/>
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="E87" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>27/1/71</v>
+        <v>19/11/78</v>
       </c>
       <c r="G87" s="5">
         <v>30031</v>
@@ -12064,19 +12379,19 @@
     <row r="88" spans="1:7">
       <c r="A88">
         <f t="shared" ca="1" si="8"/>
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="B88">
         <f t="shared" ca="1" si="9"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C88" s="27">
         <f t="shared" ca="1" si="10"/>
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="E88" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>12/5/88</v>
+        <v>30/9/72</v>
       </c>
       <c r="G88" s="5">
         <v>25786</v>
@@ -12085,19 +12400,19 @@
     <row r="89" spans="1:7">
       <c r="A89">
         <f t="shared" ca="1" si="8"/>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B89">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C89" s="27">
         <f t="shared" ca="1" si="10"/>
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="E89" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>28/4/83</v>
+        <v>27/7/89</v>
       </c>
       <c r="G89" s="5">
         <v>28837</v>
@@ -12106,7 +12421,7 @@
     <row r="90" spans="1:7">
       <c r="A90">
         <f t="shared" ca="1" si="8"/>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B90">
         <f t="shared" ca="1" si="9"/>
@@ -12114,11 +12429,11 @@
       </c>
       <c r="C90" s="27">
         <f t="shared" ca="1" si="10"/>
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E90" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>22/7/82</v>
+        <v>24/7/81</v>
       </c>
       <c r="G90" s="5">
         <v>26913</v>
@@ -12127,19 +12442,19 @@
     <row r="91" spans="1:7">
       <c r="A91">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="B91">
         <f t="shared" ca="1" si="9"/>
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C91" s="27">
         <f t="shared" ca="1" si="10"/>
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E91" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>1/12/71</v>
+        <v>26/5/76</v>
       </c>
       <c r="G91" s="5">
         <v>28997</v>
@@ -12148,19 +12463,19 @@
     <row r="92" spans="1:7">
       <c r="A92">
         <f t="shared" ca="1" si="8"/>
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B92">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C92" s="27">
         <f t="shared" ca="1" si="10"/>
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="E92" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>24/4/85</v>
+        <v>4/9/91</v>
       </c>
       <c r="G92" s="5">
         <v>30760</v>
@@ -12169,19 +12484,19 @@
     <row r="93" spans="1:7">
       <c r="A93">
         <f t="shared" ca="1" si="8"/>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B93">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C93" s="27">
         <f t="shared" ca="1" si="10"/>
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="E93" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>22/1/70</v>
+        <v>26/7/91</v>
       </c>
       <c r="G93" s="5">
         <v>26750</v>
@@ -12190,19 +12505,19 @@
     <row r="94" spans="1:7">
       <c r="A94">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="B94">
         <f t="shared" ca="1" si="9"/>
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C94" s="27">
         <f t="shared" ca="1" si="10"/>
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="E94" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>2/12/73</v>
+        <v>25/7/81</v>
       </c>
       <c r="G94" s="5">
         <v>29267</v>
@@ -12211,19 +12526,19 @@
     <row r="95" spans="1:7">
       <c r="A95">
         <f t="shared" ca="1" si="8"/>
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B95">
         <f t="shared" ca="1" si="9"/>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C95" s="27">
         <f t="shared" ca="1" si="10"/>
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E95" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>17/10/89</v>
+        <v>30/2/91</v>
       </c>
       <c r="G95" s="5">
         <v>30339</v>
@@ -12232,19 +12547,19 @@
     <row r="96" spans="1:7">
       <c r="A96">
         <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B96">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C96" s="27">
         <f t="shared" ca="1" si="10"/>
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="E96" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>5/4/84</v>
+        <v>19/5/74</v>
       </c>
       <c r="G96" s="5">
         <v>31083</v>
@@ -12253,11 +12568,11 @@
     <row r="97" spans="1:7">
       <c r="A97">
         <f t="shared" ref="A97:A128" ca="1" si="12">RANDBETWEEN(1,30)</f>
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B97">
         <f t="shared" ref="B97:B128" ca="1" si="13">RANDBETWEEN(1,12)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C97" s="27">
         <f t="shared" ref="C97:C128" ca="1" si="14">RANDBETWEEN(70,93)</f>
@@ -12265,7 +12580,7 @@
       </c>
       <c r="E97" t="str">
         <f t="shared" ref="E97:E128" ca="1" si="15">A97&amp;"/"&amp;B97&amp;"/"&amp;C97</f>
-        <v>3/10/75</v>
+        <v>20/11/75</v>
       </c>
       <c r="G97" s="5">
         <v>32488</v>
@@ -12274,7 +12589,7 @@
     <row r="98" spans="1:7">
       <c r="A98">
         <f t="shared" ca="1" si="12"/>
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B98">
         <f t="shared" ca="1" si="13"/>
@@ -12282,11 +12597,11 @@
       </c>
       <c r="C98" s="27">
         <f t="shared" ca="1" si="14"/>
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="E98" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>15/4/71</v>
+        <v>4/4/85</v>
       </c>
       <c r="G98" s="5">
         <v>27505</v>
@@ -12295,19 +12610,19 @@
     <row r="99" spans="1:7">
       <c r="A99">
         <f t="shared" ca="1" si="12"/>
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B99">
         <f t="shared" ca="1" si="13"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C99" s="27">
         <f t="shared" ca="1" si="14"/>
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E99" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>13/9/78</v>
+        <v>8/6/76</v>
       </c>
       <c r="G99" s="5">
         <v>27702</v>
@@ -12316,19 +12631,19 @@
     <row r="100" spans="1:7">
       <c r="A100">
         <f t="shared" ca="1" si="12"/>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B100">
         <f t="shared" ca="1" si="13"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C100" s="27">
         <f t="shared" ca="1" si="14"/>
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E100" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>16/5/84</v>
+        <v>13/12/80</v>
       </c>
       <c r="G100" s="5">
         <v>30232</v>
@@ -12337,19 +12652,19 @@
     <row r="101" spans="1:7">
       <c r="A101">
         <f t="shared" ca="1" si="12"/>
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B101">
         <f t="shared" ca="1" si="13"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C101" s="27">
         <f t="shared" ca="1" si="14"/>
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E101" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>29/8/77</v>
+        <v>20/2/78</v>
       </c>
       <c r="G101" s="5">
         <v>33100</v>
@@ -12358,7 +12673,7 @@
     <row r="102" spans="1:7">
       <c r="A102">
         <f t="shared" ca="1" si="12"/>
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B102">
         <f t="shared" ca="1" si="13"/>
@@ -12366,11 +12681,11 @@
       </c>
       <c r="C102" s="27">
         <f t="shared" ca="1" si="14"/>
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="E102" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>14/10/76</v>
+        <v>21/10/84</v>
       </c>
       <c r="G102" s="5">
         <v>30639</v>
@@ -12379,19 +12694,19 @@
     <row r="103" spans="1:7">
       <c r="A103">
         <f t="shared" ca="1" si="12"/>
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B103">
         <f t="shared" ca="1" si="13"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C103" s="27">
         <f t="shared" ca="1" si="14"/>
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E103" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>14/5/79</v>
+        <v>3/8/73</v>
       </c>
       <c r="G103" s="5">
         <v>26484</v>
@@ -12400,19 +12715,19 @@
     <row r="104" spans="1:7">
       <c r="A104">
         <f t="shared" ca="1" si="12"/>
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B104">
         <f t="shared" ca="1" si="13"/>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C104" s="27">
         <f t="shared" ca="1" si="14"/>
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="E104" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>24/12/75</v>
+        <v>21/6/92</v>
       </c>
       <c r="G104" s="5">
         <v>29785</v>
@@ -12425,15 +12740,15 @@
       </c>
       <c r="B105">
         <f t="shared" ca="1" si="13"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C105" s="27">
         <f t="shared" ca="1" si="14"/>
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="E105" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>7/4/75</v>
+        <v>7/2/84</v>
       </c>
       <c r="G105" s="5">
         <v>30729</v>
@@ -12442,7 +12757,7 @@
     <row r="106" spans="1:7">
       <c r="A106">
         <f t="shared" ca="1" si="12"/>
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B106">
         <f t="shared" ca="1" si="13"/>
@@ -12450,11 +12765,11 @@
       </c>
       <c r="C106" s="27">
         <f t="shared" ca="1" si="14"/>
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="E106" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>28/10/91</v>
+        <v>24/10/72</v>
       </c>
       <c r="G106" s="5">
         <v>33902</v>
@@ -12463,19 +12778,19 @@
     <row r="107" spans="1:7">
       <c r="A107">
         <f t="shared" ca="1" si="12"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B107">
         <f t="shared" ca="1" si="13"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" s="27">
         <f t="shared" ca="1" si="14"/>
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="E107" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>5/8/75</v>
+        <v>8/9/86</v>
       </c>
       <c r="G107" s="5">
         <v>27427</v>
@@ -12484,19 +12799,19 @@
     <row r="108" spans="1:7">
       <c r="A108">
         <f t="shared" ca="1" si="12"/>
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B108">
         <f t="shared" ca="1" si="13"/>
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C108" s="27">
         <f t="shared" ca="1" si="14"/>
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="E108" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>26/12/73</v>
+        <v>20/7/87</v>
       </c>
       <c r="G108" s="5">
         <v>25801</v>
@@ -12505,19 +12820,19 @@
     <row r="109" spans="1:7">
       <c r="A109">
         <f t="shared" ca="1" si="12"/>
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B109">
         <f t="shared" ca="1" si="13"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C109" s="27">
         <f t="shared" ca="1" si="14"/>
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E109" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>20/10/76</v>
+        <v>6/5/82</v>
       </c>
       <c r="G109" s="5">
         <v>26764</v>
@@ -12526,19 +12841,19 @@
     <row r="110" spans="1:7">
       <c r="A110">
         <f t="shared" ca="1" si="12"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B110">
         <f t="shared" ca="1" si="13"/>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C110" s="27">
         <f t="shared" ca="1" si="14"/>
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E110" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>2/12/78</v>
+        <v>6/8/82</v>
       </c>
       <c r="G110" s="5">
         <v>25640</v>
@@ -12547,19 +12862,19 @@
     <row r="111" spans="1:7">
       <c r="A111">
         <f t="shared" ca="1" si="12"/>
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B111">
         <f t="shared" ca="1" si="13"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C111" s="27">
         <f t="shared" ca="1" si="14"/>
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="E111" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>29/6/71</v>
+        <v>25/7/88</v>
       </c>
       <c r="G111" s="5">
         <v>29277</v>
@@ -12568,19 +12883,19 @@
     <row r="112" spans="1:7">
       <c r="A112">
         <f t="shared" ca="1" si="12"/>
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="B112">
         <f t="shared" ca="1" si="13"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C112" s="27">
         <f t="shared" ca="1" si="14"/>
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E112" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>6/7/88</v>
+        <v>26/9/81</v>
       </c>
       <c r="G112" s="5">
         <v>25748</v>
@@ -12589,19 +12904,19 @@
     <row r="113" spans="1:7">
       <c r="A113">
         <f t="shared" ca="1" si="12"/>
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="B113">
         <f t="shared" ca="1" si="13"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C113" s="27">
         <f t="shared" ca="1" si="14"/>
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E113" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>26/4/88</v>
+        <v>2/9/84</v>
       </c>
       <c r="G113" s="5">
         <v>31838</v>
@@ -12610,19 +12925,19 @@
     <row r="114" spans="1:7">
       <c r="A114">
         <f t="shared" ca="1" si="12"/>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B114">
         <f t="shared" ca="1" si="13"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C114" s="27">
         <f t="shared" ca="1" si="14"/>
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="E114" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>20/3/70</v>
+        <v>18/4/79</v>
       </c>
       <c r="G114" s="5">
         <v>32001</v>
@@ -12631,19 +12946,19 @@
     <row r="115" spans="1:7">
       <c r="A115">
         <f t="shared" ca="1" si="12"/>
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B115">
         <f t="shared" ca="1" si="13"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C115" s="27">
         <f t="shared" ca="1" si="14"/>
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E115" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>17/9/81</v>
+        <v>24/3/85</v>
       </c>
       <c r="G115" s="5">
         <v>32369</v>
@@ -12652,19 +12967,19 @@
     <row r="116" spans="1:7">
       <c r="A116">
         <f t="shared" ca="1" si="12"/>
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B116">
         <f t="shared" ca="1" si="13"/>
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C116" s="27">
         <f t="shared" ca="1" si="14"/>
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E116" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>12/1/87</v>
+        <v>2/12/82</v>
       </c>
       <c r="G116" s="5">
         <v>31236</v>
@@ -12673,11 +12988,11 @@
     <row r="117" spans="1:7">
       <c r="A117">
         <f t="shared" ca="1" si="12"/>
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B117">
         <f t="shared" ca="1" si="13"/>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C117" s="27">
         <f t="shared" ca="1" si="14"/>
@@ -12685,7 +13000,7 @@
       </c>
       <c r="E117" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>17/4/92</v>
+        <v>7/12/92</v>
       </c>
       <c r="G117" s="5">
         <v>34300</v>
@@ -12694,19 +13009,19 @@
     <row r="118" spans="1:7">
       <c r="A118">
         <f t="shared" ca="1" si="12"/>
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B118">
         <f t="shared" ca="1" si="13"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C118" s="27">
         <f t="shared" ca="1" si="14"/>
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E118" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>10/9/80</v>
+        <v>23/10/84</v>
       </c>
       <c r="G118" s="5">
         <v>32617</v>
@@ -12715,19 +13030,19 @@
     <row r="119" spans="1:7">
       <c r="A119">
         <f t="shared" ca="1" si="12"/>
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B119">
         <f t="shared" ca="1" si="13"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C119" s="27">
         <f t="shared" ca="1" si="14"/>
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E119" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>6/6/80</v>
+        <v>13/3/83</v>
       </c>
       <c r="G119" s="5">
         <v>33170</v>
@@ -12744,11 +13059,11 @@
       </c>
       <c r="C120" s="27">
         <f t="shared" ca="1" si="14"/>
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="E120" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>28/1/75</v>
+        <v>28/1/81</v>
       </c>
       <c r="G120" s="5">
         <v>28595</v>
@@ -12757,19 +13072,19 @@
     <row r="121" spans="1:7">
       <c r="A121">
         <f t="shared" ca="1" si="12"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B121">
         <f t="shared" ca="1" si="13"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C121" s="27">
         <f t="shared" ca="1" si="14"/>
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E121" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>5/1/77</v>
+        <v>10/2/87</v>
       </c>
       <c r="G121" s="5">
         <v>28306</v>
@@ -12778,19 +13093,19 @@
     <row r="122" spans="1:7">
       <c r="A122">
         <f t="shared" ca="1" si="12"/>
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B122">
         <f t="shared" ca="1" si="13"/>
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C122" s="27">
         <f t="shared" ca="1" si="14"/>
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="E122" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>11/11/92</v>
+        <v>2/4/84</v>
       </c>
       <c r="G122" s="5">
         <v>31172</v>
@@ -12799,11 +13114,11 @@
     <row r="123" spans="1:7">
       <c r="A123">
         <f t="shared" ca="1" si="12"/>
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B123">
         <f t="shared" ca="1" si="13"/>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C123" s="27">
         <f t="shared" ca="1" si="14"/>
@@ -12811,7 +13126,7 @@
       </c>
       <c r="E123" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>25/12/74</v>
+        <v>15/8/74</v>
       </c>
       <c r="G123" s="5">
         <v>27792</v>
@@ -12820,19 +13135,19 @@
     <row r="124" spans="1:7">
       <c r="A124">
         <f t="shared" ca="1" si="12"/>
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="B124">
         <f t="shared" ca="1" si="13"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C124" s="27">
         <f t="shared" ca="1" si="14"/>
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E124" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>8/5/86</v>
+        <v>24/7/85</v>
       </c>
       <c r="G124" s="5">
         <v>28157</v>
@@ -12841,7 +13156,7 @@
     <row r="125" spans="1:7">
       <c r="A125">
         <f t="shared" ca="1" si="12"/>
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B125">
         <f t="shared" ca="1" si="13"/>
@@ -12849,11 +13164,11 @@
       </c>
       <c r="C125" s="27">
         <f t="shared" ca="1" si="14"/>
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="E125" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>27/8/83</v>
+        <v>17/8/73</v>
       </c>
       <c r="G125" s="5">
         <v>29579</v>
@@ -12862,19 +13177,19 @@
     <row r="126" spans="1:7">
       <c r="A126">
         <f t="shared" ca="1" si="12"/>
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B126">
         <f t="shared" ca="1" si="13"/>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C126" s="27">
         <f t="shared" ca="1" si="14"/>
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E126" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>20/12/78</v>
+        <v>5/9/81</v>
       </c>
       <c r="G126" s="5">
         <v>29473</v>
@@ -12883,19 +13198,19 @@
     <row r="127" spans="1:7">
       <c r="A127">
         <f t="shared" ca="1" si="12"/>
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B127">
         <f t="shared" ca="1" si="13"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C127" s="27">
         <f t="shared" ca="1" si="14"/>
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E127" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>21/3/87</v>
+        <v>1/9/84</v>
       </c>
       <c r="G127" s="5">
         <v>31819</v>
@@ -12904,19 +13219,19 @@
     <row r="128" spans="1:7">
       <c r="A128">
         <f t="shared" ca="1" si="12"/>
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="B128">
         <f t="shared" ca="1" si="13"/>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C128" s="27">
         <f t="shared" ca="1" si="14"/>
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E128" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>4/10/84</v>
+        <v>27/3/89</v>
       </c>
       <c r="G128" s="5">
         <v>25628</v>
@@ -12925,19 +13240,19 @@
     <row r="129" spans="1:7">
       <c r="A129">
         <f t="shared" ref="A129:A160" ca="1" si="16">RANDBETWEEN(1,30)</f>
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="B129">
         <f t="shared" ref="B129:B160" ca="1" si="17">RANDBETWEEN(1,12)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C129" s="27">
         <f t="shared" ref="C129:C160" ca="1" si="18">RANDBETWEEN(70,93)</f>
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="E129" t="str">
         <f t="shared" ref="E129:E160" ca="1" si="19">A129&amp;"/"&amp;B129&amp;"/"&amp;C129</f>
-        <v>17/11/90</v>
+        <v>1/12/72</v>
       </c>
       <c r="G129" s="5">
         <v>29310</v>
@@ -12946,19 +13261,19 @@
     <row r="130" spans="1:7">
       <c r="A130">
         <f t="shared" ca="1" si="16"/>
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B130">
         <f t="shared" ca="1" si="17"/>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C130" s="27">
         <f t="shared" ca="1" si="18"/>
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="E130" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>25/11/72</v>
+        <v>22/1/87</v>
       </c>
       <c r="G130" s="5">
         <v>32393</v>
@@ -12967,19 +13282,19 @@
     <row r="131" spans="1:7">
       <c r="A131">
         <f t="shared" ca="1" si="16"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B131">
         <f t="shared" ca="1" si="17"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C131" s="27">
         <f t="shared" ca="1" si="18"/>
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="E131" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>8/2/87</v>
+        <v>12/4/78</v>
       </c>
       <c r="G131" s="5">
         <v>31743</v>
@@ -12988,19 +13303,19 @@
     <row r="132" spans="1:7">
       <c r="A132">
         <f t="shared" ca="1" si="16"/>
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B132">
         <f t="shared" ca="1" si="17"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C132" s="27">
         <f t="shared" ca="1" si="18"/>
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E132" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>28/4/70</v>
+        <v>24/1/72</v>
       </c>
       <c r="G132" s="5">
         <v>27936</v>
@@ -13009,7 +13324,7 @@
     <row r="133" spans="1:7">
       <c r="A133">
         <f t="shared" ca="1" si="16"/>
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B133">
         <f t="shared" ca="1" si="17"/>
@@ -13017,11 +13332,11 @@
       </c>
       <c r="C133" s="27">
         <f t="shared" ca="1" si="18"/>
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E133" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>11/6/92</v>
+        <v>29/6/86</v>
       </c>
       <c r="G133" s="5">
         <v>32416</v>
@@ -13030,19 +13345,19 @@
     <row r="134" spans="1:7">
       <c r="A134">
         <f t="shared" ca="1" si="16"/>
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B134">
         <f t="shared" ca="1" si="17"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C134" s="27">
         <f t="shared" ca="1" si="18"/>
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="E134" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>14/8/70</v>
+        <v>24/5/88</v>
       </c>
       <c r="G134" s="5">
         <v>32298</v>
@@ -13051,19 +13366,19 @@
     <row r="135" spans="1:7">
       <c r="A135">
         <f t="shared" ca="1" si="16"/>
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B135">
         <f t="shared" ca="1" si="17"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C135" s="27">
         <f t="shared" ca="1" si="18"/>
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="E135" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>13/8/88</v>
+        <v>26/11/73</v>
       </c>
       <c r="G135" s="5">
         <v>27022</v>
@@ -13072,19 +13387,19 @@
     <row r="136" spans="1:7">
       <c r="A136">
         <f t="shared" ca="1" si="16"/>
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B136">
         <f t="shared" ca="1" si="17"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C136" s="27">
         <f t="shared" ca="1" si="18"/>
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E136" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>7/6/81</v>
+        <v>19/7/86</v>
       </c>
       <c r="G136" s="5">
         <v>31335</v>
@@ -13093,19 +13408,19 @@
     <row r="137" spans="1:7">
       <c r="A137">
         <f t="shared" ca="1" si="16"/>
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="B137">
         <f t="shared" ca="1" si="17"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C137" s="27">
         <f t="shared" ca="1" si="18"/>
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="E137" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>26/1/86</v>
+        <v>9/6/93</v>
       </c>
       <c r="G137" s="5">
         <v>32857</v>
@@ -13114,19 +13429,19 @@
     <row r="138" spans="1:7">
       <c r="A138">
         <f t="shared" ca="1" si="16"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B138">
         <f t="shared" ca="1" si="17"/>
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C138" s="27">
         <f t="shared" ca="1" si="18"/>
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="E138" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>9/2/77</v>
+        <v>5/11/88</v>
       </c>
       <c r="G138" s="5">
         <v>28442</v>
@@ -13135,19 +13450,19 @@
     <row r="139" spans="1:7">
       <c r="A139">
         <f t="shared" ca="1" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B139">
         <f t="shared" ca="1" si="17"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C139" s="27">
         <f t="shared" ca="1" si="18"/>
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E139" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>5/9/77</v>
+        <v>6/11/73</v>
       </c>
       <c r="G139" s="5">
         <v>29329</v>
@@ -13156,19 +13471,19 @@
     <row r="140" spans="1:7">
       <c r="A140">
         <f t="shared" ca="1" si="16"/>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B140">
         <f t="shared" ca="1" si="17"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C140" s="27">
         <f t="shared" ca="1" si="18"/>
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E140" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>18/11/74</v>
+        <v>21/10/81</v>
       </c>
       <c r="G140" s="5">
         <v>31683</v>
@@ -13177,19 +13492,19 @@
     <row r="141" spans="1:7">
       <c r="A141">
         <f t="shared" ca="1" si="16"/>
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="B141">
         <f t="shared" ca="1" si="17"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C141" s="27">
         <f t="shared" ca="1" si="18"/>
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E141" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>29/5/71</v>
+        <v>4/3/70</v>
       </c>
       <c r="G141" s="5">
         <v>25654</v>
@@ -13198,19 +13513,19 @@
     <row r="142" spans="1:7">
       <c r="A142">
         <f t="shared" ca="1" si="16"/>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B142">
         <f t="shared" ca="1" si="17"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C142" s="27">
         <f t="shared" ca="1" si="18"/>
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E142" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>9/4/72</v>
+        <v>2/3/75</v>
       </c>
       <c r="G142" s="5">
         <v>31543</v>
@@ -13219,19 +13534,19 @@
     <row r="143" spans="1:7">
       <c r="A143">
         <f t="shared" ca="1" si="16"/>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B143">
         <f t="shared" ca="1" si="17"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C143" s="27">
         <f t="shared" ca="1" si="18"/>
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="E143" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>24/8/78</v>
+        <v>28/7/87</v>
       </c>
       <c r="G143" s="5">
         <v>28728</v>
@@ -13240,19 +13555,19 @@
     <row r="144" spans="1:7">
       <c r="A144">
         <f t="shared" ca="1" si="16"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B144">
         <f t="shared" ca="1" si="17"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C144" s="27">
         <f t="shared" ca="1" si="18"/>
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E144" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>29/8/76</v>
+        <v>30/2/78</v>
       </c>
       <c r="G144" s="5">
         <v>29483</v>
@@ -13261,19 +13576,19 @@
     <row r="145" spans="1:7">
       <c r="A145">
         <f t="shared" ca="1" si="16"/>
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B145">
         <f t="shared" ca="1" si="17"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C145" s="27">
         <f t="shared" ca="1" si="18"/>
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="E145" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>23/6/93</v>
+        <v>21/10/79</v>
       </c>
       <c r="G145" s="5">
         <v>29730</v>
@@ -13282,19 +13597,19 @@
     <row r="146" spans="1:7">
       <c r="A146">
         <f t="shared" ca="1" si="16"/>
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B146">
         <f t="shared" ca="1" si="17"/>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C146" s="27">
         <f t="shared" ca="1" si="18"/>
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="E146" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>27/6/70</v>
+        <v>14/12/88</v>
       </c>
       <c r="G146" s="5">
         <v>26411</v>
@@ -13303,19 +13618,19 @@
     <row r="147" spans="1:7">
       <c r="A147">
         <f t="shared" ca="1" si="16"/>
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B147">
         <f t="shared" ca="1" si="17"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C147" s="27">
         <f t="shared" ca="1" si="18"/>
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E147" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>13/3/86</v>
+        <v>20/6/82</v>
       </c>
       <c r="G147" s="5">
         <v>28884</v>
@@ -13324,7 +13639,7 @@
     <row r="148" spans="1:7">
       <c r="A148">
         <f t="shared" ca="1" si="16"/>
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B148">
         <f t="shared" ca="1" si="17"/>
@@ -13332,11 +13647,11 @@
       </c>
       <c r="C148" s="27">
         <f t="shared" ca="1" si="18"/>
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E148" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>26/7/92</v>
+        <v>19/7/93</v>
       </c>
       <c r="G148" s="5">
         <v>30182</v>
@@ -13345,11 +13660,11 @@
     <row r="149" spans="1:7">
       <c r="A149">
         <f t="shared" ca="1" si="16"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B149">
         <f t="shared" ca="1" si="17"/>
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C149" s="27">
         <f t="shared" ca="1" si="18"/>
@@ -13357,7 +13672,7 @@
       </c>
       <c r="E149" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>8/11/84</v>
+        <v>9/4/84</v>
       </c>
       <c r="G149" s="5">
         <v>29804</v>
@@ -13366,19 +13681,19 @@
     <row r="150" spans="1:7">
       <c r="A150">
         <f t="shared" ca="1" si="16"/>
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B150">
         <f t="shared" ca="1" si="17"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C150" s="27">
         <f t="shared" ca="1" si="18"/>
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E150" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>23/10/79</v>
+        <v>6/6/81</v>
       </c>
       <c r="G150" s="5">
         <v>28767</v>
@@ -13387,19 +13702,19 @@
     <row r="151" spans="1:7">
       <c r="A151">
         <f t="shared" ca="1" si="16"/>
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B151">
         <f t="shared" ca="1" si="17"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C151" s="27">
         <f t="shared" ca="1" si="18"/>
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="E151" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>2/5/73</v>
+        <v>13/2/85</v>
       </c>
       <c r="G151" s="5">
         <v>27555</v>
@@ -13408,19 +13723,19 @@
     <row r="152" spans="1:7">
       <c r="A152">
         <f t="shared" ca="1" si="16"/>
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B152">
         <f t="shared" ca="1" si="17"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C152" s="27">
         <f t="shared" ca="1" si="18"/>
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E152" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>11/5/79</v>
+        <v>25/2/81</v>
       </c>
       <c r="G152" s="5">
         <v>32111</v>
@@ -13429,19 +13744,19 @@
     <row r="153" spans="1:7">
       <c r="A153">
         <f t="shared" ca="1" si="16"/>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B153">
         <f t="shared" ca="1" si="17"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C153" s="27">
         <f t="shared" ca="1" si="18"/>
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E153" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>6/9/84</v>
+        <v>12/1/82</v>
       </c>
       <c r="G153" s="5">
         <v>31406</v>
@@ -13450,19 +13765,19 @@
     <row r="154" spans="1:7">
       <c r="A154">
         <f t="shared" ca="1" si="16"/>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B154">
         <f t="shared" ca="1" si="17"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C154" s="27">
         <f t="shared" ca="1" si="18"/>
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="E154" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>10/12/76</v>
+        <v>4/10/85</v>
       </c>
       <c r="G154" s="5">
         <v>26624</v>
@@ -13471,11 +13786,11 @@
     <row r="155" spans="1:7">
       <c r="A155">
         <f t="shared" ca="1" si="16"/>
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="B155">
         <f t="shared" ca="1" si="17"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C155" s="27">
         <f t="shared" ca="1" si="18"/>
@@ -13483,7 +13798,7 @@
       </c>
       <c r="E155" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>30/2/86</v>
+        <v>11/7/86</v>
       </c>
       <c r="G155" s="5">
         <v>27563</v>
@@ -13492,19 +13807,19 @@
     <row r="156" spans="1:7">
       <c r="A156">
         <f t="shared" ca="1" si="16"/>
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B156">
         <f t="shared" ca="1" si="17"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C156" s="27">
         <f t="shared" ca="1" si="18"/>
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E156" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>17/7/77</v>
+        <v>5/6/79</v>
       </c>
       <c r="G156" s="5">
         <v>27729</v>
@@ -13517,15 +13832,15 @@
       </c>
       <c r="B157">
         <f t="shared" ca="1" si="17"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C157" s="27">
         <f t="shared" ca="1" si="18"/>
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="E157" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>21/7/84</v>
+        <v>21/9/71</v>
       </c>
       <c r="G157" s="5">
         <v>30492</v>
@@ -13534,19 +13849,19 @@
     <row r="158" spans="1:7">
       <c r="A158">
         <f t="shared" ca="1" si="16"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B158">
         <f t="shared" ca="1" si="17"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C158" s="27">
         <f t="shared" ca="1" si="18"/>
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E158" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>15/3/78</v>
+        <v>21/2/79</v>
       </c>
       <c r="G158" s="5">
         <v>27897</v>
@@ -13555,19 +13870,19 @@
     <row r="159" spans="1:7">
       <c r="A159">
         <f t="shared" ca="1" si="16"/>
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B159">
         <f t="shared" ca="1" si="17"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C159" s="27">
         <f t="shared" ca="1" si="18"/>
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E159" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>24/9/81</v>
+        <v>21/3/83</v>
       </c>
       <c r="G159" s="5">
         <v>26835</v>
@@ -13576,19 +13891,19 @@
     <row r="160" spans="1:7">
       <c r="A160">
         <f t="shared" ca="1" si="16"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B160">
         <f t="shared" ca="1" si="17"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C160" s="27">
         <f t="shared" ca="1" si="18"/>
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="E160" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>17/2/78</v>
+        <v>16/9/88</v>
       </c>
       <c r="G160" s="5">
         <v>28291</v>
@@ -13597,19 +13912,19 @@
     <row r="161" spans="1:7">
       <c r="A161">
         <f t="shared" ref="A161:A194" ca="1" si="20">RANDBETWEEN(1,30)</f>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B161">
         <f t="shared" ref="B161:B194" ca="1" si="21">RANDBETWEEN(1,12)</f>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C161" s="27">
         <f t="shared" ref="C161:C194" ca="1" si="22">RANDBETWEEN(70,93)</f>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E161" t="str">
         <f t="shared" ref="E161:E194" ca="1" si="23">A161&amp;"/"&amp;B161&amp;"/"&amp;C161</f>
-        <v>14/10/75</v>
+        <v>12/6/80</v>
       </c>
       <c r="G161" s="5">
         <v>30777</v>
@@ -13618,19 +13933,19 @@
     <row r="162" spans="1:7">
       <c r="A162">
         <f t="shared" ca="1" si="20"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B162">
         <f t="shared" ca="1" si="21"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C162" s="27">
         <f t="shared" ca="1" si="22"/>
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="E162" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>10/12/81</v>
+        <v>13/10/72</v>
       </c>
       <c r="G162" s="5">
         <v>26691</v>
@@ -13639,19 +13954,19 @@
     <row r="163" spans="1:7">
       <c r="A163">
         <f t="shared" ca="1" si="20"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B163">
         <f t="shared" ca="1" si="21"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C163" s="27">
         <f t="shared" ca="1" si="22"/>
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E163" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>2/3/71</v>
+        <v>4/2/76</v>
       </c>
       <c r="G163" s="5">
         <v>31786</v>
@@ -13660,19 +13975,19 @@
     <row r="164" spans="1:7">
       <c r="A164">
         <f t="shared" ca="1" si="20"/>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B164">
         <f t="shared" ca="1" si="21"/>
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C164" s="27">
         <f t="shared" ca="1" si="22"/>
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="E164" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>17/11/84</v>
+        <v>20/6/70</v>
       </c>
       <c r="G164" s="5">
         <v>27343</v>
@@ -13681,19 +13996,19 @@
     <row r="165" spans="1:7">
       <c r="A165">
         <f t="shared" ca="1" si="20"/>
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="B165">
         <f t="shared" ca="1" si="21"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C165" s="27">
         <f t="shared" ca="1" si="22"/>
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="E165" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>23/4/81</v>
+        <v>4/10/73</v>
       </c>
       <c r="G165" s="5">
         <v>33197</v>
@@ -13702,19 +14017,19 @@
     <row r="166" spans="1:7">
       <c r="A166">
         <f t="shared" ca="1" si="20"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B166">
         <f t="shared" ca="1" si="21"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C166" s="27">
         <f t="shared" ca="1" si="22"/>
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E166" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>5/8/89</v>
+        <v>2/4/92</v>
       </c>
       <c r="G166" s="5">
         <v>28501</v>
@@ -13723,19 +14038,19 @@
     <row r="167" spans="1:7">
       <c r="A167">
         <f t="shared" ca="1" si="20"/>
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B167">
         <f t="shared" ca="1" si="21"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C167" s="27">
         <f t="shared" ca="1" si="22"/>
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="E167" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>19/9/92</v>
+        <v>15/6/77</v>
       </c>
       <c r="G167" s="5">
         <v>30369</v>
@@ -13744,19 +14059,19 @@
     <row r="168" spans="1:7">
       <c r="A168">
         <f t="shared" ca="1" si="20"/>
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B168">
         <f t="shared" ca="1" si="21"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C168" s="27">
         <f t="shared" ca="1" si="22"/>
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="E168" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>30/8/76</v>
+        <v>18/9/93</v>
       </c>
       <c r="G168" s="5">
         <v>25917</v>
@@ -13765,11 +14080,11 @@
     <row r="169" spans="1:7">
       <c r="A169">
         <f t="shared" ca="1" si="20"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B169">
         <f t="shared" ca="1" si="21"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C169" s="27">
         <f t="shared" ca="1" si="22"/>
@@ -13777,7 +14092,7 @@
       </c>
       <c r="E169" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>19/4/70</v>
+        <v>18/5/70</v>
       </c>
       <c r="G169" s="5">
         <v>30546</v>
@@ -13786,19 +14101,19 @@
     <row r="170" spans="1:7">
       <c r="A170">
         <f t="shared" ca="1" si="20"/>
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B170">
         <f t="shared" ca="1" si="21"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C170" s="27">
         <f t="shared" ca="1" si="22"/>
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="E170" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>11/3/89</v>
+        <v>20/9/77</v>
       </c>
       <c r="G170" s="5">
         <v>34329</v>
@@ -13807,19 +14122,19 @@
     <row r="171" spans="1:7">
       <c r="A171">
         <f t="shared" ca="1" si="20"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B171">
         <f t="shared" ca="1" si="21"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C171" s="27">
         <f t="shared" ca="1" si="22"/>
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E171" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>18/1/81</v>
+        <v>20/3/82</v>
       </c>
       <c r="G171" s="5">
         <v>32035</v>
@@ -13828,19 +14143,19 @@
     <row r="172" spans="1:7">
       <c r="A172">
         <f t="shared" ca="1" si="20"/>
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B172">
         <f t="shared" ca="1" si="21"/>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C172" s="27">
         <f t="shared" ca="1" si="22"/>
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E172" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>28/12/93</v>
+        <v>17/8/88</v>
       </c>
       <c r="G172" s="5">
         <v>31423</v>
@@ -13849,7 +14164,7 @@
     <row r="173" spans="1:7">
       <c r="A173">
         <f t="shared" ca="1" si="20"/>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="B173">
         <f t="shared" ca="1" si="21"/>
@@ -13857,11 +14172,11 @@
       </c>
       <c r="C173" s="27">
         <f t="shared" ca="1" si="22"/>
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E173" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>10/12/92</v>
+        <v>30/12/85</v>
       </c>
       <c r="G173" s="5">
         <v>27299</v>
@@ -13870,19 +14185,19 @@
     <row r="174" spans="1:7">
       <c r="A174">
         <f t="shared" ca="1" si="20"/>
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B174">
         <f t="shared" ca="1" si="21"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C174" s="27">
         <f t="shared" ca="1" si="22"/>
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E174" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>30/7/79</v>
+        <v>24/2/81</v>
       </c>
       <c r="G174" s="5">
         <v>33516</v>
@@ -13891,19 +14206,19 @@
     <row r="175" spans="1:7">
       <c r="A175">
         <f t="shared" ca="1" si="20"/>
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B175">
         <f t="shared" ca="1" si="21"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C175" s="27">
         <f t="shared" ca="1" si="22"/>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E175" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>25/10/75</v>
+        <v>29/7/80</v>
       </c>
       <c r="G175" s="5">
         <v>30249</v>
@@ -13912,19 +14227,19 @@
     <row r="176" spans="1:7">
       <c r="A176">
         <f t="shared" ca="1" si="20"/>
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B176">
         <f t="shared" ca="1" si="21"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C176" s="27">
         <f t="shared" ca="1" si="22"/>
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="E176" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>23/5/85</v>
+        <v>6/7/74</v>
       </c>
       <c r="G176" s="5">
         <v>26686</v>
@@ -13933,19 +14248,19 @@
     <row r="177" spans="1:7">
       <c r="A177">
         <f t="shared" ca="1" si="20"/>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B177">
         <f t="shared" ca="1" si="21"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C177" s="27">
         <f t="shared" ca="1" si="22"/>
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E177" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>12/3/74</v>
+        <v>8/1/79</v>
       </c>
       <c r="G177" s="5">
         <v>27163</v>
@@ -13954,19 +14269,19 @@
     <row r="178" spans="1:7">
       <c r="A178">
         <f t="shared" ca="1" si="20"/>
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="B178">
         <f t="shared" ca="1" si="21"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C178" s="27">
         <f t="shared" ca="1" si="22"/>
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="E178" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>28/10/93</v>
+        <v>1/1/83</v>
       </c>
       <c r="G178" s="5">
         <v>30281</v>
@@ -13975,19 +14290,19 @@
     <row r="179" spans="1:7">
       <c r="A179">
         <f t="shared" ca="1" si="20"/>
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B179">
         <f t="shared" ca="1" si="21"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C179" s="27">
         <f t="shared" ca="1" si="22"/>
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="E179" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>6/3/73</v>
+        <v>14/10/81</v>
       </c>
       <c r="G179" s="5">
         <v>34131</v>
@@ -13996,19 +14311,19 @@
     <row r="180" spans="1:7">
       <c r="A180">
         <f t="shared" ca="1" si="20"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B180">
         <f t="shared" ca="1" si="21"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C180" s="27">
         <f t="shared" ca="1" si="22"/>
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E180" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>1/9/80</v>
+        <v>5/3/75</v>
       </c>
       <c r="G180" s="5">
         <v>29970</v>
@@ -14017,19 +14332,19 @@
     <row r="181" spans="1:7">
       <c r="A181">
         <f t="shared" ca="1" si="20"/>
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B181">
         <f t="shared" ca="1" si="21"/>
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C181" s="27">
         <f t="shared" ca="1" si="22"/>
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="E181" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>21/12/87</v>
+        <v>16/4/71</v>
       </c>
       <c r="G181" s="5">
         <v>26978</v>
@@ -14038,19 +14353,19 @@
     <row r="182" spans="1:7">
       <c r="A182">
         <f t="shared" ca="1" si="20"/>
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B182">
         <f t="shared" ca="1" si="21"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C182" s="27">
         <f t="shared" ca="1" si="22"/>
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="E182" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>23/7/71</v>
+        <v>5/12/78</v>
       </c>
       <c r="G182" s="5">
         <v>31226</v>
@@ -14059,19 +14374,19 @@
     <row r="183" spans="1:7">
       <c r="A183">
         <f t="shared" ca="1" si="20"/>
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B183">
         <f t="shared" ca="1" si="21"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C183" s="27">
         <f t="shared" ca="1" si="22"/>
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="E183" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>30/7/77</v>
+        <v>21/5/82</v>
       </c>
       <c r="G183" s="5">
         <v>33121</v>
@@ -14080,19 +14395,19 @@
     <row r="184" spans="1:7">
       <c r="A184">
         <f t="shared" ca="1" si="20"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B184">
         <f t="shared" ca="1" si="21"/>
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C184" s="27">
         <f t="shared" ca="1" si="22"/>
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="E184" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>5/11/89</v>
+        <v>9/2/81</v>
       </c>
       <c r="G184" s="5">
         <v>26516</v>
@@ -14101,19 +14416,19 @@
     <row r="185" spans="1:7">
       <c r="A185">
         <f t="shared" ca="1" si="20"/>
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B185">
         <f t="shared" ca="1" si="21"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C185" s="27">
         <f t="shared" ca="1" si="22"/>
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="E185" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>20/3/80</v>
+        <v>26/8/93</v>
       </c>
       <c r="G185" s="5">
         <v>28362</v>
@@ -14122,19 +14437,19 @@
     <row r="186" spans="1:7">
       <c r="A186">
         <f t="shared" ca="1" si="20"/>
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B186">
         <f t="shared" ca="1" si="21"/>
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C186" s="27">
         <f t="shared" ca="1" si="22"/>
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E186" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>14/12/80</v>
+        <v>3/5/71</v>
       </c>
       <c r="G186" s="5">
         <v>30190</v>
@@ -14143,19 +14458,19 @@
     <row r="187" spans="1:7">
       <c r="A187">
         <f t="shared" ca="1" si="20"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B187">
         <f t="shared" ca="1" si="21"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C187" s="27">
         <f t="shared" ca="1" si="22"/>
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="E187" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>18/3/88</v>
+        <v>17/6/72</v>
       </c>
       <c r="G187" s="5">
         <v>33543</v>
@@ -14164,19 +14479,19 @@
     <row r="188" spans="1:7">
       <c r="A188">
         <f t="shared" ca="1" si="20"/>
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="B188">
         <f t="shared" ca="1" si="21"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C188" s="27">
         <f t="shared" ca="1" si="22"/>
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="E188" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>5/3/74</v>
+        <v>27/1/82</v>
       </c>
       <c r="G188" s="5">
         <v>28251</v>
@@ -14185,19 +14500,19 @@
     <row r="189" spans="1:7">
       <c r="A189">
         <f t="shared" ca="1" si="20"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B189">
         <f t="shared" ca="1" si="21"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C189" s="27">
         <f t="shared" ca="1" si="22"/>
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="E189" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>2/10/80</v>
+        <v>6/5/86</v>
       </c>
       <c r="G189" s="5">
         <v>29225</v>
@@ -14206,19 +14521,19 @@
     <row r="190" spans="1:7">
       <c r="A190">
         <f t="shared" ca="1" si="20"/>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B190">
         <f t="shared" ca="1" si="21"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C190" s="27">
         <f t="shared" ca="1" si="22"/>
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E190" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>20/4/84</v>
+        <v>18/2/82</v>
       </c>
       <c r="G190" s="5">
         <v>27257</v>
@@ -14227,19 +14542,19 @@
     <row r="191" spans="1:7">
       <c r="A191">
         <f t="shared" ca="1" si="20"/>
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B191">
         <f t="shared" ca="1" si="21"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C191" s="27">
         <f t="shared" ca="1" si="22"/>
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="E191" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>24/10/92</v>
+        <v>13/11/80</v>
       </c>
       <c r="G191" s="5">
         <v>28465</v>
@@ -14248,11 +14563,11 @@
     <row r="192" spans="1:7">
       <c r="A192">
         <f t="shared" ca="1" si="20"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B192">
         <f t="shared" ca="1" si="21"/>
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C192" s="27">
         <f t="shared" ca="1" si="22"/>
@@ -14260,7 +14575,7 @@
       </c>
       <c r="E192" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>21/1/90</v>
+        <v>20/12/90</v>
       </c>
       <c r="G192" s="5">
         <v>30166</v>
@@ -14269,19 +14584,19 @@
     <row r="193" spans="1:7">
       <c r="A193">
         <f t="shared" ca="1" si="20"/>
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B193">
         <f t="shared" ca="1" si="21"/>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C193" s="27">
         <f t="shared" ca="1" si="22"/>
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="E193" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>21/12/93</v>
+        <v>11/9/70</v>
       </c>
       <c r="G193" s="5">
         <v>30343</v>
@@ -14290,19 +14605,19 @@
     <row r="194" spans="1:7">
       <c r="A194">
         <f t="shared" ca="1" si="20"/>
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B194">
         <f t="shared" ca="1" si="21"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C194" s="27">
         <f t="shared" ca="1" si="22"/>
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="E194" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>21/1/73</v>
+        <v>7/9/90</v>
       </c>
       <c r="G194" s="5">
         <v>29515</v>
@@ -14329,40 +14644,40 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="3" spans="2:17" ht="18">
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="48" t="s">
         <v>243</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="47"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="48"/>
+      <c r="Q3" s="48"/>
     </row>
     <row r="4" spans="2:17">
       <c r="B4" s="8"/>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="50" t="s">
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="2:17">
       <c r="B5" s="1" t="s">
@@ -14478,40 +14793,40 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="18">
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="48" t="s">
         <v>242</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="47"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="48"/>
+      <c r="Q3" s="48"/>
     </row>
     <row r="4" spans="1:17">
       <c r="B4" s="8"/>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="50" t="s">
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
@@ -14632,23 +14947,23 @@
   </cols>
   <sheetData>
     <row r="3" spans="5:19">
-      <c r="E3" s="48" t="s">
+      <c r="E3" s="49" t="s">
         <v>178</v>
       </c>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="48"/>
-      <c r="O3" s="48"/>
-      <c r="P3" s="48"/>
-      <c r="Q3" s="48"/>
-      <c r="R3" s="48"/>
-      <c r="S3" s="48"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="49"/>
+      <c r="S3" s="49"/>
     </row>
     <row r="4" spans="5:19">
       <c r="E4" s="1" t="s">
@@ -14726,11 +15041,11 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="3" spans="2:4">
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="49" t="s">
         <v>175</v>
       </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
     </row>
     <row r="4" spans="2:4">
       <c r="B4" s="21" t="s">
@@ -14791,39 +15106,39 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="3" spans="1:16" ht="18">
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="48"/>
     </row>
     <row r="4" spans="1:16">
       <c r="B4" s="8"/>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="50" t="s">
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:16">
       <c r="B5" s="1" t="s">
@@ -14963,10 +15278,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:P6"/>
+  <dimension ref="B3:P17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:P6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -14978,39 +15293,39 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:16" ht="18">
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="48"/>
     </row>
     <row r="4" spans="2:16">
       <c r="B4" s="8"/>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="50" t="s">
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="2:16">
       <c r="B5" s="1" t="s">
@@ -15075,8 +15390,297 @@
       <c r="M6" s="13">
         <v>1941</v>
       </c>
-      <c r="P6" s="13" t="s">
+      <c r="O6" s="13" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16">
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>724</v>
+      </c>
+      <c r="E7" t="s">
+        <v>725</v>
+      </c>
+      <c r="L7" t="s">
+        <v>43</v>
+      </c>
+      <c r="M7" s="59" t="s">
+        <v>726</v>
+      </c>
+      <c r="N7" s="59" t="s">
+        <v>727</v>
+      </c>
+      <c r="O7" t="s">
+        <v>728</v>
+      </c>
+      <c r="P7" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16">
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>730</v>
+      </c>
+      <c r="E8" t="s">
+        <v>731</v>
+      </c>
+      <c r="L8" t="s">
+        <v>43</v>
+      </c>
+      <c r="M8" s="59" t="s">
+        <v>732</v>
+      </c>
+      <c r="N8" s="60" t="s">
+        <v>733</v>
+      </c>
+      <c r="O8" t="s">
+        <v>734</v>
+      </c>
+      <c r="P8" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16">
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>735</v>
+      </c>
+      <c r="E9" t="s">
+        <v>736</v>
+      </c>
+      <c r="L9" t="s">
+        <v>43</v>
+      </c>
+      <c r="M9" s="59" t="s">
+        <v>737</v>
+      </c>
+      <c r="N9" s="60" t="s">
+        <v>738</v>
+      </c>
+      <c r="O9" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="P9" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16">
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>740</v>
+      </c>
+      <c r="E10" t="s">
+        <v>741</v>
+      </c>
+      <c r="L10" t="s">
+        <v>742</v>
+      </c>
+      <c r="M10" s="61" t="s">
+        <v>743</v>
+      </c>
+      <c r="N10" s="60" t="s">
+        <v>744</v>
+      </c>
+      <c r="O10" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="P10" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16">
+      <c r="B11">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>746</v>
+      </c>
+      <c r="E11" t="s">
+        <v>747</v>
+      </c>
+      <c r="L11" t="s">
+        <v>742</v>
+      </c>
+      <c r="M11" s="62" t="s">
+        <v>748</v>
+      </c>
+      <c r="N11" s="60" t="s">
+        <v>749</v>
+      </c>
+      <c r="O11" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="P11" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16">
+      <c r="B12">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>751</v>
+      </c>
+      <c r="E12" t="s">
+        <v>752</v>
+      </c>
+      <c r="L12" t="s">
+        <v>43</v>
+      </c>
+      <c r="M12" s="59">
+        <v>1973</v>
+      </c>
+      <c r="N12" s="60" t="s">
+        <v>753</v>
+      </c>
+      <c r="O12" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="P12" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16">
+      <c r="B13">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>755</v>
+      </c>
+      <c r="E13" t="s">
+        <v>756</v>
+      </c>
+      <c r="L13" t="s">
+        <v>43</v>
+      </c>
+      <c r="M13" s="63" t="s">
+        <v>757</v>
+      </c>
+      <c r="N13" s="60" t="s">
+        <v>758</v>
+      </c>
+      <c r="O13" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="P13" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16">
+      <c r="B14">
+        <v>9</v>
+      </c>
+      <c r="C14" s="59" t="s">
+        <v>760</v>
+      </c>
+      <c r="E14" t="s">
+        <v>761</v>
+      </c>
+      <c r="L14" t="s">
+        <v>43</v>
+      </c>
+      <c r="M14" s="62" t="s">
+        <v>762</v>
+      </c>
+      <c r="N14" s="60" t="s">
+        <v>763</v>
+      </c>
+      <c r="O14" t="s">
+        <v>734</v>
+      </c>
+      <c r="P14" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16">
+      <c r="B15">
+        <v>10</v>
+      </c>
+      <c r="C15" s="59" t="s">
+        <v>765</v>
+      </c>
+      <c r="E15" t="s">
+        <v>766</v>
+      </c>
+      <c r="L15" t="s">
+        <v>43</v>
+      </c>
+      <c r="M15" s="64">
+        <v>23133</v>
+      </c>
+      <c r="N15" s="60" t="s">
+        <v>767</v>
+      </c>
+      <c r="O15" t="s">
+        <v>768</v>
+      </c>
+      <c r="P15" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16">
+      <c r="B16">
+        <v>11</v>
+      </c>
+      <c r="C16" s="59" t="s">
+        <v>770</v>
+      </c>
+      <c r="E16" t="s">
+        <v>771</v>
+      </c>
+      <c r="L16" t="s">
+        <v>43</v>
+      </c>
+      <c r="M16" s="59" t="s">
+        <v>772</v>
+      </c>
+      <c r="N16" s="60" t="s">
+        <v>773</v>
+      </c>
+      <c r="O16" t="s">
+        <v>774</v>
+      </c>
+      <c r="P16" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16">
+      <c r="B17">
+        <v>12</v>
+      </c>
+      <c r="C17" s="63" t="s">
+        <v>776</v>
+      </c>
+      <c r="D17" t="s">
+        <v>777</v>
+      </c>
+      <c r="E17" t="s">
+        <v>778</v>
+      </c>
+      <c r="L17" t="s">
+        <v>43</v>
+      </c>
+      <c r="M17" s="59" t="s">
+        <v>779</v>
+      </c>
+      <c r="N17" s="60" t="s">
+        <v>780</v>
+      </c>
+      <c r="O17" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="P17" s="65" t="s">
+        <v>781</v>
       </c>
     </row>
   </sheetData>
@@ -15086,7 +15690,6 @@
     <mergeCell ref="G4:K4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -15110,16 +15713,16 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:9" ht="18">
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="7" t="s">
@@ -15229,40 +15832,40 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:17" ht="18">
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="47"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="48"/>
+      <c r="Q3" s="48"/>
     </row>
     <row r="4" spans="2:17">
       <c r="B4" s="8"/>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="50" t="s">
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="2:17">
       <c r="B5" s="1" t="s">
@@ -15366,13 +15969,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6">
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="7" t="s">
@@ -15967,15 +16570,15 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:8">
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="49" t="s">
         <v>107</v>
       </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
     </row>
     <row r="4" spans="2:8">
       <c r="B4" s="1" t="s">
@@ -16139,40 +16742,40 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:19" ht="18">
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="48" t="s">
         <v>123</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="47"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="48"/>
+      <c r="Q3" s="48"/>
     </row>
     <row r="4" spans="1:19">
       <c r="B4" s="8"/>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="50" t="s">
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:19">
       <c r="B5" s="1" t="s">
